--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D53" authorId="0">
+    <comment ref="D48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0">
+    <comment ref="D50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>ACTIVE 1</t>
   </si>
@@ -249,18 +249,6 @@
     <t>BATT LOW</t>
   </si>
   <si>
-    <t>ACC INT 1</t>
-  </si>
-  <si>
-    <t>ACC INT 2</t>
-  </si>
-  <si>
-    <t>SENS 1</t>
-  </si>
-  <si>
-    <t>SENS 2</t>
-  </si>
-  <si>
     <t>INT ON/OFF</t>
   </si>
   <si>
@@ -315,9 +303,6 @@
     <t>Metric/Standard</t>
   </si>
   <si>
-    <t>ACC other</t>
-  </si>
-  <si>
     <t>Geo data format</t>
   </si>
   <si>
@@ -373,6 +358,51 @@
   </si>
   <si>
     <t>RESET3</t>
+  </si>
+  <si>
+    <t>BMA - 0x10</t>
+  </si>
+  <si>
+    <t>BMA - 0x11</t>
+  </si>
+  <si>
+    <t>BMA - 0x0F</t>
+  </si>
+  <si>
+    <t>BMA - 0x16</t>
+  </si>
+  <si>
+    <t>BMA - 0x17</t>
+  </si>
+  <si>
+    <t>BMA - 0x19</t>
+  </si>
+  <si>
+    <t>BMA - 0x1B</t>
+  </si>
+  <si>
+    <t>BMA - 0x20</t>
+  </si>
+  <si>
+    <t>BMA - 0x21</t>
+  </si>
+  <si>
+    <t>BMA - 0x25</t>
+  </si>
+  <si>
+    <t>BMA - 0x26</t>
+  </si>
+  <si>
+    <t>BMA - 0x27</t>
+  </si>
+  <si>
+    <t>BMA - 0x28</t>
+  </si>
+  <si>
+    <t>BMA - 0x1A</t>
+  </si>
+  <si>
+    <t>Speed Message</t>
   </si>
 </sst>
 </file>
@@ -534,8 +564,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,21 +576,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -569,12 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,27 +902,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="V1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
+      <c r="B2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -903,14 +933,14 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>63</v>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>67</v>
+      <c r="H2" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="I2">
         <v>400</v>
@@ -931,7 +961,7 @@
         <v>900</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -942,24 +972,24 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="10"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="5"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="5"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
@@ -985,7 +1015,7 @@
         <v>901</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -996,7 +1026,7 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="10"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
@@ -1008,12 +1038,12 @@
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="5"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="5"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
@@ -1050,24 +1080,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="10"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="5"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="5"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
@@ -1104,22 +1134,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="10"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="9"/>
       <c r="E6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="5"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="5"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
@@ -1156,24 +1186,24 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>35</v>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="9"/>
       <c r="E7">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="5"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="5"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
@@ -1199,7 +1229,7 @@
         <v>905</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="X7">
         <v>5</v>
@@ -1210,22 +1240,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="13"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="8"/>
       <c r="E8">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="5"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="5"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
@@ -1251,7 +1281,7 @@
         <v>906</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="X8">
         <v>6</v>
@@ -1262,24 +1292,24 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="13"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="5"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="5"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
@@ -1305,7 +1335,7 @@
         <v>907</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X9">
         <v>7</v>
@@ -1316,22 +1346,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="12"/>
       <c r="E10">
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="5"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="5"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
@@ -1362,22 +1392,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="12"/>
       <c r="E11">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="5"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="5"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
@@ -1408,22 +1438,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="13"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="12"/>
       <c r="E12">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="5"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="5"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
@@ -1449,7 +1479,7 @@
         <v>910</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1457,24 +1487,24 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="13"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="5"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="5"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
@@ -1500,7 +1530,7 @@
         <v>911</v>
       </c>
       <c r="V13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1508,22 +1538,22 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="13"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="12"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="5"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="5"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
@@ -1549,7 +1579,7 @@
         <v>912</v>
       </c>
       <c r="V14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1557,22 +1587,22 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="13"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="12"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="5"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="5"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
@@ -1598,7 +1628,7 @@
         <v>913</v>
       </c>
       <c r="V15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1606,22 +1636,22 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="13"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="12"/>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="5"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="5"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
@@ -1647,7 +1677,7 @@
         <v>914</v>
       </c>
       <c r="V16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1655,7 +1685,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="13"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -1667,12 +1697,12 @@
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="5"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="5"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
@@ -1703,24 +1733,24 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="13"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="5"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="5"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
@@ -1751,7 +1781,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="13"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -1763,12 +1793,12 @@
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="5"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="5"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
@@ -1799,24 +1829,24 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="13"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="5"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="5"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
@@ -1847,22 +1877,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="13"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="17"/>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="5"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="5"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
@@ -1893,22 +1923,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="13"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="18"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="5"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="5"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
@@ -1939,22 +1969,22 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="13"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="19"/>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="5"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="5"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
@@ -1985,24 +2015,24 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="13"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="5"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="5"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
@@ -2033,22 +2063,22 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="13"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="15"/>
       <c r="E25">
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="5"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="5"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
@@ -2079,22 +2109,22 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="13"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="15"/>
       <c r="E26">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="5"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="5"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
@@ -2125,22 +2155,25 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="13"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="15"/>
       <c r="E27">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>64</v>
+      <c r="F27" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
@@ -2172,23 +2205,24 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="5"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
+      <c r="H28" s="5"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
@@ -2219,21 +2253,22 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="15"/>
       <c r="E29">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="5"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
+      <c r="H29" s="5"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
@@ -2264,21 +2299,22 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="15"/>
       <c r="E30">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="5"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
+      <c r="H30" s="5"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
@@ -2309,21 +2345,22 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="15"/>
       <c r="E31">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="5"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
+      <c r="H31" s="5"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
@@ -2354,7 +2391,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -2366,11 +2403,12 @@
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="5"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
+      <c r="H32" s="5"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
@@ -2401,23 +2439,24 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="14"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="19"/>
+      <c r="F33" s="5"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
+      <c r="H33" s="5"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
@@ -2448,7 +2487,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="14"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -2460,11 +2499,12 @@
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="5"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
+      <c r="H34" s="5"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
@@ -2495,23 +2535,24 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="14"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="5"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
+      <c r="H35" s="5"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
@@ -2542,21 +2583,22 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="9"/>
       <c r="E36">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="5"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
+      <c r="H36" s="5"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
@@ -2587,21 +2629,22 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="14"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="9"/>
       <c r="E37">
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="5"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
+      <c r="H37" s="5"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
@@ -2632,21 +2675,22 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="8"/>
       <c r="E38">
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="19"/>
+      <c r="F38" s="5"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
+      <c r="H38" s="5"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
@@ -2677,23 +2721,24 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="14"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="19"/>
+      <c r="F39" s="5"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
+      <c r="H39" s="5"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
@@ -2724,21 +2769,22 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="D40" s="18"/>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="5"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
+      <c r="H40" s="5"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
@@ -2769,21 +2815,22 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="18"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="5"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
+      <c r="H41" s="5"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
@@ -2814,21 +2861,22 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="14"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="19"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="5"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
+      <c r="H42" s="5"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
@@ -2859,23 +2907,24 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="14"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="19"/>
+      <c r="F43" s="5"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
+      <c r="H43" s="5"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
@@ -2906,21 +2955,22 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="14"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="19"/>
+      <c r="F44" s="5"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
+      <c r="H44" s="5"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
@@ -2951,21 +3001,22 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="7"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="19"/>
+      <c r="F45" s="5"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
+      <c r="H45" s="5"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
@@ -2996,23 +3047,24 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>36</v>
+      <c r="B46" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="D46" s="11"/>
+      <c r="D46" s="8"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="19"/>
+      <c r="F46" s="5"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
+      <c r="H46" s="5"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
@@ -3043,23 +3095,24 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="11"/>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="19"/>
+      <c r="F47" s="5"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
+      <c r="H47" s="5"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
@@ -3090,23 +3143,24 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="11"/>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="19"/>
+      <c r="F48" s="5"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
+      <c r="H48" s="5"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
@@ -3137,23 +3191,24 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="11"/>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="19"/>
+      <c r="F49" s="5"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
+      <c r="H49" s="5"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
@@ -3184,23 +3239,24 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="11"/>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="19"/>
+      <c r="F50" s="5"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
+      <c r="H50" s="5"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
@@ -3231,23 +3287,24 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="11"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="19"/>
+      <c r="F51" s="5"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
+      <c r="H51" s="5"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
@@ -3278,20 +3335,20 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="11"/>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>65</v>
+      <c r="F52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
@@ -3327,19 +3384,19 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="11"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="19"/>
+      <c r="F53" s="5"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -3374,19 +3431,19 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="11"/>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>48</v>
+      <c r="D54" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="19"/>
+      <c r="F54" s="5"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
@@ -3421,19 +3478,19 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="11"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>49</v>
+      <c r="D55" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="19"/>
+      <c r="F55" s="5"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
@@ -3468,19 +3525,19 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="11"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>50</v>
+      <c r="D56" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="19"/>
+      <c r="F56" s="5"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
@@ -3515,19 +3572,19 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="11"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>52</v>
+      <c r="D57" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="19"/>
+      <c r="F57" s="5"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -3562,19 +3619,19 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="11"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>53</v>
+      <c r="D58" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="19"/>
+      <c r="F58" s="5"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -3609,19 +3666,19 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="11"/>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>54</v>
+      <c r="D59" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="19"/>
+      <c r="F59" s="5"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -3656,19 +3713,19 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="11"/>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>55</v>
+      <c r="D60" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="19"/>
+      <c r="F60" s="5"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -3703,19 +3760,19 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="11"/>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>56</v>
+      <c r="D61" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="19"/>
+      <c r="F61" s="5"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -3750,19 +3807,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="11"/>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>59</v>
+      <c r="D62" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="19"/>
+      <c r="F62" s="5"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -3797,19 +3854,19 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="11"/>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>62</v>
+      <c r="D63" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="19"/>
+      <c r="F63" s="5"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -3844,16 +3901,19 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="11"/>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
+      <c r="D64" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E64">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="19"/>
+      <c r="F64" s="5"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -3888,16 +3948,19 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="11"/>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E65">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="19"/>
+      <c r="F65" s="5"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -3932,16 +3995,17 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="11"/>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
+      <c r="D66" s="3"/>
       <c r="E66">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="19"/>
+      <c r="F66" s="5"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -3976,16 +4040,17 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="11"/>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
+      <c r="D67" s="3"/>
       <c r="E67">
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="19"/>
+      <c r="F67" s="5"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -4020,16 +4085,19 @@
         <f t="shared" ref="A68:A101" si="10">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="11"/>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="11">C67+1</f>
         <v>166</v>
       </c>
+      <c r="D68" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E68">
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="19"/>
+      <c r="F68" s="5"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
@@ -4064,16 +4132,19 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="11"/>
       <c r="C69">
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
+      <c r="D69" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E69">
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="19"/>
+      <c r="F69" s="5"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
@@ -4108,16 +4179,19 @@
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="11"/>
       <c r="C70">
         <f t="shared" si="11"/>
         <v>168</v>
       </c>
+      <c r="D70" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E70">
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="19"/>
+      <c r="F70" s="5"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
@@ -4152,16 +4226,19 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="11"/>
       <c r="C71">
         <f t="shared" si="11"/>
         <v>169</v>
       </c>
+      <c r="D71" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E71">
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="19"/>
+      <c r="F71" s="5"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
@@ -4196,16 +4273,19 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="11"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
       </c>
+      <c r="D72" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E72">
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="19"/>
+      <c r="F72" s="5"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
@@ -4240,16 +4320,19 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="11"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
       </c>
+      <c r="D73" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E73">
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="19"/>
+      <c r="F73" s="5"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
@@ -4284,16 +4367,19 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="11"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
       </c>
+      <c r="D74" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E74">
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="19"/>
+      <c r="F74" s="5"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
@@ -4328,7 +4414,7 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="11"/>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>173</v>
@@ -4337,7 +4423,7 @@
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="19"/>
+      <c r="F75" s="5"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
@@ -4372,7 +4458,7 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="11"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
@@ -4381,7 +4467,7 @@
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="19"/>
+      <c r="F76" s="5"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
@@ -4416,7 +4502,7 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="11"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
@@ -4425,8 +4511,8 @@
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="18" t="s">
-        <v>66</v>
+      <c r="F77" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
@@ -4462,7 +4548,7 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="11"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
@@ -4471,7 +4557,7 @@
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="19"/>
+      <c r="F78" s="5"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
@@ -4506,7 +4592,7 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="11"/>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>177</v>
@@ -4515,7 +4601,7 @@
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="19"/>
+      <c r="F79" s="5"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
@@ -4550,7 +4636,7 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="11"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
@@ -4559,7 +4645,7 @@
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="19"/>
+      <c r="F80" s="5"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
@@ -4594,7 +4680,7 @@
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="11"/>
       <c r="C81">
         <f t="shared" si="11"/>
         <v>179</v>
@@ -4603,7 +4689,7 @@
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="19"/>
+      <c r="F81" s="5"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
@@ -4638,7 +4724,7 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="11"/>
       <c r="C82">
         <f t="shared" si="11"/>
         <v>180</v>
@@ -4647,7 +4733,7 @@
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="19"/>
+      <c r="F82" s="5"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
@@ -4682,7 +4768,7 @@
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="11"/>
       <c r="C83">
         <f t="shared" si="11"/>
         <v>181</v>
@@ -4691,7 +4777,7 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="19"/>
+      <c r="F83" s="5"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
@@ -4726,7 +4812,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="11"/>
       <c r="C84">
         <f t="shared" si="11"/>
         <v>182</v>
@@ -4735,7 +4821,7 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="19"/>
+      <c r="F84" s="5"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
@@ -4770,8 +4856,8 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>46</v>
+      <c r="B85" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C85">
         <f t="shared" si="11"/>
@@ -4781,7 +4867,7 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="19"/>
+      <c r="F85" s="5"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
@@ -4816,7 +4902,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="6"/>
+      <c r="B86" s="7"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -4825,7 +4911,7 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="19"/>
+      <c r="F86" s="5"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
@@ -4860,7 +4946,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="6"/>
+      <c r="B87" s="7"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -4869,7 +4955,7 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="19"/>
+      <c r="F87" s="5"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
@@ -4904,7 +4990,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="11"/>
+      <c r="B88" s="8"/>
       <c r="C88">
         <f t="shared" si="11"/>
         <v>186</v>
@@ -4913,7 +4999,7 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="19"/>
+      <c r="F88" s="5"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
@@ -4949,7 +5035,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C89">
         <f t="shared" si="11"/>
@@ -4959,7 +5045,7 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="19"/>
+      <c r="F89" s="5"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
@@ -5005,7 +5091,7 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="19"/>
+      <c r="F90" s="5"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
@@ -5041,7 +5127,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <f t="shared" si="11"/>
@@ -5051,7 +5137,7 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="19"/>
+      <c r="F91" s="5"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
@@ -5097,7 +5183,7 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="19"/>
+      <c r="F92" s="5"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
@@ -5143,7 +5229,7 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="19"/>
+      <c r="F93" s="5"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
@@ -5189,7 +5275,7 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="19"/>
+      <c r="F94" s="5"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
@@ -5235,7 +5321,7 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="19"/>
+      <c r="F95" s="5"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
@@ -5281,7 +5367,7 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="19"/>
+      <c r="F96" s="5"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
@@ -5327,7 +5413,7 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="19"/>
+      <c r="F97" s="5"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
@@ -5373,7 +5459,7 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="19"/>
+      <c r="F98" s="5"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
@@ -5419,7 +5505,7 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="19"/>
+      <c r="F99" s="5"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
@@ -5465,7 +5551,7 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="19"/>
+      <c r="F100" s="5"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
@@ -5511,7 +5597,7 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="19"/>
+      <c r="F101" s="5"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
@@ -5542,12 +5628,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F2:F26"/>
-    <mergeCell ref="F27:F51"/>
-    <mergeCell ref="F52:F76"/>
-    <mergeCell ref="F77:F101"/>
-    <mergeCell ref="H2:H26"/>
+  <mergeCells count="19">
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="B2:B6"/>
@@ -5561,6 +5642,12 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="D39:D42"/>
+    <mergeCell ref="F2:F26"/>
+    <mergeCell ref="F27:F51"/>
+    <mergeCell ref="F52:F76"/>
+    <mergeCell ref="F77:F101"/>
+    <mergeCell ref="H2:H26"/>
+    <mergeCell ref="H27:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -113,6 +113,54 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>DSS:
+Bit 0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - use am/pm format
+1 - use 24 hour format
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bit 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+0 - mm/dd/yy
+1 - yy/mm/dd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D78" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>DSS:</t>
         </r>
         <r>
@@ -123,8 +171,53 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - use am/pm format
-1 - use 24 hour format</t>
+call mot chg ||  param
+ 0    0     0          0
+ 0    0     1          1
+ 0    1     0          2
+ 0    1     1          3
+ 1    0     0          4
+ 1    0     1          5
+ 1    1     0          6
+ 1    1     1          7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+bit 0 - date
+bit 1 - time
+bit 2 - latitude, longitude
+bit 3 - speed
+bit 4 - course
+bit 5 - altitude
+bit 6 - hdop
+bit 7 - vdop
+bit 8 - pdop
+bit 9 - satellites used
+bit 10 - GSA Mode 2
+bit 11 - battery percent
+bit 12 - battery voltage
+bit 13 - rssi
+bit 14 - ID</t>
         </r>
       </text>
     </comment>
@@ -160,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>ACTIVE 1</t>
   </si>
@@ -297,9 +390,6 @@
     <t>Time Zone</t>
   </si>
   <si>
-    <t>AM/PM</t>
-  </si>
-  <si>
     <t>Metric/Standard</t>
   </si>
   <si>
@@ -309,33 +399,18 @@
     <t>send interval</t>
   </si>
   <si>
-    <t>sleep on</t>
-  </si>
-  <si>
-    <t>sleep off</t>
-  </si>
-  <si>
-    <t>charger?</t>
-  </si>
-  <si>
     <t>INT RISING</t>
   </si>
   <si>
     <t>INT FALLING</t>
   </si>
   <si>
-    <t>power saving mode</t>
-  </si>
-  <si>
     <t>Dig In w/PU</t>
   </si>
   <si>
     <t>Hi-Z/Dig In wo/PU</t>
   </si>
   <si>
-    <t>digital pin int messages</t>
-  </si>
-  <si>
     <t>Motion Message</t>
   </si>
   <si>
@@ -403,6 +478,75 @@
   </si>
   <si>
     <t>Speed Message</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>hdop</t>
+  </si>
+  <si>
+    <t>vdop</t>
+  </si>
+  <si>
+    <t>pdop</t>
+  </si>
+  <si>
+    <t>satellites used</t>
+  </si>
+  <si>
+    <t>battery percent</t>
+  </si>
+  <si>
+    <t>battery voltage</t>
+  </si>
+  <si>
+    <t>rssi</t>
+  </si>
+  <si>
+    <t>Sleep Time On</t>
+  </si>
+  <si>
+    <t>Sleep Time Off</t>
+  </si>
+  <si>
+    <t>Sleep Time Config</t>
+  </si>
+  <si>
+    <t>Breach Speed</t>
+  </si>
+  <si>
+    <t>Breach Repetitions</t>
+  </si>
+  <si>
+    <t>Time Format</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>GSAMode2</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Geogram ONE ID</t>
   </si>
 </sst>
 </file>
@@ -451,7 +595,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,12 +629,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,17 +697,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +738,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,14 +1044,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -921,7 +1064,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C2">
@@ -933,18 +1076,21 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
+      <c r="F2" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>62</v>
+      <c r="H2" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="I2">
         <v>400</v>
       </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
       <c r="K2">
         <v>500</v>
       </c>
@@ -961,7 +1107,7 @@
         <v>900</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -972,28 +1118,31 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="8"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="22"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="22"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
       </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
       <c r="K3">
         <f>K2+1</f>
         <v>501</v>
@@ -1015,7 +1164,7 @@
         <v>901</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1026,7 +1175,7 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="8"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
@@ -1038,16 +1187,19 @@
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="22"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="22"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
       </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="5">K3+1</f>
         <v>502</v>
@@ -1080,27 +1232,30 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="22"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="22"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
@@ -1134,25 +1289,28 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="7"/>
       <c r="E6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="22"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="22"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
@@ -1186,28 +1344,31 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="7"/>
       <c r="E7">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="22"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="22"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
       <c r="K7">
         <f t="shared" si="5"/>
         <v>505</v>
@@ -1229,7 +1390,7 @@
         <v>905</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="X7">
         <v>5</v>
@@ -1240,26 +1401,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
       <c r="E8">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="22"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="22"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
       </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
       <c r="K8">
         <f t="shared" si="5"/>
         <v>506</v>
@@ -1281,7 +1445,7 @@
         <v>906</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X8">
         <v>6</v>
@@ -1292,27 +1456,30 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="11"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="22"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="22"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
@@ -1346,25 +1513,28 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="11"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="10"/>
       <c r="E10">
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="22"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="22"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
+      </c>
+      <c r="J10" t="s">
+        <v>81</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
@@ -1392,25 +1562,28 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="10"/>
       <c r="E11">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="22"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="22"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
@@ -1438,25 +1611,28 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="11"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="10"/>
       <c r="E12">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="22"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="22"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
@@ -1487,27 +1663,30 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="11"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="22"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="22"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
@@ -1538,25 +1717,28 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="11"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="10"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="22"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="22"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
@@ -1587,25 +1769,28 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="11"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="10"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="22"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="22"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
@@ -1636,25 +1821,28 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="11"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="10"/>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="22"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="22"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
@@ -1685,7 +1873,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="11"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -1697,15 +1885,18 @@
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="22"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="22"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
+      </c>
+      <c r="J17" t="s">
+        <v>96</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
@@ -1733,24 +1924,24 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="11"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="22"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="22"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
@@ -1781,7 +1972,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="11"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -1793,12 +1984,12 @@
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="22"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="22"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
@@ -1829,24 +2020,24 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="22"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="22"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
@@ -1877,22 +2068,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="15"/>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="22"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="22"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
@@ -1923,22 +2114,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="11"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="16"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="22"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="22"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
@@ -1969,22 +2160,22 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="17"/>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="22"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="22"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
@@ -2015,24 +2206,24 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="22"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="22"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
@@ -2063,22 +2254,22 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="11"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="13"/>
       <c r="E25">
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="22"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="22"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
@@ -2109,22 +2300,22 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="13"/>
       <c r="E26">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="22"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="22"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
@@ -2155,25 +2346,25 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="11"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="13"/>
       <c r="E27">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>59</v>
+      <c r="F27" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>80</v>
+      <c r="H27" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
@@ -2205,24 +2396,24 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="12"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="22"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="22"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
@@ -2253,22 +2444,22 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="12"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
       <c r="E29">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="22"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="22"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
@@ -2299,22 +2490,22 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="12"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="13"/>
       <c r="E30">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="22"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="22"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
@@ -2345,22 +2536,22 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="12"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="13"/>
       <c r="E31">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="22"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="22"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
@@ -2391,7 +2582,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="12"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -2403,12 +2594,12 @@
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="22"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="22"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
@@ -2439,24 +2630,24 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="14"/>
+      <c r="B33" s="12"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="22"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="22"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
@@ -2487,7 +2678,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="14"/>
+      <c r="B34" s="12"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -2499,12 +2690,12 @@
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="22"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="22"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
@@ -2535,24 +2726,24 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="12"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="22"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="22"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
@@ -2583,22 +2774,22 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="12"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="7"/>
       <c r="E36">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="22"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="22"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
@@ -2629,22 +2820,22 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="12"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="7"/>
       <c r="E37">
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="22"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="22"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
@@ -2675,22 +2866,22 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="12"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="6"/>
       <c r="E38">
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="22"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38" s="22"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
@@ -2721,24 +2912,24 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="12"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="22"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="22"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
@@ -2769,22 +2960,22 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="12"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="16"/>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="22"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="22"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
@@ -2815,22 +3006,22 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="12"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="16"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="22"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="22"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
@@ -2861,22 +3052,22 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="14"/>
+      <c r="B42" s="12"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="17"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="22"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="22"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
@@ -2907,24 +3098,24 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="12"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="22"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43" s="22"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
@@ -2955,22 +3146,22 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="12"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="5"/>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="22"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44" s="22"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
@@ -3001,22 +3192,22 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="12"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="5"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="22"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="H45" s="22"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
@@ -3047,24 +3238,24 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="6"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="22"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46" s="22"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
@@ -3095,7 +3286,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="9"/>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>145</v>
@@ -3107,12 +3298,12 @@
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="22"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="H47" s="22"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
@@ -3143,7 +3334,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="9"/>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>146</v>
@@ -3155,12 +3346,12 @@
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="22"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="22"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
@@ -3191,7 +3382,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="9"/>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -3203,12 +3394,12 @@
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="22"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="H49" s="5"/>
+      <c r="H49" s="22"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
@@ -3239,24 +3430,24 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="9"/>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="22"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="H50" s="5"/>
+      <c r="H50" s="22"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
@@ -3287,24 +3478,24 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="11"/>
+      <c r="B51" s="9"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="22"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="H51" s="22"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
@@ -3335,24 +3526,27 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="9"/>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>60</v>
+      <c r="F52" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
         <v>350</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
@@ -3384,23 +3578,24 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="9"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="22"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
+      <c r="H53" s="22"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>451</v>
@@ -3431,23 +3626,24 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="11"/>
+      <c r="B54" s="9"/>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="22"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
+      <c r="H54" s="22"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>452</v>
@@ -3478,23 +3674,24 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="9"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="22"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
+      <c r="H55" s="22"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>453</v>
@@ -3525,23 +3722,24 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="9"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="22"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
+      <c r="H56" s="22"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>454</v>
@@ -3572,23 +3770,24 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="9"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="22"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
+      <c r="H57" s="22"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>455</v>
@@ -3619,23 +3818,24 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="11"/>
+      <c r="B58" s="9"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="22"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
+      <c r="H58" s="22"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>456</v>
@@ -3666,23 +3866,24 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="9"/>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="22"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
+      <c r="H59" s="22"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>457</v>
@@ -3713,23 +3914,24 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="9"/>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="5"/>
+      <c r="F60" s="22"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
+      <c r="H60" s="22"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>458</v>
@@ -3760,23 +3962,24 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="9"/>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="22"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
+      <c r="H61" s="22"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>459</v>
@@ -3807,23 +4010,24 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="9"/>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="22"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
+      <c r="H62" s="22"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>460</v>
@@ -3854,23 +4058,24 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="11"/>
+      <c r="B63" s="9"/>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="5"/>
+      <c r="F63" s="22"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
+      <c r="H63" s="22"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>461</v>
@@ -3901,23 +4106,24 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="11"/>
+      <c r="B64" s="9"/>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="5"/>
+      <c r="F64" s="22"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
+      <c r="H64" s="22"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>462</v>
@@ -3948,23 +4154,24 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="11"/>
+      <c r="B65" s="9"/>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="5"/>
+      <c r="F65" s="22"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
+      <c r="H65" s="22"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>463</v>
@@ -3995,21 +4202,24 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="11"/>
+      <c r="B66" s="9"/>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D66" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="E66">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="5"/>
+      <c r="F66" s="22"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
+      <c r="H66" s="22"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>464</v>
@@ -4040,21 +4250,22 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="9"/>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="D67" s="3"/>
+      <c r="D67" s="19"/>
       <c r="E67">
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="5"/>
+      <c r="F67" s="22"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
+      <c r="H67" s="22"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>465</v>
@@ -4085,23 +4296,22 @@
         <f t="shared" ref="A68:A101" si="10">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="11"/>
+      <c r="B68" s="9"/>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="11">C67+1</f>
         <v>166</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D68" s="19"/>
       <c r="E68">
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="5"/>
+      <c r="F68" s="22"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
       </c>
+      <c r="H68" s="22"/>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="14">I67+1</f>
         <v>466</v>
@@ -4132,23 +4342,22 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="11"/>
+      <c r="B69" s="9"/>
       <c r="C69">
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="D69" s="20"/>
       <c r="E69">
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="5"/>
+      <c r="F69" s="22"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
+      <c r="H69" s="22"/>
       <c r="I69">
         <f t="shared" si="14"/>
         <v>467</v>
@@ -4179,23 +4388,24 @@
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="9"/>
       <c r="C70">
         <f t="shared" si="11"/>
         <v>168</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>49</v>
+      <c r="D70" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="E70">
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="5"/>
+      <c r="F70" s="22"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
+      <c r="H70" s="22"/>
       <c r="I70">
         <f t="shared" si="14"/>
         <v>468</v>
@@ -4226,23 +4436,22 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="11"/>
+      <c r="B71" s="9"/>
       <c r="C71">
         <f t="shared" si="11"/>
         <v>169</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="D71" s="19"/>
       <c r="E71">
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="5"/>
+      <c r="F71" s="22"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
+      <c r="H71" s="22"/>
       <c r="I71">
         <f t="shared" si="14"/>
         <v>469</v>
@@ -4273,23 +4482,22 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="11"/>
+      <c r="B72" s="9"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D72" s="19"/>
       <c r="E72">
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="5"/>
+      <c r="F72" s="22"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
+      <c r="H72" s="22"/>
       <c r="I72">
         <f t="shared" si="14"/>
         <v>470</v>
@@ -4320,23 +4528,22 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="11"/>
+      <c r="B73" s="9"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="D73" s="20"/>
       <c r="E73">
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="5"/>
+      <c r="F73" s="22"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
+      <c r="H73" s="22"/>
       <c r="I73">
         <f t="shared" si="14"/>
         <v>471</v>
@@ -4367,23 +4574,24 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="11"/>
+      <c r="B74" s="9"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>57</v>
+      <c r="D74" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="E74">
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="5"/>
+      <c r="F74" s="22"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
+      <c r="H74" s="22"/>
       <c r="I74">
         <f t="shared" si="14"/>
         <v>472</v>
@@ -4414,20 +4622,22 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="11"/>
+      <c r="B75" s="9"/>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>173</v>
       </c>
+      <c r="D75" s="19"/>
       <c r="E75">
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="5"/>
+      <c r="F75" s="22"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
+      <c r="H75" s="22"/>
       <c r="I75">
         <f t="shared" si="14"/>
         <v>473</v>
@@ -4458,20 +4668,22 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="11"/>
+      <c r="B76" s="9"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
       </c>
+      <c r="D76" s="19"/>
       <c r="E76">
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="5"/>
+      <c r="F76" s="22"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
+      <c r="H76" s="22"/>
       <c r="I76">
         <f t="shared" si="14"/>
         <v>474</v>
@@ -4502,17 +4714,18 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="9"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
       </c>
+      <c r="D77" s="20"/>
       <c r="E77">
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>61</v>
+      <c r="F77" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
@@ -4548,16 +4761,19 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="11"/>
+      <c r="B78" s="9"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
+      <c r="D78" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E78">
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="5"/>
+      <c r="F78" s="22"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
@@ -4592,16 +4808,19 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="11"/>
+      <c r="B79" s="9"/>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>177</v>
       </c>
+      <c r="D79" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E79">
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="5"/>
+      <c r="F79" s="22"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
@@ -4636,16 +4855,19 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="11"/>
+      <c r="B80" s="9"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
       </c>
+      <c r="D80" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E80">
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="5"/>
+      <c r="F80" s="22"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
@@ -4680,16 +4902,19 @@
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="B81" s="11"/>
+      <c r="B81" s="9"/>
       <c r="C81">
         <f t="shared" si="11"/>
         <v>179</v>
       </c>
+      <c r="D81" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="E81">
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="5"/>
+      <c r="F81" s="22"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
@@ -4724,16 +4949,17 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82" s="9"/>
       <c r="C82">
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
+      <c r="D82" s="23"/>
       <c r="E82">
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="5"/>
+      <c r="F82" s="22"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
@@ -4768,7 +4994,7 @@
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83" s="9"/>
       <c r="C83">
         <f t="shared" si="11"/>
         <v>181</v>
@@ -4777,7 +5003,7 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="5"/>
+      <c r="F83" s="22"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
@@ -4812,7 +5038,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84" s="9"/>
       <c r="C84">
         <f t="shared" si="11"/>
         <v>182</v>
@@ -4821,7 +5047,7 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="5"/>
+      <c r="F84" s="22"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
@@ -4856,7 +5082,7 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C85">
@@ -4867,7 +5093,7 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="5"/>
+      <c r="F85" s="22"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
@@ -4902,7 +5128,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="7"/>
+      <c r="B86" s="5"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -4911,7 +5137,7 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="5"/>
+      <c r="F86" s="22"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
@@ -4946,7 +5172,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="7"/>
+      <c r="B87" s="5"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -4955,7 +5181,7 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="5"/>
+      <c r="F87" s="22"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
@@ -4990,7 +5216,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="8"/>
+      <c r="B88" s="6"/>
       <c r="C88">
         <f t="shared" si="11"/>
         <v>186</v>
@@ -4999,7 +5225,7 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="5"/>
+      <c r="F88" s="22"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
@@ -5045,7 +5271,7 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="5"/>
+      <c r="F89" s="22"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
@@ -5091,7 +5317,7 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="5"/>
+      <c r="F90" s="22"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
@@ -5137,7 +5363,7 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="5"/>
+      <c r="F91" s="22"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
@@ -5183,7 +5409,7 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="5"/>
+      <c r="F92" s="22"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
@@ -5229,7 +5455,7 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="5"/>
+      <c r="F93" s="22"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
@@ -5275,7 +5501,7 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="F94" s="22"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
@@ -5321,7 +5547,7 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="5"/>
+      <c r="F95" s="22"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
@@ -5367,7 +5593,7 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="5"/>
+      <c r="F96" s="22"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
@@ -5413,7 +5639,7 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="5"/>
+      <c r="F97" s="22"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
@@ -5459,7 +5685,7 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="5"/>
+      <c r="F98" s="22"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
@@ -5505,7 +5731,7 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="5"/>
+      <c r="F99" s="22"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
@@ -5551,7 +5777,7 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="5"/>
+      <c r="F100" s="22"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
@@ -5597,7 +5823,7 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="5"/>
+      <c r="F101" s="22"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
@@ -5628,7 +5854,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="24">
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="F2:F26"/>
+    <mergeCell ref="F27:F51"/>
+    <mergeCell ref="F52:F76"/>
+    <mergeCell ref="F77:F101"/>
+    <mergeCell ref="H2:H26"/>
+    <mergeCell ref="H27:H51"/>
+    <mergeCell ref="H52:H76"/>
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="B2:B6"/>
@@ -5642,12 +5876,9 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="D39:D42"/>
-    <mergeCell ref="F2:F26"/>
-    <mergeCell ref="F27:F51"/>
-    <mergeCell ref="F52:F76"/>
-    <mergeCell ref="F77:F101"/>
-    <mergeCell ref="H2:H26"/>
-    <mergeCell ref="H27:H51"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D74:D77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -29,7 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>DSS:</t>
         </r>
@@ -38,17 +38,52 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0 - disabled
-1 - active, single
-2 - active, reset on exit (beta)
-</t>
+0 - Hi-Z/Digital In
+1 - Digital In w/pullup
+2 - Digital Out (0)
+3 - Digital Out (1)
+4 - Analog In
+5 - Interrupt Rising
+6 - Interrupt Falling</t>
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+call mot chg ||  param
+ 0    0     0          0
+ 0    0     1          1
+ 0    1     0          2
+ 0    1     1          3
+ 1    0     0          4
+ 1    0     1          5
+ 1    1     0          6
+ 1    1     1          7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,11 +103,13 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-beta</t>
+0 - disabled
+1 - active
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0">
+    <comment ref="B89" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,18 +129,14 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-bit 0 - enabled(1)
-bit 1 - set to zero
-bit 2 - set to zero (enable (1) low speed reset)
-bit 3 - enable (1) maximum speed
-bit 4 - set to zero
-bit 5 - set to zero
-bit 6 - set to zero
-bit 7 - set to zero</t>
+0  Reply Back
+1  Saved SMS
+2  Saved Email
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0">
+    <comment ref="B91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,39 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DSS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-call mot chg ||  param
- 0    0     0          0
- 0    0     1          1
- 0    1     0          2
- 0    1     1          3
- 1    0     0          4
- 1    0     1          5
- 1    1     0          6
- 1    1     1          7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D81" authorId="0">
+    <comment ref="B93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,11 +218,12 @@
 bit 11 - battery percent
 bit 12 - battery voltage
 bit 13 - rssi
-bit 14 - ID</t>
+bit 14 - ID
+bit 15 - HTTP link</t>
         </r>
       </text>
     </comment>
-    <comment ref="B89" authorId="0">
+    <comment ref="B95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -241,9 +243,21 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0  Reply Back
-1  Saved SMS
-2  Saved Email
+bit 0 - date
+bit 1 - time
+bit 2 - latitude, longitude
+bit 3 - speed
+bit 4 - course
+bit 5 - altitude
+bit 6 - hdop
+bit 7 - vdop
+bit 8 - pdop
+bit 9 - satellites used
+bit 10 - GSA Mode 2
+bit 11 - battery percent
+bit 12 - battery voltage
+bit 13 - rssi
+bit 14 - ID
 </t>
         </r>
       </text>
@@ -253,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ACTIVE 1</t>
   </si>
@@ -339,12 +353,6 @@
     <t>Ana In</t>
   </si>
   <si>
-    <t>BATT LOW</t>
-  </si>
-  <si>
-    <t>INT ON/OFF</t>
-  </si>
-  <si>
     <t>PIN/0</t>
   </si>
   <si>
@@ -357,48 +365,15 @@
     <t>IO PIN OPTIONS</t>
   </si>
   <si>
-    <t>INT CHANGE</t>
-  </si>
-  <si>
-    <t>POWER SAVING MODES</t>
-  </si>
-  <si>
-    <t>INTERVAL</t>
-  </si>
-  <si>
-    <t>MOVEMENT</t>
-  </si>
-  <si>
-    <t>PG TOGGLE</t>
-  </si>
-  <si>
-    <t>PG PIN CONFIG</t>
-  </si>
-  <si>
-    <t>SPEED LIMIT</t>
-  </si>
-  <si>
-    <t>USE SPEED</t>
-  </si>
-  <si>
     <t>APN</t>
   </si>
   <si>
-    <t>CONFIG ADD</t>
-  </si>
-  <si>
     <t>Time Zone</t>
   </si>
   <si>
     <t>Metric/Standard</t>
   </si>
   <si>
-    <t>Geo data format</t>
-  </si>
-  <si>
-    <t>send interval</t>
-  </si>
-  <si>
     <t>INT RISING</t>
   </si>
   <si>
@@ -426,15 +401,6 @@
     <t>Fence 3 Message</t>
   </si>
   <si>
-    <t>RESET1</t>
-  </si>
-  <si>
-    <t>RESET2</t>
-  </si>
-  <si>
-    <t>RESET3</t>
-  </si>
-  <si>
     <t>BMA - 0x10</t>
   </si>
   <si>
@@ -480,42 +446,6 @@
     <t>Speed Message</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>hdop</t>
-  </si>
-  <si>
-    <t>vdop</t>
-  </si>
-  <si>
-    <t>pdop</t>
-  </si>
-  <si>
-    <t>satellites used</t>
-  </si>
-  <si>
-    <t>battery percent</t>
-  </si>
-  <si>
-    <t>battery voltage</t>
-  </si>
-  <si>
-    <t>rssi</t>
-  </si>
-  <si>
     <t>Sleep Time On</t>
   </si>
   <si>
@@ -534,19 +464,46 @@
     <t>Time Format</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>GSAMode2</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Geogram ONE ID</t>
+  </si>
+  <si>
+    <t>Max Speed Message</t>
+  </si>
+  <si>
+    <t>Hyperlink 1</t>
+  </si>
+  <si>
+    <t>Hyperlink 2</t>
+  </si>
+  <si>
+    <t>Hyperlink 3</t>
+  </si>
+  <si>
+    <t>D4 Interrupt Message</t>
+  </si>
+  <si>
+    <t>D10 Interrupt Message</t>
+  </si>
+  <si>
+    <t>Speed Limit</t>
+  </si>
+  <si>
+    <t>Speed Hysteresis</t>
+  </si>
+  <si>
+    <t>Send Interval</t>
+  </si>
+  <si>
+    <t>Geo Data Format1</t>
+  </si>
+  <si>
+    <t>Geo Data Format2</t>
+  </si>
+  <si>
+    <t>Battery Low Alert</t>
+  </si>
+  <si>
+    <t>Configure Address</t>
   </si>
 </sst>
 </file>
@@ -595,30 +552,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -697,39 +636,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -738,16 +673,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,64 +988,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="V1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>30</v>
+      <c r="B2" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>52</v>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>56</v>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I2">
         <v>400</v>
       </c>
-      <c r="J2" t="s">
-        <v>94</v>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="M2">
         <v>600</v>
       </c>
-      <c r="O2">
+      <c r="N2" s="20"/>
+      <c r="O2" s="18">
         <v>700</v>
       </c>
+      <c r="P2" s="20"/>
       <c r="Q2">
         <v>800</v>
       </c>
@@ -1107,7 +1060,7 @@
         <v>900</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1118,43 +1071,44 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="26"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E3">
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="4"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="4"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
       </c>
-      <c r="J3" t="s">
-        <v>93</v>
-      </c>
+      <c r="J3" s="4"/>
       <c r="K3">
         <f>K2+1</f>
         <v>501</v>
       </c>
+      <c r="L3" s="5"/>
       <c r="M3">
         <f>M2+1</f>
         <v>601</v>
       </c>
-      <c r="O3">
+      <c r="N3" s="19"/>
+      <c r="O3" s="18">
         <f>O2+1</f>
         <v>701</v>
       </c>
+      <c r="P3" s="19"/>
       <c r="Q3">
         <f>Q2+1</f>
         <v>801</v>
@@ -1164,7 +1118,7 @@
         <v>901</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1175,43 +1129,44 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="26"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="4"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="4"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
       </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
+      <c r="J4" s="4"/>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="5">K3+1</f>
         <v>502</v>
       </c>
+      <c r="L4" s="5"/>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+1</f>
         <v>602</v>
       </c>
-      <c r="O4">
+      <c r="N4" s="19"/>
+      <c r="O4" s="18">
         <f t="shared" ref="O4:O67" si="7">O3+1</f>
         <v>702</v>
       </c>
+      <c r="P4" s="19"/>
       <c r="Q4">
         <f t="shared" ref="Q4:Q67" si="8">Q3+1</f>
         <v>802</v>
@@ -1232,43 +1187,44 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="26"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="4"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="22"/>
+      <c r="H5" s="4"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
       </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
+      <c r="J5" s="4"/>
       <c r="K5">
         <f t="shared" si="5"/>
         <v>503</v>
       </c>
+      <c r="L5" s="5"/>
       <c r="M5">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
-      <c r="O5">
+      <c r="N5" s="19"/>
+      <c r="O5" s="18">
         <f t="shared" si="7"/>
         <v>703</v>
       </c>
+      <c r="P5" s="19"/>
       <c r="Q5">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -1289,41 +1245,44 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="26"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="4"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="4"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
       </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
+      <c r="L6" s="5"/>
       <c r="M6">
         <f t="shared" si="6"/>
         <v>604</v>
       </c>
-      <c r="O6">
+      <c r="N6" s="19"/>
+      <c r="O6" s="18">
         <f t="shared" si="7"/>
         <v>704</v>
       </c>
+      <c r="P6" s="19"/>
       <c r="Q6">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -1344,43 +1303,46 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
+      <c r="B7" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E7">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="4"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="4"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7">
         <f t="shared" si="5"/>
         <v>505</v>
       </c>
+      <c r="L7" s="5"/>
       <c r="M7">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="O7">
+      <c r="N7" s="19"/>
+      <c r="O7" s="18">
         <f t="shared" si="7"/>
         <v>705</v>
       </c>
+      <c r="P7" s="19"/>
       <c r="Q7">
         <f t="shared" si="8"/>
         <v>805</v>
@@ -1390,7 +1352,7 @@
         <v>905</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="X7">
         <v>5</v>
@@ -1401,41 +1363,44 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="24"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E8">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="4"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="4"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
       </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8">
         <f t="shared" si="5"/>
         <v>506</v>
       </c>
+      <c r="L8" s="5"/>
       <c r="M8">
         <f t="shared" si="6"/>
         <v>606</v>
       </c>
-      <c r="O8">
+      <c r="N8" s="19"/>
+      <c r="O8" s="18">
         <f t="shared" si="7"/>
         <v>706</v>
       </c>
+      <c r="P8" s="19"/>
       <c r="Q8">
         <f t="shared" si="8"/>
         <v>806</v>
@@ -1445,7 +1410,7 @@
         <v>906</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="X8">
         <v>6</v>
@@ -1456,43 +1421,44 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="24"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>3</v>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="4"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="4"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
       </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9">
         <f t="shared" si="5"/>
         <v>507</v>
       </c>
+      <c r="L9" s="5"/>
       <c r="M9">
         <f t="shared" si="6"/>
         <v>607</v>
       </c>
-      <c r="O9">
+      <c r="N9" s="19"/>
+      <c r="O9" s="18">
         <f t="shared" si="7"/>
         <v>707</v>
       </c>
+      <c r="P9" s="19"/>
       <c r="Q9">
         <f t="shared" si="8"/>
         <v>807</v>
@@ -1500,12 +1466,6 @@
       <c r="S9">
         <f t="shared" si="9"/>
         <v>907</v>
-      </c>
-      <c r="V9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1513,41 +1473,44 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="24"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E10">
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="4"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="4"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
+      <c r="J10" s="4"/>
       <c r="K10">
         <f t="shared" si="5"/>
         <v>508</v>
       </c>
+      <c r="L10" s="5"/>
       <c r="M10">
         <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="O10">
+      <c r="N10" s="19"/>
+      <c r="O10" s="18">
         <f t="shared" si="7"/>
         <v>708</v>
       </c>
+      <c r="P10" s="19"/>
       <c r="Q10">
         <f t="shared" si="8"/>
         <v>808</v>
@@ -1562,41 +1525,44 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="24"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E11">
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="4"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="4"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="J11" t="s">
-        <v>82</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11">
         <f t="shared" si="5"/>
         <v>509</v>
       </c>
+      <c r="L11" s="5"/>
       <c r="M11">
         <f t="shared" si="6"/>
         <v>609</v>
       </c>
-      <c r="O11">
+      <c r="N11" s="19"/>
+      <c r="O11" s="18">
         <f t="shared" si="7"/>
         <v>709</v>
       </c>
+      <c r="P11" s="19"/>
       <c r="Q11">
         <f t="shared" si="8"/>
         <v>809</v>
@@ -1611,41 +1577,44 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="24"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="E12">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="4"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="4"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
+      <c r="L12" s="5"/>
       <c r="M12">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
-      <c r="O12">
+      <c r="N12" s="19"/>
+      <c r="O12" s="18">
         <f t="shared" si="7"/>
         <v>710</v>
       </c>
+      <c r="P12" s="19"/>
       <c r="Q12">
         <f t="shared" si="8"/>
         <v>810</v>
@@ -1653,9 +1622,6 @@
       <c r="S12">
         <f t="shared" si="9"/>
         <v>910</v>
-      </c>
-      <c r="V12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1663,43 +1629,44 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="24"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
+      <c r="D13" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="4"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="4"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
       </c>
-      <c r="J13" t="s">
-        <v>95</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13">
         <f t="shared" si="5"/>
         <v>511</v>
       </c>
+      <c r="L13" s="5"/>
       <c r="M13">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="O13">
+      <c r="N13" s="19"/>
+      <c r="O13" s="18">
         <f t="shared" si="7"/>
         <v>711</v>
       </c>
+      <c r="P13" s="19"/>
       <c r="Q13">
         <f t="shared" si="8"/>
         <v>811</v>
@@ -1707,9 +1674,6 @@
       <c r="S13">
         <f t="shared" si="9"/>
         <v>911</v>
-      </c>
-      <c r="V13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1717,41 +1681,42 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="24"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="22"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="4"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="4"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
       </c>
-      <c r="J14" t="s">
-        <v>84</v>
-      </c>
+      <c r="J14" s="4"/>
       <c r="K14">
         <f t="shared" si="5"/>
         <v>512</v>
       </c>
+      <c r="L14" s="5"/>
       <c r="M14">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="O14">
+      <c r="N14" s="19"/>
+      <c r="O14" s="18">
         <f t="shared" si="7"/>
         <v>712</v>
       </c>
+      <c r="P14" s="19"/>
       <c r="Q14">
         <f t="shared" si="8"/>
         <v>812</v>
@@ -1759,9 +1724,6 @@
       <c r="S14">
         <f t="shared" si="9"/>
         <v>912</v>
-      </c>
-      <c r="V14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1769,41 +1731,42 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="24"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="22"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="4"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="4"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="J15" t="s">
-        <v>85</v>
-      </c>
+      <c r="J15" s="4"/>
       <c r="K15">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
+      <c r="L15" s="5"/>
       <c r="M15">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="O15">
+      <c r="N15" s="19"/>
+      <c r="O15" s="18">
         <f t="shared" si="7"/>
         <v>713</v>
       </c>
+      <c r="P15" s="19"/>
       <c r="Q15">
         <f t="shared" si="8"/>
         <v>813</v>
@@ -1811,9 +1774,6 @@
       <c r="S15">
         <f t="shared" si="9"/>
         <v>913</v>
-      </c>
-      <c r="V15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1821,41 +1781,42 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="24"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="23"/>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="4"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="4"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
       </c>
-      <c r="J16" t="s">
-        <v>86</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="K16">
         <f t="shared" si="5"/>
         <v>514</v>
       </c>
+      <c r="L16" s="5"/>
       <c r="M16">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="O16">
+      <c r="N16" s="19"/>
+      <c r="O16" s="18">
         <f t="shared" si="7"/>
         <v>714</v>
       </c>
+      <c r="P16" s="19"/>
       <c r="Q16">
         <f t="shared" si="8"/>
         <v>814</v>
@@ -1863,9 +1824,6 @@
       <c r="S16">
         <f t="shared" si="9"/>
         <v>914</v>
-      </c>
-      <c r="V16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1873,43 +1831,44 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="24"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
+      <c r="D17" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="4"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="4"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
       </c>
-      <c r="J17" t="s">
-        <v>96</v>
-      </c>
+      <c r="J17" s="4"/>
       <c r="K17">
         <f t="shared" si="5"/>
         <v>515</v>
       </c>
+      <c r="L17" s="5"/>
       <c r="M17">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="O17">
+      <c r="N17" s="19"/>
+      <c r="O17" s="18">
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
+      <c r="P17" s="19"/>
       <c r="Q17">
         <f t="shared" si="8"/>
         <v>815</v>
@@ -1924,40 +1883,42 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="24"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="D18" s="22"/>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="4"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="4"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
       </c>
+      <c r="J18" s="4"/>
       <c r="K18">
         <f t="shared" si="5"/>
         <v>516</v>
       </c>
+      <c r="L18" s="5"/>
       <c r="M18">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="O18">
+      <c r="N18" s="19"/>
+      <c r="O18" s="18">
         <f t="shared" si="7"/>
         <v>716</v>
       </c>
+      <c r="P18" s="19"/>
       <c r="Q18">
         <f t="shared" si="8"/>
         <v>816</v>
@@ -1972,40 +1933,42 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="24"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D19" s="22"/>
       <c r="E19">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="4"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="4"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
       </c>
+      <c r="J19" s="4"/>
       <c r="K19">
         <f t="shared" si="5"/>
         <v>517</v>
       </c>
+      <c r="L19" s="5"/>
       <c r="M19">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="O19">
+      <c r="N19" s="19"/>
+      <c r="O19" s="18">
         <f t="shared" si="7"/>
         <v>717</v>
       </c>
+      <c r="P19" s="19"/>
       <c r="Q19">
         <f t="shared" si="8"/>
         <v>817</v>
@@ -2020,40 +1983,42 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="24"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="23"/>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="22"/>
+      <c r="F20" s="4"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="4"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
       </c>
+      <c r="J20" s="4"/>
       <c r="K20">
         <f t="shared" si="5"/>
         <v>518</v>
       </c>
+      <c r="L20" s="5"/>
       <c r="M20">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="O20">
+      <c r="N20" s="19"/>
+      <c r="O20" s="18">
         <f t="shared" si="7"/>
         <v>718</v>
       </c>
+      <c r="P20" s="19"/>
       <c r="Q20">
         <f t="shared" si="8"/>
         <v>818</v>
@@ -2068,38 +2033,44 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="24"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="4"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="4"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
       </c>
+      <c r="J21" s="4"/>
       <c r="K21">
         <f t="shared" si="5"/>
         <v>519</v>
       </c>
+      <c r="L21" s="5"/>
       <c r="M21">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="O21">
+      <c r="N21" s="19"/>
+      <c r="O21" s="18">
         <f t="shared" si="7"/>
         <v>719</v>
       </c>
+      <c r="P21" s="19"/>
       <c r="Q21">
         <f t="shared" si="8"/>
         <v>819</v>
@@ -2114,38 +2085,42 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="24"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="28"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="22"/>
+      <c r="F22" s="4"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="4"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
+      <c r="J22" s="4"/>
       <c r="K22">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
+      <c r="L22" s="5"/>
       <c r="M22">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="O22">
+      <c r="N22" s="19"/>
+      <c r="O22" s="18">
         <f t="shared" si="7"/>
         <v>720</v>
       </c>
+      <c r="P22" s="19"/>
       <c r="Q22">
         <f t="shared" si="8"/>
         <v>820</v>
@@ -2160,38 +2135,44 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="24"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="4"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="4"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
       </c>
+      <c r="J23" s="4"/>
       <c r="K23">
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
+      <c r="L23" s="5"/>
       <c r="M23">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="O23">
+      <c r="N23" s="19"/>
+      <c r="O23" s="18">
         <f t="shared" si="7"/>
         <v>721</v>
       </c>
+      <c r="P23" s="19"/>
       <c r="Q23">
         <f t="shared" si="8"/>
         <v>821</v>
@@ -2206,40 +2187,44 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="24"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>8</v>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="4"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="4"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
       </c>
+      <c r="J24" s="4"/>
       <c r="K24">
         <f t="shared" si="5"/>
         <v>522</v>
       </c>
+      <c r="L24" s="5"/>
       <c r="M24">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="O24">
+      <c r="N24" s="19"/>
+      <c r="O24" s="18">
         <f t="shared" si="7"/>
         <v>722</v>
       </c>
+      <c r="P24" s="19"/>
       <c r="Q24">
         <f t="shared" si="8"/>
         <v>822</v>
@@ -2254,38 +2239,44 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="24"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E25">
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="4"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="4"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
       </c>
+      <c r="J25" s="4"/>
       <c r="K25">
         <f t="shared" si="5"/>
         <v>523</v>
       </c>
+      <c r="L25" s="5"/>
       <c r="M25">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="O25">
+      <c r="N25" s="19"/>
+      <c r="O25" s="18">
         <f t="shared" si="7"/>
         <v>723</v>
       </c>
+      <c r="P25" s="19"/>
       <c r="Q25">
         <f t="shared" si="8"/>
         <v>823</v>
@@ -2300,38 +2291,44 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="24"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="E26">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="4"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="4"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
       </c>
+      <c r="J26" s="4"/>
       <c r="K26">
         <f t="shared" si="5"/>
         <v>524</v>
       </c>
+      <c r="L26" s="5"/>
       <c r="M26">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="O26">
+      <c r="N26" s="19"/>
+      <c r="O26" s="18">
         <f t="shared" si="7"/>
         <v>724</v>
       </c>
+      <c r="P26" s="19"/>
       <c r="Q26">
         <f t="shared" si="8"/>
         <v>824</v>
@@ -2346,42 +2343,48 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="24"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="9"/>
       <c r="E27">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>53</v>
+      <c r="F27" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>74</v>
+      <c r="H27" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
         <v>425</v>
       </c>
+      <c r="J27" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="K27">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
+      <c r="L27" s="5"/>
       <c r="M27">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="O27">
+      <c r="N27" s="17"/>
+      <c r="O27" s="18">
         <f t="shared" si="7"/>
         <v>725</v>
       </c>
+      <c r="P27" s="17"/>
       <c r="Q27">
         <f t="shared" si="8"/>
         <v>825</v>
@@ -2396,40 +2399,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="25"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="D28" s="9"/>
       <c r="E28">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="4"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="4"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
       </c>
+      <c r="J28" s="4"/>
       <c r="K28">
         <f t="shared" si="5"/>
         <v>526</v>
       </c>
+      <c r="L28" s="5"/>
       <c r="M28">
         <f t="shared" si="6"/>
         <v>626</v>
       </c>
-      <c r="O28">
+      <c r="N28" s="17"/>
+      <c r="O28" s="18">
         <f t="shared" si="7"/>
         <v>726</v>
       </c>
+      <c r="P28" s="17"/>
       <c r="Q28">
         <f t="shared" si="8"/>
         <v>826</v>
@@ -2444,38 +2449,42 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="25"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="8"/>
       <c r="E29">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="4"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="H29" s="22"/>
+      <c r="H29" s="4"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
       </c>
+      <c r="J29" s="4"/>
       <c r="K29">
         <f t="shared" si="5"/>
         <v>527</v>
       </c>
+      <c r="L29" s="5"/>
       <c r="M29">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="O29">
+      <c r="N29" s="17"/>
+      <c r="O29" s="18">
         <f t="shared" si="7"/>
         <v>727</v>
       </c>
+      <c r="P29" s="17"/>
       <c r="Q29">
         <f t="shared" si="8"/>
         <v>827</v>
@@ -2490,38 +2499,44 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="25"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="E30">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="4"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="4"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
+      <c r="J30" s="4"/>
       <c r="K30">
         <f t="shared" si="5"/>
         <v>528</v>
       </c>
+      <c r="L30" s="5"/>
       <c r="M30">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
-      <c r="O30">
+      <c r="N30" s="17"/>
+      <c r="O30" s="18">
         <f t="shared" si="7"/>
         <v>728</v>
       </c>
+      <c r="P30" s="17"/>
       <c r="Q30">
         <f t="shared" si="8"/>
         <v>828</v>
@@ -2536,38 +2551,42 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="25"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="10"/>
       <c r="E31">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="22"/>
+      <c r="F31" s="4"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="4"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
+      <c r="J31" s="4"/>
       <c r="K31">
         <f t="shared" si="5"/>
         <v>529</v>
       </c>
+      <c r="L31" s="5"/>
       <c r="M31">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
-      <c r="O31">
+      <c r="N31" s="17"/>
+      <c r="O31" s="18">
         <f t="shared" si="7"/>
         <v>729</v>
       </c>
+      <c r="P31" s="17"/>
       <c r="Q31">
         <f t="shared" si="8"/>
         <v>829</v>
@@ -2582,40 +2601,42 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="25"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D32" s="10"/>
       <c r="E32">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="4"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="H32" s="22"/>
+      <c r="H32" s="4"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
+      <c r="J32" s="4"/>
       <c r="K32">
         <f t="shared" si="5"/>
         <v>530</v>
       </c>
+      <c r="L32" s="5"/>
       <c r="M32">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="O32">
+      <c r="N32" s="17"/>
+      <c r="O32" s="18">
         <f t="shared" si="7"/>
         <v>730</v>
       </c>
+      <c r="P32" s="17"/>
       <c r="Q32">
         <f t="shared" si="8"/>
         <v>830</v>
@@ -2630,40 +2651,42 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="25"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="D33" s="10"/>
       <c r="E33">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="4"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="4"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
       </c>
+      <c r="J33" s="4"/>
       <c r="K33">
         <f t="shared" si="5"/>
         <v>531</v>
       </c>
+      <c r="L33" s="5"/>
       <c r="M33">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
-      <c r="O33">
+      <c r="N33" s="17"/>
+      <c r="O33" s="18">
         <f t="shared" si="7"/>
         <v>731</v>
       </c>
+      <c r="P33" s="17"/>
       <c r="Q33">
         <f t="shared" si="8"/>
         <v>831</v>
@@ -2678,40 +2701,44 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="25"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
+      <c r="D34" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="4"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="4"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
       </c>
+      <c r="J34" s="4"/>
       <c r="K34">
         <f t="shared" si="5"/>
         <v>532</v>
       </c>
+      <c r="L34" s="5"/>
       <c r="M34">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="O34">
+      <c r="N34" s="17"/>
+      <c r="O34" s="18">
         <f t="shared" si="7"/>
         <v>732</v>
       </c>
+      <c r="P34" s="17"/>
       <c r="Q34">
         <f t="shared" si="8"/>
         <v>832</v>
@@ -2726,40 +2753,42 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="25"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D35" s="10"/>
       <c r="E35">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="22"/>
+      <c r="F35" s="4"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="H35" s="22"/>
+      <c r="H35" s="4"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
       </c>
+      <c r="J35" s="4"/>
       <c r="K35">
         <f t="shared" si="5"/>
         <v>533</v>
       </c>
+      <c r="L35" s="5"/>
       <c r="M35">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
-      <c r="O35">
+      <c r="N35" s="17"/>
+      <c r="O35" s="18">
         <f t="shared" si="7"/>
         <v>733</v>
       </c>
+      <c r="P35" s="17"/>
       <c r="Q35">
         <f t="shared" si="8"/>
         <v>833</v>
@@ -2774,38 +2803,42 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="25"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="10"/>
       <c r="E36">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="4"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="H36" s="22"/>
+      <c r="H36" s="4"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
       </c>
+      <c r="J36" s="4"/>
       <c r="K36">
         <f t="shared" si="5"/>
         <v>534</v>
       </c>
+      <c r="L36" s="5"/>
       <c r="M36">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
-      <c r="O36">
+      <c r="N36" s="17"/>
+      <c r="O36" s="18">
         <f t="shared" si="7"/>
         <v>734</v>
       </c>
+      <c r="P36" s="17"/>
       <c r="Q36">
         <f t="shared" si="8"/>
         <v>834</v>
@@ -2820,38 +2853,42 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="25"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="10"/>
       <c r="E37">
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="4"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="4"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
       </c>
+      <c r="J37" s="4"/>
       <c r="K37">
         <f t="shared" si="5"/>
         <v>535</v>
       </c>
+      <c r="L37" s="5"/>
       <c r="M37">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
-      <c r="O37">
+      <c r="N37" s="17"/>
+      <c r="O37" s="18">
         <f t="shared" si="7"/>
         <v>735</v>
       </c>
+      <c r="P37" s="17"/>
       <c r="Q37">
         <f t="shared" si="8"/>
         <v>835</v>
@@ -2866,38 +2903,44 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="25"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E38">
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="4"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H38" s="22"/>
+      <c r="H38" s="4"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
       </c>
+      <c r="J38" s="4"/>
       <c r="K38">
         <f t="shared" si="5"/>
         <v>536</v>
       </c>
+      <c r="L38" s="5"/>
       <c r="M38">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
-      <c r="O38">
+      <c r="N38" s="17"/>
+      <c r="O38" s="18">
         <f t="shared" si="7"/>
         <v>736</v>
       </c>
+      <c r="P38" s="17"/>
       <c r="Q38">
         <f t="shared" si="8"/>
         <v>836</v>
@@ -2912,40 +2955,44 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="25"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>11</v>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="22"/>
+      <c r="F39" s="4"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="H39" s="22"/>
+      <c r="H39" s="4"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
       </c>
+      <c r="J39" s="4"/>
       <c r="K39">
         <f t="shared" si="5"/>
         <v>537</v>
       </c>
+      <c r="L39" s="5"/>
       <c r="M39">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="O39">
+      <c r="N39" s="17"/>
+      <c r="O39" s="18">
         <f t="shared" si="7"/>
         <v>737</v>
       </c>
+      <c r="P39" s="17"/>
       <c r="Q39">
         <f t="shared" si="8"/>
         <v>837</v>
@@ -2960,38 +3007,44 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="25"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="D40" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="22"/>
+      <c r="F40" s="4"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="H40" s="22"/>
+      <c r="H40" s="4"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
+      <c r="J40" s="4"/>
       <c r="K40">
         <f t="shared" si="5"/>
         <v>538</v>
       </c>
+      <c r="L40" s="5"/>
       <c r="M40">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="O40">
+      <c r="N40" s="17"/>
+      <c r="O40" s="18">
         <f t="shared" si="7"/>
         <v>738</v>
       </c>
+      <c r="P40" s="17"/>
       <c r="Q40">
         <f t="shared" si="8"/>
         <v>838</v>
@@ -3006,38 +3059,42 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="25"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="13"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="4"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="H41" s="22"/>
+      <c r="H41" s="4"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
       </c>
+      <c r="J41" s="4"/>
       <c r="K41">
         <f t="shared" si="5"/>
         <v>539</v>
       </c>
+      <c r="L41" s="5"/>
       <c r="M41">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
-      <c r="O41">
+      <c r="N41" s="17"/>
+      <c r="O41" s="18">
         <f t="shared" si="7"/>
         <v>739</v>
       </c>
+      <c r="P41" s="17"/>
       <c r="Q41">
         <f t="shared" si="8"/>
         <v>839</v>
@@ -3052,38 +3109,42 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="25"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="14"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F42" s="4"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="H42" s="22"/>
+      <c r="H42" s="4"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
+      <c r="J42" s="4"/>
       <c r="K42">
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
+      <c r="L42" s="5"/>
       <c r="M42">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="O42">
+      <c r="N42" s="17"/>
+      <c r="O42" s="18">
         <f t="shared" si="7"/>
         <v>740</v>
       </c>
+      <c r="P42" s="17"/>
       <c r="Q42">
         <f t="shared" si="8"/>
         <v>840</v>
@@ -3098,40 +3159,42 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="25"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D43" s="15"/>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="22"/>
+      <c r="F43" s="4"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="H43" s="22"/>
+      <c r="H43" s="4"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
       </c>
+      <c r="J43" s="4"/>
       <c r="K43">
         <f t="shared" si="5"/>
         <v>541</v>
       </c>
+      <c r="L43" s="5"/>
       <c r="M43">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
-      <c r="O43">
+      <c r="N43" s="17"/>
+      <c r="O43" s="18">
         <f t="shared" si="7"/>
         <v>741</v>
       </c>
+      <c r="P43" s="17"/>
       <c r="Q43">
         <f t="shared" si="8"/>
         <v>841</v>
@@ -3146,38 +3209,44 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="25"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="22"/>
+      <c r="F44" s="4"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="H44" s="22"/>
+      <c r="H44" s="4"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
       </c>
+      <c r="J44" s="4"/>
       <c r="K44">
         <f t="shared" si="5"/>
         <v>542</v>
       </c>
+      <c r="L44" s="5"/>
       <c r="M44">
         <f t="shared" si="6"/>
         <v>642</v>
       </c>
-      <c r="O44">
+      <c r="N44" s="17"/>
+      <c r="O44" s="18">
         <f t="shared" si="7"/>
         <v>742</v>
       </c>
+      <c r="P44" s="17"/>
       <c r="Q44">
         <f t="shared" si="8"/>
         <v>842</v>
@@ -3192,38 +3261,42 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="25"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="11"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="4"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="H45" s="22"/>
+      <c r="H45" s="4"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
       </c>
+      <c r="J45" s="4"/>
       <c r="K45">
         <f t="shared" si="5"/>
         <v>543</v>
       </c>
+      <c r="L45" s="5"/>
       <c r="M45">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
-      <c r="O45">
+      <c r="N45" s="17"/>
+      <c r="O45" s="18">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
+      <c r="P45" s="17"/>
       <c r="Q45">
         <f t="shared" si="8"/>
         <v>843</v>
@@ -3238,40 +3311,44 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>32</v>
+      <c r="B46" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="11"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="22"/>
+      <c r="F46" s="4"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="H46" s="22"/>
+      <c r="H46" s="4"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
       </c>
+      <c r="J46" s="4"/>
       <c r="K46">
         <f t="shared" si="5"/>
         <v>544</v>
       </c>
+      <c r="L46" s="5"/>
       <c r="M46">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
-      <c r="O46">
+      <c r="N46" s="17"/>
+      <c r="O46" s="18">
         <f t="shared" si="7"/>
         <v>744</v>
       </c>
+      <c r="P46" s="17"/>
       <c r="Q46">
         <f t="shared" si="8"/>
         <v>844</v>
@@ -3286,40 +3363,42 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="3"/>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="D47" s="11"/>
       <c r="E47">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="22"/>
+      <c r="F47" s="4"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="H47" s="22"/>
+      <c r="H47" s="4"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
       </c>
+      <c r="J47" s="4"/>
       <c r="K47">
         <f t="shared" si="5"/>
         <v>545</v>
       </c>
+      <c r="L47" s="5"/>
       <c r="M47">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
-      <c r="O47">
+      <c r="N47" s="17"/>
+      <c r="O47" s="18">
         <f t="shared" si="7"/>
         <v>745</v>
       </c>
+      <c r="P47" s="17"/>
       <c r="Q47">
         <f t="shared" si="8"/>
         <v>845</v>
@@ -3334,40 +3413,44 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="3"/>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>41</v>
+      <c r="D48" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="22"/>
+      <c r="F48" s="4"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="H48" s="22"/>
+      <c r="H48" s="4"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
+      <c r="J48" s="4"/>
       <c r="K48">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
+      <c r="L48" s="5"/>
       <c r="M48">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
-      <c r="O48">
+      <c r="N48" s="17"/>
+      <c r="O48" s="18">
         <f t="shared" si="7"/>
         <v>746</v>
       </c>
+      <c r="P48" s="17"/>
       <c r="Q48">
         <f t="shared" si="8"/>
         <v>846</v>
@@ -3382,40 +3465,42 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="3"/>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D49" s="11"/>
       <c r="E49">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="22"/>
+      <c r="F49" s="4"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="4"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
       </c>
+      <c r="J49" s="4"/>
       <c r="K49">
         <f t="shared" si="5"/>
         <v>547</v>
       </c>
+      <c r="L49" s="5"/>
       <c r="M49">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="O49">
+      <c r="N49" s="17"/>
+      <c r="O49" s="18">
         <f t="shared" si="7"/>
         <v>747</v>
       </c>
+      <c r="P49" s="17"/>
       <c r="Q49">
         <f t="shared" si="8"/>
         <v>847</v>
@@ -3430,40 +3515,42 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="3"/>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="D50" s="11"/>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="22"/>
+      <c r="F50" s="4"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="H50" s="22"/>
+      <c r="H50" s="4"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
       </c>
+      <c r="J50" s="4"/>
       <c r="K50">
         <f t="shared" si="5"/>
         <v>548</v>
       </c>
+      <c r="L50" s="5"/>
       <c r="M50">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
-      <c r="O50">
+      <c r="N50" s="17"/>
+      <c r="O50" s="18">
         <f t="shared" si="7"/>
         <v>748</v>
       </c>
+      <c r="P50" s="17"/>
       <c r="Q50">
         <f t="shared" si="8"/>
         <v>848</v>
@@ -3478,40 +3565,42 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="3"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="D51" s="11"/>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="22"/>
+      <c r="F51" s="4"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="H51" s="22"/>
+      <c r="H51" s="4"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
       </c>
+      <c r="J51" s="4"/>
       <c r="K51">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
+      <c r="L51" s="5"/>
       <c r="M51">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="O51">
+      <c r="N51" s="17"/>
+      <c r="O51" s="18">
         <f t="shared" si="7"/>
         <v>749</v>
       </c>
+      <c r="P51" s="17"/>
       <c r="Q51">
         <f t="shared" si="8"/>
         <v>849</v>
@@ -3526,44 +3615,52 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="3"/>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>54</v>
+      <c r="F52" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="H52" s="21" t="s">
-        <v>97</v>
+      <c r="H52" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
+      <c r="J52" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="K52">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
+      <c r="L52" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="M52">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="O52">
+      <c r="N52" s="17"/>
+      <c r="O52" s="18">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
+      <c r="P52" s="17"/>
       <c r="Q52">
         <f t="shared" si="8"/>
         <v>850</v>
@@ -3578,40 +3675,44 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="3"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="22"/>
+      <c r="F53" s="4"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="H53" s="22"/>
+      <c r="H53" s="4"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>451</v>
       </c>
+      <c r="J53" s="5"/>
       <c r="K53">
         <f t="shared" si="5"/>
         <v>551</v>
       </c>
+      <c r="L53" s="5"/>
       <c r="M53">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
-      <c r="O53">
+      <c r="N53" s="17"/>
+      <c r="O53" s="18">
         <f t="shared" si="7"/>
         <v>751</v>
       </c>
+      <c r="P53" s="17"/>
       <c r="Q53">
         <f t="shared" si="8"/>
         <v>851</v>
@@ -3626,40 +3727,44 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="3"/>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>61</v>
+      <c r="D54" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="22"/>
+      <c r="F54" s="4"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="H54" s="22"/>
+      <c r="H54" s="4"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
+      <c r="J54" s="5"/>
       <c r="K54">
         <f t="shared" si="5"/>
         <v>552</v>
       </c>
+      <c r="L54" s="5"/>
       <c r="M54">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
-      <c r="O54">
+      <c r="N54" s="17"/>
+      <c r="O54" s="18">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
+      <c r="P54" s="17"/>
       <c r="Q54">
         <f t="shared" si="8"/>
         <v>852</v>
@@ -3674,40 +3779,42 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="3"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="D55" s="9"/>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="22"/>
+      <c r="F55" s="4"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="H55" s="22"/>
+      <c r="H55" s="4"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>453</v>
       </c>
+      <c r="J55" s="5"/>
       <c r="K55">
         <f t="shared" si="5"/>
         <v>553</v>
       </c>
+      <c r="L55" s="5"/>
       <c r="M55">
         <f t="shared" si="6"/>
         <v>653</v>
       </c>
-      <c r="O55">
+      <c r="N55" s="17"/>
+      <c r="O55" s="18">
         <f t="shared" si="7"/>
         <v>753</v>
       </c>
+      <c r="P55" s="17"/>
       <c r="Q55">
         <f t="shared" si="8"/>
         <v>853</v>
@@ -3722,40 +3829,42 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="3"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D56" s="9"/>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="22"/>
+      <c r="F56" s="4"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
-      <c r="H56" s="22"/>
+      <c r="H56" s="4"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
+      <c r="J56" s="5"/>
       <c r="K56">
         <f t="shared" si="5"/>
         <v>554</v>
       </c>
+      <c r="L56" s="5"/>
       <c r="M56">
         <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="O56">
+      <c r="N56" s="17"/>
+      <c r="O56" s="18">
         <f t="shared" si="7"/>
         <v>754</v>
       </c>
+      <c r="P56" s="17"/>
       <c r="Q56">
         <f t="shared" si="8"/>
         <v>854</v>
@@ -3770,40 +3879,42 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="3"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D57" s="8"/>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="22"/>
+      <c r="F57" s="4"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="H57" s="22"/>
+      <c r="H57" s="4"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>455</v>
       </c>
+      <c r="J57" s="5"/>
       <c r="K57">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
+      <c r="L57" s="5"/>
       <c r="M57">
         <f t="shared" si="6"/>
         <v>655</v>
       </c>
-      <c r="O57">
+      <c r="N57" s="17"/>
+      <c r="O57" s="18">
         <f t="shared" si="7"/>
         <v>755</v>
       </c>
+      <c r="P57" s="17"/>
       <c r="Q57">
         <f t="shared" si="8"/>
         <v>855</v>
@@ -3818,40 +3929,44 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="3"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>73</v>
+      <c r="D58" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="22"/>
+      <c r="F58" s="4"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
-      <c r="H58" s="22"/>
+      <c r="H58" s="4"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>456</v>
       </c>
+      <c r="J58" s="5"/>
       <c r="K58">
         <f t="shared" si="5"/>
         <v>556</v>
       </c>
+      <c r="L58" s="5"/>
       <c r="M58">
         <f t="shared" si="6"/>
         <v>656</v>
       </c>
-      <c r="O58">
+      <c r="N58" s="17"/>
+      <c r="O58" s="18">
         <f t="shared" si="7"/>
         <v>756</v>
       </c>
+      <c r="P58" s="17"/>
       <c r="Q58">
         <f t="shared" si="8"/>
         <v>856</v>
@@ -3866,40 +3981,42 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="3"/>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="D59" s="14"/>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="22"/>
+      <c r="F59" s="4"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="H59" s="22"/>
+      <c r="H59" s="4"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
+      <c r="J59" s="5"/>
       <c r="K59">
         <f t="shared" si="5"/>
         <v>557</v>
       </c>
+      <c r="L59" s="5"/>
       <c r="M59">
         <f t="shared" si="6"/>
         <v>657</v>
       </c>
-      <c r="O59">
+      <c r="N59" s="17"/>
+      <c r="O59" s="18">
         <f t="shared" si="7"/>
         <v>757</v>
       </c>
+      <c r="P59" s="17"/>
       <c r="Q59">
         <f t="shared" si="8"/>
         <v>857</v>
@@ -3914,40 +4031,42 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="3"/>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="D60" s="14"/>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="22"/>
+      <c r="F60" s="4"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="H60" s="22"/>
+      <c r="H60" s="4"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>458</v>
       </c>
+      <c r="J60" s="5"/>
       <c r="K60">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
+      <c r="L60" s="5"/>
       <c r="M60">
         <f t="shared" si="6"/>
         <v>658</v>
       </c>
-      <c r="O60">
+      <c r="N60" s="17"/>
+      <c r="O60" s="18">
         <f t="shared" si="7"/>
         <v>758</v>
       </c>
+      <c r="P60" s="17"/>
       <c r="Q60">
         <f t="shared" si="8"/>
         <v>858</v>
@@ -3962,40 +4081,42 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="3"/>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="D61" s="15"/>
       <c r="E61">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="22"/>
+      <c r="F61" s="4"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="H61" s="22"/>
+      <c r="H61" s="4"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
+      <c r="J61" s="5"/>
       <c r="K61">
         <f t="shared" si="5"/>
         <v>559</v>
       </c>
+      <c r="L61" s="5"/>
       <c r="M61">
         <f t="shared" si="6"/>
         <v>659</v>
       </c>
-      <c r="O61">
+      <c r="N61" s="17"/>
+      <c r="O61" s="18">
         <f t="shared" si="7"/>
         <v>759</v>
       </c>
+      <c r="P61" s="17"/>
       <c r="Q61">
         <f t="shared" si="8"/>
         <v>859</v>
@@ -4010,40 +4131,44 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="3"/>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>69</v>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="22"/>
+      <c r="F62" s="4"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="H62" s="22"/>
+      <c r="H62" s="4"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>460</v>
       </c>
+      <c r="J62" s="5"/>
       <c r="K62">
         <f t="shared" si="5"/>
         <v>560</v>
       </c>
+      <c r="L62" s="5"/>
       <c r="M62">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="O62">
+      <c r="N62" s="17"/>
+      <c r="O62" s="18">
         <f t="shared" si="7"/>
         <v>760</v>
       </c>
+      <c r="P62" s="17"/>
       <c r="Q62">
         <f t="shared" si="8"/>
         <v>860</v>
@@ -4058,40 +4183,42 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="3"/>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="D63" s="7"/>
       <c r="E63">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="22"/>
+      <c r="F63" s="4"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="H63" s="22"/>
+      <c r="H63" s="4"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>461</v>
       </c>
+      <c r="J63" s="5"/>
       <c r="K63">
         <f t="shared" si="5"/>
         <v>561</v>
       </c>
+      <c r="L63" s="5"/>
       <c r="M63">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
-      <c r="O63">
+      <c r="N63" s="17"/>
+      <c r="O63" s="18">
         <f t="shared" si="7"/>
         <v>761</v>
       </c>
+      <c r="P63" s="17"/>
       <c r="Q63">
         <f t="shared" si="8"/>
         <v>861</v>
@@ -4106,40 +4233,42 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="3"/>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="D64" s="7"/>
       <c r="E64">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="22"/>
+      <c r="F64" s="4"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="4"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>462</v>
       </c>
+      <c r="J64" s="5"/>
       <c r="K64">
         <f t="shared" si="5"/>
         <v>562</v>
       </c>
+      <c r="L64" s="5"/>
       <c r="M64">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="O64">
+      <c r="N64" s="17"/>
+      <c r="O64" s="18">
         <f t="shared" si="7"/>
         <v>762</v>
       </c>
+      <c r="P64" s="17"/>
       <c r="Q64">
         <f t="shared" si="8"/>
         <v>862</v>
@@ -4154,40 +4283,42 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="3"/>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="D65" s="8"/>
       <c r="E65">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="22"/>
+      <c r="F65" s="4"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
-      <c r="H65" s="22"/>
+      <c r="H65" s="4"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>463</v>
       </c>
+      <c r="J65" s="5"/>
       <c r="K65">
         <f t="shared" si="5"/>
         <v>563</v>
       </c>
+      <c r="L65" s="5"/>
       <c r="M65">
         <f t="shared" si="6"/>
         <v>663</v>
       </c>
-      <c r="O65">
+      <c r="N65" s="17"/>
+      <c r="O65" s="18">
         <f t="shared" si="7"/>
         <v>763</v>
       </c>
+      <c r="P65" s="17"/>
       <c r="Q65">
         <f t="shared" si="8"/>
         <v>863</v>
@@ -4202,40 +4333,44 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="3"/>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>47</v>
+      <c r="D66" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="22"/>
+      <c r="F66" s="4"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
-      <c r="H66" s="22"/>
+      <c r="H66" s="4"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>464</v>
       </c>
+      <c r="J66" s="5"/>
       <c r="K66">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
+      <c r="L66" s="5"/>
       <c r="M66">
         <f t="shared" si="6"/>
         <v>664</v>
       </c>
-      <c r="O66">
+      <c r="N66" s="17"/>
+      <c r="O66" s="18">
         <f t="shared" si="7"/>
         <v>764</v>
       </c>
+      <c r="P66" s="17"/>
       <c r="Q66">
         <f t="shared" si="8"/>
         <v>864</v>
@@ -4250,38 +4385,44 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="3"/>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="E67">
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="22"/>
+      <c r="F67" s="4"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
-      <c r="H67" s="22"/>
+      <c r="H67" s="4"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
+      <c r="J67" s="5"/>
       <c r="K67">
         <f t="shared" si="5"/>
         <v>565</v>
       </c>
+      <c r="L67" s="5"/>
       <c r="M67">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
-      <c r="O67">
+      <c r="N67" s="17"/>
+      <c r="O67" s="18">
         <f t="shared" si="7"/>
         <v>765</v>
       </c>
+      <c r="P67" s="17"/>
       <c r="Q67">
         <f t="shared" si="8"/>
         <v>865</v>
@@ -4296,38 +4437,44 @@
         <f t="shared" ref="A68:A101" si="10">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="3"/>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="11">C67+1</f>
         <v>166</v>
       </c>
-      <c r="D68" s="19"/>
+      <c r="D68" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E68">
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="22"/>
+      <c r="F68" s="4"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
       </c>
-      <c r="H68" s="22"/>
+      <c r="H68" s="4"/>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="14">I67+1</f>
         <v>466</v>
       </c>
+      <c r="J68" s="5"/>
       <c r="K68">
         <f t="shared" ref="K68:K101" si="15">K67+1</f>
         <v>566</v>
       </c>
+      <c r="L68" s="5"/>
       <c r="M68">
         <f t="shared" ref="M68:M101" si="16">M67+1</f>
         <v>666</v>
       </c>
-      <c r="O68">
+      <c r="N68" s="17"/>
+      <c r="O68" s="18">
         <f t="shared" ref="O68:O101" si="17">O67+1</f>
         <v>766</v>
       </c>
+      <c r="P68" s="17"/>
       <c r="Q68">
         <f t="shared" ref="Q68:Q101" si="18">Q67+1</f>
         <v>866</v>
@@ -4342,38 +4489,44 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="3"/>
       <c r="C69">
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="D69" s="20"/>
+      <c r="D69" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E69">
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="22"/>
+      <c r="F69" s="4"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
-      <c r="H69" s="22"/>
+      <c r="H69" s="4"/>
       <c r="I69">
         <f t="shared" si="14"/>
         <v>467</v>
       </c>
+      <c r="J69" s="5"/>
       <c r="K69">
         <f t="shared" si="15"/>
         <v>567</v>
       </c>
+      <c r="L69" s="5"/>
       <c r="M69">
         <f t="shared" si="16"/>
         <v>667</v>
       </c>
-      <c r="O69">
+      <c r="N69" s="17"/>
+      <c r="O69" s="18">
         <f t="shared" si="17"/>
         <v>767</v>
       </c>
+      <c r="P69" s="17"/>
       <c r="Q69">
         <f t="shared" si="18"/>
         <v>867</v>
@@ -4388,40 +4541,44 @@
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="3"/>
       <c r="C70">
         <f t="shared" si="11"/>
         <v>168</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>87</v>
+      <c r="D70" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E70">
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="22"/>
+      <c r="F70" s="4"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
-      <c r="H70" s="22"/>
+      <c r="H70" s="4"/>
       <c r="I70">
         <f t="shared" si="14"/>
         <v>468</v>
       </c>
+      <c r="J70" s="5"/>
       <c r="K70">
         <f t="shared" si="15"/>
         <v>568</v>
       </c>
+      <c r="L70" s="5"/>
       <c r="M70">
         <f t="shared" si="16"/>
         <v>668</v>
       </c>
-      <c r="O70">
+      <c r="N70" s="17"/>
+      <c r="O70" s="18">
         <f t="shared" si="17"/>
         <v>768</v>
       </c>
+      <c r="P70" s="17"/>
       <c r="Q70">
         <f t="shared" si="18"/>
         <v>868</v>
@@ -4436,38 +4593,44 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="3"/>
       <c r="C71">
         <f t="shared" si="11"/>
         <v>169</v>
       </c>
-      <c r="D71" s="19"/>
+      <c r="D71" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E71">
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="22"/>
+      <c r="F71" s="4"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
-      <c r="H71" s="22"/>
+      <c r="H71" s="4"/>
       <c r="I71">
         <f t="shared" si="14"/>
         <v>469</v>
       </c>
+      <c r="J71" s="5"/>
       <c r="K71">
         <f t="shared" si="15"/>
         <v>569</v>
       </c>
+      <c r="L71" s="5"/>
       <c r="M71">
         <f t="shared" si="16"/>
         <v>669</v>
       </c>
-      <c r="O71">
+      <c r="N71" s="17"/>
+      <c r="O71" s="18">
         <f t="shared" si="17"/>
         <v>769</v>
       </c>
+      <c r="P71" s="17"/>
       <c r="Q71">
         <f t="shared" si="18"/>
         <v>869</v>
@@ -4482,38 +4645,44 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="3"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
       </c>
-      <c r="D72" s="19"/>
+      <c r="D72" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E72">
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="22"/>
+      <c r="F72" s="4"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
-      <c r="H72" s="22"/>
+      <c r="H72" s="4"/>
       <c r="I72">
         <f t="shared" si="14"/>
         <v>470</v>
       </c>
+      <c r="J72" s="5"/>
       <c r="K72">
         <f t="shared" si="15"/>
         <v>570</v>
       </c>
+      <c r="L72" s="5"/>
       <c r="M72">
         <f t="shared" si="16"/>
         <v>670</v>
       </c>
-      <c r="O72">
+      <c r="N72" s="17"/>
+      <c r="O72" s="18">
         <f t="shared" si="17"/>
         <v>770</v>
       </c>
+      <c r="P72" s="17"/>
       <c r="Q72">
         <f t="shared" si="18"/>
         <v>870</v>
@@ -4528,38 +4697,44 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="3"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
       </c>
-      <c r="D73" s="20"/>
+      <c r="D73" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E73">
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="22"/>
+      <c r="F73" s="4"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="H73" s="22"/>
+      <c r="H73" s="4"/>
       <c r="I73">
         <f t="shared" si="14"/>
         <v>471</v>
       </c>
+      <c r="J73" s="5"/>
       <c r="K73">
         <f t="shared" si="15"/>
         <v>571</v>
       </c>
+      <c r="L73" s="5"/>
       <c r="M73">
         <f t="shared" si="16"/>
         <v>671</v>
       </c>
-      <c r="O73">
+      <c r="N73" s="17"/>
+      <c r="O73" s="18">
         <f t="shared" si="17"/>
         <v>771</v>
       </c>
+      <c r="P73" s="17"/>
       <c r="Q73">
         <f t="shared" si="18"/>
         <v>871</v>
@@ -4574,40 +4749,44 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="3"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
       </c>
-      <c r="D74" s="18" t="s">
-        <v>88</v>
+      <c r="D74" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E74">
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="22"/>
+      <c r="F74" s="4"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
-      <c r="H74" s="22"/>
+      <c r="H74" s="4"/>
       <c r="I74">
         <f t="shared" si="14"/>
         <v>472</v>
       </c>
+      <c r="J74" s="5"/>
       <c r="K74">
         <f t="shared" si="15"/>
         <v>572</v>
       </c>
+      <c r="L74" s="5"/>
       <c r="M74">
         <f t="shared" si="16"/>
         <v>672</v>
       </c>
-      <c r="O74">
+      <c r="N74" s="17"/>
+      <c r="O74" s="18">
         <f t="shared" si="17"/>
         <v>772</v>
       </c>
+      <c r="P74" s="17"/>
       <c r="Q74">
         <f t="shared" si="18"/>
         <v>872</v>
@@ -4622,38 +4801,44 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="3"/>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>173</v>
       </c>
-      <c r="D75" s="19"/>
+      <c r="D75" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E75">
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="22"/>
+      <c r="F75" s="4"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
-      <c r="H75" s="22"/>
+      <c r="H75" s="4"/>
       <c r="I75">
         <f t="shared" si="14"/>
         <v>473</v>
       </c>
+      <c r="J75" s="5"/>
       <c r="K75">
         <f t="shared" si="15"/>
         <v>573</v>
       </c>
+      <c r="L75" s="5"/>
       <c r="M75">
         <f t="shared" si="16"/>
         <v>673</v>
       </c>
-      <c r="O75">
+      <c r="N75" s="17"/>
+      <c r="O75" s="18">
         <f t="shared" si="17"/>
         <v>773</v>
       </c>
+      <c r="P75" s="17"/>
       <c r="Q75">
         <f t="shared" si="18"/>
         <v>873</v>
@@ -4668,38 +4853,44 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="3"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
       </c>
-      <c r="D76" s="19"/>
+      <c r="D76" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E76">
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="22"/>
+      <c r="F76" s="4"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
-      <c r="H76" s="22"/>
+      <c r="H76" s="4"/>
       <c r="I76">
         <f t="shared" si="14"/>
         <v>474</v>
       </c>
+      <c r="J76" s="5"/>
       <c r="K76">
         <f t="shared" si="15"/>
         <v>574</v>
       </c>
+      <c r="L76" s="5"/>
       <c r="M76">
         <f t="shared" si="16"/>
         <v>674</v>
       </c>
-      <c r="O76">
+      <c r="N76" s="17"/>
+      <c r="O76" s="18">
         <f t="shared" si="17"/>
         <v>774</v>
       </c>
+      <c r="P76" s="17"/>
       <c r="Q76">
         <f t="shared" si="18"/>
         <v>874</v>
@@ -4714,39 +4905,48 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="3"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
       </c>
-      <c r="D77" s="20"/>
+      <c r="D77" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E77">
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="21" t="s">
-        <v>55</v>
+      <c r="F77" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
+      <c r="H77" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="I77">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
+      <c r="J77" s="5"/>
       <c r="K77">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
+      <c r="L77" s="5"/>
       <c r="M77">
         <f t="shared" si="16"/>
         <v>675</v>
       </c>
-      <c r="O77">
+      <c r="N77" s="17"/>
+      <c r="O77" s="18">
         <f t="shared" si="17"/>
         <v>775</v>
       </c>
+      <c r="P77" s="17"/>
       <c r="Q77">
         <f t="shared" si="18"/>
         <v>875</v>
@@ -4761,39 +4961,44 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="3"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>89</v>
+      <c r="D78" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E78">
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="22"/>
+      <c r="F78" s="4"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
+      <c r="H78" s="4"/>
       <c r="I78">
         <f t="shared" si="14"/>
         <v>476</v>
       </c>
+      <c r="J78" s="5"/>
       <c r="K78">
         <f t="shared" si="15"/>
         <v>576</v>
       </c>
+      <c r="L78" s="5"/>
       <c r="M78">
         <f t="shared" si="16"/>
         <v>676</v>
       </c>
-      <c r="O78">
+      <c r="N78" s="17"/>
+      <c r="O78" s="18">
         <f t="shared" si="17"/>
         <v>776</v>
       </c>
+      <c r="P78" s="17"/>
       <c r="Q78">
         <f t="shared" si="18"/>
         <v>876</v>
@@ -4808,39 +5013,44 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="3"/>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>177</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>90</v>
+      <c r="D79" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E79">
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="22"/>
+      <c r="F79" s="4"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
+      <c r="H79" s="4"/>
       <c r="I79">
         <f t="shared" si="14"/>
         <v>477</v>
       </c>
+      <c r="J79" s="5"/>
       <c r="K79">
         <f t="shared" si="15"/>
         <v>577</v>
       </c>
+      <c r="L79" s="5"/>
       <c r="M79">
         <f t="shared" si="16"/>
         <v>677</v>
       </c>
-      <c r="O79">
+      <c r="N79" s="17"/>
+      <c r="O79" s="18">
         <f t="shared" si="17"/>
         <v>777</v>
       </c>
+      <c r="P79" s="17"/>
       <c r="Q79">
         <f t="shared" si="18"/>
         <v>877</v>
@@ -4855,39 +5065,44 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="3"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>91</v>
+      <c r="D80" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E80">
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="22"/>
+      <c r="F80" s="4"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
+      <c r="H80" s="4"/>
       <c r="I80">
         <f t="shared" si="14"/>
         <v>478</v>
       </c>
+      <c r="J80" s="5"/>
       <c r="K80">
         <f t="shared" si="15"/>
         <v>578</v>
       </c>
+      <c r="L80" s="5"/>
       <c r="M80">
         <f t="shared" si="16"/>
         <v>678</v>
       </c>
-      <c r="O80">
+      <c r="N80" s="17"/>
+      <c r="O80" s="18">
         <f t="shared" si="17"/>
         <v>778</v>
       </c>
+      <c r="P80" s="17"/>
       <c r="Q80">
         <f t="shared" si="18"/>
         <v>878</v>
@@ -4902,39 +5117,44 @@
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="3"/>
       <c r="C81">
         <f t="shared" si="11"/>
         <v>179</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>46</v>
+      <c r="D81" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E81">
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="22"/>
+      <c r="F81" s="4"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
+      <c r="H81" s="4"/>
       <c r="I81">
         <f t="shared" si="14"/>
         <v>479</v>
       </c>
+      <c r="J81" s="5"/>
       <c r="K81">
         <f t="shared" si="15"/>
         <v>579</v>
       </c>
+      <c r="L81" s="5"/>
       <c r="M81">
         <f t="shared" si="16"/>
         <v>679</v>
       </c>
-      <c r="O81">
+      <c r="N81" s="17"/>
+      <c r="O81" s="18">
         <f t="shared" si="17"/>
         <v>779</v>
       </c>
+      <c r="P81" s="17"/>
       <c r="Q81">
         <f t="shared" si="18"/>
         <v>879</v>
@@ -4949,37 +5169,41 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="3"/>
       <c r="C82">
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="D82" s="23"/>
       <c r="E82">
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="22"/>
+      <c r="F82" s="4"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
+      <c r="H82" s="4"/>
       <c r="I82">
         <f t="shared" si="14"/>
         <v>480</v>
       </c>
+      <c r="J82" s="5"/>
       <c r="K82">
         <f t="shared" si="15"/>
         <v>580</v>
       </c>
+      <c r="L82" s="5"/>
       <c r="M82">
         <f t="shared" si="16"/>
         <v>680</v>
       </c>
-      <c r="O82">
+      <c r="N82" s="17"/>
+      <c r="O82" s="18">
         <f t="shared" si="17"/>
         <v>780</v>
       </c>
+      <c r="P82" s="17"/>
       <c r="Q82">
         <f t="shared" si="18"/>
         <v>880</v>
@@ -4994,7 +5218,7 @@
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="3"/>
       <c r="C83">
         <f t="shared" si="11"/>
         <v>181</v>
@@ -5003,27 +5227,32 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="22"/>
+      <c r="F83" s="4"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
+      <c r="H83" s="4"/>
       <c r="I83">
         <f t="shared" si="14"/>
         <v>481</v>
       </c>
+      <c r="J83" s="5"/>
       <c r="K83">
         <f t="shared" si="15"/>
         <v>581</v>
       </c>
+      <c r="L83" s="5"/>
       <c r="M83">
         <f t="shared" si="16"/>
         <v>681</v>
       </c>
-      <c r="O83">
+      <c r="N83" s="17"/>
+      <c r="O83" s="18">
         <f t="shared" si="17"/>
         <v>781</v>
       </c>
+      <c r="P83" s="17"/>
       <c r="Q83">
         <f t="shared" si="18"/>
         <v>881</v>
@@ -5038,7 +5267,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="3"/>
       <c r="C84">
         <f t="shared" si="11"/>
         <v>182</v>
@@ -5047,27 +5276,32 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="22"/>
+      <c r="F84" s="4"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
+      <c r="H84" s="4"/>
       <c r="I84">
         <f t="shared" si="14"/>
         <v>482</v>
       </c>
+      <c r="J84" s="5"/>
       <c r="K84">
         <f t="shared" si="15"/>
         <v>582</v>
       </c>
+      <c r="L84" s="5"/>
       <c r="M84">
         <f t="shared" si="16"/>
         <v>682</v>
       </c>
-      <c r="O84">
+      <c r="N84" s="17"/>
+      <c r="O84" s="18">
         <f t="shared" si="17"/>
         <v>782</v>
       </c>
+      <c r="P84" s="17"/>
       <c r="Q84">
         <f t="shared" si="18"/>
         <v>882</v>
@@ -5082,8 +5316,8 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>42</v>
+      <c r="B85" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C85">
         <f t="shared" si="11"/>
@@ -5093,27 +5327,32 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="22"/>
+      <c r="F85" s="4"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
+      <c r="H85" s="4"/>
       <c r="I85">
         <f t="shared" si="14"/>
         <v>483</v>
       </c>
+      <c r="J85" s="5"/>
       <c r="K85">
         <f t="shared" si="15"/>
         <v>583</v>
       </c>
+      <c r="L85" s="5"/>
       <c r="M85">
         <f t="shared" si="16"/>
         <v>683</v>
       </c>
-      <c r="O85">
+      <c r="N85" s="17"/>
+      <c r="O85" s="18">
         <f t="shared" si="17"/>
         <v>783</v>
       </c>
+      <c r="P85" s="17"/>
       <c r="Q85">
         <f t="shared" si="18"/>
         <v>883</v>
@@ -5128,7 +5367,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="7"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -5137,27 +5376,32 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="22"/>
+      <c r="F86" s="4"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
+      <c r="H86" s="4"/>
       <c r="I86">
         <f t="shared" si="14"/>
         <v>484</v>
       </c>
+      <c r="J86" s="5"/>
       <c r="K86">
         <f t="shared" si="15"/>
         <v>584</v>
       </c>
+      <c r="L86" s="5"/>
       <c r="M86">
         <f t="shared" si="16"/>
         <v>684</v>
       </c>
-      <c r="O86">
+      <c r="N86" s="17"/>
+      <c r="O86" s="18">
         <f t="shared" si="17"/>
         <v>784</v>
       </c>
+      <c r="P86" s="17"/>
       <c r="Q86">
         <f t="shared" si="18"/>
         <v>884</v>
@@ -5172,7 +5416,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="5"/>
+      <c r="B87" s="7"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -5181,27 +5425,32 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="22"/>
+      <c r="F87" s="4"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
+      <c r="H87" s="4"/>
       <c r="I87">
         <f t="shared" si="14"/>
         <v>485</v>
       </c>
+      <c r="J87" s="5"/>
       <c r="K87">
         <f t="shared" si="15"/>
         <v>585</v>
       </c>
+      <c r="L87" s="5"/>
       <c r="M87">
         <f t="shared" si="16"/>
         <v>685</v>
       </c>
-      <c r="O87">
+      <c r="N87" s="17"/>
+      <c r="O87" s="18">
         <f t="shared" si="17"/>
         <v>785</v>
       </c>
+      <c r="P87" s="17"/>
       <c r="Q87">
         <f t="shared" si="18"/>
         <v>885</v>
@@ -5216,7 +5465,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="6"/>
+      <c r="B88" s="8"/>
       <c r="C88">
         <f t="shared" si="11"/>
         <v>186</v>
@@ -5225,27 +5474,32 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="22"/>
+      <c r="F88" s="4"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
+      <c r="H88" s="4"/>
       <c r="I88">
         <f t="shared" si="14"/>
         <v>486</v>
       </c>
+      <c r="J88" s="5"/>
       <c r="K88">
         <f t="shared" si="15"/>
         <v>586</v>
       </c>
+      <c r="L88" s="5"/>
       <c r="M88">
         <f t="shared" si="16"/>
         <v>686</v>
       </c>
-      <c r="O88">
+      <c r="N88" s="17"/>
+      <c r="O88" s="18">
         <f t="shared" si="17"/>
         <v>786</v>
       </c>
+      <c r="P88" s="17"/>
       <c r="Q88">
         <f t="shared" si="18"/>
         <v>886</v>
@@ -5261,7 +5515,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C89">
         <f t="shared" si="11"/>
@@ -5271,27 +5525,32 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="22"/>
+      <c r="F89" s="4"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
+      <c r="H89" s="4"/>
       <c r="I89">
         <f t="shared" si="14"/>
         <v>487</v>
       </c>
+      <c r="J89" s="5"/>
       <c r="K89">
         <f t="shared" si="15"/>
         <v>587</v>
       </c>
+      <c r="L89" s="5"/>
       <c r="M89">
         <f t="shared" si="16"/>
         <v>687</v>
       </c>
-      <c r="O89">
+      <c r="N89" s="17"/>
+      <c r="O89" s="18">
         <f t="shared" si="17"/>
         <v>787</v>
       </c>
+      <c r="P89" s="17"/>
       <c r="Q89">
         <f t="shared" si="18"/>
         <v>887</v>
@@ -5307,7 +5566,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C90">
         <f t="shared" si="11"/>
@@ -5317,27 +5576,32 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="22"/>
+      <c r="F90" s="4"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
+      <c r="H90" s="4"/>
       <c r="I90">
         <f t="shared" si="14"/>
         <v>488</v>
       </c>
+      <c r="J90" s="5"/>
       <c r="K90">
         <f t="shared" si="15"/>
         <v>588</v>
       </c>
+      <c r="L90" s="5"/>
       <c r="M90">
         <f t="shared" si="16"/>
         <v>688</v>
       </c>
-      <c r="O90">
+      <c r="N90" s="17"/>
+      <c r="O90" s="18">
         <f t="shared" si="17"/>
         <v>788</v>
       </c>
+      <c r="P90" s="17"/>
       <c r="Q90">
         <f t="shared" si="18"/>
         <v>888</v>
@@ -5353,7 +5617,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C91">
         <f t="shared" si="11"/>
@@ -5363,27 +5627,32 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="22"/>
+      <c r="F91" s="4"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
+      <c r="H91" s="4"/>
       <c r="I91">
         <f t="shared" si="14"/>
         <v>489</v>
       </c>
+      <c r="J91" s="5"/>
       <c r="K91">
         <f t="shared" si="15"/>
         <v>589</v>
       </c>
+      <c r="L91" s="5"/>
       <c r="M91">
         <f t="shared" si="16"/>
         <v>689</v>
       </c>
-      <c r="O91">
+      <c r="N91" s="17"/>
+      <c r="O91" s="18">
         <f t="shared" si="17"/>
         <v>789</v>
       </c>
+      <c r="P91" s="17"/>
       <c r="Q91">
         <f t="shared" si="18"/>
         <v>889</v>
@@ -5399,7 +5668,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C92">
         <f t="shared" si="11"/>
@@ -5409,27 +5678,32 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="22"/>
+      <c r="F92" s="4"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
+      <c r="H92" s="4"/>
       <c r="I92">
         <f t="shared" si="14"/>
         <v>490</v>
       </c>
+      <c r="J92" s="5"/>
       <c r="K92">
         <f t="shared" si="15"/>
         <v>590</v>
       </c>
+      <c r="L92" s="5"/>
       <c r="M92">
         <f t="shared" si="16"/>
         <v>690</v>
       </c>
-      <c r="O92">
+      <c r="N92" s="17"/>
+      <c r="O92" s="18">
         <f t="shared" si="17"/>
         <v>790</v>
       </c>
+      <c r="P92" s="17"/>
       <c r="Q92">
         <f t="shared" si="18"/>
         <v>890</v>
@@ -5444,8 +5718,8 @@
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>15</v>
+      <c r="B93" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="C93">
         <f t="shared" si="11"/>
@@ -5455,27 +5729,32 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="22"/>
+      <c r="F93" s="4"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
+      <c r="H93" s="4"/>
       <c r="I93">
         <f t="shared" si="14"/>
         <v>491</v>
       </c>
+      <c r="J93" s="5"/>
       <c r="K93">
         <f t="shared" si="15"/>
         <v>591</v>
       </c>
+      <c r="L93" s="5"/>
       <c r="M93">
         <f t="shared" si="16"/>
         <v>691</v>
       </c>
-      <c r="O93">
+      <c r="N93" s="17"/>
+      <c r="O93" s="18">
         <f t="shared" si="17"/>
         <v>791</v>
       </c>
+      <c r="P93" s="17"/>
       <c r="Q93">
         <f t="shared" si="18"/>
         <v>891</v>
@@ -5490,9 +5769,7 @@
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B94" s="25"/>
       <c r="C94">
         <f t="shared" si="11"/>
         <v>192</v>
@@ -5501,27 +5778,32 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="22"/>
+      <c r="F94" s="4"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
+      <c r="H94" s="4"/>
       <c r="I94">
         <f t="shared" si="14"/>
         <v>492</v>
       </c>
+      <c r="J94" s="5"/>
       <c r="K94">
         <f t="shared" si="15"/>
         <v>592</v>
       </c>
+      <c r="L94" s="5"/>
       <c r="M94">
         <f t="shared" si="16"/>
         <v>692</v>
       </c>
-      <c r="O94">
+      <c r="N94" s="17"/>
+      <c r="O94" s="18">
         <f t="shared" si="17"/>
         <v>792</v>
       </c>
+      <c r="P94" s="17"/>
       <c r="Q94">
         <f t="shared" si="18"/>
         <v>892</v>
@@ -5536,8 +5818,8 @@
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>17</v>
+      <c r="B95" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C95">
         <f t="shared" si="11"/>
@@ -5547,27 +5829,32 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="22"/>
+      <c r="F95" s="4"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
+      <c r="H95" s="4"/>
       <c r="I95">
         <f t="shared" si="14"/>
         <v>493</v>
       </c>
+      <c r="J95" s="5"/>
       <c r="K95">
         <f t="shared" si="15"/>
         <v>593</v>
       </c>
+      <c r="L95" s="5"/>
       <c r="M95">
         <f t="shared" si="16"/>
         <v>693</v>
       </c>
-      <c r="O95">
+      <c r="N95" s="17"/>
+      <c r="O95" s="18">
         <f t="shared" si="17"/>
         <v>793</v>
       </c>
+      <c r="P95" s="17"/>
       <c r="Q95">
         <f t="shared" si="18"/>
         <v>893</v>
@@ -5582,9 +5869,7 @@
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B96" s="25"/>
       <c r="C96">
         <f t="shared" si="11"/>
         <v>194</v>
@@ -5593,27 +5878,32 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="22"/>
+      <c r="F96" s="4"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
+      <c r="H96" s="4"/>
       <c r="I96">
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
+      <c r="J96" s="5"/>
       <c r="K96">
         <f t="shared" si="15"/>
         <v>594</v>
       </c>
+      <c r="L96" s="5"/>
       <c r="M96">
         <f t="shared" si="16"/>
         <v>694</v>
       </c>
-      <c r="O96">
+      <c r="N96" s="17"/>
+      <c r="O96" s="18">
         <f t="shared" si="17"/>
         <v>794</v>
       </c>
+      <c r="P96" s="17"/>
       <c r="Q96">
         <f t="shared" si="18"/>
         <v>894</v>
@@ -5629,7 +5919,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C97">
         <f t="shared" si="11"/>
@@ -5639,27 +5929,32 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="22"/>
+      <c r="F97" s="4"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
+      <c r="H97" s="4"/>
       <c r="I97">
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
+      <c r="J97" s="5"/>
       <c r="K97">
         <f t="shared" si="15"/>
         <v>595</v>
       </c>
+      <c r="L97" s="5"/>
       <c r="M97">
         <f t="shared" si="16"/>
         <v>695</v>
       </c>
-      <c r="O97">
+      <c r="N97" s="17"/>
+      <c r="O97" s="18">
         <f t="shared" si="17"/>
         <v>795</v>
       </c>
+      <c r="P97" s="17"/>
       <c r="Q97">
         <f t="shared" si="18"/>
         <v>895</v>
@@ -5674,8 +5969,8 @@
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>20</v>
+      <c r="B98" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="C98">
         <f t="shared" si="11"/>
@@ -5685,27 +5980,32 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="22"/>
+      <c r="F98" s="4"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
+      <c r="H98" s="4"/>
       <c r="I98">
         <f t="shared" si="14"/>
         <v>496</v>
       </c>
+      <c r="J98" s="5"/>
       <c r="K98">
         <f t="shared" si="15"/>
         <v>596</v>
       </c>
+      <c r="L98" s="5"/>
       <c r="M98">
         <f t="shared" si="16"/>
         <v>696</v>
       </c>
-      <c r="O98">
+      <c r="N98" s="17"/>
+      <c r="O98" s="18">
         <f t="shared" si="17"/>
         <v>796</v>
       </c>
+      <c r="P98" s="17"/>
       <c r="Q98">
         <f t="shared" si="18"/>
         <v>896</v>
@@ -5720,9 +6020,7 @@
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B99" s="22"/>
       <c r="C99">
         <f t="shared" si="11"/>
         <v>197</v>
@@ -5731,27 +6029,32 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="22"/>
+      <c r="F99" s="4"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
+      <c r="H99" s="4"/>
       <c r="I99">
         <f t="shared" si="14"/>
         <v>497</v>
       </c>
+      <c r="J99" s="5"/>
       <c r="K99">
         <f t="shared" si="15"/>
         <v>597</v>
       </c>
+      <c r="L99" s="5"/>
       <c r="M99">
         <f t="shared" si="16"/>
         <v>697</v>
       </c>
-      <c r="O99">
+      <c r="N99" s="17"/>
+      <c r="O99" s="18">
         <f t="shared" si="17"/>
         <v>797</v>
       </c>
+      <c r="P99" s="17"/>
       <c r="Q99">
         <f t="shared" si="18"/>
         <v>897</v>
@@ -5766,9 +6069,7 @@
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B100" s="22"/>
       <c r="C100">
         <f t="shared" si="11"/>
         <v>198</v>
@@ -5777,27 +6078,32 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="22"/>
+      <c r="F100" s="4"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
+      <c r="H100" s="4"/>
       <c r="I100">
         <f t="shared" si="14"/>
         <v>498</v>
       </c>
+      <c r="J100" s="5"/>
       <c r="K100">
         <f t="shared" si="15"/>
         <v>598</v>
       </c>
+      <c r="L100" s="5"/>
       <c r="M100">
         <f t="shared" si="16"/>
         <v>698</v>
       </c>
-      <c r="O100">
+      <c r="N100" s="17"/>
+      <c r="O100" s="18">
         <f t="shared" si="17"/>
         <v>798</v>
       </c>
+      <c r="P100" s="17"/>
       <c r="Q100">
         <f t="shared" si="18"/>
         <v>898</v>
@@ -5812,9 +6118,7 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B101" s="23"/>
       <c r="C101">
         <f t="shared" si="11"/>
         <v>199</v>
@@ -5823,27 +6127,32 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="22"/>
+      <c r="F101" s="4"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
+      <c r="H101" s="4"/>
       <c r="I101">
         <f t="shared" si="14"/>
         <v>499</v>
       </c>
+      <c r="J101" s="5"/>
       <c r="K101">
         <f t="shared" si="15"/>
         <v>599</v>
       </c>
+      <c r="L101" s="5"/>
       <c r="M101">
         <f t="shared" si="16"/>
         <v>699</v>
       </c>
-      <c r="O101">
+      <c r="N101" s="17"/>
+      <c r="O101" s="18">
         <f t="shared" si="17"/>
         <v>799</v>
       </c>
+      <c r="P101" s="17"/>
       <c r="Q101">
         <f t="shared" si="18"/>
         <v>899</v>
@@ -5853,32 +6162,220 @@
         <v>999</v>
       </c>
     </row>
+    <row r="102" spans="1:19">
+      <c r="J102" s="17"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="J103" s="17"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="J104" s="17"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="J105" s="17"/>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="J106" s="17"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="J107" s="17"/>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="J108" s="17"/>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="J109" s="17"/>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="J111" s="17"/>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="J112" s="17"/>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" s="17"/>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" s="17"/>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" s="17"/>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" s="17"/>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" s="17"/>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" s="17"/>
+    </row>
+    <row r="122" spans="10:10">
+      <c r="J122" s="17"/>
+    </row>
+    <row r="123" spans="10:10">
+      <c r="J123" s="17"/>
+    </row>
+    <row r="124" spans="10:10">
+      <c r="J124" s="17"/>
+    </row>
+    <row r="125" spans="10:10">
+      <c r="J125" s="17"/>
+    </row>
+    <row r="126" spans="10:10">
+      <c r="J126" s="17"/>
+    </row>
+    <row r="127" spans="10:10">
+      <c r="J127" s="17"/>
+    </row>
+    <row r="128" spans="10:10">
+      <c r="J128" s="17"/>
+    </row>
+    <row r="129" spans="10:10">
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="10:10">
+      <c r="J130" s="17"/>
+    </row>
+    <row r="131" spans="10:10">
+      <c r="J131" s="17"/>
+    </row>
+    <row r="132" spans="10:10">
+      <c r="J132" s="17"/>
+    </row>
+    <row r="133" spans="10:10">
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="10:10">
+      <c r="J134" s="17"/>
+    </row>
+    <row r="135" spans="10:10">
+      <c r="J135" s="17"/>
+    </row>
+    <row r="136" spans="10:10">
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="10:10">
+      <c r="J137" s="17"/>
+    </row>
+    <row r="138" spans="10:10">
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="10:10">
+      <c r="J139" s="17"/>
+    </row>
+    <row r="140" spans="10:10">
+      <c r="J140" s="17"/>
+    </row>
+    <row r="141" spans="10:10">
+      <c r="J141" s="17"/>
+    </row>
+    <row r="142" spans="10:10">
+      <c r="J142" s="17"/>
+    </row>
+    <row r="143" spans="10:10">
+      <c r="J143" s="17"/>
+    </row>
+    <row r="144" spans="10:10">
+      <c r="J144" s="17"/>
+    </row>
+    <row r="145" spans="10:10">
+      <c r="J145" s="17"/>
+    </row>
+    <row r="146" spans="10:10">
+      <c r="J146" s="17"/>
+    </row>
+    <row r="147" spans="10:10">
+      <c r="J147" s="17"/>
+    </row>
+    <row r="148" spans="10:10">
+      <c r="J148" s="17"/>
+    </row>
+    <row r="149" spans="10:10">
+      <c r="J149" s="17"/>
+    </row>
+    <row r="150" spans="10:10">
+      <c r="J150" s="17"/>
+    </row>
+    <row r="151" spans="10:10">
+      <c r="J151" s="17"/>
+    </row>
+    <row r="152" spans="10:10">
+      <c r="J152" s="18"/>
+    </row>
+    <row r="153" spans="10:10">
+      <c r="J153" s="18"/>
+    </row>
+    <row r="154" spans="10:10">
+      <c r="J154" s="18"/>
+    </row>
+    <row r="155" spans="10:10">
+      <c r="J155" s="18"/>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" s="18"/>
+    </row>
+    <row r="157" spans="10:10">
+      <c r="J157" s="18"/>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" s="18"/>
+    </row>
+    <row r="159" spans="10:10">
+      <c r="J159" s="18"/>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" s="18"/>
+    </row>
+    <row r="161" spans="10:10">
+      <c r="J161" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D81:D82"/>
+  <mergeCells count="32">
     <mergeCell ref="F2:F26"/>
     <mergeCell ref="F27:F51"/>
     <mergeCell ref="F52:F76"/>
     <mergeCell ref="F77:F101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B46:B84"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="B7:B45"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="H52:H76"/>
     <mergeCell ref="H2:H26"/>
     <mergeCell ref="H27:H51"/>
-    <mergeCell ref="H52:H76"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B46:B84"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="B7:B45"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="H77:H101"/>
+    <mergeCell ref="J2:J26"/>
+    <mergeCell ref="J27:J51"/>
+    <mergeCell ref="J52:J101"/>
+    <mergeCell ref="L2:L51"/>
+    <mergeCell ref="L52:L101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -640,13 +640,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -655,8 +669,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -673,27 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1012,7 +1012,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C2">
@@ -1024,35 +1024,35 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="I2">
         <v>400</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="8" t="s">
         <v>70</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="8" t="s">
         <v>68</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18">
+      <c r="N2" s="7"/>
+      <c r="O2" s="5">
         <v>700</v>
       </c>
-      <c r="P2" s="20"/>
+      <c r="P2" s="7"/>
       <c r="Q2">
         <v>800</v>
       </c>
@@ -1071,7 +1071,7 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="20"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
@@ -1083,32 +1083,32 @@
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="9"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="9"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="9"/>
       <c r="K3">
         <f>K2+1</f>
         <v>501</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="28"/>
       <c r="M3">
         <f>M2+1</f>
         <v>601</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="18">
+      <c r="N3" s="6"/>
+      <c r="O3" s="5">
         <f>O2+1</f>
         <v>701</v>
       </c>
-      <c r="P3" s="19"/>
+      <c r="P3" s="6"/>
       <c r="Q3">
         <f>Q2+1</f>
         <v>801</v>
@@ -1129,7 +1129,7 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="20"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
@@ -1141,32 +1141,32 @@
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="9"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="9"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="9"/>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="5">K3+1</f>
         <v>502</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="28"/>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+1</f>
         <v>602</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="18">
+      <c r="N4" s="6"/>
+      <c r="O4" s="5">
         <f t="shared" ref="O4:O67" si="7">O3+1</f>
         <v>702</v>
       </c>
-      <c r="P4" s="19"/>
+      <c r="P4" s="6"/>
       <c r="Q4">
         <f t="shared" ref="Q4:Q67" si="8">Q3+1</f>
         <v>802</v>
@@ -1187,7 +1187,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="20"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -1199,32 +1199,32 @@
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="9"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="9"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="9"/>
       <c r="K5">
         <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="28"/>
       <c r="M5">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="18">
+      <c r="N5" s="6"/>
+      <c r="O5" s="5">
         <f t="shared" si="7"/>
         <v>703</v>
       </c>
-      <c r="P5" s="19"/>
+      <c r="P5" s="6"/>
       <c r="Q5">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -1245,7 +1245,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="20"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -1257,32 +1257,32 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="9"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="9"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="9"/>
       <c r="K6">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="28"/>
       <c r="M6">
         <f t="shared" si="6"/>
         <v>604</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="18">
+      <c r="N6" s="6"/>
+      <c r="O6" s="5">
         <f t="shared" si="7"/>
         <v>704</v>
       </c>
-      <c r="P6" s="19"/>
+      <c r="P6" s="6"/>
       <c r="Q6">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -1303,7 +1303,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C7">
@@ -1317,32 +1317,32 @@
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="9"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="9"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="9"/>
       <c r="K7">
         <f t="shared" si="5"/>
         <v>505</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="28"/>
       <c r="M7">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="18">
+      <c r="N7" s="6"/>
+      <c r="O7" s="5">
         <f t="shared" si="7"/>
         <v>705</v>
       </c>
-      <c r="P7" s="19"/>
+      <c r="P7" s="6"/>
       <c r="Q7">
         <f t="shared" si="8"/>
         <v>805</v>
@@ -1363,7 +1363,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="22"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -1375,32 +1375,32 @@
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="9"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="9"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="9"/>
       <c r="K8">
         <f t="shared" si="5"/>
         <v>506</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="28"/>
       <c r="M8">
         <f t="shared" si="6"/>
         <v>606</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="18">
+      <c r="N8" s="6"/>
+      <c r="O8" s="5">
         <f t="shared" si="7"/>
         <v>706</v>
       </c>
-      <c r="P8" s="19"/>
+      <c r="P8" s="6"/>
       <c r="Q8">
         <f t="shared" si="8"/>
         <v>806</v>
@@ -1421,7 +1421,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="22"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -1433,32 +1433,32 @@
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="9"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="9"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="9"/>
       <c r="K9">
         <f t="shared" si="5"/>
         <v>507</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="28"/>
       <c r="M9">
         <f t="shared" si="6"/>
         <v>607</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="18">
+      <c r="N9" s="6"/>
+      <c r="O9" s="5">
         <f t="shared" si="7"/>
         <v>707</v>
       </c>
-      <c r="P9" s="19"/>
+      <c r="P9" s="6"/>
       <c r="Q9">
         <f t="shared" si="8"/>
         <v>807</v>
@@ -1473,7 +1473,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="22"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -1485,32 +1485,32 @@
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="9"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="9"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="9"/>
       <c r="K10">
         <f t="shared" si="5"/>
         <v>508</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="28"/>
       <c r="M10">
         <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="18">
+      <c r="N10" s="6"/>
+      <c r="O10" s="5">
         <f t="shared" si="7"/>
         <v>708</v>
       </c>
-      <c r="P10" s="19"/>
+      <c r="P10" s="6"/>
       <c r="Q10">
         <f t="shared" si="8"/>
         <v>808</v>
@@ -1525,7 +1525,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="22"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -1537,32 +1537,32 @@
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="9"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="9"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="9"/>
       <c r="K11">
         <f t="shared" si="5"/>
         <v>509</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="28"/>
       <c r="M11">
         <f t="shared" si="6"/>
         <v>609</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="18">
+      <c r="N11" s="6"/>
+      <c r="O11" s="5">
         <f t="shared" si="7"/>
         <v>709</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="6"/>
       <c r="Q11">
         <f t="shared" si="8"/>
         <v>809</v>
@@ -1577,44 +1577,44 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="9"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="9"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="9"/>
       <c r="K12">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="28"/>
       <c r="M12">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="18">
+      <c r="N12" s="6"/>
+      <c r="O12" s="5">
         <f t="shared" si="7"/>
         <v>710</v>
       </c>
-      <c r="P12" s="19"/>
+      <c r="P12" s="6"/>
       <c r="Q12">
         <f t="shared" si="8"/>
         <v>810</v>
@@ -1629,44 +1629,44 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="22"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="9"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="9"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="9"/>
       <c r="K13">
         <f t="shared" si="5"/>
         <v>511</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="28"/>
       <c r="M13">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="18">
+      <c r="N13" s="6"/>
+      <c r="O13" s="5">
         <f t="shared" si="7"/>
         <v>711</v>
       </c>
-      <c r="P13" s="19"/>
+      <c r="P13" s="6"/>
       <c r="Q13">
         <f t="shared" si="8"/>
         <v>811</v>
@@ -1681,42 +1681,42 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="11"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="9"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="9"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="9"/>
       <c r="K14">
         <f t="shared" si="5"/>
         <v>512</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="28"/>
       <c r="M14">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18">
+      <c r="N14" s="6"/>
+      <c r="O14" s="5">
         <f t="shared" si="7"/>
         <v>712</v>
       </c>
-      <c r="P14" s="19"/>
+      <c r="P14" s="6"/>
       <c r="Q14">
         <f t="shared" si="8"/>
         <v>812</v>
@@ -1731,42 +1731,42 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="22"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="11"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="9"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="9"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="9"/>
       <c r="K15">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="28"/>
       <c r="M15">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18">
+      <c r="N15" s="6"/>
+      <c r="O15" s="5">
         <f t="shared" si="7"/>
         <v>713</v>
       </c>
-      <c r="P15" s="19"/>
+      <c r="P15" s="6"/>
       <c r="Q15">
         <f t="shared" si="8"/>
         <v>813</v>
@@ -1781,42 +1781,42 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="22"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="12"/>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="9"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="9"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="9"/>
       <c r="K16">
         <f t="shared" si="5"/>
         <v>514</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="28"/>
       <c r="M16">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18">
+      <c r="N16" s="6"/>
+      <c r="O16" s="5">
         <f t="shared" si="7"/>
         <v>714</v>
       </c>
-      <c r="P16" s="19"/>
+      <c r="P16" s="6"/>
       <c r="Q16">
         <f t="shared" si="8"/>
         <v>814</v>
@@ -1831,44 +1831,44 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="22"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="9"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="9"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="9"/>
       <c r="K17">
         <f t="shared" si="5"/>
         <v>515</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="28"/>
       <c r="M17">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18">
+      <c r="N17" s="6"/>
+      <c r="O17" s="5">
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
-      <c r="P17" s="19"/>
+      <c r="P17" s="6"/>
       <c r="Q17">
         <f t="shared" si="8"/>
         <v>815</v>
@@ -1883,42 +1883,42 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="22"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="11"/>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="9"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="9"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="9"/>
       <c r="K18">
         <f t="shared" si="5"/>
         <v>516</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="28"/>
       <c r="M18">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18">
+      <c r="N18" s="6"/>
+      <c r="O18" s="5">
         <f t="shared" si="7"/>
         <v>716</v>
       </c>
-      <c r="P18" s="19"/>
+      <c r="P18" s="6"/>
       <c r="Q18">
         <f t="shared" si="8"/>
         <v>816</v>
@@ -1933,42 +1933,42 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="22"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="11"/>
       <c r="E19">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="9"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="9"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="9"/>
       <c r="K19">
         <f t="shared" si="5"/>
         <v>517</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="28"/>
       <c r="M19">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="18">
+      <c r="N19" s="6"/>
+      <c r="O19" s="5">
         <f t="shared" si="7"/>
         <v>717</v>
       </c>
-      <c r="P19" s="19"/>
+      <c r="P19" s="6"/>
       <c r="Q19">
         <f t="shared" si="8"/>
         <v>817</v>
@@ -1983,42 +1983,42 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="12"/>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="9"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="9"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="9"/>
       <c r="K20">
         <f t="shared" si="5"/>
         <v>518</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="28"/>
       <c r="M20">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="18">
+      <c r="N20" s="6"/>
+      <c r="O20" s="5">
         <f t="shared" si="7"/>
         <v>718</v>
       </c>
-      <c r="P20" s="19"/>
+      <c r="P20" s="6"/>
       <c r="Q20">
         <f t="shared" si="8"/>
         <v>818</v>
@@ -2033,44 +2033,44 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="9"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="9"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="9"/>
       <c r="K21">
         <f t="shared" si="5"/>
         <v>519</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="28"/>
       <c r="M21">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="18">
+      <c r="N21" s="6"/>
+      <c r="O21" s="5">
         <f t="shared" si="7"/>
         <v>719</v>
       </c>
-      <c r="P21" s="19"/>
+      <c r="P21" s="6"/>
       <c r="Q21">
         <f t="shared" si="8"/>
         <v>819</v>
@@ -2085,42 +2085,42 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="22"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="15"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="9"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="9"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="9"/>
       <c r="K22">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="28"/>
       <c r="M22">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="18">
+      <c r="N22" s="6"/>
+      <c r="O22" s="5">
         <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="P22" s="19"/>
+      <c r="P22" s="6"/>
       <c r="Q22">
         <f t="shared" si="8"/>
         <v>820</v>
@@ -2135,7 +2135,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="22"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2147,32 +2147,32 @@
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="9"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="9"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="9"/>
       <c r="K23">
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="28"/>
       <c r="M23">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="18">
+      <c r="N23" s="6"/>
+      <c r="O23" s="5">
         <f t="shared" si="7"/>
         <v>721</v>
       </c>
-      <c r="P23" s="19"/>
+      <c r="P23" s="6"/>
       <c r="Q23">
         <f t="shared" si="8"/>
         <v>821</v>
@@ -2187,7 +2187,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="22"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2199,32 +2199,32 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="9"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="9"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="9"/>
       <c r="K24">
         <f t="shared" si="5"/>
         <v>522</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="28"/>
       <c r="M24">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="18">
+      <c r="N24" s="6"/>
+      <c r="O24" s="5">
         <f t="shared" si="7"/>
         <v>722</v>
       </c>
-      <c r="P24" s="19"/>
+      <c r="P24" s="6"/>
       <c r="Q24">
         <f t="shared" si="8"/>
         <v>822</v>
@@ -2239,7 +2239,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2251,32 +2251,32 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="9"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="9"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="9"/>
       <c r="K25">
         <f t="shared" si="5"/>
         <v>523</v>
       </c>
-      <c r="L25" s="5"/>
+      <c r="L25" s="28"/>
       <c r="M25">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="18">
+      <c r="N25" s="6"/>
+      <c r="O25" s="5">
         <f t="shared" si="7"/>
         <v>723</v>
       </c>
-      <c r="P25" s="19"/>
+      <c r="P25" s="6"/>
       <c r="Q25">
         <f t="shared" si="8"/>
         <v>823</v>
@@ -2291,44 +2291,44 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="22"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="9"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="9"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="9"/>
       <c r="K26">
         <f t="shared" si="5"/>
         <v>524</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="28"/>
       <c r="M26">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="18">
+      <c r="N26" s="6"/>
+      <c r="O26" s="5">
         <f t="shared" si="7"/>
         <v>724</v>
       </c>
-      <c r="P26" s="19"/>
+      <c r="P26" s="6"/>
       <c r="Q26">
         <f t="shared" si="8"/>
         <v>824</v>
@@ -2343,48 +2343,48 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="22"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="19"/>
       <c r="E27">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
         <v>425</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="28"/>
       <c r="M27">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="18">
+      <c r="N27" s="4"/>
+      <c r="O27" s="5">
         <f t="shared" si="7"/>
         <v>725</v>
       </c>
-      <c r="P27" s="17"/>
+      <c r="P27" s="4"/>
       <c r="Q27">
         <f t="shared" si="8"/>
         <v>825</v>
@@ -2399,42 +2399,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="13"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="19"/>
       <c r="E28">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="9"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="9"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="9"/>
       <c r="K28">
         <f t="shared" si="5"/>
         <v>526</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="L28" s="28"/>
       <c r="M28">
         <f t="shared" si="6"/>
         <v>626</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="18">
+      <c r="N28" s="4"/>
+      <c r="O28" s="5">
         <f t="shared" si="7"/>
         <v>726</v>
       </c>
-      <c r="P28" s="17"/>
+      <c r="P28" s="4"/>
       <c r="Q28">
         <f t="shared" si="8"/>
         <v>826</v>
@@ -2449,42 +2449,42 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="13"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="18"/>
       <c r="E29">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="9"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="9"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="9"/>
       <c r="K29">
         <f t="shared" si="5"/>
         <v>527</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="28"/>
       <c r="M29">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="18">
+      <c r="N29" s="4"/>
+      <c r="O29" s="5">
         <f t="shared" si="7"/>
         <v>727</v>
       </c>
-      <c r="P29" s="17"/>
+      <c r="P29" s="4"/>
       <c r="Q29">
         <f t="shared" si="8"/>
         <v>827</v>
@@ -2499,44 +2499,44 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="13"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="9"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="9"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="9"/>
       <c r="K30">
         <f t="shared" si="5"/>
         <v>528</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="28"/>
       <c r="M30">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18">
+      <c r="N30" s="4"/>
+      <c r="O30" s="5">
         <f t="shared" si="7"/>
         <v>728</v>
       </c>
-      <c r="P30" s="17"/>
+      <c r="P30" s="4"/>
       <c r="Q30">
         <f t="shared" si="8"/>
         <v>828</v>
@@ -2551,42 +2551,42 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="13"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="21"/>
       <c r="E31">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="9"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="9"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="9"/>
       <c r="K31">
         <f t="shared" si="5"/>
         <v>529</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="28"/>
       <c r="M31">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="18">
+      <c r="N31" s="4"/>
+      <c r="O31" s="5">
         <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="P31" s="17"/>
+      <c r="P31" s="4"/>
       <c r="Q31">
         <f t="shared" si="8"/>
         <v>829</v>
@@ -2601,42 +2601,42 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="13"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="21"/>
       <c r="E32">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="9"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="9"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="9"/>
       <c r="K32">
         <f t="shared" si="5"/>
         <v>530</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="L32" s="28"/>
       <c r="M32">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="18">
+      <c r="N32" s="4"/>
+      <c r="O32" s="5">
         <f t="shared" si="7"/>
         <v>730</v>
       </c>
-      <c r="P32" s="17"/>
+      <c r="P32" s="4"/>
       <c r="Q32">
         <f t="shared" si="8"/>
         <v>830</v>
@@ -2651,42 +2651,42 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="13"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="21"/>
       <c r="E33">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="9"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="9"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="9"/>
       <c r="K33">
         <f t="shared" si="5"/>
         <v>531</v>
       </c>
-      <c r="L33" s="5"/>
+      <c r="L33" s="28"/>
       <c r="M33">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="18">
+      <c r="N33" s="4"/>
+      <c r="O33" s="5">
         <f t="shared" si="7"/>
         <v>731</v>
       </c>
-      <c r="P33" s="17"/>
+      <c r="P33" s="4"/>
       <c r="Q33">
         <f t="shared" si="8"/>
         <v>831</v>
@@ -2701,44 +2701,44 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="13"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="9"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="9"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="9"/>
       <c r="K34">
         <f t="shared" si="5"/>
         <v>532</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="28"/>
       <c r="M34">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="18">
+      <c r="N34" s="4"/>
+      <c r="O34" s="5">
         <f t="shared" si="7"/>
         <v>732</v>
       </c>
-      <c r="P34" s="17"/>
+      <c r="P34" s="4"/>
       <c r="Q34">
         <f t="shared" si="8"/>
         <v>832</v>
@@ -2753,42 +2753,42 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="13"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="21"/>
       <c r="E35">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="9"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="9"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="9"/>
       <c r="K35">
         <f t="shared" si="5"/>
         <v>533</v>
       </c>
-      <c r="L35" s="5"/>
+      <c r="L35" s="28"/>
       <c r="M35">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18">
+      <c r="N35" s="4"/>
+      <c r="O35" s="5">
         <f t="shared" si="7"/>
         <v>733</v>
       </c>
-      <c r="P35" s="17"/>
+      <c r="P35" s="4"/>
       <c r="Q35">
         <f t="shared" si="8"/>
         <v>833</v>
@@ -2803,42 +2803,42 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="13"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="21"/>
       <c r="E36">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="9"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="9"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="9"/>
       <c r="K36">
         <f t="shared" si="5"/>
         <v>534</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="28"/>
       <c r="M36">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18">
+      <c r="N36" s="4"/>
+      <c r="O36" s="5">
         <f t="shared" si="7"/>
         <v>734</v>
       </c>
-      <c r="P36" s="17"/>
+      <c r="P36" s="4"/>
       <c r="Q36">
         <f t="shared" si="8"/>
         <v>834</v>
@@ -2853,42 +2853,42 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="13"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="21"/>
       <c r="E37">
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="9"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="9"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="9"/>
       <c r="K37">
         <f t="shared" si="5"/>
         <v>535</v>
       </c>
-      <c r="L37" s="5"/>
+      <c r="L37" s="28"/>
       <c r="M37">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="18">
+      <c r="N37" s="4"/>
+      <c r="O37" s="5">
         <f t="shared" si="7"/>
         <v>735</v>
       </c>
-      <c r="P37" s="17"/>
+      <c r="P37" s="4"/>
       <c r="Q37">
         <f t="shared" si="8"/>
         <v>835</v>
@@ -2903,7 +2903,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="13"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -2915,32 +2915,32 @@
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="9"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="9"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="9"/>
       <c r="K38">
         <f t="shared" si="5"/>
         <v>536</v>
       </c>
-      <c r="L38" s="5"/>
+      <c r="L38" s="28"/>
       <c r="M38">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="18">
+      <c r="N38" s="4"/>
+      <c r="O38" s="5">
         <f t="shared" si="7"/>
         <v>736</v>
       </c>
-      <c r="P38" s="17"/>
+      <c r="P38" s="4"/>
       <c r="Q38">
         <f t="shared" si="8"/>
         <v>836</v>
@@ -2955,7 +2955,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="13"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -2967,32 +2967,32 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="9"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="9"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="9"/>
       <c r="K39">
         <f t="shared" si="5"/>
         <v>537</v>
       </c>
-      <c r="L39" s="5"/>
+      <c r="L39" s="28"/>
       <c r="M39">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="N39" s="17"/>
-      <c r="O39" s="18">
+      <c r="N39" s="4"/>
+      <c r="O39" s="5">
         <f t="shared" si="7"/>
         <v>737</v>
       </c>
-      <c r="P39" s="17"/>
+      <c r="P39" s="4"/>
       <c r="Q39">
         <f t="shared" si="8"/>
         <v>837</v>
@@ -3007,44 +3007,44 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="13"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="9"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="9"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J40" s="9"/>
       <c r="K40">
         <f t="shared" si="5"/>
         <v>538</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="28"/>
       <c r="M40">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18">
+      <c r="N40" s="4"/>
+      <c r="O40" s="5">
         <f t="shared" si="7"/>
         <v>738</v>
       </c>
-      <c r="P40" s="17"/>
+      <c r="P40" s="4"/>
       <c r="Q40">
         <f t="shared" si="8"/>
         <v>838</v>
@@ -3059,42 +3059,42 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="13"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="13"/>
+      <c r="D41" s="25"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="9"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="9"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="9"/>
       <c r="K41">
         <f t="shared" si="5"/>
         <v>539</v>
       </c>
-      <c r="L41" s="5"/>
+      <c r="L41" s="28"/>
       <c r="M41">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18">
+      <c r="N41" s="4"/>
+      <c r="O41" s="5">
         <f t="shared" si="7"/>
         <v>739</v>
       </c>
-      <c r="P41" s="17"/>
+      <c r="P41" s="4"/>
       <c r="Q41">
         <f t="shared" si="8"/>
         <v>839</v>
@@ -3109,42 +3109,42 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="13"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="26"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="9"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="9"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42" s="9"/>
       <c r="K42">
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="28"/>
       <c r="M42">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18">
+      <c r="N42" s="4"/>
+      <c r="O42" s="5">
         <f t="shared" si="7"/>
         <v>740</v>
       </c>
-      <c r="P42" s="17"/>
+      <c r="P42" s="4"/>
       <c r="Q42">
         <f t="shared" si="8"/>
         <v>840</v>
@@ -3159,42 +3159,42 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="13"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="27"/>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="9"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="9"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43" s="9"/>
       <c r="K43">
         <f t="shared" si="5"/>
         <v>541</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="L43" s="28"/>
       <c r="M43">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18">
+      <c r="N43" s="4"/>
+      <c r="O43" s="5">
         <f t="shared" si="7"/>
         <v>741</v>
       </c>
-      <c r="P43" s="17"/>
+      <c r="P43" s="4"/>
       <c r="Q43">
         <f t="shared" si="8"/>
         <v>841</v>
@@ -3209,44 +3209,44 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="25"/>
+      <c r="B44" s="13"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="9"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="9"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="9"/>
       <c r="K44">
         <f t="shared" si="5"/>
         <v>542</v>
       </c>
-      <c r="L44" s="5"/>
+      <c r="L44" s="28"/>
       <c r="M44">
         <f t="shared" si="6"/>
         <v>642</v>
       </c>
-      <c r="N44" s="17"/>
-      <c r="O44" s="18">
+      <c r="N44" s="4"/>
+      <c r="O44" s="5">
         <f t="shared" si="7"/>
         <v>742</v>
       </c>
-      <c r="P44" s="17"/>
+      <c r="P44" s="4"/>
       <c r="Q44">
         <f t="shared" si="8"/>
         <v>842</v>
@@ -3261,42 +3261,42 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="13"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="D45" s="11"/>
+      <c r="D45" s="23"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="9"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="9"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="9"/>
       <c r="K45">
         <f t="shared" si="5"/>
         <v>543</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="L45" s="28"/>
       <c r="M45">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
-      <c r="N45" s="17"/>
-      <c r="O45" s="18">
+      <c r="N45" s="4"/>
+      <c r="O45" s="5">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
-      <c r="P45" s="17"/>
+      <c r="P45" s="4"/>
       <c r="Q45">
         <f t="shared" si="8"/>
         <v>843</v>
@@ -3311,44 +3311,44 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="D46" s="11"/>
+      <c r="D46" s="23"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="9"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="9"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46" s="9"/>
       <c r="K46">
         <f t="shared" si="5"/>
         <v>544</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="L46" s="28"/>
       <c r="M46">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
-      <c r="N46" s="17"/>
-      <c r="O46" s="18">
+      <c r="N46" s="4"/>
+      <c r="O46" s="5">
         <f t="shared" si="7"/>
         <v>744</v>
       </c>
-      <c r="P46" s="17"/>
+      <c r="P46" s="4"/>
       <c r="Q46">
         <f t="shared" si="8"/>
         <v>844</v>
@@ -3363,42 +3363,42 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="8"/>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="D47" s="11"/>
+      <c r="D47" s="23"/>
       <c r="E47">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="9"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="9"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="J47" s="9"/>
       <c r="K47">
         <f t="shared" si="5"/>
         <v>545</v>
       </c>
-      <c r="L47" s="5"/>
+      <c r="L47" s="28"/>
       <c r="M47">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
-      <c r="N47" s="17"/>
-      <c r="O47" s="18">
+      <c r="N47" s="4"/>
+      <c r="O47" s="5">
         <f t="shared" si="7"/>
         <v>745</v>
       </c>
-      <c r="P47" s="17"/>
+      <c r="P47" s="4"/>
       <c r="Q47">
         <f t="shared" si="8"/>
         <v>845</v>
@@ -3413,44 +3413,44 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="8"/>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="9"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="9"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48" s="9"/>
       <c r="K48">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="28"/>
       <c r="M48">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
-      <c r="N48" s="17"/>
-      <c r="O48" s="18">
+      <c r="N48" s="4"/>
+      <c r="O48" s="5">
         <f t="shared" si="7"/>
         <v>746</v>
       </c>
-      <c r="P48" s="17"/>
+      <c r="P48" s="4"/>
       <c r="Q48">
         <f t="shared" si="8"/>
         <v>846</v>
@@ -3465,42 +3465,42 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="8"/>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="D49" s="11"/>
+      <c r="D49" s="23"/>
       <c r="E49">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="9"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="9"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
       </c>
-      <c r="J49" s="4"/>
+      <c r="J49" s="9"/>
       <c r="K49">
         <f t="shared" si="5"/>
         <v>547</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="28"/>
       <c r="M49">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="N49" s="17"/>
-      <c r="O49" s="18">
+      <c r="N49" s="4"/>
+      <c r="O49" s="5">
         <f t="shared" si="7"/>
         <v>747</v>
       </c>
-      <c r="P49" s="17"/>
+      <c r="P49" s="4"/>
       <c r="Q49">
         <f t="shared" si="8"/>
         <v>847</v>
@@ -3515,42 +3515,42 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="8"/>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="D50" s="11"/>
+      <c r="D50" s="23"/>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="9"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="9"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="J50" s="9"/>
       <c r="K50">
         <f t="shared" si="5"/>
         <v>548</v>
       </c>
-      <c r="L50" s="5"/>
+      <c r="L50" s="28"/>
       <c r="M50">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
-      <c r="N50" s="17"/>
-      <c r="O50" s="18">
+      <c r="N50" s="4"/>
+      <c r="O50" s="5">
         <f t="shared" si="7"/>
         <v>748</v>
       </c>
-      <c r="P50" s="17"/>
+      <c r="P50" s="4"/>
       <c r="Q50">
         <f t="shared" si="8"/>
         <v>848</v>
@@ -3565,42 +3565,42 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="8"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="D51" s="11"/>
+      <c r="D51" s="23"/>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="9"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="9"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
       </c>
-      <c r="J51" s="4"/>
+      <c r="J51" s="9"/>
       <c r="K51">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="28"/>
       <c r="M51">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="N51" s="17"/>
-      <c r="O51" s="18">
+      <c r="N51" s="4"/>
+      <c r="O51" s="5">
         <f t="shared" si="7"/>
         <v>749</v>
       </c>
-      <c r="P51" s="17"/>
+      <c r="P51" s="4"/>
       <c r="Q51">
         <f t="shared" si="8"/>
         <v>849</v>
@@ -3615,7 +3615,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="8"/>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -3627,40 +3627,40 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="N52" s="17"/>
-      <c r="O52" s="18">
+      <c r="N52" s="4"/>
+      <c r="O52" s="5">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="P52" s="17"/>
+      <c r="P52" s="4"/>
       <c r="Q52">
         <f t="shared" si="8"/>
         <v>850</v>
@@ -3675,7 +3675,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="8"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
@@ -3687,32 +3687,32 @@
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="9"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="9"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>451</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="28"/>
       <c r="K53">
         <f t="shared" si="5"/>
         <v>551</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="L53" s="28"/>
       <c r="M53">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
-      <c r="N53" s="17"/>
-      <c r="O53" s="18">
+      <c r="N53" s="4"/>
+      <c r="O53" s="5">
         <f t="shared" si="7"/>
         <v>751</v>
       </c>
-      <c r="P53" s="17"/>
+      <c r="P53" s="4"/>
       <c r="Q53">
         <f t="shared" si="8"/>
         <v>851</v>
@@ -3727,44 +3727,44 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="8"/>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="9"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="H54" s="4"/>
+      <c r="H54" s="9"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
-      <c r="J54" s="5"/>
+      <c r="J54" s="28"/>
       <c r="K54">
         <f t="shared" si="5"/>
         <v>552</v>
       </c>
-      <c r="L54" s="5"/>
+      <c r="L54" s="28"/>
       <c r="M54">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
-      <c r="N54" s="17"/>
-      <c r="O54" s="18">
+      <c r="N54" s="4"/>
+      <c r="O54" s="5">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
-      <c r="P54" s="17"/>
+      <c r="P54" s="4"/>
       <c r="Q54">
         <f t="shared" si="8"/>
         <v>852</v>
@@ -3779,42 +3779,42 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="8"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="D55" s="9"/>
+      <c r="D55" s="19"/>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="9"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="9"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>453</v>
       </c>
-      <c r="J55" s="5"/>
+      <c r="J55" s="28"/>
       <c r="K55">
         <f t="shared" si="5"/>
         <v>553</v>
       </c>
-      <c r="L55" s="5"/>
+      <c r="L55" s="28"/>
       <c r="M55">
         <f t="shared" si="6"/>
         <v>653</v>
       </c>
-      <c r="N55" s="17"/>
-      <c r="O55" s="18">
+      <c r="N55" s="4"/>
+      <c r="O55" s="5">
         <f t="shared" si="7"/>
         <v>753</v>
       </c>
-      <c r="P55" s="17"/>
+      <c r="P55" s="4"/>
       <c r="Q55">
         <f t="shared" si="8"/>
         <v>853</v>
@@ -3829,42 +3829,42 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="8"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="19"/>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="9"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="9"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
-      <c r="J56" s="5"/>
+      <c r="J56" s="28"/>
       <c r="K56">
         <f t="shared" si="5"/>
         <v>554</v>
       </c>
-      <c r="L56" s="5"/>
+      <c r="L56" s="28"/>
       <c r="M56">
         <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="N56" s="17"/>
-      <c r="O56" s="18">
+      <c r="N56" s="4"/>
+      <c r="O56" s="5">
         <f t="shared" si="7"/>
         <v>754</v>
       </c>
-      <c r="P56" s="17"/>
+      <c r="P56" s="4"/>
       <c r="Q56">
         <f t="shared" si="8"/>
         <v>854</v>
@@ -3879,42 +3879,42 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="8"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="18"/>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="9"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="9"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>455</v>
       </c>
-      <c r="J57" s="5"/>
+      <c r="J57" s="28"/>
       <c r="K57">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
-      <c r="L57" s="5"/>
+      <c r="L57" s="28"/>
       <c r="M57">
         <f t="shared" si="6"/>
         <v>655</v>
       </c>
-      <c r="N57" s="17"/>
-      <c r="O57" s="18">
+      <c r="N57" s="4"/>
+      <c r="O57" s="5">
         <f t="shared" si="7"/>
         <v>755</v>
       </c>
-      <c r="P57" s="17"/>
+      <c r="P57" s="4"/>
       <c r="Q57">
         <f t="shared" si="8"/>
         <v>855</v>
@@ -3929,44 +3929,44 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="8"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="9"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="9"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>456</v>
       </c>
-      <c r="J58" s="5"/>
+      <c r="J58" s="28"/>
       <c r="K58">
         <f t="shared" si="5"/>
         <v>556</v>
       </c>
-      <c r="L58" s="5"/>
+      <c r="L58" s="28"/>
       <c r="M58">
         <f t="shared" si="6"/>
         <v>656</v>
       </c>
-      <c r="N58" s="17"/>
-      <c r="O58" s="18">
+      <c r="N58" s="4"/>
+      <c r="O58" s="5">
         <f t="shared" si="7"/>
         <v>756</v>
       </c>
-      <c r="P58" s="17"/>
+      <c r="P58" s="4"/>
       <c r="Q58">
         <f t="shared" si="8"/>
         <v>856</v>
@@ -3981,42 +3981,42 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="8"/>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="D59" s="14"/>
+      <c r="D59" s="26"/>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="9"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="9"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
-      <c r="J59" s="5"/>
+      <c r="J59" s="28"/>
       <c r="K59">
         <f t="shared" si="5"/>
         <v>557</v>
       </c>
-      <c r="L59" s="5"/>
+      <c r="L59" s="28"/>
       <c r="M59">
         <f t="shared" si="6"/>
         <v>657</v>
       </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="18">
+      <c r="N59" s="4"/>
+      <c r="O59" s="5">
         <f t="shared" si="7"/>
         <v>757</v>
       </c>
-      <c r="P59" s="17"/>
+      <c r="P59" s="4"/>
       <c r="Q59">
         <f t="shared" si="8"/>
         <v>857</v>
@@ -4031,42 +4031,42 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="8"/>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="26"/>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="9"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="9"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>458</v>
       </c>
-      <c r="J60" s="5"/>
+      <c r="J60" s="28"/>
       <c r="K60">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
-      <c r="L60" s="5"/>
+      <c r="L60" s="28"/>
       <c r="M60">
         <f t="shared" si="6"/>
         <v>658</v>
       </c>
-      <c r="N60" s="17"/>
-      <c r="O60" s="18">
+      <c r="N60" s="4"/>
+      <c r="O60" s="5">
         <f t="shared" si="7"/>
         <v>758</v>
       </c>
-      <c r="P60" s="17"/>
+      <c r="P60" s="4"/>
       <c r="Q60">
         <f t="shared" si="8"/>
         <v>858</v>
@@ -4081,42 +4081,42 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="8"/>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="D61" s="15"/>
+      <c r="D61" s="27"/>
       <c r="E61">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="9"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="9"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
-      <c r="J61" s="5"/>
+      <c r="J61" s="28"/>
       <c r="K61">
         <f t="shared" si="5"/>
         <v>559</v>
       </c>
-      <c r="L61" s="5"/>
+      <c r="L61" s="28"/>
       <c r="M61">
         <f t="shared" si="6"/>
         <v>659</v>
       </c>
-      <c r="N61" s="17"/>
-      <c r="O61" s="18">
+      <c r="N61" s="4"/>
+      <c r="O61" s="5">
         <f t="shared" si="7"/>
         <v>759</v>
       </c>
-      <c r="P61" s="17"/>
+      <c r="P61" s="4"/>
       <c r="Q61">
         <f t="shared" si="8"/>
         <v>859</v>
@@ -4131,44 +4131,44 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="8"/>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="9"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="9"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>460</v>
       </c>
-      <c r="J62" s="5"/>
+      <c r="J62" s="28"/>
       <c r="K62">
         <f t="shared" si="5"/>
         <v>560</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="28"/>
       <c r="M62">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="N62" s="17"/>
-      <c r="O62" s="18">
+      <c r="N62" s="4"/>
+      <c r="O62" s="5">
         <f t="shared" si="7"/>
         <v>760</v>
       </c>
-      <c r="P62" s="17"/>
+      <c r="P62" s="4"/>
       <c r="Q62">
         <f t="shared" si="8"/>
         <v>860</v>
@@ -4183,42 +4183,42 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="8"/>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="17"/>
       <c r="E63">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="9"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="9"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>461</v>
       </c>
-      <c r="J63" s="5"/>
+      <c r="J63" s="28"/>
       <c r="K63">
         <f t="shared" si="5"/>
         <v>561</v>
       </c>
-      <c r="L63" s="5"/>
+      <c r="L63" s="28"/>
       <c r="M63">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
-      <c r="N63" s="17"/>
-      <c r="O63" s="18">
+      <c r="N63" s="4"/>
+      <c r="O63" s="5">
         <f t="shared" si="7"/>
         <v>761</v>
       </c>
-      <c r="P63" s="17"/>
+      <c r="P63" s="4"/>
       <c r="Q63">
         <f t="shared" si="8"/>
         <v>861</v>
@@ -4233,42 +4233,42 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="8"/>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="17"/>
       <c r="E64">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="9"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="H64" s="4"/>
+      <c r="H64" s="9"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>462</v>
       </c>
-      <c r="J64" s="5"/>
+      <c r="J64" s="28"/>
       <c r="K64">
         <f t="shared" si="5"/>
         <v>562</v>
       </c>
-      <c r="L64" s="5"/>
+      <c r="L64" s="28"/>
       <c r="M64">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="N64" s="17"/>
-      <c r="O64" s="18">
+      <c r="N64" s="4"/>
+      <c r="O64" s="5">
         <f t="shared" si="7"/>
         <v>762</v>
       </c>
-      <c r="P64" s="17"/>
+      <c r="P64" s="4"/>
       <c r="Q64">
         <f t="shared" si="8"/>
         <v>862</v>
@@ -4283,42 +4283,42 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="8"/>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="18"/>
       <c r="E65">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="9"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
-      <c r="H65" s="4"/>
+      <c r="H65" s="9"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>463</v>
       </c>
-      <c r="J65" s="5"/>
+      <c r="J65" s="28"/>
       <c r="K65">
         <f t="shared" si="5"/>
         <v>563</v>
       </c>
-      <c r="L65" s="5"/>
+      <c r="L65" s="28"/>
       <c r="M65">
         <f t="shared" si="6"/>
         <v>663</v>
       </c>
-      <c r="N65" s="17"/>
-      <c r="O65" s="18">
+      <c r="N65" s="4"/>
+      <c r="O65" s="5">
         <f t="shared" si="7"/>
         <v>763</v>
       </c>
-      <c r="P65" s="17"/>
+      <c r="P65" s="4"/>
       <c r="Q65">
         <f t="shared" si="8"/>
         <v>863</v>
@@ -4333,44 +4333,44 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="8"/>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="9"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
-      <c r="H66" s="4"/>
+      <c r="H66" s="9"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>464</v>
       </c>
-      <c r="J66" s="5"/>
+      <c r="J66" s="28"/>
       <c r="K66">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="L66" s="5"/>
+      <c r="L66" s="28"/>
       <c r="M66">
         <f t="shared" si="6"/>
         <v>664</v>
       </c>
-      <c r="N66" s="17"/>
-      <c r="O66" s="18">
+      <c r="N66" s="4"/>
+      <c r="O66" s="5">
         <f t="shared" si="7"/>
         <v>764</v>
       </c>
-      <c r="P66" s="17"/>
+      <c r="P66" s="4"/>
       <c r="Q66">
         <f t="shared" si="8"/>
         <v>864</v>
@@ -4385,44 +4385,44 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="8"/>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="9"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
-      <c r="H67" s="4"/>
+      <c r="H67" s="9"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
-      <c r="J67" s="5"/>
+      <c r="J67" s="28"/>
       <c r="K67">
         <f t="shared" si="5"/>
         <v>565</v>
       </c>
-      <c r="L67" s="5"/>
+      <c r="L67" s="28"/>
       <c r="M67">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
-      <c r="N67" s="17"/>
-      <c r="O67" s="18">
+      <c r="N67" s="4"/>
+      <c r="O67" s="5">
         <f t="shared" si="7"/>
         <v>765</v>
       </c>
-      <c r="P67" s="17"/>
+      <c r="P67" s="4"/>
       <c r="Q67">
         <f t="shared" si="8"/>
         <v>865</v>
@@ -4437,7 +4437,7 @@
         <f t="shared" ref="A68:A101" si="10">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="8"/>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="11">C67+1</f>
         <v>166</v>
@@ -4449,32 +4449,32 @@
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="9"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
       </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="9"/>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="14">I67+1</f>
         <v>466</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="28"/>
       <c r="K68">
         <f t="shared" ref="K68:K101" si="15">K67+1</f>
         <v>566</v>
       </c>
-      <c r="L68" s="5"/>
+      <c r="L68" s="28"/>
       <c r="M68">
         <f t="shared" ref="M68:M101" si="16">M67+1</f>
         <v>666</v>
       </c>
-      <c r="N68" s="17"/>
-      <c r="O68" s="18">
+      <c r="N68" s="4"/>
+      <c r="O68" s="5">
         <f t="shared" ref="O68:O101" si="17">O67+1</f>
         <v>766</v>
       </c>
-      <c r="P68" s="17"/>
+      <c r="P68" s="4"/>
       <c r="Q68">
         <f t="shared" ref="Q68:Q101" si="18">Q67+1</f>
         <v>866</v>
@@ -4489,7 +4489,7 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="8"/>
       <c r="C69">
         <f t="shared" si="11"/>
         <v>167</v>
@@ -4501,32 +4501,32 @@
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="9"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
-      <c r="H69" s="4"/>
+      <c r="H69" s="9"/>
       <c r="I69">
         <f t="shared" si="14"/>
         <v>467</v>
       </c>
-      <c r="J69" s="5"/>
+      <c r="J69" s="28"/>
       <c r="K69">
         <f t="shared" si="15"/>
         <v>567</v>
       </c>
-      <c r="L69" s="5"/>
+      <c r="L69" s="28"/>
       <c r="M69">
         <f t="shared" si="16"/>
         <v>667</v>
       </c>
-      <c r="N69" s="17"/>
-      <c r="O69" s="18">
+      <c r="N69" s="4"/>
+      <c r="O69" s="5">
         <f t="shared" si="17"/>
         <v>767</v>
       </c>
-      <c r="P69" s="17"/>
+      <c r="P69" s="4"/>
       <c r="Q69">
         <f t="shared" si="18"/>
         <v>867</v>
@@ -4541,7 +4541,7 @@
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="8"/>
       <c r="C70">
         <f t="shared" si="11"/>
         <v>168</v>
@@ -4553,32 +4553,32 @@
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="9"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="9"/>
       <c r="I70">
         <f t="shared" si="14"/>
         <v>468</v>
       </c>
-      <c r="J70" s="5"/>
+      <c r="J70" s="28"/>
       <c r="K70">
         <f t="shared" si="15"/>
         <v>568</v>
       </c>
-      <c r="L70" s="5"/>
+      <c r="L70" s="28"/>
       <c r="M70">
         <f t="shared" si="16"/>
         <v>668</v>
       </c>
-      <c r="N70" s="17"/>
-      <c r="O70" s="18">
+      <c r="N70" s="4"/>
+      <c r="O70" s="5">
         <f t="shared" si="17"/>
         <v>768</v>
       </c>
-      <c r="P70" s="17"/>
+      <c r="P70" s="4"/>
       <c r="Q70">
         <f t="shared" si="18"/>
         <v>868</v>
@@ -4593,7 +4593,7 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="8"/>
       <c r="C71">
         <f t="shared" si="11"/>
         <v>169</v>
@@ -4605,32 +4605,32 @@
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="9"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
-      <c r="H71" s="4"/>
+      <c r="H71" s="9"/>
       <c r="I71">
         <f t="shared" si="14"/>
         <v>469</v>
       </c>
-      <c r="J71" s="5"/>
+      <c r="J71" s="28"/>
       <c r="K71">
         <f t="shared" si="15"/>
         <v>569</v>
       </c>
-      <c r="L71" s="5"/>
+      <c r="L71" s="28"/>
       <c r="M71">
         <f t="shared" si="16"/>
         <v>669</v>
       </c>
-      <c r="N71" s="17"/>
-      <c r="O71" s="18">
+      <c r="N71" s="4"/>
+      <c r="O71" s="5">
         <f t="shared" si="17"/>
         <v>769</v>
       </c>
-      <c r="P71" s="17"/>
+      <c r="P71" s="4"/>
       <c r="Q71">
         <f t="shared" si="18"/>
         <v>869</v>
@@ -4645,7 +4645,7 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="8"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
@@ -4657,32 +4657,32 @@
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="9"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
-      <c r="H72" s="4"/>
+      <c r="H72" s="9"/>
       <c r="I72">
         <f t="shared" si="14"/>
         <v>470</v>
       </c>
-      <c r="J72" s="5"/>
+      <c r="J72" s="28"/>
       <c r="K72">
         <f t="shared" si="15"/>
         <v>570</v>
       </c>
-      <c r="L72" s="5"/>
+      <c r="L72" s="28"/>
       <c r="M72">
         <f t="shared" si="16"/>
         <v>670</v>
       </c>
-      <c r="N72" s="17"/>
-      <c r="O72" s="18">
+      <c r="N72" s="4"/>
+      <c r="O72" s="5">
         <f t="shared" si="17"/>
         <v>770</v>
       </c>
-      <c r="P72" s="17"/>
+      <c r="P72" s="4"/>
       <c r="Q72">
         <f t="shared" si="18"/>
         <v>870</v>
@@ -4697,7 +4697,7 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="8"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
@@ -4709,32 +4709,32 @@
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="9"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="H73" s="4"/>
+      <c r="H73" s="9"/>
       <c r="I73">
         <f t="shared" si="14"/>
         <v>471</v>
       </c>
-      <c r="J73" s="5"/>
+      <c r="J73" s="28"/>
       <c r="K73">
         <f t="shared" si="15"/>
         <v>571</v>
       </c>
-      <c r="L73" s="5"/>
+      <c r="L73" s="28"/>
       <c r="M73">
         <f t="shared" si="16"/>
         <v>671</v>
       </c>
-      <c r="N73" s="17"/>
-      <c r="O73" s="18">
+      <c r="N73" s="4"/>
+      <c r="O73" s="5">
         <f t="shared" si="17"/>
         <v>771</v>
       </c>
-      <c r="P73" s="17"/>
+      <c r="P73" s="4"/>
       <c r="Q73">
         <f t="shared" si="18"/>
         <v>871</v>
@@ -4749,7 +4749,7 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="8"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
@@ -4761,32 +4761,32 @@
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="9"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
-      <c r="H74" s="4"/>
+      <c r="H74" s="9"/>
       <c r="I74">
         <f t="shared" si="14"/>
         <v>472</v>
       </c>
-      <c r="J74" s="5"/>
+      <c r="J74" s="28"/>
       <c r="K74">
         <f t="shared" si="15"/>
         <v>572</v>
       </c>
-      <c r="L74" s="5"/>
+      <c r="L74" s="28"/>
       <c r="M74">
         <f t="shared" si="16"/>
         <v>672</v>
       </c>
-      <c r="N74" s="17"/>
-      <c r="O74" s="18">
+      <c r="N74" s="4"/>
+      <c r="O74" s="5">
         <f t="shared" si="17"/>
         <v>772</v>
       </c>
-      <c r="P74" s="17"/>
+      <c r="P74" s="4"/>
       <c r="Q74">
         <f t="shared" si="18"/>
         <v>872</v>
@@ -4801,7 +4801,7 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="8"/>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>173</v>
@@ -4813,32 +4813,32 @@
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="4"/>
+      <c r="F75" s="9"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
-      <c r="H75" s="4"/>
+      <c r="H75" s="9"/>
       <c r="I75">
         <f t="shared" si="14"/>
         <v>473</v>
       </c>
-      <c r="J75" s="5"/>
+      <c r="J75" s="28"/>
       <c r="K75">
         <f t="shared" si="15"/>
         <v>573</v>
       </c>
-      <c r="L75" s="5"/>
+      <c r="L75" s="28"/>
       <c r="M75">
         <f t="shared" si="16"/>
         <v>673</v>
       </c>
-      <c r="N75" s="17"/>
-      <c r="O75" s="18">
+      <c r="N75" s="4"/>
+      <c r="O75" s="5">
         <f t="shared" si="17"/>
         <v>773</v>
       </c>
-      <c r="P75" s="17"/>
+      <c r="P75" s="4"/>
       <c r="Q75">
         <f t="shared" si="18"/>
         <v>873</v>
@@ -4853,7 +4853,7 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="8"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
@@ -4865,32 +4865,32 @@
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="4"/>
+      <c r="F76" s="9"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="9"/>
       <c r="I76">
         <f t="shared" si="14"/>
         <v>474</v>
       </c>
-      <c r="J76" s="5"/>
+      <c r="J76" s="28"/>
       <c r="K76">
         <f t="shared" si="15"/>
         <v>574</v>
       </c>
-      <c r="L76" s="5"/>
+      <c r="L76" s="28"/>
       <c r="M76">
         <f t="shared" si="16"/>
         <v>674</v>
       </c>
-      <c r="N76" s="17"/>
-      <c r="O76" s="18">
+      <c r="N76" s="4"/>
+      <c r="O76" s="5">
         <f t="shared" si="17"/>
         <v>774</v>
       </c>
-      <c r="P76" s="17"/>
+      <c r="P76" s="4"/>
       <c r="Q76">
         <f t="shared" si="18"/>
         <v>874</v>
@@ -4905,7 +4905,7 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="8"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
@@ -4917,36 +4917,36 @@
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I77">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
-      <c r="J77" s="5"/>
+      <c r="J77" s="28"/>
       <c r="K77">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
-      <c r="L77" s="5"/>
+      <c r="L77" s="28"/>
       <c r="M77">
         <f t="shared" si="16"/>
         <v>675</v>
       </c>
-      <c r="N77" s="17"/>
-      <c r="O77" s="18">
+      <c r="N77" s="4"/>
+      <c r="O77" s="5">
         <f t="shared" si="17"/>
         <v>775</v>
       </c>
-      <c r="P77" s="17"/>
+      <c r="P77" s="4"/>
       <c r="Q77">
         <f t="shared" si="18"/>
         <v>875</v>
@@ -4961,7 +4961,7 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="8"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
@@ -4973,32 +4973,32 @@
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="9"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
-      <c r="H78" s="4"/>
+      <c r="H78" s="9"/>
       <c r="I78">
         <f t="shared" si="14"/>
         <v>476</v>
       </c>
-      <c r="J78" s="5"/>
+      <c r="J78" s="28"/>
       <c r="K78">
         <f t="shared" si="15"/>
         <v>576</v>
       </c>
-      <c r="L78" s="5"/>
+      <c r="L78" s="28"/>
       <c r="M78">
         <f t="shared" si="16"/>
         <v>676</v>
       </c>
-      <c r="N78" s="17"/>
-      <c r="O78" s="18">
+      <c r="N78" s="4"/>
+      <c r="O78" s="5">
         <f t="shared" si="17"/>
         <v>776</v>
       </c>
-      <c r="P78" s="17"/>
+      <c r="P78" s="4"/>
       <c r="Q78">
         <f t="shared" si="18"/>
         <v>876</v>
@@ -5013,7 +5013,7 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="8"/>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>177</v>
@@ -5025,32 +5025,32 @@
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="9"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
-      <c r="H79" s="4"/>
+      <c r="H79" s="9"/>
       <c r="I79">
         <f t="shared" si="14"/>
         <v>477</v>
       </c>
-      <c r="J79" s="5"/>
+      <c r="J79" s="28"/>
       <c r="K79">
         <f t="shared" si="15"/>
         <v>577</v>
       </c>
-      <c r="L79" s="5"/>
+      <c r="L79" s="28"/>
       <c r="M79">
         <f t="shared" si="16"/>
         <v>677</v>
       </c>
-      <c r="N79" s="17"/>
-      <c r="O79" s="18">
+      <c r="N79" s="4"/>
+      <c r="O79" s="5">
         <f t="shared" si="17"/>
         <v>777</v>
       </c>
-      <c r="P79" s="17"/>
+      <c r="P79" s="4"/>
       <c r="Q79">
         <f t="shared" si="18"/>
         <v>877</v>
@@ -5065,7 +5065,7 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="8"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
@@ -5077,32 +5077,32 @@
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="4"/>
+      <c r="F80" s="9"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
-      <c r="H80" s="4"/>
+      <c r="H80" s="9"/>
       <c r="I80">
         <f t="shared" si="14"/>
         <v>478</v>
       </c>
-      <c r="J80" s="5"/>
+      <c r="J80" s="28"/>
       <c r="K80">
         <f t="shared" si="15"/>
         <v>578</v>
       </c>
-      <c r="L80" s="5"/>
+      <c r="L80" s="28"/>
       <c r="M80">
         <f t="shared" si="16"/>
         <v>678</v>
       </c>
-      <c r="N80" s="17"/>
-      <c r="O80" s="18">
+      <c r="N80" s="4"/>
+      <c r="O80" s="5">
         <f t="shared" si="17"/>
         <v>778</v>
       </c>
-      <c r="P80" s="17"/>
+      <c r="P80" s="4"/>
       <c r="Q80">
         <f t="shared" si="18"/>
         <v>878</v>
@@ -5117,7 +5117,7 @@
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="8"/>
       <c r="C81">
         <f t="shared" si="11"/>
         <v>179</v>
@@ -5129,32 +5129,32 @@
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="4"/>
+      <c r="F81" s="9"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
-      <c r="H81" s="4"/>
+      <c r="H81" s="9"/>
       <c r="I81">
         <f t="shared" si="14"/>
         <v>479</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="28"/>
       <c r="K81">
         <f t="shared" si="15"/>
         <v>579</v>
       </c>
-      <c r="L81" s="5"/>
+      <c r="L81" s="28"/>
       <c r="M81">
         <f t="shared" si="16"/>
         <v>679</v>
       </c>
-      <c r="N81" s="17"/>
-      <c r="O81" s="18">
+      <c r="N81" s="4"/>
+      <c r="O81" s="5">
         <f t="shared" si="17"/>
         <v>779</v>
       </c>
-      <c r="P81" s="17"/>
+      <c r="P81" s="4"/>
       <c r="Q81">
         <f t="shared" si="18"/>
         <v>879</v>
@@ -5169,7 +5169,7 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="8"/>
       <c r="C82">
         <f t="shared" si="11"/>
         <v>180</v>
@@ -5178,32 +5178,32 @@
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="9"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="H82" s="4"/>
+      <c r="H82" s="9"/>
       <c r="I82">
         <f t="shared" si="14"/>
         <v>480</v>
       </c>
-      <c r="J82" s="5"/>
+      <c r="J82" s="28"/>
       <c r="K82">
         <f t="shared" si="15"/>
         <v>580</v>
       </c>
-      <c r="L82" s="5"/>
+      <c r="L82" s="28"/>
       <c r="M82">
         <f t="shared" si="16"/>
         <v>680</v>
       </c>
-      <c r="N82" s="17"/>
-      <c r="O82" s="18">
+      <c r="N82" s="4"/>
+      <c r="O82" s="5">
         <f t="shared" si="17"/>
         <v>780</v>
       </c>
-      <c r="P82" s="17"/>
+      <c r="P82" s="4"/>
       <c r="Q82">
         <f t="shared" si="18"/>
         <v>880</v>
@@ -5218,7 +5218,7 @@
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="8"/>
       <c r="C83">
         <f t="shared" si="11"/>
         <v>181</v>
@@ -5227,32 +5227,32 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="9"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
-      <c r="H83" s="4"/>
+      <c r="H83" s="9"/>
       <c r="I83">
         <f t="shared" si="14"/>
         <v>481</v>
       </c>
-      <c r="J83" s="5"/>
+      <c r="J83" s="28"/>
       <c r="K83">
         <f t="shared" si="15"/>
         <v>581</v>
       </c>
-      <c r="L83" s="5"/>
+      <c r="L83" s="28"/>
       <c r="M83">
         <f t="shared" si="16"/>
         <v>681</v>
       </c>
-      <c r="N83" s="17"/>
-      <c r="O83" s="18">
+      <c r="N83" s="4"/>
+      <c r="O83" s="5">
         <f t="shared" si="17"/>
         <v>781</v>
       </c>
-      <c r="P83" s="17"/>
+      <c r="P83" s="4"/>
       <c r="Q83">
         <f t="shared" si="18"/>
         <v>881</v>
@@ -5267,7 +5267,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="8"/>
       <c r="C84">
         <f t="shared" si="11"/>
         <v>182</v>
@@ -5276,32 +5276,32 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="4"/>
+      <c r="F84" s="9"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
-      <c r="H84" s="4"/>
+      <c r="H84" s="9"/>
       <c r="I84">
         <f t="shared" si="14"/>
         <v>482</v>
       </c>
-      <c r="J84" s="5"/>
+      <c r="J84" s="28"/>
       <c r="K84">
         <f t="shared" si="15"/>
         <v>582</v>
       </c>
-      <c r="L84" s="5"/>
+      <c r="L84" s="28"/>
       <c r="M84">
         <f t="shared" si="16"/>
         <v>682</v>
       </c>
-      <c r="N84" s="17"/>
-      <c r="O84" s="18">
+      <c r="N84" s="4"/>
+      <c r="O84" s="5">
         <f t="shared" si="17"/>
         <v>782</v>
       </c>
-      <c r="P84" s="17"/>
+      <c r="P84" s="4"/>
       <c r="Q84">
         <f t="shared" si="18"/>
         <v>882</v>
@@ -5316,7 +5316,7 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C85">
@@ -5327,32 +5327,32 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="4"/>
+      <c r="F85" s="9"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
-      <c r="H85" s="4"/>
+      <c r="H85" s="9"/>
       <c r="I85">
         <f t="shared" si="14"/>
         <v>483</v>
       </c>
-      <c r="J85" s="5"/>
+      <c r="J85" s="28"/>
       <c r="K85">
         <f t="shared" si="15"/>
         <v>583</v>
       </c>
-      <c r="L85" s="5"/>
+      <c r="L85" s="28"/>
       <c r="M85">
         <f t="shared" si="16"/>
         <v>683</v>
       </c>
-      <c r="N85" s="17"/>
-      <c r="O85" s="18">
+      <c r="N85" s="4"/>
+      <c r="O85" s="5">
         <f t="shared" si="17"/>
         <v>783</v>
       </c>
-      <c r="P85" s="17"/>
+      <c r="P85" s="4"/>
       <c r="Q85">
         <f t="shared" si="18"/>
         <v>883</v>
@@ -5367,7 +5367,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="7"/>
+      <c r="B86" s="17"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -5376,32 +5376,32 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="9"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
-      <c r="H86" s="4"/>
+      <c r="H86" s="9"/>
       <c r="I86">
         <f t="shared" si="14"/>
         <v>484</v>
       </c>
-      <c r="J86" s="5"/>
+      <c r="J86" s="28"/>
       <c r="K86">
         <f t="shared" si="15"/>
         <v>584</v>
       </c>
-      <c r="L86" s="5"/>
+      <c r="L86" s="28"/>
       <c r="M86">
         <f t="shared" si="16"/>
         <v>684</v>
       </c>
-      <c r="N86" s="17"/>
-      <c r="O86" s="18">
+      <c r="N86" s="4"/>
+      <c r="O86" s="5">
         <f t="shared" si="17"/>
         <v>784</v>
       </c>
-      <c r="P86" s="17"/>
+      <c r="P86" s="4"/>
       <c r="Q86">
         <f t="shared" si="18"/>
         <v>884</v>
@@ -5416,7 +5416,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="7"/>
+      <c r="B87" s="17"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -5425,32 +5425,32 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="4"/>
+      <c r="F87" s="9"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
-      <c r="H87" s="4"/>
+      <c r="H87" s="9"/>
       <c r="I87">
         <f t="shared" si="14"/>
         <v>485</v>
       </c>
-      <c r="J87" s="5"/>
+      <c r="J87" s="28"/>
       <c r="K87">
         <f t="shared" si="15"/>
         <v>585</v>
       </c>
-      <c r="L87" s="5"/>
+      <c r="L87" s="28"/>
       <c r="M87">
         <f t="shared" si="16"/>
         <v>685</v>
       </c>
-      <c r="N87" s="17"/>
-      <c r="O87" s="18">
+      <c r="N87" s="4"/>
+      <c r="O87" s="5">
         <f t="shared" si="17"/>
         <v>785</v>
       </c>
-      <c r="P87" s="17"/>
+      <c r="P87" s="4"/>
       <c r="Q87">
         <f t="shared" si="18"/>
         <v>885</v>
@@ -5465,7 +5465,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="8"/>
+      <c r="B88" s="18"/>
       <c r="C88">
         <f t="shared" si="11"/>
         <v>186</v>
@@ -5474,32 +5474,32 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="9"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
-      <c r="H88" s="4"/>
+      <c r="H88" s="9"/>
       <c r="I88">
         <f t="shared" si="14"/>
         <v>486</v>
       </c>
-      <c r="J88" s="5"/>
+      <c r="J88" s="28"/>
       <c r="K88">
         <f t="shared" si="15"/>
         <v>586</v>
       </c>
-      <c r="L88" s="5"/>
+      <c r="L88" s="28"/>
       <c r="M88">
         <f t="shared" si="16"/>
         <v>686</v>
       </c>
-      <c r="N88" s="17"/>
-      <c r="O88" s="18">
+      <c r="N88" s="4"/>
+      <c r="O88" s="5">
         <f t="shared" si="17"/>
         <v>786</v>
       </c>
-      <c r="P88" s="17"/>
+      <c r="P88" s="4"/>
       <c r="Q88">
         <f t="shared" si="18"/>
         <v>886</v>
@@ -5525,32 +5525,32 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="9"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
-      <c r="H89" s="4"/>
+      <c r="H89" s="9"/>
       <c r="I89">
         <f t="shared" si="14"/>
         <v>487</v>
       </c>
-      <c r="J89" s="5"/>
+      <c r="J89" s="28"/>
       <c r="K89">
         <f t="shared" si="15"/>
         <v>587</v>
       </c>
-      <c r="L89" s="5"/>
+      <c r="L89" s="28"/>
       <c r="M89">
         <f t="shared" si="16"/>
         <v>687</v>
       </c>
-      <c r="N89" s="17"/>
-      <c r="O89" s="18">
+      <c r="N89" s="4"/>
+      <c r="O89" s="5">
         <f t="shared" si="17"/>
         <v>787</v>
       </c>
-      <c r="P89" s="17"/>
+      <c r="P89" s="4"/>
       <c r="Q89">
         <f t="shared" si="18"/>
         <v>887</v>
@@ -5576,32 +5576,32 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="9"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
-      <c r="H90" s="4"/>
+      <c r="H90" s="9"/>
       <c r="I90">
         <f t="shared" si="14"/>
         <v>488</v>
       </c>
-      <c r="J90" s="5"/>
+      <c r="J90" s="28"/>
       <c r="K90">
         <f t="shared" si="15"/>
         <v>588</v>
       </c>
-      <c r="L90" s="5"/>
+      <c r="L90" s="28"/>
       <c r="M90">
         <f t="shared" si="16"/>
         <v>688</v>
       </c>
-      <c r="N90" s="17"/>
-      <c r="O90" s="18">
+      <c r="N90" s="4"/>
+      <c r="O90" s="5">
         <f t="shared" si="17"/>
         <v>788</v>
       </c>
-      <c r="P90" s="17"/>
+      <c r="P90" s="4"/>
       <c r="Q90">
         <f t="shared" si="18"/>
         <v>888</v>
@@ -5627,32 +5627,32 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="9"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
-      <c r="H91" s="4"/>
+      <c r="H91" s="9"/>
       <c r="I91">
         <f t="shared" si="14"/>
         <v>489</v>
       </c>
-      <c r="J91" s="5"/>
+      <c r="J91" s="28"/>
       <c r="K91">
         <f t="shared" si="15"/>
         <v>589</v>
       </c>
-      <c r="L91" s="5"/>
+      <c r="L91" s="28"/>
       <c r="M91">
         <f t="shared" si="16"/>
         <v>689</v>
       </c>
-      <c r="N91" s="17"/>
-      <c r="O91" s="18">
+      <c r="N91" s="4"/>
+      <c r="O91" s="5">
         <f t="shared" si="17"/>
         <v>789</v>
       </c>
-      <c r="P91" s="17"/>
+      <c r="P91" s="4"/>
       <c r="Q91">
         <f t="shared" si="18"/>
         <v>889</v>
@@ -5678,32 +5678,32 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="9"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="9"/>
       <c r="I92">
         <f t="shared" si="14"/>
         <v>490</v>
       </c>
-      <c r="J92" s="5"/>
+      <c r="J92" s="28"/>
       <c r="K92">
         <f t="shared" si="15"/>
         <v>590</v>
       </c>
-      <c r="L92" s="5"/>
+      <c r="L92" s="28"/>
       <c r="M92">
         <f t="shared" si="16"/>
         <v>690</v>
       </c>
-      <c r="N92" s="17"/>
-      <c r="O92" s="18">
+      <c r="N92" s="4"/>
+      <c r="O92" s="5">
         <f t="shared" si="17"/>
         <v>790</v>
       </c>
-      <c r="P92" s="17"/>
+      <c r="P92" s="4"/>
       <c r="Q92">
         <f t="shared" si="18"/>
         <v>890</v>
@@ -5718,7 +5718,7 @@
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C93">
@@ -5729,32 +5729,32 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="9"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
-      <c r="H93" s="4"/>
+      <c r="H93" s="9"/>
       <c r="I93">
         <f t="shared" si="14"/>
         <v>491</v>
       </c>
-      <c r="J93" s="5"/>
+      <c r="J93" s="28"/>
       <c r="K93">
         <f t="shared" si="15"/>
         <v>591</v>
       </c>
-      <c r="L93" s="5"/>
+      <c r="L93" s="28"/>
       <c r="M93">
         <f t="shared" si="16"/>
         <v>691</v>
       </c>
-      <c r="N93" s="17"/>
-      <c r="O93" s="18">
+      <c r="N93" s="4"/>
+      <c r="O93" s="5">
         <f t="shared" si="17"/>
         <v>791</v>
       </c>
-      <c r="P93" s="17"/>
+      <c r="P93" s="4"/>
       <c r="Q93">
         <f t="shared" si="18"/>
         <v>891</v>
@@ -5769,7 +5769,7 @@
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="B94" s="25"/>
+      <c r="B94" s="13"/>
       <c r="C94">
         <f t="shared" si="11"/>
         <v>192</v>
@@ -5778,32 +5778,32 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="9"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
-      <c r="H94" s="4"/>
+      <c r="H94" s="9"/>
       <c r="I94">
         <f t="shared" si="14"/>
         <v>492</v>
       </c>
-      <c r="J94" s="5"/>
+      <c r="J94" s="28"/>
       <c r="K94">
         <f t="shared" si="15"/>
         <v>592</v>
       </c>
-      <c r="L94" s="5"/>
+      <c r="L94" s="28"/>
       <c r="M94">
         <f t="shared" si="16"/>
         <v>692</v>
       </c>
-      <c r="N94" s="17"/>
-      <c r="O94" s="18">
+      <c r="N94" s="4"/>
+      <c r="O94" s="5">
         <f t="shared" si="17"/>
         <v>792</v>
       </c>
-      <c r="P94" s="17"/>
+      <c r="P94" s="4"/>
       <c r="Q94">
         <f t="shared" si="18"/>
         <v>892</v>
@@ -5818,7 +5818,7 @@
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C95">
@@ -5829,32 +5829,32 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="4"/>
+      <c r="F95" s="9"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
-      <c r="H95" s="4"/>
+      <c r="H95" s="9"/>
       <c r="I95">
         <f t="shared" si="14"/>
         <v>493</v>
       </c>
-      <c r="J95" s="5"/>
+      <c r="J95" s="28"/>
       <c r="K95">
         <f t="shared" si="15"/>
         <v>593</v>
       </c>
-      <c r="L95" s="5"/>
+      <c r="L95" s="28"/>
       <c r="M95">
         <f t="shared" si="16"/>
         <v>693</v>
       </c>
-      <c r="N95" s="17"/>
-      <c r="O95" s="18">
+      <c r="N95" s="4"/>
+      <c r="O95" s="5">
         <f t="shared" si="17"/>
         <v>793</v>
       </c>
-      <c r="P95" s="17"/>
+      <c r="P95" s="4"/>
       <c r="Q95">
         <f t="shared" si="18"/>
         <v>893</v>
@@ -5869,7 +5869,7 @@
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="B96" s="25"/>
+      <c r="B96" s="13"/>
       <c r="C96">
         <f t="shared" si="11"/>
         <v>194</v>
@@ -5878,32 +5878,32 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="9"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
-      <c r="H96" s="4"/>
+      <c r="H96" s="9"/>
       <c r="I96">
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
-      <c r="J96" s="5"/>
+      <c r="J96" s="28"/>
       <c r="K96">
         <f t="shared" si="15"/>
         <v>594</v>
       </c>
-      <c r="L96" s="5"/>
+      <c r="L96" s="28"/>
       <c r="M96">
         <f t="shared" si="16"/>
         <v>694</v>
       </c>
-      <c r="N96" s="17"/>
-      <c r="O96" s="18">
+      <c r="N96" s="4"/>
+      <c r="O96" s="5">
         <f t="shared" si="17"/>
         <v>794</v>
       </c>
-      <c r="P96" s="17"/>
+      <c r="P96" s="4"/>
       <c r="Q96">
         <f t="shared" si="18"/>
         <v>894</v>
@@ -5929,32 +5929,32 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="9"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
-      <c r="H97" s="4"/>
+      <c r="H97" s="9"/>
       <c r="I97">
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
-      <c r="J97" s="5"/>
+      <c r="J97" s="28"/>
       <c r="K97">
         <f t="shared" si="15"/>
         <v>595</v>
       </c>
-      <c r="L97" s="5"/>
+      <c r="L97" s="28"/>
       <c r="M97">
         <f t="shared" si="16"/>
         <v>695</v>
       </c>
-      <c r="N97" s="17"/>
-      <c r="O97" s="18">
+      <c r="N97" s="4"/>
+      <c r="O97" s="5">
         <f t="shared" si="17"/>
         <v>795</v>
       </c>
-      <c r="P97" s="17"/>
+      <c r="P97" s="4"/>
       <c r="Q97">
         <f t="shared" si="18"/>
         <v>895</v>
@@ -5969,7 +5969,7 @@
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C98">
@@ -5980,32 +5980,32 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="9"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
-      <c r="H98" s="4"/>
+      <c r="H98" s="9"/>
       <c r="I98">
         <f t="shared" si="14"/>
         <v>496</v>
       </c>
-      <c r="J98" s="5"/>
+      <c r="J98" s="28"/>
       <c r="K98">
         <f t="shared" si="15"/>
         <v>596</v>
       </c>
-      <c r="L98" s="5"/>
+      <c r="L98" s="28"/>
       <c r="M98">
         <f t="shared" si="16"/>
         <v>696</v>
       </c>
-      <c r="N98" s="17"/>
-      <c r="O98" s="18">
+      <c r="N98" s="4"/>
+      <c r="O98" s="5">
         <f t="shared" si="17"/>
         <v>796</v>
       </c>
-      <c r="P98" s="17"/>
+      <c r="P98" s="4"/>
       <c r="Q98">
         <f t="shared" si="18"/>
         <v>896</v>
@@ -6020,7 +6020,7 @@
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="B99" s="22"/>
+      <c r="B99" s="11"/>
       <c r="C99">
         <f t="shared" si="11"/>
         <v>197</v>
@@ -6029,32 +6029,32 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="9"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
-      <c r="H99" s="4"/>
+      <c r="H99" s="9"/>
       <c r="I99">
         <f t="shared" si="14"/>
         <v>497</v>
       </c>
-      <c r="J99" s="5"/>
+      <c r="J99" s="28"/>
       <c r="K99">
         <f t="shared" si="15"/>
         <v>597</v>
       </c>
-      <c r="L99" s="5"/>
+      <c r="L99" s="28"/>
       <c r="M99">
         <f t="shared" si="16"/>
         <v>697</v>
       </c>
-      <c r="N99" s="17"/>
-      <c r="O99" s="18">
+      <c r="N99" s="4"/>
+      <c r="O99" s="5">
         <f t="shared" si="17"/>
         <v>797</v>
       </c>
-      <c r="P99" s="17"/>
+      <c r="P99" s="4"/>
       <c r="Q99">
         <f t="shared" si="18"/>
         <v>897</v>
@@ -6069,7 +6069,7 @@
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="B100" s="22"/>
+      <c r="B100" s="11"/>
       <c r="C100">
         <f t="shared" si="11"/>
         <v>198</v>
@@ -6078,32 +6078,32 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="9"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
-      <c r="H100" s="4"/>
+      <c r="H100" s="9"/>
       <c r="I100">
         <f t="shared" si="14"/>
         <v>498</v>
       </c>
-      <c r="J100" s="5"/>
+      <c r="J100" s="28"/>
       <c r="K100">
         <f t="shared" si="15"/>
         <v>598</v>
       </c>
-      <c r="L100" s="5"/>
+      <c r="L100" s="28"/>
       <c r="M100">
         <f t="shared" si="16"/>
         <v>698</v>
       </c>
-      <c r="N100" s="17"/>
-      <c r="O100" s="18">
+      <c r="N100" s="4"/>
+      <c r="O100" s="5">
         <f t="shared" si="17"/>
         <v>798</v>
       </c>
-      <c r="P100" s="17"/>
+      <c r="P100" s="4"/>
       <c r="Q100">
         <f t="shared" si="18"/>
         <v>898</v>
@@ -6118,7 +6118,7 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="B101" s="23"/>
+      <c r="B101" s="12"/>
       <c r="C101">
         <f t="shared" si="11"/>
         <v>199</v>
@@ -6127,32 +6127,32 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="4"/>
+      <c r="F101" s="9"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
-      <c r="H101" s="4"/>
+      <c r="H101" s="9"/>
       <c r="I101">
         <f t="shared" si="14"/>
         <v>499</v>
       </c>
-      <c r="J101" s="5"/>
+      <c r="J101" s="28"/>
       <c r="K101">
         <f t="shared" si="15"/>
         <v>599</v>
       </c>
-      <c r="L101" s="5"/>
+      <c r="L101" s="28"/>
       <c r="M101">
         <f t="shared" si="16"/>
         <v>699</v>
       </c>
-      <c r="N101" s="17"/>
-      <c r="O101" s="18">
+      <c r="N101" s="4"/>
+      <c r="O101" s="5">
         <f t="shared" si="17"/>
         <v>799</v>
       </c>
-      <c r="P101" s="17"/>
+      <c r="P101" s="4"/>
       <c r="Q101">
         <f t="shared" si="18"/>
         <v>899</v>
@@ -6163,187 +6163,203 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="J102" s="17"/>
+      <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="J103" s="17"/>
+      <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="J104" s="17"/>
+      <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="J105" s="17"/>
+      <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="J106" s="17"/>
+      <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="J107" s="17"/>
+      <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="J108" s="17"/>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="J109" s="17"/>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="J110" s="17"/>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="J111" s="17"/>
+      <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:19">
-      <c r="J112" s="17"/>
+      <c r="J112" s="4"/>
     </row>
     <row r="113" spans="10:10">
-      <c r="J113" s="17"/>
+      <c r="J113" s="4"/>
     </row>
     <row r="114" spans="10:10">
-      <c r="J114" s="17"/>
+      <c r="J114" s="4"/>
     </row>
     <row r="115" spans="10:10">
-      <c r="J115" s="17"/>
+      <c r="J115" s="4"/>
     </row>
     <row r="116" spans="10:10">
-      <c r="J116" s="17"/>
+      <c r="J116" s="4"/>
     </row>
     <row r="117" spans="10:10">
-      <c r="J117" s="17"/>
+      <c r="J117" s="4"/>
     </row>
     <row r="118" spans="10:10">
-      <c r="J118" s="17"/>
+      <c r="J118" s="4"/>
     </row>
     <row r="119" spans="10:10">
-      <c r="J119" s="17"/>
+      <c r="J119" s="4"/>
     </row>
     <row r="120" spans="10:10">
-      <c r="J120" s="17"/>
+      <c r="J120" s="4"/>
     </row>
     <row r="121" spans="10:10">
-      <c r="J121" s="17"/>
+      <c r="J121" s="4"/>
     </row>
     <row r="122" spans="10:10">
-      <c r="J122" s="17"/>
+      <c r="J122" s="4"/>
     </row>
     <row r="123" spans="10:10">
-      <c r="J123" s="17"/>
+      <c r="J123" s="4"/>
     </row>
     <row r="124" spans="10:10">
-      <c r="J124" s="17"/>
+      <c r="J124" s="4"/>
     </row>
     <row r="125" spans="10:10">
-      <c r="J125" s="17"/>
+      <c r="J125" s="4"/>
     </row>
     <row r="126" spans="10:10">
-      <c r="J126" s="17"/>
+      <c r="J126" s="4"/>
     </row>
     <row r="127" spans="10:10">
-      <c r="J127" s="17"/>
+      <c r="J127" s="4"/>
     </row>
     <row r="128" spans="10:10">
-      <c r="J128" s="17"/>
+      <c r="J128" s="4"/>
     </row>
     <row r="129" spans="10:10">
-      <c r="J129" s="17"/>
+      <c r="J129" s="4"/>
     </row>
     <row r="130" spans="10:10">
-      <c r="J130" s="17"/>
+      <c r="J130" s="4"/>
     </row>
     <row r="131" spans="10:10">
-      <c r="J131" s="17"/>
+      <c r="J131" s="4"/>
     </row>
     <row r="132" spans="10:10">
-      <c r="J132" s="17"/>
+      <c r="J132" s="4"/>
     </row>
     <row r="133" spans="10:10">
-      <c r="J133" s="17"/>
+      <c r="J133" s="4"/>
     </row>
     <row r="134" spans="10:10">
-      <c r="J134" s="17"/>
+      <c r="J134" s="4"/>
     </row>
     <row r="135" spans="10:10">
-      <c r="J135" s="17"/>
+      <c r="J135" s="4"/>
     </row>
     <row r="136" spans="10:10">
-      <c r="J136" s="17"/>
+      <c r="J136" s="4"/>
     </row>
     <row r="137" spans="10:10">
-      <c r="J137" s="17"/>
+      <c r="J137" s="4"/>
     </row>
     <row r="138" spans="10:10">
-      <c r="J138" s="17"/>
+      <c r="J138" s="4"/>
     </row>
     <row r="139" spans="10:10">
-      <c r="J139" s="17"/>
+      <c r="J139" s="4"/>
     </row>
     <row r="140" spans="10:10">
-      <c r="J140" s="17"/>
+      <c r="J140" s="4"/>
     </row>
     <row r="141" spans="10:10">
-      <c r="J141" s="17"/>
+      <c r="J141" s="4"/>
     </row>
     <row r="142" spans="10:10">
-      <c r="J142" s="17"/>
+      <c r="J142" s="4"/>
     </row>
     <row r="143" spans="10:10">
-      <c r="J143" s="17"/>
+      <c r="J143" s="4"/>
     </row>
     <row r="144" spans="10:10">
-      <c r="J144" s="17"/>
+      <c r="J144" s="4"/>
     </row>
     <row r="145" spans="10:10">
-      <c r="J145" s="17"/>
+      <c r="J145" s="4"/>
     </row>
     <row r="146" spans="10:10">
-      <c r="J146" s="17"/>
+      <c r="J146" s="4"/>
     </row>
     <row r="147" spans="10:10">
-      <c r="J147" s="17"/>
+      <c r="J147" s="4"/>
     </row>
     <row r="148" spans="10:10">
-      <c r="J148" s="17"/>
+      <c r="J148" s="4"/>
     </row>
     <row r="149" spans="10:10">
-      <c r="J149" s="17"/>
+      <c r="J149" s="4"/>
     </row>
     <row r="150" spans="10:10">
-      <c r="J150" s="17"/>
+      <c r="J150" s="4"/>
     </row>
     <row r="151" spans="10:10">
-      <c r="J151" s="17"/>
+      <c r="J151" s="4"/>
     </row>
     <row r="152" spans="10:10">
-      <c r="J152" s="18"/>
+      <c r="J152" s="5"/>
     </row>
     <row r="153" spans="10:10">
-      <c r="J153" s="18"/>
+      <c r="J153" s="5"/>
     </row>
     <row r="154" spans="10:10">
-      <c r="J154" s="18"/>
+      <c r="J154" s="5"/>
     </row>
     <row r="155" spans="10:10">
-      <c r="J155" s="18"/>
+      <c r="J155" s="5"/>
     </row>
     <row r="156" spans="10:10">
-      <c r="J156" s="18"/>
+      <c r="J156" s="5"/>
     </row>
     <row r="157" spans="10:10">
-      <c r="J157" s="18"/>
+      <c r="J157" s="5"/>
     </row>
     <row r="158" spans="10:10">
-      <c r="J158" s="18"/>
+      <c r="J158" s="5"/>
     </row>
     <row r="159" spans="10:10">
-      <c r="J159" s="18"/>
+      <c r="J159" s="5"/>
     </row>
     <row r="160" spans="10:10">
-      <c r="J160" s="18"/>
+      <c r="J160" s="5"/>
     </row>
     <row r="161" spans="10:10">
-      <c r="J161" s="18"/>
+      <c r="J161" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J2:J26"/>
+    <mergeCell ref="J27:J51"/>
+    <mergeCell ref="J52:J101"/>
+    <mergeCell ref="L2:L51"/>
+    <mergeCell ref="L52:L101"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="H52:H76"/>
+    <mergeCell ref="H2:H26"/>
+    <mergeCell ref="H27:H51"/>
+    <mergeCell ref="H77:H101"/>
+    <mergeCell ref="B7:B45"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D58:D61"/>
     <mergeCell ref="F2:F26"/>
     <mergeCell ref="F27:F51"/>
     <mergeCell ref="F52:F76"/>
@@ -6360,22 +6376,6 @@
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="D26:D29"/>
-    <mergeCell ref="B7:B45"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="H52:H76"/>
-    <mergeCell ref="H2:H26"/>
-    <mergeCell ref="H27:H51"/>
-    <mergeCell ref="H77:H101"/>
-    <mergeCell ref="J2:J26"/>
-    <mergeCell ref="J27:J51"/>
-    <mergeCell ref="J52:J101"/>
-    <mergeCell ref="L2:L51"/>
-    <mergeCell ref="L52:L101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>ACTIVE 1</t>
   </si>
@@ -504,6 +504,30 @@
   </si>
   <si>
     <t>Configure Address</t>
+  </si>
+  <si>
+    <t>IMEI 16 Digits</t>
+  </si>
+  <si>
+    <t>GPRS_APN</t>
+  </si>
+  <si>
+    <t>GPRS USER</t>
+  </si>
+  <si>
+    <t>GPRS PASS</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>GPRS HEADER</t>
+  </si>
+  <si>
+    <t>GPRS REPLY</t>
+  </si>
+  <si>
+    <t>GPRS HOST</t>
   </si>
 </sst>
 </file>
@@ -552,7 +576,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,31 +666,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,16 +691,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -693,7 +706,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1012,7 +1063,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C2">
@@ -1024,35 +1075,39 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I2">
         <v>400</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="5">
+      <c r="N2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="35">
         <v>700</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q2">
         <v>800</v>
       </c>
@@ -1071,7 +1126,7 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="25"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
@@ -1083,32 +1138,32 @@
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="7"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
       <c r="K3">
         <f>K2+1</f>
         <v>501</v>
       </c>
-      <c r="L3" s="28"/>
+      <c r="L3" s="8"/>
       <c r="M3">
         <f>M2+1</f>
         <v>601</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="5">
+      <c r="N3" s="28"/>
+      <c r="O3" s="35">
         <f>O2+1</f>
         <v>701</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="P3" s="28"/>
       <c r="Q3">
         <f>Q2+1</f>
         <v>801</v>
@@ -1129,7 +1184,7 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="25"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
@@ -1141,32 +1196,32 @@
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="7"/>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="5">K3+1</f>
         <v>502</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="L4" s="8"/>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+1</f>
         <v>602</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5">
+      <c r="N4" s="28"/>
+      <c r="O4" s="35">
         <f t="shared" ref="O4:O67" si="7">O3+1</f>
         <v>702</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="28"/>
       <c r="Q4">
         <f t="shared" ref="Q4:Q67" si="8">Q3+1</f>
         <v>802</v>
@@ -1187,7 +1242,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -1199,32 +1254,32 @@
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="7"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="7"/>
       <c r="K5">
         <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="L5" s="28"/>
+      <c r="L5" s="8"/>
       <c r="M5">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="5">
+      <c r="N5" s="28"/>
+      <c r="O5" s="35">
         <f t="shared" si="7"/>
         <v>703</v>
       </c>
-      <c r="P5" s="6"/>
+      <c r="P5" s="28"/>
       <c r="Q5">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -1245,7 +1300,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="25"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -1257,32 +1312,32 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="7"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="7"/>
       <c r="K6">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="L6" s="28"/>
+      <c r="L6" s="8"/>
       <c r="M6">
         <f t="shared" si="6"/>
         <v>604</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5">
+      <c r="N6" s="28"/>
+      <c r="O6" s="35">
         <f t="shared" si="7"/>
         <v>704</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="28"/>
       <c r="Q6">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -1303,7 +1358,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C7">
@@ -1317,32 +1372,32 @@
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="7"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="7"/>
       <c r="K7">
         <f t="shared" si="5"/>
         <v>505</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="8"/>
       <c r="M7">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="5">
+      <c r="N7" s="28"/>
+      <c r="O7" s="35">
         <f t="shared" si="7"/>
         <v>705</v>
       </c>
-      <c r="P7" s="6"/>
+      <c r="P7" s="28"/>
       <c r="Q7">
         <f t="shared" si="8"/>
         <v>805</v>
@@ -1363,7 +1418,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="10"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -1375,32 +1430,32 @@
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="7"/>
       <c r="K8">
         <f t="shared" si="5"/>
         <v>506</v>
       </c>
-      <c r="L8" s="28"/>
+      <c r="L8" s="8"/>
       <c r="M8">
         <f t="shared" si="6"/>
         <v>606</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="5">
+      <c r="N8" s="28"/>
+      <c r="O8" s="35">
         <f t="shared" si="7"/>
         <v>706</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="28"/>
       <c r="Q8">
         <f t="shared" si="8"/>
         <v>806</v>
@@ -1421,7 +1476,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="10"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -1433,32 +1488,32 @@
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="7"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="7"/>
       <c r="K9">
         <f t="shared" si="5"/>
         <v>507</v>
       </c>
-      <c r="L9" s="28"/>
+      <c r="L9" s="8"/>
       <c r="M9">
         <f t="shared" si="6"/>
         <v>607</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="5">
+      <c r="N9" s="28"/>
+      <c r="O9" s="35">
         <f t="shared" si="7"/>
         <v>707</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="28"/>
       <c r="Q9">
         <f t="shared" si="8"/>
         <v>807</v>
@@ -1473,7 +1528,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="10"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -1485,32 +1540,32 @@
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="7"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="7"/>
       <c r="K10">
         <f t="shared" si="5"/>
         <v>508</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="8"/>
       <c r="M10">
         <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="5">
+      <c r="N10" s="28"/>
+      <c r="O10" s="35">
         <f t="shared" si="7"/>
         <v>708</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="28"/>
       <c r="Q10">
         <f t="shared" si="8"/>
         <v>808</v>
@@ -1525,7 +1580,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="10"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -1537,32 +1592,32 @@
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="7"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="7"/>
       <c r="K11">
         <f t="shared" si="5"/>
         <v>509</v>
       </c>
-      <c r="L11" s="28"/>
+      <c r="L11" s="8"/>
       <c r="M11">
         <f t="shared" si="6"/>
         <v>609</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5">
+      <c r="N11" s="28"/>
+      <c r="O11" s="35">
         <f t="shared" si="7"/>
         <v>709</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="28"/>
       <c r="Q11">
         <f t="shared" si="8"/>
         <v>809</v>
@@ -1577,7 +1632,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="10"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -1589,32 +1644,32 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="7"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="7"/>
       <c r="K12">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="8"/>
       <c r="M12">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5">
+      <c r="N12" s="28"/>
+      <c r="O12" s="35">
         <f t="shared" si="7"/>
         <v>710</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="28"/>
       <c r="Q12">
         <f t="shared" si="8"/>
         <v>810</v>
@@ -1629,44 +1684,44 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="10"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="7"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="7"/>
       <c r="K13">
         <f t="shared" si="5"/>
         <v>511</v>
       </c>
-      <c r="L13" s="28"/>
+      <c r="L13" s="8"/>
       <c r="M13">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5">
+      <c r="N13" s="28"/>
+      <c r="O13" s="35">
         <f t="shared" si="7"/>
         <v>711</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="28"/>
       <c r="Q13">
         <f t="shared" si="8"/>
         <v>811</v>
@@ -1681,42 +1736,42 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="10"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="20"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="7"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="7"/>
       <c r="K14">
         <f t="shared" si="5"/>
         <v>512</v>
       </c>
-      <c r="L14" s="28"/>
+      <c r="L14" s="8"/>
       <c r="M14">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="5">
+      <c r="N14" s="28"/>
+      <c r="O14" s="35">
         <f t="shared" si="7"/>
         <v>712</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="28"/>
       <c r="Q14">
         <f t="shared" si="8"/>
         <v>812</v>
@@ -1731,42 +1786,42 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="10"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="20"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="7"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="7"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="7"/>
       <c r="K15">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
-      <c r="L15" s="28"/>
+      <c r="L15" s="8"/>
       <c r="M15">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="5">
+      <c r="N15" s="28"/>
+      <c r="O15" s="35">
         <f t="shared" si="7"/>
         <v>713</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="28"/>
       <c r="Q15">
         <f t="shared" si="8"/>
         <v>813</v>
@@ -1781,42 +1836,42 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="10"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="21"/>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="7"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="7"/>
       <c r="K16">
         <f t="shared" si="5"/>
         <v>514</v>
       </c>
-      <c r="L16" s="28"/>
+      <c r="L16" s="8"/>
       <c r="M16">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5">
+      <c r="N16" s="28"/>
+      <c r="O16" s="35">
         <f t="shared" si="7"/>
         <v>714</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="28"/>
       <c r="Q16">
         <f t="shared" si="8"/>
         <v>814</v>
@@ -1831,44 +1886,44 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="10"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="19" t="s">
         <v>60</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="7"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="7"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="7"/>
       <c r="K17">
         <f t="shared" si="5"/>
         <v>515</v>
       </c>
-      <c r="L17" s="28"/>
+      <c r="L17" s="8"/>
       <c r="M17">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="5">
+      <c r="N17" s="29"/>
+      <c r="O17" s="35">
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="29"/>
       <c r="Q17">
         <f t="shared" si="8"/>
         <v>815</v>
@@ -1883,42 +1938,46 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="10"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="20"/>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="7"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="7"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="7"/>
       <c r="K18">
         <f t="shared" si="5"/>
         <v>516</v>
       </c>
-      <c r="L18" s="28"/>
+      <c r="L18" s="8"/>
       <c r="M18">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="27" t="s">
+        <v>80</v>
+      </c>
       <c r="O18" s="5">
         <f t="shared" si="7"/>
         <v>716</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="Q18">
         <f t="shared" si="8"/>
         <v>816</v>
@@ -1933,42 +1992,42 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="10"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="20"/>
       <c r="E19">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="7"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="7"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="7"/>
       <c r="K19">
         <f t="shared" si="5"/>
         <v>517</v>
       </c>
-      <c r="L19" s="28"/>
+      <c r="L19" s="8"/>
       <c r="M19">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="28"/>
       <c r="O19" s="5">
         <f t="shared" si="7"/>
         <v>717</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="28"/>
       <c r="Q19">
         <f t="shared" si="8"/>
         <v>817</v>
@@ -1983,42 +2042,42 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="10"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="21"/>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="7"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="7"/>
       <c r="K20">
         <f t="shared" si="5"/>
         <v>518</v>
       </c>
-      <c r="L20" s="28"/>
+      <c r="L20" s="8"/>
       <c r="M20">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="5">
         <f t="shared" si="7"/>
         <v>718</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="28"/>
       <c r="Q20">
         <f t="shared" si="8"/>
         <v>818</v>
@@ -2033,44 +2092,44 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="10"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="22" t="s">
         <v>72</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="7"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="7"/>
       <c r="K21">
         <f t="shared" si="5"/>
         <v>519</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="8"/>
       <c r="M21">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="28"/>
       <c r="O21" s="5">
         <f t="shared" si="7"/>
         <v>719</v>
       </c>
-      <c r="P21" s="6"/>
+      <c r="P21" s="28"/>
       <c r="Q21">
         <f t="shared" si="8"/>
         <v>819</v>
@@ -2085,42 +2144,42 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="10"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="23"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="7"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="7"/>
       <c r="K22">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="8"/>
       <c r="M22">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="28"/>
       <c r="O22" s="5">
         <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="28"/>
       <c r="Q22">
         <f t="shared" si="8"/>
         <v>820</v>
@@ -2135,7 +2194,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="10"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2147,32 +2206,32 @@
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="7"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="7"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="7"/>
       <c r="K23">
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="8"/>
       <c r="M23">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="28"/>
       <c r="O23" s="5">
         <f t="shared" si="7"/>
         <v>721</v>
       </c>
-      <c r="P23" s="6"/>
+      <c r="P23" s="28"/>
       <c r="Q23">
         <f t="shared" si="8"/>
         <v>821</v>
@@ -2187,7 +2246,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="10"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2199,32 +2258,32 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="7"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="7"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="7"/>
       <c r="K24">
         <f t="shared" si="5"/>
         <v>522</v>
       </c>
-      <c r="L24" s="28"/>
+      <c r="L24" s="8"/>
       <c r="M24">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="28"/>
       <c r="O24" s="5">
         <f t="shared" si="7"/>
         <v>722</v>
       </c>
-      <c r="P24" s="6"/>
+      <c r="P24" s="28"/>
       <c r="Q24">
         <f t="shared" si="8"/>
         <v>822</v>
@@ -2239,7 +2298,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="10"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2251,32 +2310,32 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="7"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="7"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="7"/>
       <c r="K25">
         <f t="shared" si="5"/>
         <v>523</v>
       </c>
-      <c r="L25" s="28"/>
+      <c r="L25" s="8"/>
       <c r="M25">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="28"/>
       <c r="O25" s="5">
         <f t="shared" si="7"/>
         <v>723</v>
       </c>
-      <c r="P25" s="6"/>
+      <c r="P25" s="28"/>
       <c r="Q25">
         <f t="shared" si="8"/>
         <v>823</v>
@@ -2291,44 +2350,44 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="10"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="7"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="7"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="7"/>
       <c r="K26">
         <f t="shared" si="5"/>
         <v>524</v>
       </c>
-      <c r="L26" s="28"/>
+      <c r="L26" s="8"/>
       <c r="M26">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="N26" s="6"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="5">
         <f t="shared" si="7"/>
         <v>724</v>
       </c>
-      <c r="P26" s="6"/>
+      <c r="P26" s="28"/>
       <c r="Q26">
         <f t="shared" si="8"/>
         <v>824</v>
@@ -2343,48 +2402,48 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="10"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="24"/>
       <c r="E27">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
         <v>425</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="6" t="s">
         <v>71</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="L27" s="28"/>
+      <c r="L27" s="8"/>
       <c r="M27">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="N27" s="4"/>
+      <c r="N27" s="28"/>
       <c r="O27" s="5">
         <f t="shared" si="7"/>
         <v>725</v>
       </c>
-      <c r="P27" s="4"/>
+      <c r="P27" s="28"/>
       <c r="Q27">
         <f t="shared" si="8"/>
         <v>825</v>
@@ -2399,42 +2458,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="9"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="24"/>
       <c r="E28">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="7"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="7"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="7"/>
       <c r="K28">
         <f t="shared" si="5"/>
         <v>526</v>
       </c>
-      <c r="L28" s="28"/>
+      <c r="L28" s="8"/>
       <c r="M28">
         <f t="shared" si="6"/>
         <v>626</v>
       </c>
-      <c r="N28" s="4"/>
+      <c r="N28" s="28"/>
       <c r="O28" s="5">
         <f t="shared" si="7"/>
         <v>726</v>
       </c>
-      <c r="P28" s="4"/>
+      <c r="P28" s="28"/>
       <c r="Q28">
         <f t="shared" si="8"/>
         <v>826</v>
@@ -2449,42 +2508,42 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="9"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="13"/>
       <c r="E29">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="7"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="7"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="7"/>
       <c r="K29">
         <f t="shared" si="5"/>
         <v>527</v>
       </c>
-      <c r="L29" s="28"/>
+      <c r="L29" s="8"/>
       <c r="M29">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="N29" s="4"/>
+      <c r="N29" s="28"/>
       <c r="O29" s="5">
         <f t="shared" si="7"/>
         <v>727</v>
       </c>
-      <c r="P29" s="4"/>
+      <c r="P29" s="28"/>
       <c r="Q29">
         <f t="shared" si="8"/>
         <v>827</v>
@@ -2499,44 +2558,44 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="9"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="7"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="7"/>
       <c r="K30">
         <f t="shared" si="5"/>
         <v>528</v>
       </c>
-      <c r="L30" s="28"/>
+      <c r="L30" s="8"/>
       <c r="M30">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
-      <c r="N30" s="4"/>
+      <c r="N30" s="28"/>
       <c r="O30" s="5">
         <f t="shared" si="7"/>
         <v>728</v>
       </c>
-      <c r="P30" s="4"/>
+      <c r="P30" s="28"/>
       <c r="Q30">
         <f t="shared" si="8"/>
         <v>828</v>
@@ -2551,42 +2610,42 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="9"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="26"/>
       <c r="E31">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="7"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="7"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="7"/>
       <c r="K31">
         <f t="shared" si="5"/>
         <v>529</v>
       </c>
-      <c r="L31" s="28"/>
+      <c r="L31" s="8"/>
       <c r="M31">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
-      <c r="N31" s="4"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="5">
         <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="P31" s="4"/>
+      <c r="P31" s="28"/>
       <c r="Q31">
         <f t="shared" si="8"/>
         <v>829</v>
@@ -2601,42 +2660,42 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="9"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="26"/>
       <c r="E32">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="7"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="7"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="7"/>
       <c r="K32">
         <f t="shared" si="5"/>
         <v>530</v>
       </c>
-      <c r="L32" s="28"/>
+      <c r="L32" s="8"/>
       <c r="M32">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="N32" s="4"/>
+      <c r="N32" s="28"/>
       <c r="O32" s="5">
         <f t="shared" si="7"/>
         <v>730</v>
       </c>
-      <c r="P32" s="4"/>
+      <c r="P32" s="28"/>
       <c r="Q32">
         <f t="shared" si="8"/>
         <v>830</v>
@@ -2651,42 +2710,42 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="9"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="26"/>
       <c r="E33">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="7"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="7"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="7"/>
       <c r="K33">
         <f t="shared" si="5"/>
         <v>531</v>
       </c>
-      <c r="L33" s="28"/>
+      <c r="L33" s="8"/>
       <c r="M33">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
-      <c r="N33" s="4"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="5">
         <f t="shared" si="7"/>
         <v>731</v>
       </c>
-      <c r="P33" s="4"/>
+      <c r="P33" s="37"/>
       <c r="Q33">
         <f t="shared" si="8"/>
         <v>831</v>
@@ -2701,44 +2760,46 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="9"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="7"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="7"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="7"/>
       <c r="K34">
         <f t="shared" si="5"/>
         <v>532</v>
       </c>
-      <c r="L34" s="28"/>
+      <c r="L34" s="8"/>
       <c r="M34">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="5">
         <f t="shared" si="7"/>
         <v>732</v>
       </c>
-      <c r="P34" s="4"/>
+      <c r="P34" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="Q34">
         <f t="shared" si="8"/>
         <v>832</v>
@@ -2753,42 +2814,42 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="9"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="26"/>
       <c r="E35">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="7"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="7"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="7"/>
       <c r="K35">
         <f t="shared" si="5"/>
         <v>533</v>
       </c>
-      <c r="L35" s="28"/>
+      <c r="L35" s="8"/>
       <c r="M35">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
-      <c r="N35" s="4"/>
+      <c r="N35" s="28"/>
       <c r="O35" s="5">
         <f t="shared" si="7"/>
         <v>733</v>
       </c>
-      <c r="P35" s="4"/>
+      <c r="P35" s="31"/>
       <c r="Q35">
         <f t="shared" si="8"/>
         <v>833</v>
@@ -2803,42 +2864,44 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="9"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="26"/>
       <c r="E36">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="7"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="7"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="7"/>
       <c r="K36">
         <f t="shared" si="5"/>
         <v>534</v>
       </c>
-      <c r="L36" s="28"/>
+      <c r="L36" s="8"/>
       <c r="M36">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
-      <c r="N36" s="4"/>
+      <c r="N36" s="28"/>
       <c r="O36" s="5">
         <f t="shared" si="7"/>
         <v>734</v>
       </c>
-      <c r="P36" s="4"/>
+      <c r="P36" s="27" t="s">
+        <v>84</v>
+      </c>
       <c r="Q36">
         <f t="shared" si="8"/>
         <v>834</v>
@@ -2853,42 +2916,42 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="9"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="26"/>
       <c r="E37">
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="7"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="7"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="7"/>
       <c r="K37">
         <f t="shared" si="5"/>
         <v>535</v>
       </c>
-      <c r="L37" s="28"/>
+      <c r="L37" s="8"/>
       <c r="M37">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
-      <c r="N37" s="4"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="5">
         <f t="shared" si="7"/>
         <v>735</v>
       </c>
-      <c r="P37" s="4"/>
+      <c r="P37" s="28"/>
       <c r="Q37">
         <f t="shared" si="8"/>
         <v>835</v>
@@ -2903,7 +2966,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="9"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -2915,32 +2978,32 @@
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="7"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="7"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="7"/>
       <c r="K38">
         <f t="shared" si="5"/>
         <v>536</v>
       </c>
-      <c r="L38" s="28"/>
+      <c r="L38" s="8"/>
       <c r="M38">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
-      <c r="N38" s="4"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="5">
         <f t="shared" si="7"/>
         <v>736</v>
       </c>
-      <c r="P38" s="4"/>
+      <c r="P38" s="28"/>
       <c r="Q38">
         <f t="shared" si="8"/>
         <v>836</v>
@@ -2955,7 +3018,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="9"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -2967,32 +3030,32 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="7"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="7"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="7"/>
       <c r="K39">
         <f t="shared" si="5"/>
         <v>537</v>
       </c>
-      <c r="L39" s="28"/>
+      <c r="L39" s="8"/>
       <c r="M39">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="N39" s="4"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="5">
         <f t="shared" si="7"/>
         <v>737</v>
       </c>
-      <c r="P39" s="4"/>
+      <c r="P39" s="28"/>
       <c r="Q39">
         <f t="shared" si="8"/>
         <v>837</v>
@@ -3007,44 +3070,44 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="9"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="7"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="7"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="7"/>
       <c r="K40">
         <f t="shared" si="5"/>
         <v>538</v>
       </c>
-      <c r="L40" s="28"/>
+      <c r="L40" s="8"/>
       <c r="M40">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="N40" s="4"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="5">
         <f t="shared" si="7"/>
         <v>738</v>
       </c>
-      <c r="P40" s="4"/>
+      <c r="P40" s="28"/>
       <c r="Q40">
         <f t="shared" si="8"/>
         <v>838</v>
@@ -3059,42 +3122,42 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="9"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="16"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="7"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="7"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="7"/>
       <c r="K41">
         <f t="shared" si="5"/>
         <v>539</v>
       </c>
-      <c r="L41" s="28"/>
+      <c r="L41" s="8"/>
       <c r="M41">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
-      <c r="N41" s="4"/>
+      <c r="N41" s="28"/>
       <c r="O41" s="5">
         <f t="shared" si="7"/>
         <v>739</v>
       </c>
-      <c r="P41" s="4"/>
+      <c r="P41" s="28"/>
       <c r="Q41">
         <f t="shared" si="8"/>
         <v>839</v>
@@ -3109,42 +3172,42 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="9"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="17"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="7"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="7"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="7"/>
       <c r="K42">
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L42" s="28"/>
+      <c r="L42" s="8"/>
       <c r="M42">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="N42" s="4"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="5">
         <f t="shared" si="7"/>
         <v>740</v>
       </c>
-      <c r="P42" s="4"/>
+      <c r="P42" s="28"/>
       <c r="Q42">
         <f t="shared" si="8"/>
         <v>840</v>
@@ -3159,42 +3222,42 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="9"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="27"/>
+      <c r="D43" s="18"/>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="7"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="7"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
       </c>
-      <c r="J43" s="9"/>
+      <c r="J43" s="7"/>
       <c r="K43">
         <f t="shared" si="5"/>
         <v>541</v>
       </c>
-      <c r="L43" s="28"/>
+      <c r="L43" s="8"/>
       <c r="M43">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
-      <c r="N43" s="4"/>
+      <c r="N43" s="28"/>
       <c r="O43" s="5">
         <f t="shared" si="7"/>
         <v>741</v>
       </c>
-      <c r="P43" s="4"/>
+      <c r="P43" s="28"/>
       <c r="Q43">
         <f t="shared" si="8"/>
         <v>841</v>
@@ -3209,44 +3272,44 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="9"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="7"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="7"/>
       <c r="K44">
         <f t="shared" si="5"/>
         <v>542</v>
       </c>
-      <c r="L44" s="28"/>
+      <c r="L44" s="8"/>
       <c r="M44">
         <f t="shared" si="6"/>
         <v>642</v>
       </c>
-      <c r="N44" s="4"/>
+      <c r="N44" s="28"/>
       <c r="O44" s="5">
         <f t="shared" si="7"/>
         <v>742</v>
       </c>
-      <c r="P44" s="4"/>
+      <c r="P44" s="28"/>
       <c r="Q44">
         <f t="shared" si="8"/>
         <v>842</v>
@@ -3261,42 +3324,42 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="9"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="14"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="7"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="7"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
       </c>
-      <c r="J45" s="9"/>
+      <c r="J45" s="7"/>
       <c r="K45">
         <f t="shared" si="5"/>
         <v>543</v>
       </c>
-      <c r="L45" s="28"/>
+      <c r="L45" s="8"/>
       <c r="M45">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
-      <c r="N45" s="4"/>
+      <c r="N45" s="28"/>
       <c r="O45" s="5">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
-      <c r="P45" s="4"/>
+      <c r="P45" s="28"/>
       <c r="Q45">
         <f t="shared" si="8"/>
         <v>843</v>
@@ -3311,44 +3374,44 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="D46" s="23"/>
+      <c r="D46" s="14"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="7"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="7"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="7"/>
       <c r="K46">
         <f t="shared" si="5"/>
         <v>544</v>
       </c>
-      <c r="L46" s="28"/>
+      <c r="L46" s="8"/>
       <c r="M46">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
-      <c r="N46" s="4"/>
+      <c r="N46" s="28"/>
       <c r="O46" s="5">
         <f t="shared" si="7"/>
         <v>744</v>
       </c>
-      <c r="P46" s="4"/>
+      <c r="P46" s="29"/>
       <c r="Q46">
         <f t="shared" si="8"/>
         <v>844</v>
@@ -3363,42 +3426,44 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="6"/>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="D47" s="23"/>
+      <c r="D47" s="14"/>
       <c r="E47">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="7"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="7"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="7"/>
       <c r="K47">
         <f t="shared" si="5"/>
         <v>545</v>
       </c>
-      <c r="L47" s="28"/>
+      <c r="L47" s="8"/>
       <c r="M47">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
-      <c r="N47" s="4"/>
+      <c r="N47" s="28"/>
       <c r="O47" s="5">
         <f t="shared" si="7"/>
         <v>745</v>
       </c>
-      <c r="P47" s="4"/>
+      <c r="P47" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="Q47">
         <f t="shared" si="8"/>
         <v>845</v>
@@ -3413,44 +3478,44 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="6"/>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="7"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="7"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="7"/>
       <c r="K48">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
-      <c r="L48" s="28"/>
+      <c r="L48" s="8"/>
       <c r="M48">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
-      <c r="N48" s="4"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="5">
         <f t="shared" si="7"/>
         <v>746</v>
       </c>
-      <c r="P48" s="4"/>
+      <c r="P48" s="28"/>
       <c r="Q48">
         <f t="shared" si="8"/>
         <v>846</v>
@@ -3465,42 +3530,42 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="6"/>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="D49" s="23"/>
+      <c r="D49" s="14"/>
       <c r="E49">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="7"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="7"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="7"/>
       <c r="K49">
         <f t="shared" si="5"/>
         <v>547</v>
       </c>
-      <c r="L49" s="28"/>
+      <c r="L49" s="8"/>
       <c r="M49">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="N49" s="4"/>
+      <c r="N49" s="28"/>
       <c r="O49" s="5">
         <f t="shared" si="7"/>
         <v>747</v>
       </c>
-      <c r="P49" s="4"/>
+      <c r="P49" s="28"/>
       <c r="Q49">
         <f t="shared" si="8"/>
         <v>847</v>
@@ -3515,42 +3580,42 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="6"/>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="D50" s="23"/>
+      <c r="D50" s="14"/>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="7"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="7"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
       </c>
-      <c r="J50" s="9"/>
+      <c r="J50" s="7"/>
       <c r="K50">
         <f t="shared" si="5"/>
         <v>548</v>
       </c>
-      <c r="L50" s="28"/>
+      <c r="L50" s="8"/>
       <c r="M50">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
-      <c r="N50" s="4"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="5">
         <f t="shared" si="7"/>
         <v>748</v>
       </c>
-      <c r="P50" s="4"/>
+      <c r="P50" s="28"/>
       <c r="Q50">
         <f t="shared" si="8"/>
         <v>848</v>
@@ -3565,42 +3630,42 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="6"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="D51" s="23"/>
+      <c r="D51" s="14"/>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="7"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="7"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
       </c>
-      <c r="J51" s="9"/>
+      <c r="J51" s="7"/>
       <c r="K51">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-      <c r="L51" s="28"/>
+      <c r="L51" s="8"/>
       <c r="M51">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="N51" s="4"/>
+      <c r="N51" s="28"/>
       <c r="O51" s="5">
         <f t="shared" si="7"/>
         <v>749</v>
       </c>
-      <c r="P51" s="4"/>
+      <c r="P51" s="28"/>
       <c r="Q51">
         <f t="shared" si="8"/>
         <v>849</v>
@@ -3615,7 +3680,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="6"/>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -3627,40 +3692,40 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="6" t="s">
         <v>67</v>
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="6" t="s">
         <v>69</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="N52" s="4"/>
+      <c r="N52" s="28"/>
       <c r="O52" s="5">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="P52" s="4"/>
+      <c r="P52" s="28"/>
       <c r="Q52">
         <f t="shared" si="8"/>
         <v>850</v>
@@ -3675,7 +3740,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="6"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
@@ -3687,32 +3752,32 @@
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="7"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="7"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>451</v>
       </c>
-      <c r="J53" s="28"/>
+      <c r="J53" s="8"/>
       <c r="K53">
         <f t="shared" si="5"/>
         <v>551</v>
       </c>
-      <c r="L53" s="28"/>
+      <c r="L53" s="8"/>
       <c r="M53">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
-      <c r="N53" s="4"/>
+      <c r="N53" s="28"/>
       <c r="O53" s="5">
         <f t="shared" si="7"/>
         <v>751</v>
       </c>
-      <c r="P53" s="4"/>
+      <c r="P53" s="28"/>
       <c r="Q53">
         <f t="shared" si="8"/>
         <v>851</v>
@@ -3727,44 +3792,44 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="6"/>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="7"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="7"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
-      <c r="J54" s="28"/>
+      <c r="J54" s="8"/>
       <c r="K54">
         <f t="shared" si="5"/>
         <v>552</v>
       </c>
-      <c r="L54" s="28"/>
+      <c r="L54" s="8"/>
       <c r="M54">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
-      <c r="N54" s="4"/>
+      <c r="N54" s="28"/>
       <c r="O54" s="5">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
-      <c r="P54" s="4"/>
+      <c r="P54" s="28"/>
       <c r="Q54">
         <f t="shared" si="8"/>
         <v>852</v>
@@ -3779,42 +3844,42 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="6"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="24"/>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="7"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="7"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>453</v>
       </c>
-      <c r="J55" s="28"/>
+      <c r="J55" s="8"/>
       <c r="K55">
         <f t="shared" si="5"/>
         <v>553</v>
       </c>
-      <c r="L55" s="28"/>
+      <c r="L55" s="8"/>
       <c r="M55">
         <f t="shared" si="6"/>
         <v>653</v>
       </c>
-      <c r="N55" s="4"/>
+      <c r="N55" s="28"/>
       <c r="O55" s="5">
         <f t="shared" si="7"/>
         <v>753</v>
       </c>
-      <c r="P55" s="4"/>
+      <c r="P55" s="28"/>
       <c r="Q55">
         <f t="shared" si="8"/>
         <v>853</v>
@@ -3829,42 +3894,42 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="6"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="24"/>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="7"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="7"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
-      <c r="J56" s="28"/>
+      <c r="J56" s="8"/>
       <c r="K56">
         <f t="shared" si="5"/>
         <v>554</v>
       </c>
-      <c r="L56" s="28"/>
+      <c r="L56" s="8"/>
       <c r="M56">
         <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="N56" s="4"/>
+      <c r="N56" s="28"/>
       <c r="O56" s="5">
         <f t="shared" si="7"/>
         <v>754</v>
       </c>
-      <c r="P56" s="4"/>
+      <c r="P56" s="28"/>
       <c r="Q56">
         <f t="shared" si="8"/>
         <v>854</v>
@@ -3879,42 +3944,42 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="6"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D57" s="18"/>
+      <c r="D57" s="13"/>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="7"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="7"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>455</v>
       </c>
-      <c r="J57" s="28"/>
+      <c r="J57" s="8"/>
       <c r="K57">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
-      <c r="L57" s="28"/>
+      <c r="L57" s="8"/>
       <c r="M57">
         <f t="shared" si="6"/>
         <v>655</v>
       </c>
-      <c r="N57" s="4"/>
+      <c r="N57" s="28"/>
       <c r="O57" s="5">
         <f t="shared" si="7"/>
         <v>755</v>
       </c>
-      <c r="P57" s="4"/>
+      <c r="P57" s="29"/>
       <c r="Q57">
         <f t="shared" si="8"/>
         <v>855</v>
@@ -3929,39 +3994,39 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="6"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="7"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="7"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>456</v>
       </c>
-      <c r="J58" s="28"/>
+      <c r="J58" s="8"/>
       <c r="K58">
         <f t="shared" si="5"/>
         <v>556</v>
       </c>
-      <c r="L58" s="28"/>
+      <c r="L58" s="8"/>
       <c r="M58">
         <f t="shared" si="6"/>
         <v>656</v>
       </c>
-      <c r="N58" s="4"/>
+      <c r="N58" s="28"/>
       <c r="O58" s="5">
         <f t="shared" si="7"/>
         <v>756</v>
@@ -3981,37 +4046,37 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="6"/>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="D59" s="26"/>
+      <c r="D59" s="17"/>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="7"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="7"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
-      <c r="J59" s="28"/>
+      <c r="J59" s="8"/>
       <c r="K59">
         <f t="shared" si="5"/>
         <v>557</v>
       </c>
-      <c r="L59" s="28"/>
+      <c r="L59" s="8"/>
       <c r="M59">
         <f t="shared" si="6"/>
         <v>657</v>
       </c>
-      <c r="N59" s="4"/>
+      <c r="N59" s="28"/>
       <c r="O59" s="5">
         <f t="shared" si="7"/>
         <v>757</v>
@@ -4031,37 +4096,37 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="6"/>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="D60" s="26"/>
+      <c r="D60" s="17"/>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="7"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="7"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>458</v>
       </c>
-      <c r="J60" s="28"/>
+      <c r="J60" s="8"/>
       <c r="K60">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
-      <c r="L60" s="28"/>
+      <c r="L60" s="8"/>
       <c r="M60">
         <f t="shared" si="6"/>
         <v>658</v>
       </c>
-      <c r="N60" s="4"/>
+      <c r="N60" s="28"/>
       <c r="O60" s="5">
         <f t="shared" si="7"/>
         <v>758</v>
@@ -4081,37 +4146,37 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="6"/>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="D61" s="27"/>
+      <c r="D61" s="18"/>
       <c r="E61">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="7"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="7"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
-      <c r="J61" s="28"/>
+      <c r="J61" s="8"/>
       <c r="K61">
         <f t="shared" si="5"/>
         <v>559</v>
       </c>
-      <c r="L61" s="28"/>
+      <c r="L61" s="8"/>
       <c r="M61">
         <f t="shared" si="6"/>
         <v>659</v>
       </c>
-      <c r="N61" s="4"/>
+      <c r="N61" s="28"/>
       <c r="O61" s="5">
         <f t="shared" si="7"/>
         <v>759</v>
@@ -4131,39 +4196,39 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="6"/>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="7"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="7"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>460</v>
       </c>
-      <c r="J62" s="28"/>
+      <c r="J62" s="8"/>
       <c r="K62">
         <f t="shared" si="5"/>
         <v>560</v>
       </c>
-      <c r="L62" s="28"/>
+      <c r="L62" s="8"/>
       <c r="M62">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="N62" s="4"/>
+      <c r="N62" s="28"/>
       <c r="O62" s="5">
         <f t="shared" si="7"/>
         <v>760</v>
@@ -4183,37 +4248,37 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="6"/>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="D63" s="17"/>
+      <c r="D63" s="12"/>
       <c r="E63">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="7"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="H63" s="9"/>
+      <c r="H63" s="7"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>461</v>
       </c>
-      <c r="J63" s="28"/>
+      <c r="J63" s="8"/>
       <c r="K63">
         <f t="shared" si="5"/>
         <v>561</v>
       </c>
-      <c r="L63" s="28"/>
+      <c r="L63" s="8"/>
       <c r="M63">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
-      <c r="N63" s="4"/>
+      <c r="N63" s="28"/>
       <c r="O63" s="5">
         <f t="shared" si="7"/>
         <v>761</v>
@@ -4233,37 +4298,37 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="6"/>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="D64" s="17"/>
+      <c r="D64" s="12"/>
       <c r="E64">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="7"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="7"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>462</v>
       </c>
-      <c r="J64" s="28"/>
+      <c r="J64" s="8"/>
       <c r="K64">
         <f t="shared" si="5"/>
         <v>562</v>
       </c>
-      <c r="L64" s="28"/>
+      <c r="L64" s="8"/>
       <c r="M64">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="N64" s="4"/>
+      <c r="N64" s="28"/>
       <c r="O64" s="5">
         <f t="shared" si="7"/>
         <v>762</v>
@@ -4283,37 +4348,37 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="8"/>
+      <c r="B65" s="6"/>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="D65" s="18"/>
+      <c r="D65" s="13"/>
       <c r="E65">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="7"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="7"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>463</v>
       </c>
-      <c r="J65" s="28"/>
+      <c r="J65" s="8"/>
       <c r="K65">
         <f t="shared" si="5"/>
         <v>563</v>
       </c>
-      <c r="L65" s="28"/>
+      <c r="L65" s="8"/>
       <c r="M65">
         <f t="shared" si="6"/>
         <v>663</v>
       </c>
-      <c r="N65" s="4"/>
+      <c r="N65" s="28"/>
       <c r="O65" s="5">
         <f t="shared" si="7"/>
         <v>763</v>
@@ -4333,7 +4398,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="8"/>
+      <c r="B66" s="6"/>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>164</v>
@@ -4345,27 +4410,27 @@
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="7"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
-      <c r="H66" s="9"/>
+      <c r="H66" s="7"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>464</v>
       </c>
-      <c r="J66" s="28"/>
+      <c r="J66" s="8"/>
       <c r="K66">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="L66" s="28"/>
+      <c r="L66" s="8"/>
       <c r="M66">
         <f t="shared" si="6"/>
         <v>664</v>
       </c>
-      <c r="N66" s="4"/>
+      <c r="N66" s="28"/>
       <c r="O66" s="5">
         <f t="shared" si="7"/>
         <v>764</v>
@@ -4385,7 +4450,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="6"/>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -4397,27 +4462,27 @@
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="7"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
-      <c r="H67" s="9"/>
+      <c r="H67" s="7"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
-      <c r="J67" s="28"/>
+      <c r="J67" s="8"/>
       <c r="K67">
         <f t="shared" si="5"/>
         <v>565</v>
       </c>
-      <c r="L67" s="28"/>
+      <c r="L67" s="8"/>
       <c r="M67">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
-      <c r="N67" s="4"/>
+      <c r="N67" s="29"/>
       <c r="O67" s="5">
         <f t="shared" si="7"/>
         <v>765</v>
@@ -4437,7 +4502,7 @@
         <f t="shared" ref="A68:A101" si="10">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="6"/>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="11">C67+1</f>
         <v>166</v>
@@ -4449,27 +4514,29 @@
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="7"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
       </c>
-      <c r="H68" s="9"/>
+      <c r="H68" s="7"/>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="14">I67+1</f>
         <v>466</v>
       </c>
-      <c r="J68" s="28"/>
+      <c r="J68" s="8"/>
       <c r="K68">
         <f t="shared" ref="K68:K101" si="15">K67+1</f>
         <v>566</v>
       </c>
-      <c r="L68" s="28"/>
+      <c r="L68" s="8"/>
       <c r="M68">
         <f t="shared" ref="M68:M101" si="16">M67+1</f>
         <v>666</v>
       </c>
-      <c r="N68" s="4"/>
+      <c r="N68" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="O68" s="5">
         <f t="shared" ref="O68:O101" si="17">O67+1</f>
         <v>766</v>
@@ -4489,7 +4556,7 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="6"/>
       <c r="C69">
         <f t="shared" si="11"/>
         <v>167</v>
@@ -4501,27 +4568,27 @@
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="7"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
-      <c r="H69" s="9"/>
+      <c r="H69" s="7"/>
       <c r="I69">
         <f t="shared" si="14"/>
         <v>467</v>
       </c>
-      <c r="J69" s="28"/>
+      <c r="J69" s="8"/>
       <c r="K69">
         <f t="shared" si="15"/>
         <v>567</v>
       </c>
-      <c r="L69" s="28"/>
+      <c r="L69" s="8"/>
       <c r="M69">
         <f t="shared" si="16"/>
         <v>667</v>
       </c>
-      <c r="N69" s="4"/>
+      <c r="N69" s="34"/>
       <c r="O69" s="5">
         <f t="shared" si="17"/>
         <v>767</v>
@@ -4541,7 +4608,7 @@
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="6"/>
       <c r="C70">
         <f t="shared" si="11"/>
         <v>168</v>
@@ -4553,27 +4620,27 @@
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="7"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
-      <c r="H70" s="9"/>
+      <c r="H70" s="7"/>
       <c r="I70">
         <f t="shared" si="14"/>
         <v>468</v>
       </c>
-      <c r="J70" s="28"/>
+      <c r="J70" s="8"/>
       <c r="K70">
         <f t="shared" si="15"/>
         <v>568</v>
       </c>
-      <c r="L70" s="28"/>
+      <c r="L70" s="8"/>
       <c r="M70">
         <f t="shared" si="16"/>
         <v>668</v>
       </c>
-      <c r="N70" s="4"/>
+      <c r="N70" s="34"/>
       <c r="O70" s="5">
         <f t="shared" si="17"/>
         <v>768</v>
@@ -4593,7 +4660,7 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="6"/>
       <c r="C71">
         <f t="shared" si="11"/>
         <v>169</v>
@@ -4605,27 +4672,27 @@
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="7"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="7"/>
       <c r="I71">
         <f t="shared" si="14"/>
         <v>469</v>
       </c>
-      <c r="J71" s="28"/>
+      <c r="J71" s="8"/>
       <c r="K71">
         <f t="shared" si="15"/>
         <v>569</v>
       </c>
-      <c r="L71" s="28"/>
+      <c r="L71" s="8"/>
       <c r="M71">
         <f t="shared" si="16"/>
         <v>669</v>
       </c>
-      <c r="N71" s="4"/>
+      <c r="N71" s="34"/>
       <c r="O71" s="5">
         <f t="shared" si="17"/>
         <v>769</v>
@@ -4645,7 +4712,7 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="6"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
@@ -4657,27 +4724,27 @@
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="7"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="7"/>
       <c r="I72">
         <f t="shared" si="14"/>
         <v>470</v>
       </c>
-      <c r="J72" s="28"/>
+      <c r="J72" s="8"/>
       <c r="K72">
         <f t="shared" si="15"/>
         <v>570</v>
       </c>
-      <c r="L72" s="28"/>
+      <c r="L72" s="8"/>
       <c r="M72">
         <f t="shared" si="16"/>
         <v>670</v>
       </c>
-      <c r="N72" s="4"/>
+      <c r="N72" s="34"/>
       <c r="O72" s="5">
         <f t="shared" si="17"/>
         <v>770</v>
@@ -4697,7 +4764,7 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="8"/>
+      <c r="B73" s="6"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
@@ -4709,27 +4776,27 @@
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="7"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="7"/>
       <c r="I73">
         <f t="shared" si="14"/>
         <v>471</v>
       </c>
-      <c r="J73" s="28"/>
+      <c r="J73" s="8"/>
       <c r="K73">
         <f t="shared" si="15"/>
         <v>571</v>
       </c>
-      <c r="L73" s="28"/>
+      <c r="L73" s="8"/>
       <c r="M73">
         <f t="shared" si="16"/>
         <v>671</v>
       </c>
-      <c r="N73" s="4"/>
+      <c r="N73" s="34"/>
       <c r="O73" s="5">
         <f t="shared" si="17"/>
         <v>771</v>
@@ -4749,7 +4816,7 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="8"/>
+      <c r="B74" s="6"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
@@ -4761,27 +4828,27 @@
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="7"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
-      <c r="H74" s="9"/>
+      <c r="H74" s="7"/>
       <c r="I74">
         <f t="shared" si="14"/>
         <v>472</v>
       </c>
-      <c r="J74" s="28"/>
+      <c r="J74" s="8"/>
       <c r="K74">
         <f t="shared" si="15"/>
         <v>572</v>
       </c>
-      <c r="L74" s="28"/>
+      <c r="L74" s="8"/>
       <c r="M74">
         <f t="shared" si="16"/>
         <v>672</v>
       </c>
-      <c r="N74" s="4"/>
+      <c r="N74" s="34"/>
       <c r="O74" s="5">
         <f t="shared" si="17"/>
         <v>772</v>
@@ -4801,7 +4868,7 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="6"/>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>173</v>
@@ -4813,27 +4880,27 @@
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="7"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
-      <c r="H75" s="9"/>
+      <c r="H75" s="7"/>
       <c r="I75">
         <f t="shared" si="14"/>
         <v>473</v>
       </c>
-      <c r="J75" s="28"/>
+      <c r="J75" s="8"/>
       <c r="K75">
         <f t="shared" si="15"/>
         <v>573</v>
       </c>
-      <c r="L75" s="28"/>
+      <c r="L75" s="8"/>
       <c r="M75">
         <f t="shared" si="16"/>
         <v>673</v>
       </c>
-      <c r="N75" s="4"/>
+      <c r="N75" s="34"/>
       <c r="O75" s="5">
         <f t="shared" si="17"/>
         <v>773</v>
@@ -4853,7 +4920,7 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="6"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
@@ -4865,27 +4932,27 @@
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="9"/>
+      <c r="F76" s="7"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
-      <c r="H76" s="9"/>
+      <c r="H76" s="7"/>
       <c r="I76">
         <f t="shared" si="14"/>
         <v>474</v>
       </c>
-      <c r="J76" s="28"/>
+      <c r="J76" s="8"/>
       <c r="K76">
         <f t="shared" si="15"/>
         <v>574</v>
       </c>
-      <c r="L76" s="28"/>
+      <c r="L76" s="8"/>
       <c r="M76">
         <f t="shared" si="16"/>
         <v>674</v>
       </c>
-      <c r="N76" s="4"/>
+      <c r="N76" s="34"/>
       <c r="O76" s="5">
         <f t="shared" si="17"/>
         <v>774</v>
@@ -4905,7 +4972,7 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="8"/>
+      <c r="B77" s="6"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
@@ -4917,31 +4984,31 @@
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I77">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
-      <c r="J77" s="28"/>
+      <c r="J77" s="8"/>
       <c r="K77">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
-      <c r="L77" s="28"/>
+      <c r="L77" s="8"/>
       <c r="M77">
         <f t="shared" si="16"/>
         <v>675</v>
       </c>
-      <c r="N77" s="4"/>
+      <c r="N77" s="34"/>
       <c r="O77" s="5">
         <f t="shared" si="17"/>
         <v>775</v>
@@ -4961,7 +5028,7 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="8"/>
+      <c r="B78" s="6"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
@@ -4973,27 +5040,27 @@
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="9"/>
+      <c r="F78" s="7"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
-      <c r="H78" s="9"/>
+      <c r="H78" s="7"/>
       <c r="I78">
         <f t="shared" si="14"/>
         <v>476</v>
       </c>
-      <c r="J78" s="28"/>
+      <c r="J78" s="8"/>
       <c r="K78">
         <f t="shared" si="15"/>
         <v>576</v>
       </c>
-      <c r="L78" s="28"/>
+      <c r="L78" s="8"/>
       <c r="M78">
         <f t="shared" si="16"/>
         <v>676</v>
       </c>
-      <c r="N78" s="4"/>
+      <c r="N78" s="34"/>
       <c r="O78" s="5">
         <f t="shared" si="17"/>
         <v>776</v>
@@ -5013,7 +5080,7 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="6"/>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>177</v>
@@ -5025,27 +5092,27 @@
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="9"/>
+      <c r="F79" s="7"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
-      <c r="H79" s="9"/>
+      <c r="H79" s="7"/>
       <c r="I79">
         <f t="shared" si="14"/>
         <v>477</v>
       </c>
-      <c r="J79" s="28"/>
+      <c r="J79" s="8"/>
       <c r="K79">
         <f t="shared" si="15"/>
         <v>577</v>
       </c>
-      <c r="L79" s="28"/>
+      <c r="L79" s="8"/>
       <c r="M79">
         <f t="shared" si="16"/>
         <v>677</v>
       </c>
-      <c r="N79" s="4"/>
+      <c r="N79" s="34"/>
       <c r="O79" s="5">
         <f t="shared" si="17"/>
         <v>777</v>
@@ -5065,7 +5132,7 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="6"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
@@ -5077,27 +5144,27 @@
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="9"/>
+      <c r="F80" s="7"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
-      <c r="H80" s="9"/>
+      <c r="H80" s="7"/>
       <c r="I80">
         <f t="shared" si="14"/>
         <v>478</v>
       </c>
-      <c r="J80" s="28"/>
+      <c r="J80" s="8"/>
       <c r="K80">
         <f t="shared" si="15"/>
         <v>578</v>
       </c>
-      <c r="L80" s="28"/>
+      <c r="L80" s="8"/>
       <c r="M80">
         <f t="shared" si="16"/>
         <v>678</v>
       </c>
-      <c r="N80" s="4"/>
+      <c r="N80" s="34"/>
       <c r="O80" s="5">
         <f t="shared" si="17"/>
         <v>778</v>
@@ -5117,7 +5184,7 @@
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="6"/>
       <c r="C81">
         <f t="shared" si="11"/>
         <v>179</v>
@@ -5129,27 +5196,27 @@
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="9"/>
+      <c r="F81" s="7"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
-      <c r="H81" s="9"/>
+      <c r="H81" s="7"/>
       <c r="I81">
         <f t="shared" si="14"/>
         <v>479</v>
       </c>
-      <c r="J81" s="28"/>
+      <c r="J81" s="8"/>
       <c r="K81">
         <f t="shared" si="15"/>
         <v>579</v>
       </c>
-      <c r="L81" s="28"/>
+      <c r="L81" s="8"/>
       <c r="M81">
         <f t="shared" si="16"/>
         <v>679</v>
       </c>
-      <c r="N81" s="4"/>
+      <c r="N81" s="34"/>
       <c r="O81" s="5">
         <f t="shared" si="17"/>
         <v>779</v>
@@ -5169,7 +5236,7 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="B82" s="8"/>
+      <c r="B82" s="6"/>
       <c r="C82">
         <f t="shared" si="11"/>
         <v>180</v>
@@ -5178,27 +5245,27 @@
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="9"/>
+      <c r="F82" s="7"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="H82" s="9"/>
+      <c r="H82" s="7"/>
       <c r="I82">
         <f t="shared" si="14"/>
         <v>480</v>
       </c>
-      <c r="J82" s="28"/>
+      <c r="J82" s="8"/>
       <c r="K82">
         <f t="shared" si="15"/>
         <v>580</v>
       </c>
-      <c r="L82" s="28"/>
+      <c r="L82" s="8"/>
       <c r="M82">
         <f t="shared" si="16"/>
         <v>680</v>
       </c>
-      <c r="N82" s="4"/>
+      <c r="N82" s="34"/>
       <c r="O82" s="5">
         <f t="shared" si="17"/>
         <v>780</v>
@@ -5218,7 +5285,7 @@
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="6"/>
       <c r="C83">
         <f t="shared" si="11"/>
         <v>181</v>
@@ -5227,27 +5294,27 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="9"/>
+      <c r="F83" s="7"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="7"/>
       <c r="I83">
         <f t="shared" si="14"/>
         <v>481</v>
       </c>
-      <c r="J83" s="28"/>
+      <c r="J83" s="8"/>
       <c r="K83">
         <f t="shared" si="15"/>
         <v>581</v>
       </c>
-      <c r="L83" s="28"/>
+      <c r="L83" s="8"/>
       <c r="M83">
         <f t="shared" si="16"/>
         <v>681</v>
       </c>
-      <c r="N83" s="4"/>
+      <c r="N83" s="34"/>
       <c r="O83" s="5">
         <f t="shared" si="17"/>
         <v>781</v>
@@ -5267,7 +5334,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="8"/>
+      <c r="B84" s="6"/>
       <c r="C84">
         <f t="shared" si="11"/>
         <v>182</v>
@@ -5276,27 +5343,27 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="9"/>
+      <c r="F84" s="7"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
-      <c r="H84" s="9"/>
+      <c r="H84" s="7"/>
       <c r="I84">
         <f t="shared" si="14"/>
         <v>482</v>
       </c>
-      <c r="J84" s="28"/>
+      <c r="J84" s="8"/>
       <c r="K84">
         <f t="shared" si="15"/>
         <v>582</v>
       </c>
-      <c r="L84" s="28"/>
+      <c r="L84" s="8"/>
       <c r="M84">
         <f t="shared" si="16"/>
         <v>682</v>
       </c>
-      <c r="N84" s="4"/>
+      <c r="N84" s="34"/>
       <c r="O84" s="5">
         <f t="shared" si="17"/>
         <v>782</v>
@@ -5316,7 +5383,7 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C85">
@@ -5327,27 +5394,27 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="9"/>
+      <c r="F85" s="7"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
-      <c r="H85" s="9"/>
+      <c r="H85" s="7"/>
       <c r="I85">
         <f t="shared" si="14"/>
         <v>483</v>
       </c>
-      <c r="J85" s="28"/>
+      <c r="J85" s="8"/>
       <c r="K85">
         <f t="shared" si="15"/>
         <v>583</v>
       </c>
-      <c r="L85" s="28"/>
+      <c r="L85" s="8"/>
       <c r="M85">
         <f t="shared" si="16"/>
         <v>683</v>
       </c>
-      <c r="N85" s="4"/>
+      <c r="N85" s="34"/>
       <c r="O85" s="5">
         <f t="shared" si="17"/>
         <v>783</v>
@@ -5367,7 +5434,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="17"/>
+      <c r="B86" s="12"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -5376,27 +5443,27 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="9"/>
+      <c r="F86" s="7"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
-      <c r="H86" s="9"/>
+      <c r="H86" s="7"/>
       <c r="I86">
         <f t="shared" si="14"/>
         <v>484</v>
       </c>
-      <c r="J86" s="28"/>
+      <c r="J86" s="8"/>
       <c r="K86">
         <f t="shared" si="15"/>
         <v>584</v>
       </c>
-      <c r="L86" s="28"/>
+      <c r="L86" s="8"/>
       <c r="M86">
         <f t="shared" si="16"/>
         <v>684</v>
       </c>
-      <c r="N86" s="4"/>
+      <c r="N86" s="34"/>
       <c r="O86" s="5">
         <f t="shared" si="17"/>
         <v>784</v>
@@ -5416,7 +5483,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="17"/>
+      <c r="B87" s="12"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -5425,27 +5492,27 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="9"/>
+      <c r="F87" s="7"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
-      <c r="H87" s="9"/>
+      <c r="H87" s="7"/>
       <c r="I87">
         <f t="shared" si="14"/>
         <v>485</v>
       </c>
-      <c r="J87" s="28"/>
+      <c r="J87" s="8"/>
       <c r="K87">
         <f t="shared" si="15"/>
         <v>585</v>
       </c>
-      <c r="L87" s="28"/>
+      <c r="L87" s="8"/>
       <c r="M87">
         <f t="shared" si="16"/>
         <v>685</v>
       </c>
-      <c r="N87" s="4"/>
+      <c r="N87" s="34"/>
       <c r="O87" s="5">
         <f t="shared" si="17"/>
         <v>785</v>
@@ -5465,7 +5532,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="18"/>
+      <c r="B88" s="13"/>
       <c r="C88">
         <f t="shared" si="11"/>
         <v>186</v>
@@ -5474,27 +5541,27 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="7"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
-      <c r="H88" s="9"/>
+      <c r="H88" s="7"/>
       <c r="I88">
         <f t="shared" si="14"/>
         <v>486</v>
       </c>
-      <c r="J88" s="28"/>
+      <c r="J88" s="8"/>
       <c r="K88">
         <f t="shared" si="15"/>
         <v>586</v>
       </c>
-      <c r="L88" s="28"/>
+      <c r="L88" s="8"/>
       <c r="M88">
         <f t="shared" si="16"/>
         <v>686</v>
       </c>
-      <c r="N88" s="4"/>
+      <c r="N88" s="34"/>
       <c r="O88" s="5">
         <f t="shared" si="17"/>
         <v>786</v>
@@ -5525,27 +5592,27 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="9"/>
+      <c r="F89" s="7"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
-      <c r="H89" s="9"/>
+      <c r="H89" s="7"/>
       <c r="I89">
         <f t="shared" si="14"/>
         <v>487</v>
       </c>
-      <c r="J89" s="28"/>
+      <c r="J89" s="8"/>
       <c r="K89">
         <f t="shared" si="15"/>
         <v>587</v>
       </c>
-      <c r="L89" s="28"/>
+      <c r="L89" s="8"/>
       <c r="M89">
         <f t="shared" si="16"/>
         <v>687</v>
       </c>
-      <c r="N89" s="4"/>
+      <c r="N89" s="34"/>
       <c r="O89" s="5">
         <f t="shared" si="17"/>
         <v>787</v>
@@ -5576,27 +5643,27 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="9"/>
+      <c r="F90" s="7"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
-      <c r="H90" s="9"/>
+      <c r="H90" s="7"/>
       <c r="I90">
         <f t="shared" si="14"/>
         <v>488</v>
       </c>
-      <c r="J90" s="28"/>
+      <c r="J90" s="8"/>
       <c r="K90">
         <f t="shared" si="15"/>
         <v>588</v>
       </c>
-      <c r="L90" s="28"/>
+      <c r="L90" s="8"/>
       <c r="M90">
         <f t="shared" si="16"/>
         <v>688</v>
       </c>
-      <c r="N90" s="4"/>
+      <c r="N90" s="34"/>
       <c r="O90" s="5">
         <f t="shared" si="17"/>
         <v>788</v>
@@ -5627,27 +5694,27 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="9"/>
+      <c r="F91" s="7"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
-      <c r="H91" s="9"/>
+      <c r="H91" s="7"/>
       <c r="I91">
         <f t="shared" si="14"/>
         <v>489</v>
       </c>
-      <c r="J91" s="28"/>
+      <c r="J91" s="8"/>
       <c r="K91">
         <f t="shared" si="15"/>
         <v>589</v>
       </c>
-      <c r="L91" s="28"/>
+      <c r="L91" s="8"/>
       <c r="M91">
         <f t="shared" si="16"/>
         <v>689</v>
       </c>
-      <c r="N91" s="4"/>
+      <c r="N91" s="34"/>
       <c r="O91" s="5">
         <f t="shared" si="17"/>
         <v>789</v>
@@ -5678,27 +5745,27 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="9"/>
+      <c r="F92" s="7"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
-      <c r="H92" s="9"/>
+      <c r="H92" s="7"/>
       <c r="I92">
         <f t="shared" si="14"/>
         <v>490</v>
       </c>
-      <c r="J92" s="28"/>
+      <c r="J92" s="8"/>
       <c r="K92">
         <f t="shared" si="15"/>
         <v>590</v>
       </c>
-      <c r="L92" s="28"/>
+      <c r="L92" s="8"/>
       <c r="M92">
         <f t="shared" si="16"/>
         <v>690</v>
       </c>
-      <c r="N92" s="4"/>
+      <c r="N92" s="33"/>
       <c r="O92" s="5">
         <f t="shared" si="17"/>
         <v>790</v>
@@ -5718,7 +5785,7 @@
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C93">
@@ -5729,27 +5796,27 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="9"/>
+      <c r="F93" s="7"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
-      <c r="H93" s="9"/>
+      <c r="H93" s="7"/>
       <c r="I93">
         <f t="shared" si="14"/>
         <v>491</v>
       </c>
-      <c r="J93" s="28"/>
+      <c r="J93" s="8"/>
       <c r="K93">
         <f t="shared" si="15"/>
         <v>591</v>
       </c>
-      <c r="L93" s="28"/>
-      <c r="M93">
+      <c r="L93" s="8"/>
+      <c r="M93" s="35">
         <f t="shared" si="16"/>
         <v>691</v>
       </c>
-      <c r="N93" s="4"/>
+      <c r="N93" s="32"/>
       <c r="O93" s="5">
         <f t="shared" si="17"/>
         <v>791</v>
@@ -5769,7 +5836,7 @@
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="B94" s="13"/>
+      <c r="B94" s="9"/>
       <c r="C94">
         <f t="shared" si="11"/>
         <v>192</v>
@@ -5778,27 +5845,27 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="9"/>
+      <c r="F94" s="7"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
-      <c r="H94" s="9"/>
+      <c r="H94" s="7"/>
       <c r="I94">
         <f t="shared" si="14"/>
         <v>492</v>
       </c>
-      <c r="J94" s="28"/>
+      <c r="J94" s="8"/>
       <c r="K94">
         <f t="shared" si="15"/>
         <v>592</v>
       </c>
-      <c r="L94" s="28"/>
-      <c r="M94">
+      <c r="L94" s="8"/>
+      <c r="M94" s="35">
         <f t="shared" si="16"/>
         <v>692</v>
       </c>
-      <c r="N94" s="4"/>
+      <c r="N94" s="36"/>
       <c r="O94" s="5">
         <f t="shared" si="17"/>
         <v>792</v>
@@ -5818,7 +5885,7 @@
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C95">
@@ -5829,27 +5896,27 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="9"/>
+      <c r="F95" s="7"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
-      <c r="H95" s="9"/>
+      <c r="H95" s="7"/>
       <c r="I95">
         <f t="shared" si="14"/>
         <v>493</v>
       </c>
-      <c r="J95" s="28"/>
+      <c r="J95" s="8"/>
       <c r="K95">
         <f t="shared" si="15"/>
         <v>593</v>
       </c>
-      <c r="L95" s="28"/>
-      <c r="M95">
+      <c r="L95" s="8"/>
+      <c r="M95" s="35">
         <f t="shared" si="16"/>
         <v>693</v>
       </c>
-      <c r="N95" s="4"/>
+      <c r="N95" s="36"/>
       <c r="O95" s="5">
         <f t="shared" si="17"/>
         <v>793</v>
@@ -5869,7 +5936,7 @@
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="B96" s="13"/>
+      <c r="B96" s="9"/>
       <c r="C96">
         <f t="shared" si="11"/>
         <v>194</v>
@@ -5878,27 +5945,27 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="9"/>
+      <c r="F96" s="7"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="7"/>
       <c r="I96">
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
-      <c r="J96" s="28"/>
+      <c r="J96" s="8"/>
       <c r="K96">
         <f t="shared" si="15"/>
         <v>594</v>
       </c>
-      <c r="L96" s="28"/>
-      <c r="M96">
+      <c r="L96" s="8"/>
+      <c r="M96" s="35">
         <f t="shared" si="16"/>
         <v>694</v>
       </c>
-      <c r="N96" s="4"/>
+      <c r="N96" s="36"/>
       <c r="O96" s="5">
         <f t="shared" si="17"/>
         <v>794</v>
@@ -5929,27 +5996,27 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="9"/>
+      <c r="F97" s="7"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
-      <c r="H97" s="9"/>
+      <c r="H97" s="7"/>
       <c r="I97">
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
-      <c r="J97" s="28"/>
+      <c r="J97" s="8"/>
       <c r="K97">
         <f t="shared" si="15"/>
         <v>595</v>
       </c>
-      <c r="L97" s="28"/>
-      <c r="M97">
+      <c r="L97" s="8"/>
+      <c r="M97" s="35">
         <f t="shared" si="16"/>
         <v>695</v>
       </c>
-      <c r="N97" s="4"/>
+      <c r="N97" s="36"/>
       <c r="O97" s="5">
         <f t="shared" si="17"/>
         <v>795</v>
@@ -5969,7 +6036,7 @@
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C98">
@@ -5980,27 +6047,27 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="9"/>
+      <c r="F98" s="7"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
-      <c r="H98" s="9"/>
+      <c r="H98" s="7"/>
       <c r="I98">
         <f t="shared" si="14"/>
         <v>496</v>
       </c>
-      <c r="J98" s="28"/>
+      <c r="J98" s="8"/>
       <c r="K98">
         <f t="shared" si="15"/>
         <v>596</v>
       </c>
-      <c r="L98" s="28"/>
-      <c r="M98">
+      <c r="L98" s="8"/>
+      <c r="M98" s="35">
         <f t="shared" si="16"/>
         <v>696</v>
       </c>
-      <c r="N98" s="4"/>
+      <c r="N98" s="36"/>
       <c r="O98" s="5">
         <f t="shared" si="17"/>
         <v>796</v>
@@ -6020,7 +6087,7 @@
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="20"/>
       <c r="C99">
         <f t="shared" si="11"/>
         <v>197</v>
@@ -6029,27 +6096,27 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="9"/>
+      <c r="F99" s="7"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="7"/>
       <c r="I99">
         <f t="shared" si="14"/>
         <v>497</v>
       </c>
-      <c r="J99" s="28"/>
+      <c r="J99" s="8"/>
       <c r="K99">
         <f t="shared" si="15"/>
         <v>597</v>
       </c>
-      <c r="L99" s="28"/>
-      <c r="M99">
+      <c r="L99" s="8"/>
+      <c r="M99" s="35">
         <f t="shared" si="16"/>
         <v>697</v>
       </c>
-      <c r="N99" s="4"/>
+      <c r="N99" s="36"/>
       <c r="O99" s="5">
         <f t="shared" si="17"/>
         <v>797</v>
@@ -6069,7 +6136,7 @@
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="B100" s="11"/>
+      <c r="B100" s="20"/>
       <c r="C100">
         <f t="shared" si="11"/>
         <v>198</v>
@@ -6078,27 +6145,27 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="9"/>
+      <c r="F100" s="7"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
-      <c r="H100" s="9"/>
+      <c r="H100" s="7"/>
       <c r="I100">
         <f t="shared" si="14"/>
         <v>498</v>
       </c>
-      <c r="J100" s="28"/>
+      <c r="J100" s="8"/>
       <c r="K100">
         <f t="shared" si="15"/>
         <v>598</v>
       </c>
-      <c r="L100" s="28"/>
-      <c r="M100">
+      <c r="L100" s="8"/>
+      <c r="M100" s="35">
         <f t="shared" si="16"/>
         <v>698</v>
       </c>
-      <c r="N100" s="4"/>
+      <c r="N100" s="36"/>
       <c r="O100" s="5">
         <f t="shared" si="17"/>
         <v>798</v>
@@ -6118,7 +6185,7 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="21"/>
       <c r="C101">
         <f t="shared" si="11"/>
         <v>199</v>
@@ -6127,27 +6194,27 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="9"/>
+      <c r="F101" s="7"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
-      <c r="H101" s="9"/>
+      <c r="H101" s="7"/>
       <c r="I101">
         <f t="shared" si="14"/>
         <v>499</v>
       </c>
-      <c r="J101" s="28"/>
+      <c r="J101" s="8"/>
       <c r="K101">
         <f t="shared" si="15"/>
         <v>599</v>
       </c>
-      <c r="L101" s="28"/>
-      <c r="M101">
+      <c r="L101" s="8"/>
+      <c r="M101" s="35">
         <f t="shared" si="16"/>
         <v>699</v>
       </c>
-      <c r="N101" s="4"/>
+      <c r="N101" s="36"/>
       <c r="O101" s="5">
         <f t="shared" si="17"/>
         <v>799</v>
@@ -6164,6 +6231,7 @@
     </row>
     <row r="102" spans="1:19">
       <c r="J102" s="4"/>
+      <c r="P102" s="4"/>
     </row>
     <row r="103" spans="1:19">
       <c r="J103" s="4"/>
@@ -6343,12 +6411,27 @@
       <c r="J161" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="J2:J26"/>
-    <mergeCell ref="J27:J51"/>
-    <mergeCell ref="J52:J101"/>
-    <mergeCell ref="L2:L51"/>
-    <mergeCell ref="L52:L101"/>
+  <mergeCells count="41">
+    <mergeCell ref="P47:P57"/>
+    <mergeCell ref="P18:P33"/>
+    <mergeCell ref="P2:P17"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="P36:P46"/>
+    <mergeCell ref="N2:N17"/>
+    <mergeCell ref="N18:N67"/>
+    <mergeCell ref="N68:N92"/>
+    <mergeCell ref="N93:N101"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B46:B84"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="D54:D57"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="H52:H76"/>
     <mergeCell ref="H2:H26"/>
@@ -6365,17 +6448,11 @@
     <mergeCell ref="F52:F76"/>
     <mergeCell ref="F77:F101"/>
     <mergeCell ref="B98:B101"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B46:B84"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="J2:J26"/>
+    <mergeCell ref="J27:J51"/>
+    <mergeCell ref="J52:J101"/>
+    <mergeCell ref="L2:L51"/>
+    <mergeCell ref="L52:L101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>ACTIVE 1</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>UDP Send Interval</t>
+  </si>
+  <si>
+    <t>3.38 1:30pm</t>
   </si>
 </sst>
 </file>
@@ -6708,8 +6711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68:O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12092,10 +12095,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -920,6 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -991,7 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,7 +1310,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C2">
@@ -1322,37 +1322,37 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I2">
         <v>400</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>68</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>79</v>
       </c>
       <c r="O2" s="7">
         <v>700</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>82</v>
       </c>
       <c r="Q2">
@@ -1373,7 +1373,7 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
@@ -1385,32 +1385,32 @@
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3">
         <f>K2+1</f>
         <v>501</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3">
         <f>M2+1</f>
         <v>601</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="7">
         <f>O2+1</f>
         <v>701</v>
       </c>
-      <c r="P3" s="25"/>
+      <c r="P3" s="26"/>
       <c r="Q3">
         <f>Q2+1</f>
         <v>801</v>
@@ -1431,7 +1431,7 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
@@ -1443,32 +1443,32 @@
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="10"/>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="5">K3+1</f>
         <v>502</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="11"/>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+1</f>
         <v>602</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="7">
         <f t="shared" ref="O4:O67" si="7">O3+1</f>
         <v>702</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4">
         <f t="shared" ref="Q4:Q67" si="8">Q3+1</f>
         <v>802</v>
@@ -1489,7 +1489,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -1501,32 +1501,32 @@
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="10"/>
       <c r="K5">
         <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="11"/>
       <c r="M5">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="7">
         <f t="shared" si="7"/>
         <v>703</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
       <c r="Q5">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -1547,7 +1547,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -1559,32 +1559,32 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6">
         <f t="shared" si="6"/>
         <v>604</v>
       </c>
-      <c r="N6" s="25"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="7">
         <f t="shared" si="7"/>
         <v>704</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="26"/>
       <c r="Q6">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -1605,7 +1605,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C7">
@@ -1619,32 +1619,32 @@
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="10"/>
       <c r="K7">
         <f t="shared" si="5"/>
         <v>505</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="11"/>
       <c r="M7">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="7">
         <f t="shared" si="7"/>
         <v>705</v>
       </c>
-      <c r="P7" s="25"/>
+      <c r="P7" s="26"/>
       <c r="Q7">
         <f t="shared" si="8"/>
         <v>805</v>
@@ -1665,7 +1665,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -1677,32 +1677,32 @@
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
       <c r="K8">
         <f t="shared" si="5"/>
         <v>506</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="11"/>
       <c r="M8">
         <f t="shared" si="6"/>
         <v>606</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="7">
         <f t="shared" si="7"/>
         <v>706</v>
       </c>
-      <c r="P8" s="25"/>
+      <c r="P8" s="26"/>
       <c r="Q8">
         <f t="shared" si="8"/>
         <v>806</v>
@@ -1723,7 +1723,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -1735,32 +1735,32 @@
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9">
         <f t="shared" si="5"/>
         <v>507</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9">
         <f t="shared" si="6"/>
         <v>607</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
         <v>707</v>
       </c>
-      <c r="P9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9">
         <f t="shared" si="8"/>
         <v>807</v>
@@ -1775,7 +1775,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -1787,32 +1787,32 @@
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="10"/>
       <c r="K10">
         <f t="shared" si="5"/>
         <v>508</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10">
         <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="7">
         <f t="shared" si="7"/>
         <v>708</v>
       </c>
-      <c r="P10" s="25"/>
+      <c r="P10" s="26"/>
       <c r="Q10">
         <f t="shared" si="8"/>
         <v>808</v>
@@ -1827,7 +1827,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -1839,32 +1839,32 @@
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="10"/>
       <c r="K11">
         <f t="shared" si="5"/>
         <v>509</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="11"/>
       <c r="M11">
         <f t="shared" si="6"/>
         <v>609</v>
       </c>
-      <c r="N11" s="25"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="7">
         <f t="shared" si="7"/>
         <v>709</v>
       </c>
-      <c r="P11" s="25"/>
+      <c r="P11" s="26"/>
       <c r="Q11">
         <f t="shared" si="8"/>
         <v>809</v>
@@ -1879,7 +1879,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -1891,32 +1891,32 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="10"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="11"/>
       <c r="M12">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="7">
         <f t="shared" si="7"/>
         <v>710</v>
       </c>
-      <c r="P12" s="25"/>
+      <c r="P12" s="26"/>
       <c r="Q12">
         <f t="shared" si="8"/>
         <v>810</v>
@@ -1931,44 +1931,44 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="10"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="K13">
         <f t="shared" si="5"/>
         <v>511</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="11"/>
       <c r="M13">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="26"/>
       <c r="O13" s="7">
         <f t="shared" si="7"/>
         <v>711</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="26"/>
       <c r="Q13">
         <f t="shared" si="8"/>
         <v>811</v>
@@ -1983,42 +1983,42 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="10"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="10"/>
       <c r="K14">
         <f t="shared" si="5"/>
         <v>512</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="7">
         <f t="shared" si="7"/>
         <v>712</v>
       </c>
-      <c r="P14" s="25"/>
+      <c r="P14" s="26"/>
       <c r="Q14">
         <f t="shared" si="8"/>
         <v>812</v>
@@ -2033,42 +2033,42 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="10"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="11"/>
       <c r="M15">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="7">
         <f t="shared" si="7"/>
         <v>713</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="26"/>
       <c r="Q15">
         <f t="shared" si="8"/>
         <v>813</v>
@@ -2083,42 +2083,42 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="10"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="10"/>
       <c r="K16">
         <f t="shared" si="5"/>
         <v>514</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="11"/>
       <c r="M16">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="7">
         <f t="shared" si="7"/>
         <v>714</v>
       </c>
-      <c r="P16" s="25"/>
+      <c r="P16" s="26"/>
       <c r="Q16">
         <f t="shared" si="8"/>
         <v>814</v>
@@ -2133,44 +2133,44 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>60</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="10"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="10"/>
       <c r="K17">
         <f t="shared" si="5"/>
         <v>515</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="11"/>
       <c r="M17">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="N17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7">
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
-      <c r="P17" s="26"/>
+      <c r="P17" s="27"/>
       <c r="Q17">
         <f t="shared" si="8"/>
         <v>815</v>
@@ -2185,44 +2185,44 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="23"/>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="10"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
       <c r="K18">
         <f t="shared" si="5"/>
         <v>516</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="11"/>
       <c r="M18">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="25" t="s">
         <v>80</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="7"/>
         <v>716</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="25" t="s">
         <v>86</v>
       </c>
       <c r="Q18">
@@ -2239,42 +2239,42 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="10"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="K19">
         <f t="shared" si="5"/>
         <v>517</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="11"/>
       <c r="M19">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="5">
         <f t="shared" si="7"/>
         <v>717</v>
       </c>
-      <c r="P19" s="25"/>
+      <c r="P19" s="26"/>
       <c r="Q19">
         <f t="shared" si="8"/>
         <v>817</v>
@@ -2289,42 +2289,42 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="10"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="10"/>
       <c r="K20">
         <f t="shared" si="5"/>
         <v>518</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="11"/>
       <c r="M20">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="26"/>
       <c r="O20" s="5">
         <f t="shared" si="7"/>
         <v>718</v>
       </c>
-      <c r="P20" s="25"/>
+      <c r="P20" s="26"/>
       <c r="Q20">
         <f t="shared" si="8"/>
         <v>818</v>
@@ -2339,44 +2339,44 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>72</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="10"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
       <c r="K21">
         <f t="shared" si="5"/>
         <v>519</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="11"/>
       <c r="M21">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="26"/>
       <c r="O21" s="5">
         <f t="shared" si="7"/>
         <v>719</v>
       </c>
-      <c r="P21" s="25"/>
+      <c r="P21" s="26"/>
       <c r="Q21">
         <f t="shared" si="8"/>
         <v>819</v>
@@ -2391,42 +2391,42 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="36"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="10"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="10"/>
       <c r="K22">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="11"/>
       <c r="M22">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="5">
         <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="P22" s="25"/>
+      <c r="P22" s="26"/>
       <c r="Q22">
         <f t="shared" si="8"/>
         <v>820</v>
@@ -2441,7 +2441,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2453,32 +2453,32 @@
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="10"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="10"/>
       <c r="K23">
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="11"/>
       <c r="M23">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="5">
         <f t="shared" si="7"/>
         <v>721</v>
       </c>
-      <c r="P23" s="25"/>
+      <c r="P23" s="26"/>
       <c r="Q23">
         <f t="shared" si="8"/>
         <v>821</v>
@@ -2493,7 +2493,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2505,32 +2505,32 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="10"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="10"/>
       <c r="K24">
         <f t="shared" si="5"/>
         <v>522</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="11"/>
       <c r="M24">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="5">
         <f t="shared" si="7"/>
         <v>722</v>
       </c>
-      <c r="P24" s="25"/>
+      <c r="P24" s="26"/>
       <c r="Q24">
         <f t="shared" si="8"/>
         <v>822</v>
@@ -2545,7 +2545,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2557,32 +2557,32 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25">
         <f t="shared" si="5"/>
         <v>523</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="11"/>
       <c r="M25">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="N25" s="25"/>
+      <c r="N25" s="26"/>
       <c r="O25" s="5">
         <f t="shared" si="7"/>
         <v>723</v>
       </c>
-      <c r="P25" s="25"/>
+      <c r="P25" s="26"/>
       <c r="Q25">
         <f t="shared" si="8"/>
         <v>823</v>
@@ -2597,44 +2597,44 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="10"/>
       <c r="K26">
         <f t="shared" si="5"/>
         <v>524</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="11"/>
       <c r="M26">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="5">
         <f t="shared" si="7"/>
         <v>724</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="26"/>
       <c r="Q26">
         <f t="shared" si="8"/>
         <v>824</v>
@@ -2649,48 +2649,48 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
         <v>425</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>71</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="11"/>
       <c r="M27">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="N27" s="25"/>
+      <c r="N27" s="26"/>
       <c r="O27" s="5">
         <f t="shared" si="7"/>
         <v>725</v>
       </c>
-      <c r="P27" s="25"/>
+      <c r="P27" s="26"/>
       <c r="Q27">
         <f t="shared" si="8"/>
         <v>825</v>
@@ -2705,42 +2705,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="10"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="10"/>
       <c r="K28">
         <f t="shared" si="5"/>
         <v>526</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="11"/>
       <c r="M28">
         <f t="shared" si="6"/>
         <v>626</v>
       </c>
-      <c r="N28" s="25"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="5">
         <f t="shared" si="7"/>
         <v>726</v>
       </c>
-      <c r="P28" s="25"/>
+      <c r="P28" s="26"/>
       <c r="Q28">
         <f t="shared" si="8"/>
         <v>826</v>
@@ -2755,42 +2755,42 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="16"/>
       <c r="E29">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="10"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="10"/>
       <c r="K29">
         <f t="shared" si="5"/>
         <v>527</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="N29" s="25"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="5">
         <f t="shared" si="7"/>
         <v>727</v>
       </c>
-      <c r="P29" s="25"/>
+      <c r="P29" s="26"/>
       <c r="Q29">
         <f t="shared" si="8"/>
         <v>827</v>
@@ -2805,44 +2805,44 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="10"/>
       <c r="K30">
         <f t="shared" si="5"/>
         <v>528</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
-      <c r="N30" s="25"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="5">
         <f t="shared" si="7"/>
         <v>728</v>
       </c>
-      <c r="P30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30">
         <f t="shared" si="8"/>
         <v>828</v>
@@ -2857,42 +2857,42 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="E31">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="10"/>
       <c r="K31">
         <f t="shared" si="5"/>
         <v>529</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
-      <c r="N31" s="25"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="5">
         <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="P31" s="25"/>
+      <c r="P31" s="26"/>
       <c r="Q31">
         <f t="shared" si="8"/>
         <v>829</v>
@@ -2907,42 +2907,42 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="10"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="10"/>
       <c r="K32">
         <f t="shared" si="5"/>
         <v>530</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="11"/>
       <c r="M32">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="5">
         <f t="shared" si="7"/>
         <v>730</v>
       </c>
-      <c r="P32" s="25"/>
+      <c r="P32" s="26"/>
       <c r="Q32">
         <f t="shared" si="8"/>
         <v>830</v>
@@ -2957,42 +2957,42 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="10"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="10"/>
       <c r="K33">
         <f t="shared" si="5"/>
         <v>531</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="11"/>
       <c r="M33">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
-      <c r="N33" s="25"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="5">
         <f t="shared" si="7"/>
         <v>731</v>
       </c>
-      <c r="P33" s="36"/>
+      <c r="P33" s="37"/>
       <c r="Q33">
         <f t="shared" si="8"/>
         <v>831</v>
@@ -3007,44 +3007,44 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="10"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="10"/>
       <c r="K34">
         <f t="shared" si="5"/>
         <v>532</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="11"/>
       <c r="M34">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="N34" s="25"/>
+      <c r="N34" s="26"/>
       <c r="O34" s="5">
         <f t="shared" si="7"/>
         <v>732</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="38" t="s">
         <v>83</v>
       </c>
       <c r="Q34">
@@ -3061,42 +3061,42 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="33"/>
       <c r="E35">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="10"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="10"/>
       <c r="K35">
         <f t="shared" si="5"/>
         <v>533</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="11"/>
       <c r="M35">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
-      <c r="N35" s="25"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="5">
         <f t="shared" si="7"/>
         <v>733</v>
       </c>
-      <c r="P35" s="38"/>
+      <c r="P35" s="39"/>
       <c r="Q35">
         <f t="shared" si="8"/>
         <v>833</v>
@@ -3111,42 +3111,42 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="10"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="10"/>
       <c r="K36">
         <f t="shared" si="5"/>
         <v>534</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="11"/>
       <c r="M36">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
-      <c r="N36" s="25"/>
+      <c r="N36" s="26"/>
       <c r="O36" s="5">
         <f t="shared" si="7"/>
         <v>734</v>
       </c>
-      <c r="P36" s="24" t="s">
+      <c r="P36" s="25" t="s">
         <v>84</v>
       </c>
       <c r="Q36">
@@ -3163,42 +3163,42 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="33"/>
       <c r="E37">
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="10"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="10"/>
       <c r="K37">
         <f t="shared" si="5"/>
         <v>535</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="11"/>
       <c r="M37">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
-      <c r="N37" s="25"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="5">
         <f t="shared" si="7"/>
         <v>735</v>
       </c>
-      <c r="P37" s="25"/>
+      <c r="P37" s="26"/>
       <c r="Q37">
         <f t="shared" si="8"/>
         <v>835</v>
@@ -3213,7 +3213,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -3225,32 +3225,32 @@
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="10"/>
       <c r="K38">
         <f t="shared" si="5"/>
         <v>536</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="11"/>
       <c r="M38">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
-      <c r="N38" s="25"/>
+      <c r="N38" s="26"/>
       <c r="O38" s="5">
         <f t="shared" si="7"/>
         <v>736</v>
       </c>
-      <c r="P38" s="25"/>
+      <c r="P38" s="26"/>
       <c r="Q38">
         <f t="shared" si="8"/>
         <v>836</v>
@@ -3265,7 +3265,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -3277,32 +3277,32 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="10"/>
       <c r="K39">
         <f t="shared" si="5"/>
         <v>537</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="11"/>
       <c r="M39">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="N39" s="25"/>
+      <c r="N39" s="26"/>
       <c r="O39" s="5">
         <f t="shared" si="7"/>
         <v>737</v>
       </c>
-      <c r="P39" s="25"/>
+      <c r="P39" s="26"/>
       <c r="Q39">
         <f t="shared" si="8"/>
         <v>837</v>
@@ -3317,44 +3317,44 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="10"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="10"/>
       <c r="K40">
         <f t="shared" si="5"/>
         <v>538</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="11"/>
       <c r="M40">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="N40" s="25"/>
+      <c r="N40" s="26"/>
       <c r="O40" s="5">
         <f t="shared" si="7"/>
         <v>738</v>
       </c>
-      <c r="P40" s="25"/>
+      <c r="P40" s="26"/>
       <c r="Q40">
         <f t="shared" si="8"/>
         <v>838</v>
@@ -3369,42 +3369,42 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="19"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="10"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="10"/>
       <c r="K41">
         <f t="shared" si="5"/>
         <v>539</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="11"/>
       <c r="M41">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
-      <c r="N41" s="25"/>
+      <c r="N41" s="26"/>
       <c r="O41" s="5">
         <f t="shared" si="7"/>
         <v>739</v>
       </c>
-      <c r="P41" s="25"/>
+      <c r="P41" s="26"/>
       <c r="Q41">
         <f t="shared" si="8"/>
         <v>839</v>
@@ -3419,42 +3419,42 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="20"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="10"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="10"/>
       <c r="K42">
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="11"/>
       <c r="M42">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="N42" s="25"/>
+      <c r="N42" s="26"/>
       <c r="O42" s="5">
         <f t="shared" si="7"/>
         <v>740</v>
       </c>
-      <c r="P42" s="25"/>
+      <c r="P42" s="26"/>
       <c r="Q42">
         <f t="shared" si="8"/>
         <v>840</v>
@@ -3469,42 +3469,42 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="10"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
       </c>
-      <c r="J43" s="9"/>
+      <c r="J43" s="10"/>
       <c r="K43">
         <f t="shared" si="5"/>
         <v>541</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="11"/>
       <c r="M43">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
-      <c r="N43" s="25"/>
+      <c r="N43" s="26"/>
       <c r="O43" s="5">
         <f t="shared" si="7"/>
         <v>741</v>
       </c>
-      <c r="P43" s="25"/>
+      <c r="P43" s="26"/>
       <c r="Q43">
         <f t="shared" si="8"/>
         <v>841</v>
@@ -3519,44 +3519,44 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="10"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="10"/>
       <c r="K44">
         <f t="shared" si="5"/>
         <v>542</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="11"/>
       <c r="M44">
         <f t="shared" si="6"/>
         <v>642</v>
       </c>
-      <c r="N44" s="25"/>
+      <c r="N44" s="26"/>
       <c r="O44" s="5">
         <f t="shared" si="7"/>
         <v>742</v>
       </c>
-      <c r="P44" s="25"/>
+      <c r="P44" s="26"/>
       <c r="Q44">
         <f t="shared" si="8"/>
         <v>842</v>
@@ -3571,42 +3571,42 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="17"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="10"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
       </c>
-      <c r="J45" s="9"/>
+      <c r="J45" s="10"/>
       <c r="K45">
         <f t="shared" si="5"/>
         <v>543</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="L45" s="11"/>
       <c r="M45">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
-      <c r="N45" s="25"/>
+      <c r="N45" s="26"/>
       <c r="O45" s="5">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
-      <c r="P45" s="25"/>
+      <c r="P45" s="26"/>
       <c r="Q45">
         <f t="shared" si="8"/>
         <v>843</v>
@@ -3621,44 +3621,44 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="17"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="10"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="10"/>
       <c r="K46">
         <f t="shared" si="5"/>
         <v>544</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="L46" s="11"/>
       <c r="M46">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
-      <c r="N46" s="25"/>
+      <c r="N46" s="26"/>
       <c r="O46" s="5">
         <f t="shared" si="7"/>
         <v>744</v>
       </c>
-      <c r="P46" s="26"/>
+      <c r="P46" s="27"/>
       <c r="Q46">
         <f t="shared" si="8"/>
         <v>844</v>
@@ -3673,42 +3673,42 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="17"/>
       <c r="E47">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="10"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="10"/>
       <c r="K47">
         <f t="shared" si="5"/>
         <v>545</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="11"/>
       <c r="M47">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
-      <c r="N47" s="25"/>
+      <c r="N47" s="26"/>
       <c r="O47" s="5">
         <f t="shared" si="7"/>
         <v>745</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="P47" s="25" t="s">
         <v>85</v>
       </c>
       <c r="Q47">
@@ -3725,44 +3725,44 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="10"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="10"/>
       <c r="K48">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="L48" s="11"/>
       <c r="M48">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="26"/>
       <c r="O48" s="5">
         <f t="shared" si="7"/>
         <v>746</v>
       </c>
-      <c r="P48" s="25"/>
+      <c r="P48" s="26"/>
       <c r="Q48">
         <f t="shared" si="8"/>
         <v>846</v>
@@ -3777,42 +3777,42 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="17"/>
       <c r="E49">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="10"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="10"/>
       <c r="K49">
         <f t="shared" si="5"/>
         <v>547</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="11"/>
       <c r="M49">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="26"/>
       <c r="O49" s="5">
         <f t="shared" si="7"/>
         <v>747</v>
       </c>
-      <c r="P49" s="25"/>
+      <c r="P49" s="26"/>
       <c r="Q49">
         <f t="shared" si="8"/>
         <v>847</v>
@@ -3827,42 +3827,42 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="17"/>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="10"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="10"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
       </c>
-      <c r="J50" s="9"/>
+      <c r="J50" s="10"/>
       <c r="K50">
         <f t="shared" si="5"/>
         <v>548</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="11"/>
       <c r="M50">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
-      <c r="N50" s="25"/>
+      <c r="N50" s="26"/>
       <c r="O50" s="5">
         <f t="shared" si="7"/>
         <v>748</v>
       </c>
-      <c r="P50" s="25"/>
+      <c r="P50" s="26"/>
       <c r="Q50">
         <f t="shared" si="8"/>
         <v>848</v>
@@ -3877,42 +3877,42 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="17"/>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="10"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
       </c>
-      <c r="J51" s="9"/>
+      <c r="J51" s="10"/>
       <c r="K51">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="L51" s="11"/>
       <c r="M51">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="26"/>
       <c r="O51" s="5">
         <f t="shared" si="7"/>
         <v>749</v>
       </c>
-      <c r="P51" s="25"/>
+      <c r="P51" s="26"/>
       <c r="Q51">
         <f t="shared" si="8"/>
         <v>849</v>
@@ -3927,7 +3927,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -3939,40 +3939,40 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="9" t="s">
         <v>66</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="9" t="s">
         <v>69</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="26"/>
       <c r="O52" s="5">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="P52" s="25"/>
+      <c r="P52" s="26"/>
       <c r="Q52">
         <f t="shared" si="8"/>
         <v>850</v>
@@ -3987,7 +3987,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
@@ -3999,32 +3999,32 @@
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="10"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>451</v>
       </c>
-      <c r="J53" s="10"/>
+      <c r="J53" s="11"/>
       <c r="K53">
         <f t="shared" si="5"/>
         <v>551</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="L53" s="11"/>
       <c r="M53">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="O53" s="5">
         <f t="shared" si="7"/>
         <v>751</v>
       </c>
-      <c r="P53" s="25"/>
+      <c r="P53" s="26"/>
       <c r="Q53">
         <f t="shared" si="8"/>
         <v>851</v>
@@ -4039,44 +4039,44 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="10"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
-      <c r="J54" s="10"/>
+      <c r="J54" s="11"/>
       <c r="K54">
         <f t="shared" si="5"/>
         <v>552</v>
       </c>
-      <c r="L54" s="10"/>
+      <c r="L54" s="11"/>
       <c r="M54">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="5">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
-      <c r="P54" s="25"/>
+      <c r="P54" s="26"/>
       <c r="Q54">
         <f t="shared" si="8"/>
         <v>852</v>
@@ -4091,42 +4091,42 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="D55" s="33"/>
+      <c r="D55" s="34"/>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="10"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>453</v>
       </c>
-      <c r="J55" s="10"/>
+      <c r="J55" s="11"/>
       <c r="K55">
         <f t="shared" si="5"/>
         <v>553</v>
       </c>
-      <c r="L55" s="10"/>
+      <c r="L55" s="11"/>
       <c r="M55">
         <f t="shared" si="6"/>
         <v>653</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="26"/>
       <c r="O55" s="5">
         <f t="shared" si="7"/>
         <v>753</v>
       </c>
-      <c r="P55" s="25"/>
+      <c r="P55" s="26"/>
       <c r="Q55">
         <f t="shared" si="8"/>
         <v>853</v>
@@ -4141,42 +4141,42 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="9"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="D56" s="33"/>
+      <c r="D56" s="34"/>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="10"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
-      <c r="J56" s="10"/>
+      <c r="J56" s="11"/>
       <c r="K56">
         <f t="shared" si="5"/>
         <v>554</v>
       </c>
-      <c r="L56" s="10"/>
+      <c r="L56" s="11"/>
       <c r="M56">
         <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="N56" s="25"/>
+      <c r="N56" s="26"/>
       <c r="O56" s="5">
         <f t="shared" si="7"/>
         <v>754</v>
       </c>
-      <c r="P56" s="25"/>
+      <c r="P56" s="26"/>
       <c r="Q56">
         <f t="shared" si="8"/>
         <v>854</v>
@@ -4191,42 +4191,42 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="16"/>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="10"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>455</v>
       </c>
-      <c r="J57" s="10"/>
+      <c r="J57" s="11"/>
       <c r="K57">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
-      <c r="L57" s="10"/>
+      <c r="L57" s="11"/>
       <c r="M57">
         <f t="shared" si="6"/>
         <v>655</v>
       </c>
-      <c r="N57" s="25"/>
+      <c r="N57" s="26"/>
       <c r="O57" s="5">
         <f t="shared" si="7"/>
         <v>755</v>
       </c>
-      <c r="P57" s="26"/>
+      <c r="P57" s="27"/>
       <c r="Q57">
         <f t="shared" si="8"/>
         <v>855</v>
@@ -4241,39 +4241,39 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="10"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="10"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>456</v>
       </c>
-      <c r="J58" s="10"/>
+      <c r="J58" s="11"/>
       <c r="K58">
         <f t="shared" si="5"/>
         <v>556</v>
       </c>
-      <c r="L58" s="10"/>
+      <c r="L58" s="11"/>
       <c r="M58">
         <f t="shared" si="6"/>
         <v>656</v>
       </c>
-      <c r="N58" s="25"/>
+      <c r="N58" s="26"/>
       <c r="O58" s="5">
         <f t="shared" si="7"/>
         <v>756</v>
@@ -4293,37 +4293,37 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="20"/>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="10"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="10"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
-      <c r="J59" s="10"/>
+      <c r="J59" s="11"/>
       <c r="K59">
         <f t="shared" si="5"/>
         <v>557</v>
       </c>
-      <c r="L59" s="10"/>
+      <c r="L59" s="11"/>
       <c r="M59">
         <f t="shared" si="6"/>
         <v>657</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="26"/>
       <c r="O59" s="5">
         <f t="shared" si="7"/>
         <v>757</v>
@@ -4343,37 +4343,37 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="20"/>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="10"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="10"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>458</v>
       </c>
-      <c r="J60" s="10"/>
+      <c r="J60" s="11"/>
       <c r="K60">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
-      <c r="L60" s="10"/>
+      <c r="L60" s="11"/>
       <c r="M60">
         <f t="shared" si="6"/>
         <v>658</v>
       </c>
-      <c r="N60" s="25"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="5">
         <f t="shared" si="7"/>
         <v>758</v>
@@ -4393,37 +4393,37 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="D61" s="20"/>
+      <c r="D61" s="21"/>
       <c r="E61">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="10"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="10"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
-      <c r="J61" s="10"/>
+      <c r="J61" s="11"/>
       <c r="K61">
         <f t="shared" si="5"/>
         <v>559</v>
       </c>
-      <c r="L61" s="10"/>
+      <c r="L61" s="11"/>
       <c r="M61">
         <f t="shared" si="6"/>
         <v>659</v>
       </c>
-      <c r="N61" s="25"/>
+      <c r="N61" s="26"/>
       <c r="O61" s="5">
         <f t="shared" si="7"/>
         <v>759</v>
@@ -4443,39 +4443,39 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="10"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="10"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>460</v>
       </c>
-      <c r="J62" s="10"/>
+      <c r="J62" s="11"/>
       <c r="K62">
         <f t="shared" si="5"/>
         <v>560</v>
       </c>
-      <c r="L62" s="10"/>
+      <c r="L62" s="11"/>
       <c r="M62">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="N62" s="25"/>
+      <c r="N62" s="26"/>
       <c r="O62" s="5">
         <f t="shared" si="7"/>
         <v>760</v>
@@ -4495,37 +4495,37 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="15"/>
       <c r="E63">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="10"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="H63" s="9"/>
+      <c r="H63" s="10"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>461</v>
       </c>
-      <c r="J63" s="10"/>
+      <c r="J63" s="11"/>
       <c r="K63">
         <f t="shared" si="5"/>
         <v>561</v>
       </c>
-      <c r="L63" s="10"/>
+      <c r="L63" s="11"/>
       <c r="M63">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
-      <c r="N63" s="25"/>
+      <c r="N63" s="26"/>
       <c r="O63" s="5">
         <f t="shared" si="7"/>
         <v>761</v>
@@ -4545,37 +4545,37 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="15"/>
       <c r="E64">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="10"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="10"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>462</v>
       </c>
-      <c r="J64" s="10"/>
+      <c r="J64" s="11"/>
       <c r="K64">
         <f t="shared" si="5"/>
         <v>562</v>
       </c>
-      <c r="L64" s="10"/>
+      <c r="L64" s="11"/>
       <c r="M64">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="N64" s="25"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="5">
         <f t="shared" si="7"/>
         <v>762</v>
@@ -4595,37 +4595,37 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="16"/>
       <c r="E65">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="10"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="10"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>463</v>
       </c>
-      <c r="J65" s="10"/>
+      <c r="J65" s="11"/>
       <c r="K65">
         <f t="shared" si="5"/>
         <v>563</v>
       </c>
-      <c r="L65" s="10"/>
+      <c r="L65" s="11"/>
       <c r="M65">
         <f t="shared" si="6"/>
         <v>663</v>
       </c>
-      <c r="N65" s="25"/>
+      <c r="N65" s="26"/>
       <c r="O65" s="5">
         <f t="shared" si="7"/>
         <v>763</v>
@@ -4645,7 +4645,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="8"/>
+      <c r="B66" s="9"/>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>164</v>
@@ -4657,27 +4657,27 @@
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="10"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
-      <c r="H66" s="9"/>
+      <c r="H66" s="10"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>464</v>
       </c>
-      <c r="J66" s="10"/>
+      <c r="J66" s="11"/>
       <c r="K66">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="L66" s="10"/>
+      <c r="L66" s="11"/>
       <c r="M66">
         <f t="shared" si="6"/>
         <v>664</v>
       </c>
-      <c r="N66" s="25"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="5">
         <f t="shared" si="7"/>
         <v>764</v>
@@ -4697,7 +4697,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -4709,27 +4709,27 @@
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="10"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
-      <c r="H67" s="9"/>
+      <c r="H67" s="10"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
-      <c r="J67" s="10"/>
+      <c r="J67" s="11"/>
       <c r="K67">
         <f t="shared" si="5"/>
         <v>565</v>
       </c>
-      <c r="L67" s="10"/>
+      <c r="L67" s="11"/>
       <c r="M67">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
-      <c r="N67" s="26"/>
+      <c r="N67" s="27"/>
       <c r="O67" s="5">
         <f t="shared" si="7"/>
         <v>765</v>
@@ -4749,7 +4749,7 @@
         <f t="shared" ref="A68:A101" si="10">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="11">C67+1</f>
         <v>166</v>
@@ -4761,27 +4761,27 @@
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="10"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
       </c>
-      <c r="H68" s="9"/>
+      <c r="H68" s="10"/>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="14">I67+1</f>
         <v>466</v>
       </c>
-      <c r="J68" s="10"/>
+      <c r="J68" s="11"/>
       <c r="K68">
         <f t="shared" ref="K68:K101" si="15">K67+1</f>
         <v>566</v>
       </c>
-      <c r="L68" s="10"/>
+      <c r="L68" s="11"/>
       <c r="M68">
         <f t="shared" ref="M68:M101" si="16">M67+1</f>
         <v>666</v>
       </c>
-      <c r="N68" s="27" t="s">
+      <c r="N68" s="28" t="s">
         <v>81</v>
       </c>
       <c r="O68" s="5">
@@ -4803,7 +4803,7 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
       <c r="C69">
         <f t="shared" si="11"/>
         <v>167</v>
@@ -4815,27 +4815,27 @@
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="10"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
-      <c r="H69" s="9"/>
+      <c r="H69" s="10"/>
       <c r="I69">
         <f t="shared" si="14"/>
         <v>467</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="11"/>
       <c r="K69">
         <f t="shared" si="15"/>
         <v>567</v>
       </c>
-      <c r="L69" s="10"/>
+      <c r="L69" s="11"/>
       <c r="M69">
         <f t="shared" si="16"/>
         <v>667</v>
       </c>
-      <c r="N69" s="28"/>
+      <c r="N69" s="29"/>
       <c r="O69" s="5">
         <f t="shared" si="17"/>
         <v>767</v>
@@ -4855,7 +4855,7 @@
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
       <c r="C70">
         <f t="shared" si="11"/>
         <v>168</v>
@@ -4867,27 +4867,27 @@
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="10"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
-      <c r="H70" s="9"/>
+      <c r="H70" s="10"/>
       <c r="I70">
         <f t="shared" si="14"/>
         <v>468</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="11"/>
       <c r="K70">
         <f t="shared" si="15"/>
         <v>568</v>
       </c>
-      <c r="L70" s="10"/>
+      <c r="L70" s="11"/>
       <c r="M70">
         <f t="shared" si="16"/>
         <v>668</v>
       </c>
-      <c r="N70" s="28"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="5">
         <f t="shared" si="17"/>
         <v>768</v>
@@ -4907,7 +4907,7 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
       <c r="C71">
         <f t="shared" si="11"/>
         <v>169</v>
@@ -4919,27 +4919,27 @@
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="10"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="10"/>
       <c r="I71">
         <f t="shared" si="14"/>
         <v>469</v>
       </c>
-      <c r="J71" s="10"/>
+      <c r="J71" s="11"/>
       <c r="K71">
         <f t="shared" si="15"/>
         <v>569</v>
       </c>
-      <c r="L71" s="10"/>
+      <c r="L71" s="11"/>
       <c r="M71">
         <f t="shared" si="16"/>
         <v>669</v>
       </c>
-      <c r="N71" s="28"/>
+      <c r="N71" s="29"/>
       <c r="O71" s="5">
         <f t="shared" si="17"/>
         <v>769</v>
@@ -4959,7 +4959,7 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
@@ -4971,27 +4971,27 @@
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="10"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="10"/>
       <c r="I72">
         <f t="shared" si="14"/>
         <v>470</v>
       </c>
-      <c r="J72" s="10"/>
+      <c r="J72" s="11"/>
       <c r="K72">
         <f t="shared" si="15"/>
         <v>570</v>
       </c>
-      <c r="L72" s="10"/>
+      <c r="L72" s="11"/>
       <c r="M72">
         <f t="shared" si="16"/>
         <v>670</v>
       </c>
-      <c r="N72" s="28"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="5">
         <f t="shared" si="17"/>
         <v>770</v>
@@ -5011,7 +5011,7 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
@@ -5023,27 +5023,27 @@
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="10"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="10"/>
       <c r="I73">
         <f t="shared" si="14"/>
         <v>471</v>
       </c>
-      <c r="J73" s="10"/>
+      <c r="J73" s="11"/>
       <c r="K73">
         <f t="shared" si="15"/>
         <v>571</v>
       </c>
-      <c r="L73" s="10"/>
+      <c r="L73" s="11"/>
       <c r="M73">
         <f t="shared" si="16"/>
         <v>671</v>
       </c>
-      <c r="N73" s="28"/>
+      <c r="N73" s="29"/>
       <c r="O73" s="5">
         <f t="shared" si="17"/>
         <v>771</v>
@@ -5063,7 +5063,7 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
@@ -5075,27 +5075,27 @@
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="10"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
-      <c r="H74" s="9"/>
+      <c r="H74" s="10"/>
       <c r="I74">
         <f t="shared" si="14"/>
         <v>472</v>
       </c>
-      <c r="J74" s="10"/>
+      <c r="J74" s="11"/>
       <c r="K74">
         <f t="shared" si="15"/>
         <v>572</v>
       </c>
-      <c r="L74" s="10"/>
+      <c r="L74" s="11"/>
       <c r="M74">
         <f t="shared" si="16"/>
         <v>672</v>
       </c>
-      <c r="N74" s="28"/>
+      <c r="N74" s="29"/>
       <c r="O74" s="5">
         <f t="shared" si="17"/>
         <v>772</v>
@@ -5115,7 +5115,7 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>173</v>
@@ -5127,27 +5127,27 @@
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="10"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
-      <c r="H75" s="9"/>
+      <c r="H75" s="10"/>
       <c r="I75">
         <f t="shared" si="14"/>
         <v>473</v>
       </c>
-      <c r="J75" s="10"/>
+      <c r="J75" s="11"/>
       <c r="K75">
         <f t="shared" si="15"/>
         <v>573</v>
       </c>
-      <c r="L75" s="10"/>
+      <c r="L75" s="11"/>
       <c r="M75">
         <f t="shared" si="16"/>
         <v>673</v>
       </c>
-      <c r="N75" s="28"/>
+      <c r="N75" s="29"/>
       <c r="O75" s="5">
         <f t="shared" si="17"/>
         <v>773</v>
@@ -5167,7 +5167,7 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
@@ -5179,27 +5179,27 @@
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="9"/>
+      <c r="F76" s="10"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
-      <c r="H76" s="9"/>
+      <c r="H76" s="10"/>
       <c r="I76">
         <f t="shared" si="14"/>
         <v>474</v>
       </c>
-      <c r="J76" s="10"/>
+      <c r="J76" s="11"/>
       <c r="K76">
         <f t="shared" si="15"/>
         <v>574</v>
       </c>
-      <c r="L76" s="10"/>
+      <c r="L76" s="11"/>
       <c r="M76">
         <f t="shared" si="16"/>
         <v>674</v>
       </c>
-      <c r="N76" s="28"/>
+      <c r="N76" s="29"/>
       <c r="O76" s="5">
         <f t="shared" si="17"/>
         <v>774</v>
@@ -5219,7 +5219,7 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
@@ -5231,31 +5231,31 @@
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="9" t="s">
         <v>65</v>
       </c>
       <c r="I77">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
-      <c r="J77" s="10"/>
+      <c r="J77" s="11"/>
       <c r="K77">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
-      <c r="L77" s="10"/>
+      <c r="L77" s="11"/>
       <c r="M77">
         <f t="shared" si="16"/>
         <v>675</v>
       </c>
-      <c r="N77" s="28"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="5">
         <f t="shared" si="17"/>
         <v>775</v>
@@ -5275,7 +5275,7 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
@@ -5287,27 +5287,27 @@
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="9"/>
+      <c r="F78" s="10"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
-      <c r="H78" s="9"/>
+      <c r="H78" s="10"/>
       <c r="I78">
         <f t="shared" si="14"/>
         <v>476</v>
       </c>
-      <c r="J78" s="10"/>
+      <c r="J78" s="11"/>
       <c r="K78">
         <f t="shared" si="15"/>
         <v>576</v>
       </c>
-      <c r="L78" s="10"/>
+      <c r="L78" s="11"/>
       <c r="M78">
         <f t="shared" si="16"/>
         <v>676</v>
       </c>
-      <c r="N78" s="28"/>
+      <c r="N78" s="29"/>
       <c r="O78" s="5">
         <f t="shared" si="17"/>
         <v>776</v>
@@ -5327,7 +5327,7 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>177</v>
@@ -5339,27 +5339,27 @@
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="9"/>
+      <c r="F79" s="10"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
-      <c r="H79" s="9"/>
+      <c r="H79" s="10"/>
       <c r="I79">
         <f t="shared" si="14"/>
         <v>477</v>
       </c>
-      <c r="J79" s="10"/>
+      <c r="J79" s="11"/>
       <c r="K79">
         <f t="shared" si="15"/>
         <v>577</v>
       </c>
-      <c r="L79" s="10"/>
+      <c r="L79" s="11"/>
       <c r="M79">
         <f t="shared" si="16"/>
         <v>677</v>
       </c>
-      <c r="N79" s="28"/>
+      <c r="N79" s="29"/>
       <c r="O79" s="5">
         <f t="shared" si="17"/>
         <v>777</v>
@@ -5379,7 +5379,7 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
@@ -5391,27 +5391,27 @@
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="9"/>
+      <c r="F80" s="10"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
-      <c r="H80" s="9"/>
+      <c r="H80" s="10"/>
       <c r="I80">
         <f t="shared" si="14"/>
         <v>478</v>
       </c>
-      <c r="J80" s="10"/>
+      <c r="J80" s="11"/>
       <c r="K80">
         <f t="shared" si="15"/>
         <v>578</v>
       </c>
-      <c r="L80" s="10"/>
+      <c r="L80" s="11"/>
       <c r="M80">
         <f t="shared" si="16"/>
         <v>678</v>
       </c>
-      <c r="N80" s="28"/>
+      <c r="N80" s="29"/>
       <c r="O80" s="5">
         <f t="shared" si="17"/>
         <v>778</v>
@@ -5431,7 +5431,7 @@
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81">
         <f t="shared" si="11"/>
         <v>179</v>
@@ -5443,27 +5443,27 @@
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="9"/>
+      <c r="F81" s="10"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
-      <c r="H81" s="9"/>
+      <c r="H81" s="10"/>
       <c r="I81">
         <f t="shared" si="14"/>
         <v>479</v>
       </c>
-      <c r="J81" s="10"/>
+      <c r="J81" s="11"/>
       <c r="K81">
         <f t="shared" si="15"/>
         <v>579</v>
       </c>
-      <c r="L81" s="10"/>
+      <c r="L81" s="11"/>
       <c r="M81">
         <f t="shared" si="16"/>
         <v>679</v>
       </c>
-      <c r="N81" s="28"/>
+      <c r="N81" s="29"/>
       <c r="O81" s="5">
         <f t="shared" si="17"/>
         <v>779</v>
@@ -5483,7 +5483,7 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
       <c r="C82">
         <f t="shared" si="11"/>
         <v>180</v>
@@ -5492,27 +5492,27 @@
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="9"/>
+      <c r="F82" s="10"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="H82" s="9"/>
+      <c r="H82" s="10"/>
       <c r="I82">
         <f t="shared" si="14"/>
         <v>480</v>
       </c>
-      <c r="J82" s="10"/>
+      <c r="J82" s="11"/>
       <c r="K82">
         <f t="shared" si="15"/>
         <v>580</v>
       </c>
-      <c r="L82" s="10"/>
+      <c r="L82" s="11"/>
       <c r="M82">
         <f t="shared" si="16"/>
         <v>680</v>
       </c>
-      <c r="N82" s="28"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="5">
         <f t="shared" si="17"/>
         <v>780</v>
@@ -5532,7 +5532,7 @@
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83">
         <f t="shared" si="11"/>
         <v>181</v>
@@ -5541,27 +5541,27 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="9"/>
+      <c r="F83" s="10"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="10"/>
       <c r="I83">
         <f t="shared" si="14"/>
         <v>481</v>
       </c>
-      <c r="J83" s="10"/>
+      <c r="J83" s="11"/>
       <c r="K83">
         <f t="shared" si="15"/>
         <v>581</v>
       </c>
-      <c r="L83" s="10"/>
+      <c r="L83" s="11"/>
       <c r="M83">
         <f t="shared" si="16"/>
         <v>681</v>
       </c>
-      <c r="N83" s="28"/>
+      <c r="N83" s="29"/>
       <c r="O83" s="5">
         <f t="shared" si="17"/>
         <v>781</v>
@@ -5581,7 +5581,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
       <c r="C84">
         <f t="shared" si="11"/>
         <v>182</v>
@@ -5590,27 +5590,27 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="9"/>
+      <c r="F84" s="10"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
-      <c r="H84" s="9"/>
+      <c r="H84" s="10"/>
       <c r="I84">
         <f t="shared" si="14"/>
         <v>482</v>
       </c>
-      <c r="J84" s="10"/>
+      <c r="J84" s="11"/>
       <c r="K84">
         <f t="shared" si="15"/>
         <v>582</v>
       </c>
-      <c r="L84" s="10"/>
+      <c r="L84" s="11"/>
       <c r="M84">
         <f t="shared" si="16"/>
         <v>682</v>
       </c>
-      <c r="N84" s="28"/>
+      <c r="N84" s="29"/>
       <c r="O84" s="5">
         <f t="shared" si="17"/>
         <v>782</v>
@@ -5630,7 +5630,7 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C85">
@@ -5641,27 +5641,27 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="9"/>
+      <c r="F85" s="10"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
-      <c r="H85" s="9"/>
+      <c r="H85" s="10"/>
       <c r="I85">
         <f t="shared" si="14"/>
         <v>483</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="11"/>
       <c r="K85">
         <f t="shared" si="15"/>
         <v>583</v>
       </c>
-      <c r="L85" s="10"/>
+      <c r="L85" s="11"/>
       <c r="M85">
         <f t="shared" si="16"/>
         <v>683</v>
       </c>
-      <c r="N85" s="28"/>
+      <c r="N85" s="29"/>
       <c r="O85" s="5">
         <f t="shared" si="17"/>
         <v>783</v>
@@ -5681,7 +5681,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="14"/>
+      <c r="B86" s="15"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -5690,27 +5690,27 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="9"/>
+      <c r="F86" s="10"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
-      <c r="H86" s="9"/>
+      <c r="H86" s="10"/>
       <c r="I86">
         <f t="shared" si="14"/>
         <v>484</v>
       </c>
-      <c r="J86" s="10"/>
+      <c r="J86" s="11"/>
       <c r="K86">
         <f t="shared" si="15"/>
         <v>584</v>
       </c>
-      <c r="L86" s="10"/>
+      <c r="L86" s="11"/>
       <c r="M86">
         <f t="shared" si="16"/>
         <v>684</v>
       </c>
-      <c r="N86" s="28"/>
+      <c r="N86" s="29"/>
       <c r="O86" s="5">
         <f t="shared" si="17"/>
         <v>784</v>
@@ -5730,7 +5730,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="14"/>
+      <c r="B87" s="15"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -5739,27 +5739,27 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
-      <c r="H87" s="9"/>
+      <c r="H87" s="10"/>
       <c r="I87">
         <f t="shared" si="14"/>
         <v>485</v>
       </c>
-      <c r="J87" s="10"/>
+      <c r="J87" s="11"/>
       <c r="K87">
         <f t="shared" si="15"/>
         <v>585</v>
       </c>
-      <c r="L87" s="10"/>
+      <c r="L87" s="11"/>
       <c r="M87">
         <f t="shared" si="16"/>
         <v>685</v>
       </c>
-      <c r="N87" s="28"/>
+      <c r="N87" s="29"/>
       <c r="O87" s="5">
         <f t="shared" si="17"/>
         <v>785</v>
@@ -5779,7 +5779,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88">
         <f t="shared" si="11"/>
         <v>186</v>
@@ -5788,27 +5788,27 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="10"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
-      <c r="H88" s="9"/>
+      <c r="H88" s="10"/>
       <c r="I88">
         <f t="shared" si="14"/>
         <v>486</v>
       </c>
-      <c r="J88" s="10"/>
+      <c r="J88" s="11"/>
       <c r="K88">
         <f t="shared" si="15"/>
         <v>586</v>
       </c>
-      <c r="L88" s="10"/>
+      <c r="L88" s="11"/>
       <c r="M88">
         <f t="shared" si="16"/>
         <v>686</v>
       </c>
-      <c r="N88" s="28"/>
+      <c r="N88" s="29"/>
       <c r="O88" s="5">
         <f t="shared" si="17"/>
         <v>786</v>
@@ -5839,27 +5839,27 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="9"/>
+      <c r="F89" s="10"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
-      <c r="H89" s="9"/>
+      <c r="H89" s="10"/>
       <c r="I89">
         <f t="shared" si="14"/>
         <v>487</v>
       </c>
-      <c r="J89" s="10"/>
+      <c r="J89" s="11"/>
       <c r="K89">
         <f t="shared" si="15"/>
         <v>587</v>
       </c>
-      <c r="L89" s="10"/>
+      <c r="L89" s="11"/>
       <c r="M89">
         <f t="shared" si="16"/>
         <v>687</v>
       </c>
-      <c r="N89" s="28"/>
+      <c r="N89" s="29"/>
       <c r="O89" s="5">
         <f t="shared" si="17"/>
         <v>787</v>
@@ -5890,27 +5890,27 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="9"/>
+      <c r="F90" s="10"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
-      <c r="H90" s="9"/>
+      <c r="H90" s="10"/>
       <c r="I90">
         <f t="shared" si="14"/>
         <v>488</v>
       </c>
-      <c r="J90" s="10"/>
+      <c r="J90" s="11"/>
       <c r="K90">
         <f t="shared" si="15"/>
         <v>588</v>
       </c>
-      <c r="L90" s="10"/>
+      <c r="L90" s="11"/>
       <c r="M90">
         <f t="shared" si="16"/>
         <v>688</v>
       </c>
-      <c r="N90" s="28"/>
+      <c r="N90" s="29"/>
       <c r="O90" s="5">
         <f t="shared" si="17"/>
         <v>788</v>
@@ -5941,27 +5941,27 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="9"/>
+      <c r="F91" s="10"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
-      <c r="H91" s="9"/>
+      <c r="H91" s="10"/>
       <c r="I91">
         <f t="shared" si="14"/>
         <v>489</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="11"/>
       <c r="K91">
         <f t="shared" si="15"/>
         <v>589</v>
       </c>
-      <c r="L91" s="10"/>
+      <c r="L91" s="11"/>
       <c r="M91">
         <f t="shared" si="16"/>
         <v>689</v>
       </c>
-      <c r="N91" s="28"/>
+      <c r="N91" s="29"/>
       <c r="O91" s="5">
         <f t="shared" si="17"/>
         <v>789</v>
@@ -5992,27 +5992,27 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="9"/>
+      <c r="F92" s="10"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
-      <c r="H92" s="9"/>
+      <c r="H92" s="10"/>
       <c r="I92">
         <f t="shared" si="14"/>
         <v>490</v>
       </c>
-      <c r="J92" s="10"/>
+      <c r="J92" s="11"/>
       <c r="K92">
         <f t="shared" si="15"/>
         <v>590</v>
       </c>
-      <c r="L92" s="10"/>
+      <c r="L92" s="11"/>
       <c r="M92">
         <f t="shared" si="16"/>
         <v>690</v>
       </c>
-      <c r="N92" s="29"/>
+      <c r="N92" s="30"/>
       <c r="O92" s="5">
         <f t="shared" si="17"/>
         <v>790</v>
@@ -6032,7 +6032,7 @@
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C93">
@@ -6043,27 +6043,27 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="9"/>
+      <c r="F93" s="10"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
-      <c r="H93" s="9"/>
+      <c r="H93" s="10"/>
       <c r="I93">
         <f t="shared" si="14"/>
         <v>491</v>
       </c>
-      <c r="J93" s="10"/>
+      <c r="J93" s="11"/>
       <c r="K93">
         <f t="shared" si="15"/>
         <v>591</v>
       </c>
-      <c r="L93" s="10"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="7">
         <f t="shared" si="16"/>
         <v>691</v>
       </c>
-      <c r="N93" s="27"/>
+      <c r="N93" s="28"/>
       <c r="O93" s="5">
         <f t="shared" si="17"/>
         <v>791</v>
@@ -6083,7 +6083,7 @@
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="B94" s="12"/>
+      <c r="B94" s="13"/>
       <c r="C94">
         <f t="shared" si="11"/>
         <v>192</v>
@@ -6092,27 +6092,27 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="9"/>
+      <c r="F94" s="10"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
-      <c r="H94" s="9"/>
+      <c r="H94" s="10"/>
       <c r="I94">
         <f t="shared" si="14"/>
         <v>492</v>
       </c>
-      <c r="J94" s="10"/>
+      <c r="J94" s="11"/>
       <c r="K94">
         <f t="shared" si="15"/>
         <v>592</v>
       </c>
-      <c r="L94" s="10"/>
+      <c r="L94" s="11"/>
       <c r="M94" s="7">
         <f t="shared" si="16"/>
         <v>692</v>
       </c>
-      <c r="N94" s="30"/>
+      <c r="N94" s="31"/>
       <c r="O94" s="5">
         <f t="shared" si="17"/>
         <v>792</v>
@@ -6132,7 +6132,7 @@
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C95">
@@ -6143,27 +6143,27 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="9"/>
+      <c r="F95" s="10"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
-      <c r="H95" s="9"/>
+      <c r="H95" s="10"/>
       <c r="I95">
         <f t="shared" si="14"/>
         <v>493</v>
       </c>
-      <c r="J95" s="10"/>
+      <c r="J95" s="11"/>
       <c r="K95">
         <f t="shared" si="15"/>
         <v>593</v>
       </c>
-      <c r="L95" s="10"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="7">
         <f t="shared" si="16"/>
         <v>693</v>
       </c>
-      <c r="N95" s="30"/>
+      <c r="N95" s="31"/>
       <c r="O95" s="5">
         <f t="shared" si="17"/>
         <v>793</v>
@@ -6183,7 +6183,7 @@
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="13"/>
       <c r="C96">
         <f t="shared" si="11"/>
         <v>194</v>
@@ -6192,27 +6192,27 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="9"/>
+      <c r="F96" s="10"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="10"/>
       <c r="I96">
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
-      <c r="J96" s="10"/>
+      <c r="J96" s="11"/>
       <c r="K96">
         <f t="shared" si="15"/>
         <v>594</v>
       </c>
-      <c r="L96" s="10"/>
+      <c r="L96" s="11"/>
       <c r="M96" s="7">
         <f t="shared" si="16"/>
         <v>694</v>
       </c>
-      <c r="N96" s="30"/>
+      <c r="N96" s="31"/>
       <c r="O96" s="5">
         <f t="shared" si="17"/>
         <v>794</v>
@@ -6243,27 +6243,27 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="9"/>
+      <c r="F97" s="10"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
-      <c r="H97" s="9"/>
+      <c r="H97" s="10"/>
       <c r="I97">
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
-      <c r="J97" s="10"/>
+      <c r="J97" s="11"/>
       <c r="K97">
         <f t="shared" si="15"/>
         <v>595</v>
       </c>
-      <c r="L97" s="10"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="7">
         <f t="shared" si="16"/>
         <v>695</v>
       </c>
-      <c r="N97" s="30"/>
+      <c r="N97" s="31"/>
       <c r="O97" s="5">
         <f t="shared" si="17"/>
         <v>795</v>
@@ -6283,7 +6283,7 @@
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C98">
@@ -6294,27 +6294,27 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="9"/>
+      <c r="F98" s="10"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
-      <c r="H98" s="9"/>
+      <c r="H98" s="10"/>
       <c r="I98">
         <f t="shared" si="14"/>
         <v>496</v>
       </c>
-      <c r="J98" s="10"/>
+      <c r="J98" s="11"/>
       <c r="K98">
         <f t="shared" si="15"/>
         <v>596</v>
       </c>
-      <c r="L98" s="10"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="7">
         <f t="shared" si="16"/>
         <v>696</v>
       </c>
-      <c r="N98" s="30"/>
+      <c r="N98" s="31"/>
       <c r="O98" s="5">
         <f t="shared" si="17"/>
         <v>796</v>
@@ -6334,7 +6334,7 @@
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="B99" s="22"/>
+      <c r="B99" s="23"/>
       <c r="C99">
         <f t="shared" si="11"/>
         <v>197</v>
@@ -6343,27 +6343,27 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="9"/>
+      <c r="F99" s="10"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="10"/>
       <c r="I99">
         <f t="shared" si="14"/>
         <v>497</v>
       </c>
-      <c r="J99" s="10"/>
+      <c r="J99" s="11"/>
       <c r="K99">
         <f t="shared" si="15"/>
         <v>597</v>
       </c>
-      <c r="L99" s="10"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="7">
         <f t="shared" si="16"/>
         <v>697</v>
       </c>
-      <c r="N99" s="30"/>
+      <c r="N99" s="31"/>
       <c r="O99" s="5">
         <f t="shared" si="17"/>
         <v>797</v>
@@ -6383,7 +6383,7 @@
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="B100" s="22"/>
+      <c r="B100" s="23"/>
       <c r="C100">
         <f t="shared" si="11"/>
         <v>198</v>
@@ -6392,27 +6392,27 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="9"/>
+      <c r="F100" s="10"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
-      <c r="H100" s="9"/>
+      <c r="H100" s="10"/>
       <c r="I100">
         <f t="shared" si="14"/>
         <v>498</v>
       </c>
-      <c r="J100" s="10"/>
+      <c r="J100" s="11"/>
       <c r="K100">
         <f t="shared" si="15"/>
         <v>598</v>
       </c>
-      <c r="L100" s="10"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="7">
         <f t="shared" si="16"/>
         <v>698</v>
       </c>
-      <c r="N100" s="30"/>
+      <c r="N100" s="31"/>
       <c r="O100" s="5">
         <f t="shared" si="17"/>
         <v>798</v>
@@ -6432,7 +6432,7 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="B101" s="23"/>
+      <c r="B101" s="24"/>
       <c r="C101">
         <f t="shared" si="11"/>
         <v>199</v>
@@ -6441,27 +6441,27 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="9"/>
+      <c r="F101" s="10"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
-      <c r="H101" s="9"/>
+      <c r="H101" s="10"/>
       <c r="I101">
         <f t="shared" si="14"/>
         <v>499</v>
       </c>
-      <c r="J101" s="10"/>
+      <c r="J101" s="11"/>
       <c r="K101">
         <f t="shared" si="15"/>
         <v>599</v>
       </c>
-      <c r="L101" s="10"/>
+      <c r="L101" s="11"/>
       <c r="M101" s="7">
         <f t="shared" si="16"/>
         <v>699</v>
       </c>
-      <c r="N101" s="30"/>
+      <c r="N101" s="31"/>
       <c r="O101" s="5">
         <f t="shared" si="17"/>
         <v>799</v>
@@ -6711,8 +6711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68:O92"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6733,49 +6733,49 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I2">
         <v>400</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>68</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>79</v>
       </c>
       <c r="O2" s="7">
         <v>700</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>82</v>
       </c>
       <c r="Q2">
@@ -6796,42 +6796,42 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3">
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3">
         <f>K2+1</f>
         <v>501</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3">
         <f>M2+1</f>
         <v>601</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="7">
         <f>O2+1</f>
         <v>701</v>
       </c>
-      <c r="P3" s="25"/>
+      <c r="P3" s="26"/>
       <c r="Q3">
         <f>Q2+1</f>
         <v>801</v>
@@ -6852,42 +6852,42 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="10"/>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="5">K3+1</f>
         <v>502</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="11"/>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+1</f>
         <v>602</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="7">
         <f t="shared" ref="O4:O67" si="7">O3+1</f>
         <v>702</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4">
         <f t="shared" ref="Q4:Q67" si="8">Q3+1</f>
         <v>802</v>
@@ -6908,42 +6908,42 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5">
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="10"/>
       <c r="K5">
         <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="11"/>
       <c r="M5">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="7">
         <f t="shared" si="7"/>
         <v>703</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
       <c r="Q5">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -6964,44 +6964,44 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6">
         <f t="shared" si="6"/>
         <v>604</v>
       </c>
-      <c r="N6" s="25"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="7">
         <f t="shared" si="7"/>
         <v>704</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="26"/>
       <c r="Q6">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -7022,44 +7022,44 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="10"/>
       <c r="K7">
         <f t="shared" si="5"/>
         <v>505</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="11"/>
       <c r="M7">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="7">
         <f t="shared" si="7"/>
         <v>705</v>
       </c>
-      <c r="P7" s="25"/>
+      <c r="P7" s="26"/>
       <c r="Q7">
         <f t="shared" si="8"/>
         <v>805</v>
@@ -7080,42 +7080,42 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
       <c r="K8">
         <f t="shared" si="5"/>
         <v>506</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="11"/>
       <c r="M8">
         <f t="shared" si="6"/>
         <v>606</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="7">
         <f t="shared" si="7"/>
         <v>706</v>
       </c>
-      <c r="P8" s="25"/>
+      <c r="P8" s="26"/>
       <c r="Q8">
         <f t="shared" si="8"/>
         <v>806</v>
@@ -7136,42 +7136,42 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9">
         <f t="shared" si="5"/>
         <v>507</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9">
         <f t="shared" si="6"/>
         <v>607</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
         <v>707</v>
       </c>
-      <c r="P9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9">
         <f t="shared" si="8"/>
         <v>807</v>
@@ -7186,7 +7186,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -7198,32 +7198,32 @@
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="10"/>
       <c r="K10">
         <f t="shared" si="5"/>
         <v>508</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10">
         <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="7">
         <f t="shared" si="7"/>
         <v>708</v>
       </c>
-      <c r="P10" s="25"/>
+      <c r="P10" s="26"/>
       <c r="Q10">
         <f t="shared" si="8"/>
         <v>808</v>
@@ -7238,7 +7238,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -7250,32 +7250,32 @@
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="10"/>
       <c r="K11">
         <f t="shared" si="5"/>
         <v>509</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="11"/>
       <c r="M11">
         <f t="shared" si="6"/>
         <v>609</v>
       </c>
-      <c r="N11" s="25"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="7">
         <f t="shared" si="7"/>
         <v>709</v>
       </c>
-      <c r="P11" s="25"/>
+      <c r="P11" s="26"/>
       <c r="Q11">
         <f t="shared" si="8"/>
         <v>809</v>
@@ -7290,44 +7290,44 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="10"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="11"/>
       <c r="M12">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="7">
         <f t="shared" si="7"/>
         <v>710</v>
       </c>
-      <c r="P12" s="25"/>
+      <c r="P12" s="26"/>
       <c r="Q12">
         <f t="shared" si="8"/>
         <v>810</v>
@@ -7342,42 +7342,42 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="10"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="K13">
         <f t="shared" si="5"/>
         <v>511</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="11"/>
       <c r="M13">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="26"/>
       <c r="O13" s="7">
         <f t="shared" si="7"/>
         <v>711</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="26"/>
       <c r="Q13">
         <f t="shared" si="8"/>
         <v>811</v>
@@ -7392,42 +7392,42 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="10"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="10"/>
       <c r="K14">
         <f t="shared" si="5"/>
         <v>512</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="7">
         <f t="shared" si="7"/>
         <v>712</v>
       </c>
-      <c r="P14" s="25"/>
+      <c r="P14" s="26"/>
       <c r="Q14">
         <f t="shared" si="8"/>
         <v>812</v>
@@ -7442,42 +7442,42 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="10"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="11"/>
       <c r="M15">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="7">
         <f t="shared" si="7"/>
         <v>713</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="26"/>
       <c r="Q15">
         <f t="shared" si="8"/>
         <v>813</v>
@@ -7492,44 +7492,44 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="10"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="10"/>
       <c r="K16">
         <f t="shared" si="5"/>
         <v>514</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="11"/>
       <c r="M16">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="7">
         <f t="shared" si="7"/>
         <v>714</v>
       </c>
-      <c r="P16" s="25"/>
+      <c r="P16" s="26"/>
       <c r="Q16">
         <f t="shared" si="8"/>
         <v>814</v>
@@ -7544,42 +7544,42 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="10"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="10"/>
       <c r="K17">
         <f t="shared" si="5"/>
         <v>515</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="11"/>
       <c r="M17">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="N17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7">
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
-      <c r="P17" s="26"/>
+      <c r="P17" s="27"/>
       <c r="Q17">
         <f t="shared" si="8"/>
         <v>815</v>
@@ -7594,44 +7594,44 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="10"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
       <c r="K18">
         <f t="shared" si="5"/>
         <v>516</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="11"/>
       <c r="M18">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="25" t="s">
         <v>80</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="7"/>
         <v>716</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="25" t="s">
         <v>86</v>
       </c>
       <c r="Q18">
@@ -7648,42 +7648,42 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="10"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="K19">
         <f t="shared" si="5"/>
         <v>517</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="11"/>
       <c r="M19">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="5">
         <f t="shared" si="7"/>
         <v>717</v>
       </c>
-      <c r="P19" s="25"/>
+      <c r="P19" s="26"/>
       <c r="Q19">
         <f t="shared" si="8"/>
         <v>817</v>
@@ -7698,44 +7698,44 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="10"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="10"/>
       <c r="K20">
         <f t="shared" si="5"/>
         <v>518</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="11"/>
       <c r="M20">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="26"/>
       <c r="O20" s="5">
         <f t="shared" si="7"/>
         <v>718</v>
       </c>
-      <c r="P20" s="25"/>
+      <c r="P20" s="26"/>
       <c r="Q20">
         <f t="shared" si="8"/>
         <v>818</v>
@@ -7750,42 +7750,42 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="10"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
       <c r="K21">
         <f t="shared" si="5"/>
         <v>519</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="11"/>
       <c r="M21">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="26"/>
       <c r="O21" s="5">
         <f t="shared" si="7"/>
         <v>719</v>
       </c>
-      <c r="P21" s="25"/>
+      <c r="P21" s="26"/>
       <c r="Q21">
         <f t="shared" si="8"/>
         <v>819</v>
@@ -7800,42 +7800,42 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="15"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="10"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="10"/>
       <c r="K22">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="11"/>
       <c r="M22">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="5">
         <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="P22" s="25"/>
+      <c r="P22" s="26"/>
       <c r="Q22">
         <f t="shared" si="8"/>
         <v>820</v>
@@ -7850,42 +7850,42 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="16"/>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="10"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="10"/>
       <c r="K23">
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="11"/>
       <c r="M23">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="5">
         <f t="shared" si="7"/>
         <v>721</v>
       </c>
-      <c r="P23" s="25"/>
+      <c r="P23" s="26"/>
       <c r="Q23">
         <f t="shared" si="8"/>
         <v>821</v>
@@ -7900,7 +7900,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7912,32 +7912,32 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="10"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="10"/>
       <c r="K24">
         <f t="shared" si="5"/>
         <v>522</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="11"/>
       <c r="M24">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="5">
         <f t="shared" si="7"/>
         <v>722</v>
       </c>
-      <c r="P24" s="25"/>
+      <c r="P24" s="26"/>
       <c r="Q24">
         <f t="shared" si="8"/>
         <v>822</v>
@@ -7952,7 +7952,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7964,32 +7964,32 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25">
         <f t="shared" si="5"/>
         <v>523</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="11"/>
       <c r="M25">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="N25" s="25"/>
+      <c r="N25" s="26"/>
       <c r="O25" s="5">
         <f t="shared" si="7"/>
         <v>723</v>
       </c>
-      <c r="P25" s="25"/>
+      <c r="P25" s="26"/>
       <c r="Q25">
         <f t="shared" si="8"/>
         <v>823</v>
@@ -8004,7 +8004,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -8016,32 +8016,32 @@
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="10"/>
       <c r="K26">
         <f t="shared" si="5"/>
         <v>524</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="11"/>
       <c r="M26">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="5">
         <f t="shared" si="7"/>
         <v>724</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="26"/>
       <c r="Q26">
         <f t="shared" si="8"/>
         <v>824</v>
@@ -8056,7 +8056,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -8068,38 +8068,38 @@
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
         <v>425</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>71</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="11"/>
       <c r="M27">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="N27" s="25"/>
+      <c r="N27" s="26"/>
       <c r="O27" s="5">
         <f t="shared" si="7"/>
         <v>725</v>
       </c>
-      <c r="P27" s="25"/>
+      <c r="P27" s="26"/>
       <c r="Q27">
         <f t="shared" si="8"/>
         <v>825</v>
@@ -8114,7 +8114,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -8126,32 +8126,32 @@
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="10"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="10"/>
       <c r="K28">
         <f t="shared" si="5"/>
         <v>526</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="11"/>
       <c r="M28">
         <f t="shared" si="6"/>
         <v>626</v>
       </c>
-      <c r="N28" s="25"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="5">
         <f t="shared" si="7"/>
         <v>726</v>
       </c>
-      <c r="P28" s="25"/>
+      <c r="P28" s="26"/>
       <c r="Q28">
         <f t="shared" si="8"/>
         <v>826</v>
@@ -8166,7 +8166,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -8178,32 +8178,32 @@
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="10"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="10"/>
       <c r="K29">
         <f t="shared" si="5"/>
         <v>527</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="N29" s="25"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="5">
         <f t="shared" si="7"/>
         <v>727</v>
       </c>
-      <c r="P29" s="25"/>
+      <c r="P29" s="26"/>
       <c r="Q29">
         <f t="shared" si="8"/>
         <v>827</v>
@@ -8218,7 +8218,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -8230,32 +8230,32 @@
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="10"/>
       <c r="K30">
         <f t="shared" si="5"/>
         <v>528</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
-      <c r="N30" s="25"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="5">
         <f t="shared" si="7"/>
         <v>728</v>
       </c>
-      <c r="P30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30">
         <f t="shared" si="8"/>
         <v>828</v>
@@ -8270,7 +8270,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -8282,32 +8282,32 @@
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="10"/>
       <c r="K31">
         <f t="shared" si="5"/>
         <v>529</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
-      <c r="N31" s="25"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="5">
         <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="P31" s="25"/>
+      <c r="P31" s="26"/>
       <c r="Q31">
         <f t="shared" si="8"/>
         <v>829</v>
@@ -8322,7 +8322,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -8334,32 +8334,32 @@
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="10"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="10"/>
       <c r="K32">
         <f t="shared" si="5"/>
         <v>530</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="11"/>
       <c r="M32">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="5">
         <f t="shared" si="7"/>
         <v>730</v>
       </c>
-      <c r="P32" s="25"/>
+      <c r="P32" s="26"/>
       <c r="Q32">
         <f t="shared" si="8"/>
         <v>830</v>
@@ -8374,7 +8374,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -8386,32 +8386,32 @@
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="10"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="10"/>
       <c r="K33">
         <f t="shared" si="5"/>
         <v>531</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="11"/>
       <c r="M33">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
-      <c r="N33" s="25"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="5">
         <f t="shared" si="7"/>
         <v>731</v>
       </c>
-      <c r="P33" s="36"/>
+      <c r="P33" s="37"/>
       <c r="Q33">
         <f t="shared" si="8"/>
         <v>831</v>
@@ -8426,7 +8426,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -8438,32 +8438,32 @@
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="10"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="10"/>
       <c r="K34">
         <f t="shared" si="5"/>
         <v>532</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="11"/>
       <c r="M34">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="N34" s="25"/>
+      <c r="N34" s="26"/>
       <c r="O34" s="5">
         <f t="shared" si="7"/>
         <v>732</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="38" t="s">
         <v>83</v>
       </c>
       <c r="Q34">
@@ -8480,7 +8480,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -8492,32 +8492,32 @@
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="10"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="10"/>
       <c r="K35">
         <f t="shared" si="5"/>
         <v>533</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="11"/>
       <c r="M35">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
-      <c r="N35" s="25"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="5">
         <f t="shared" si="7"/>
         <v>733</v>
       </c>
-      <c r="P35" s="38"/>
+      <c r="P35" s="39"/>
       <c r="Q35">
         <f t="shared" si="8"/>
         <v>833</v>
@@ -8532,7 +8532,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -8544,32 +8544,32 @@
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="10"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="10"/>
       <c r="K36">
         <f t="shared" si="5"/>
         <v>534</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="11"/>
       <c r="M36">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
-      <c r="N36" s="25"/>
+      <c r="N36" s="26"/>
       <c r="O36" s="5">
         <f t="shared" si="7"/>
         <v>734</v>
       </c>
-      <c r="P36" s="24" t="s">
+      <c r="P36" s="25" t="s">
         <v>84</v>
       </c>
       <c r="Q36">
@@ -8586,7 +8586,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
@@ -8598,32 +8598,32 @@
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="10"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="10"/>
       <c r="K37">
         <f t="shared" si="5"/>
         <v>535</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="11"/>
       <c r="M37">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
-      <c r="N37" s="25"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="5">
         <f t="shared" si="7"/>
         <v>735</v>
       </c>
-      <c r="P37" s="25"/>
+      <c r="P37" s="26"/>
       <c r="Q37">
         <f t="shared" si="8"/>
         <v>835</v>
@@ -8638,7 +8638,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -8650,32 +8650,32 @@
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="10"/>
       <c r="K38">
         <f t="shared" si="5"/>
         <v>536</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="11"/>
       <c r="M38">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
-      <c r="N38" s="25"/>
+      <c r="N38" s="26"/>
       <c r="O38" s="5">
         <f t="shared" si="7"/>
         <v>736</v>
       </c>
-      <c r="P38" s="25"/>
+      <c r="P38" s="26"/>
       <c r="Q38">
         <f t="shared" si="8"/>
         <v>836</v>
@@ -8690,7 +8690,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -8702,32 +8702,32 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="10"/>
       <c r="K39">
         <f t="shared" si="5"/>
         <v>537</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="11"/>
       <c r="M39">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="N39" s="25"/>
+      <c r="N39" s="26"/>
       <c r="O39" s="5">
         <f t="shared" si="7"/>
         <v>737</v>
       </c>
-      <c r="P39" s="25"/>
+      <c r="P39" s="26"/>
       <c r="Q39">
         <f t="shared" si="8"/>
         <v>837</v>
@@ -8742,44 +8742,44 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="22" t="s">
         <v>90</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="10"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="10"/>
       <c r="K40">
         <f t="shared" si="5"/>
         <v>538</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="11"/>
       <c r="M40">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="N40" s="25"/>
+      <c r="N40" s="26"/>
       <c r="O40" s="5">
         <f t="shared" si="7"/>
         <v>738</v>
       </c>
-      <c r="P40" s="25"/>
+      <c r="P40" s="26"/>
       <c r="Q40">
         <f t="shared" si="8"/>
         <v>838</v>
@@ -8794,42 +8794,42 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="23"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="10"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="10"/>
       <c r="K41">
         <f t="shared" si="5"/>
         <v>539</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="11"/>
       <c r="M41">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
-      <c r="N41" s="25"/>
+      <c r="N41" s="26"/>
       <c r="O41" s="5">
         <f t="shared" si="7"/>
         <v>739</v>
       </c>
-      <c r="P41" s="25"/>
+      <c r="P41" s="26"/>
       <c r="Q41">
         <f t="shared" si="8"/>
         <v>839</v>
@@ -8844,42 +8844,42 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="23"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="10"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="10"/>
       <c r="K42">
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="11"/>
       <c r="M42">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="N42" s="25"/>
+      <c r="N42" s="26"/>
       <c r="O42" s="5">
         <f t="shared" si="7"/>
         <v>740</v>
       </c>
-      <c r="P42" s="25"/>
+      <c r="P42" s="26"/>
       <c r="Q42">
         <f t="shared" si="8"/>
         <v>840</v>
@@ -8894,42 +8894,42 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="23"/>
+      <c r="D43" s="24"/>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="10"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
       </c>
-      <c r="J43" s="9"/>
+      <c r="J43" s="10"/>
       <c r="K43">
         <f t="shared" si="5"/>
         <v>541</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="11"/>
       <c r="M43">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
-      <c r="N43" s="25"/>
+      <c r="N43" s="26"/>
       <c r="O43" s="5">
         <f t="shared" si="7"/>
         <v>741</v>
       </c>
-      <c r="P43" s="25"/>
+      <c r="P43" s="26"/>
       <c r="Q43">
         <f t="shared" si="8"/>
         <v>841</v>
@@ -8944,7 +8944,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -8953,32 +8953,32 @@
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="10"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="10"/>
       <c r="K44">
         <f t="shared" si="5"/>
         <v>542</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="11"/>
       <c r="M44">
         <f t="shared" si="6"/>
         <v>642</v>
       </c>
-      <c r="N44" s="25"/>
+      <c r="N44" s="26"/>
       <c r="O44" s="5">
         <f t="shared" si="7"/>
         <v>742</v>
       </c>
-      <c r="P44" s="25"/>
+      <c r="P44" s="26"/>
       <c r="Q44">
         <f t="shared" si="8"/>
         <v>842</v>
@@ -8993,7 +8993,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
@@ -9002,32 +9002,32 @@
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="10"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
       </c>
-      <c r="J45" s="9"/>
+      <c r="J45" s="10"/>
       <c r="K45">
         <f t="shared" si="5"/>
         <v>543</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="L45" s="11"/>
       <c r="M45">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
-      <c r="N45" s="25"/>
+      <c r="N45" s="26"/>
       <c r="O45" s="5">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
-      <c r="P45" s="25"/>
+      <c r="P45" s="26"/>
       <c r="Q45">
         <f t="shared" si="8"/>
         <v>843</v>
@@ -9053,32 +9053,32 @@
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="10"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="10"/>
       <c r="K46">
         <f t="shared" si="5"/>
         <v>544</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="L46" s="11"/>
       <c r="M46">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
-      <c r="N46" s="25"/>
+      <c r="N46" s="26"/>
       <c r="O46" s="5">
         <f t="shared" si="7"/>
         <v>744</v>
       </c>
-      <c r="P46" s="26"/>
+      <c r="P46" s="27"/>
       <c r="Q46">
         <f t="shared" si="8"/>
         <v>844</v>
@@ -9104,32 +9104,32 @@
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="10"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="10"/>
       <c r="K47">
         <f t="shared" si="5"/>
         <v>545</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="11"/>
       <c r="M47">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
-      <c r="N47" s="25"/>
+      <c r="N47" s="26"/>
       <c r="O47" s="5">
         <f t="shared" si="7"/>
         <v>745</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="P47" s="25" t="s">
         <v>85</v>
       </c>
       <c r="Q47">
@@ -9141,7 +9141,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" ht="15" customHeight="1">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9157,32 +9157,32 @@
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="10"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="10"/>
       <c r="K48">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="L48" s="11"/>
       <c r="M48">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="26"/>
       <c r="O48" s="5">
         <f t="shared" si="7"/>
         <v>746</v>
       </c>
-      <c r="P48" s="25"/>
+      <c r="P48" s="26"/>
       <c r="Q48">
         <f t="shared" si="8"/>
         <v>846</v>
@@ -9208,32 +9208,32 @@
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="10"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="10"/>
       <c r="K49">
         <f t="shared" si="5"/>
         <v>547</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="11"/>
       <c r="M49">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="26"/>
       <c r="O49" s="5">
         <f t="shared" si="7"/>
         <v>747</v>
       </c>
-      <c r="P49" s="25"/>
+      <c r="P49" s="26"/>
       <c r="Q49">
         <f t="shared" si="8"/>
         <v>847</v>
@@ -9248,7 +9248,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C50">
@@ -9259,32 +9259,32 @@
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="10"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="10"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
       </c>
-      <c r="J50" s="9"/>
+      <c r="J50" s="10"/>
       <c r="K50">
         <f t="shared" si="5"/>
         <v>548</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="11"/>
       <c r="M50">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
-      <c r="N50" s="25"/>
+      <c r="N50" s="26"/>
       <c r="O50" s="5">
         <f t="shared" si="7"/>
         <v>748</v>
       </c>
-      <c r="P50" s="25"/>
+      <c r="P50" s="26"/>
       <c r="Q50">
         <f t="shared" si="8"/>
         <v>848</v>
@@ -9299,7 +9299,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -9308,32 +9308,32 @@
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="10"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
       </c>
-      <c r="J51" s="9"/>
+      <c r="J51" s="10"/>
       <c r="K51">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="L51" s="11"/>
       <c r="M51">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="26"/>
       <c r="O51" s="5">
         <f t="shared" si="7"/>
         <v>749</v>
       </c>
-      <c r="P51" s="25"/>
+      <c r="P51" s="26"/>
       <c r="Q51">
         <f t="shared" si="8"/>
         <v>849</v>
@@ -9343,12 +9343,12 @@
         <v>949</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" ht="15" customHeight="1">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C52">
@@ -9359,40 +9359,40 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="9" t="s">
         <v>66</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="9" t="s">
         <v>69</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="26"/>
       <c r="O52" s="5">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="P52" s="25"/>
+      <c r="P52" s="26"/>
       <c r="Q52">
         <f t="shared" si="8"/>
         <v>850</v>
@@ -9407,7 +9407,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="13"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
@@ -9416,32 +9416,32 @@
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="10"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>451</v>
       </c>
-      <c r="J53" s="10"/>
+      <c r="J53" s="11"/>
       <c r="K53">
         <f t="shared" si="5"/>
         <v>551</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="L53" s="11"/>
       <c r="M53">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="O53" s="5">
         <f t="shared" si="7"/>
         <v>751</v>
       </c>
-      <c r="P53" s="25"/>
+      <c r="P53" s="26"/>
       <c r="Q53">
         <f t="shared" si="8"/>
         <v>851</v>
@@ -9467,32 +9467,32 @@
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="10"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
-      <c r="J54" s="10"/>
+      <c r="J54" s="11"/>
       <c r="K54">
         <f t="shared" si="5"/>
         <v>552</v>
       </c>
-      <c r="L54" s="10"/>
+      <c r="L54" s="11"/>
       <c r="M54">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="5">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
-      <c r="P54" s="25"/>
+      <c r="P54" s="26"/>
       <c r="Q54">
         <f t="shared" si="8"/>
         <v>852</v>
@@ -9507,7 +9507,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="22" t="s">
         <v>89</v>
       </c>
       <c r="C55">
@@ -9518,32 +9518,32 @@
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="10"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>453</v>
       </c>
-      <c r="J55" s="10"/>
+      <c r="J55" s="11"/>
       <c r="K55">
         <f t="shared" si="5"/>
         <v>553</v>
       </c>
-      <c r="L55" s="10"/>
+      <c r="L55" s="11"/>
       <c r="M55">
         <f t="shared" si="6"/>
         <v>653</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="26"/>
       <c r="O55" s="5">
         <f t="shared" si="7"/>
         <v>753</v>
       </c>
-      <c r="P55" s="25"/>
+      <c r="P55" s="26"/>
       <c r="Q55">
         <f t="shared" si="8"/>
         <v>853</v>
@@ -9558,7 +9558,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="23"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
@@ -9567,32 +9567,32 @@
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="10"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
-      <c r="J56" s="10"/>
+      <c r="J56" s="11"/>
       <c r="K56">
         <f t="shared" si="5"/>
         <v>554</v>
       </c>
-      <c r="L56" s="10"/>
+      <c r="L56" s="11"/>
       <c r="M56">
         <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="N56" s="25"/>
+      <c r="N56" s="26"/>
       <c r="O56" s="5">
         <f t="shared" si="7"/>
         <v>754</v>
       </c>
-      <c r="P56" s="25"/>
+      <c r="P56" s="26"/>
       <c r="Q56">
         <f t="shared" si="8"/>
         <v>854</v>
@@ -9607,7 +9607,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="23"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
@@ -9616,32 +9616,32 @@
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="10"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>455</v>
       </c>
-      <c r="J57" s="10"/>
+      <c r="J57" s="11"/>
       <c r="K57">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
-      <c r="L57" s="10"/>
+      <c r="L57" s="11"/>
       <c r="M57">
         <f t="shared" si="6"/>
         <v>655</v>
       </c>
-      <c r="N57" s="25"/>
+      <c r="N57" s="26"/>
       <c r="O57" s="5">
         <f t="shared" si="7"/>
         <v>755</v>
       </c>
-      <c r="P57" s="26"/>
+      <c r="P57" s="27"/>
       <c r="Q57">
         <f t="shared" si="8"/>
         <v>855</v>
@@ -9656,7 +9656,7 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="24"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
@@ -9665,27 +9665,27 @@
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="10"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="10"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>456</v>
       </c>
-      <c r="J58" s="10"/>
+      <c r="J58" s="11"/>
       <c r="K58">
         <f t="shared" si="5"/>
         <v>556</v>
       </c>
-      <c r="L58" s="10"/>
+      <c r="L58" s="11"/>
       <c r="M58">
         <f t="shared" si="6"/>
         <v>656</v>
       </c>
-      <c r="N58" s="25"/>
+      <c r="N58" s="26"/>
       <c r="O58" s="5">
         <f t="shared" si="7"/>
         <v>756</v>
@@ -9716,27 +9716,27 @@
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="10"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="10"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
-      <c r="J59" s="10"/>
+      <c r="J59" s="11"/>
       <c r="K59">
         <f t="shared" si="5"/>
         <v>557</v>
       </c>
-      <c r="L59" s="10"/>
+      <c r="L59" s="11"/>
       <c r="M59">
         <f t="shared" si="6"/>
         <v>657</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="26"/>
       <c r="O59" s="5">
         <f t="shared" si="7"/>
         <v>757</v>
@@ -9767,27 +9767,27 @@
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="10"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="10"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>458</v>
       </c>
-      <c r="J60" s="10"/>
+      <c r="J60" s="11"/>
       <c r="K60">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
-      <c r="L60" s="10"/>
+      <c r="L60" s="11"/>
       <c r="M60">
         <f t="shared" si="6"/>
         <v>658</v>
       </c>
-      <c r="N60" s="25"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="5">
         <f t="shared" si="7"/>
         <v>758</v>
@@ -9818,27 +9818,27 @@
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="10"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="10"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
-      <c r="J61" s="10"/>
+      <c r="J61" s="11"/>
       <c r="K61">
         <f t="shared" si="5"/>
         <v>559</v>
       </c>
-      <c r="L61" s="10"/>
+      <c r="L61" s="11"/>
       <c r="M61">
         <f t="shared" si="6"/>
         <v>659</v>
       </c>
-      <c r="N61" s="25"/>
+      <c r="N61" s="26"/>
       <c r="O61" s="5">
         <f t="shared" si="7"/>
         <v>759</v>
@@ -9869,27 +9869,27 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="10"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="10"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>460</v>
       </c>
-      <c r="J62" s="10"/>
+      <c r="J62" s="11"/>
       <c r="K62">
         <f t="shared" si="5"/>
         <v>560</v>
       </c>
-      <c r="L62" s="10"/>
+      <c r="L62" s="11"/>
       <c r="M62">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="N62" s="25"/>
+      <c r="N62" s="26"/>
       <c r="O62" s="5">
         <f t="shared" si="7"/>
         <v>760</v>
@@ -9920,27 +9920,27 @@
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="10"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="H63" s="9"/>
+      <c r="H63" s="10"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>461</v>
       </c>
-      <c r="J63" s="10"/>
+      <c r="J63" s="11"/>
       <c r="K63">
         <f t="shared" si="5"/>
         <v>561</v>
       </c>
-      <c r="L63" s="10"/>
+      <c r="L63" s="11"/>
       <c r="M63">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
-      <c r="N63" s="25"/>
+      <c r="N63" s="26"/>
       <c r="O63" s="5">
         <f t="shared" si="7"/>
         <v>761</v>
@@ -9971,27 +9971,27 @@
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="10"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="10"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>462</v>
       </c>
-      <c r="J64" s="10"/>
+      <c r="J64" s="11"/>
       <c r="K64">
         <f t="shared" si="5"/>
         <v>562</v>
       </c>
-      <c r="L64" s="10"/>
+      <c r="L64" s="11"/>
       <c r="M64">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="N64" s="25"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="5">
         <f t="shared" si="7"/>
         <v>762</v>
@@ -10022,27 +10022,27 @@
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="10"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="10"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>463</v>
       </c>
-      <c r="J65" s="10"/>
+      <c r="J65" s="11"/>
       <c r="K65">
         <f t="shared" si="5"/>
         <v>563</v>
       </c>
-      <c r="L65" s="10"/>
+      <c r="L65" s="11"/>
       <c r="M65">
         <f t="shared" si="6"/>
         <v>663</v>
       </c>
-      <c r="N65" s="25"/>
+      <c r="N65" s="26"/>
       <c r="O65" s="5">
         <f t="shared" si="7"/>
         <v>763</v>
@@ -10073,27 +10073,27 @@
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="10"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
-      <c r="H66" s="9"/>
+      <c r="H66" s="10"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>464</v>
       </c>
-      <c r="J66" s="10"/>
+      <c r="J66" s="11"/>
       <c r="K66">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="L66" s="10"/>
+      <c r="L66" s="11"/>
       <c r="M66">
         <f t="shared" si="6"/>
         <v>664</v>
       </c>
-      <c r="N66" s="25"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="5">
         <f t="shared" si="7"/>
         <v>764</v>
@@ -10124,27 +10124,27 @@
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="10"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
-      <c r="H67" s="9"/>
+      <c r="H67" s="10"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
-      <c r="J67" s="10"/>
+      <c r="J67" s="11"/>
       <c r="K67">
         <f t="shared" si="5"/>
         <v>565</v>
       </c>
-      <c r="L67" s="10"/>
+      <c r="L67" s="11"/>
       <c r="M67">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
-      <c r="N67" s="26"/>
+      <c r="N67" s="27"/>
       <c r="O67" s="5">
         <f t="shared" si="7"/>
         <v>765</v>
@@ -10175,27 +10175,27 @@
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="10"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
       </c>
-      <c r="H68" s="9"/>
+      <c r="H68" s="10"/>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="14">I67+1</f>
         <v>466</v>
       </c>
-      <c r="J68" s="10"/>
+      <c r="J68" s="11"/>
       <c r="K68">
         <f t="shared" ref="K68:K101" si="15">K67+1</f>
         <v>566</v>
       </c>
-      <c r="L68" s="10"/>
+      <c r="L68" s="11"/>
       <c r="M68">
         <f t="shared" ref="M68:M101" si="16">M67+1</f>
         <v>666</v>
       </c>
-      <c r="N68" s="27" t="s">
+      <c r="N68" s="28" t="s">
         <v>81</v>
       </c>
       <c r="O68" s="5">
@@ -10217,7 +10217,7 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C69">
@@ -10228,27 +10228,27 @@
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="10"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
-      <c r="H69" s="9"/>
+      <c r="H69" s="10"/>
       <c r="I69">
         <f t="shared" si="14"/>
         <v>467</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="11"/>
       <c r="K69">
         <f t="shared" si="15"/>
         <v>567</v>
       </c>
-      <c r="L69" s="10"/>
+      <c r="L69" s="11"/>
       <c r="M69">
         <f t="shared" si="16"/>
         <v>667</v>
       </c>
-      <c r="N69" s="28"/>
+      <c r="N69" s="29"/>
       <c r="O69" s="5">
         <f t="shared" si="17"/>
         <v>767</v>
@@ -10279,27 +10279,27 @@
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="10"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
-      <c r="H70" s="9"/>
+      <c r="H70" s="10"/>
       <c r="I70">
         <f t="shared" si="14"/>
         <v>468</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="11"/>
       <c r="K70">
         <f t="shared" si="15"/>
         <v>568</v>
       </c>
-      <c r="L70" s="10"/>
+      <c r="L70" s="11"/>
       <c r="M70">
         <f t="shared" si="16"/>
         <v>668</v>
       </c>
-      <c r="N70" s="28"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="5">
         <f t="shared" si="17"/>
         <v>768</v>
@@ -10319,7 +10319,7 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C71">
@@ -10330,27 +10330,27 @@
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="10"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="10"/>
       <c r="I71">
         <f t="shared" si="14"/>
         <v>469</v>
       </c>
-      <c r="J71" s="10"/>
+      <c r="J71" s="11"/>
       <c r="K71">
         <f t="shared" si="15"/>
         <v>569</v>
       </c>
-      <c r="L71" s="10"/>
+      <c r="L71" s="11"/>
       <c r="M71">
         <f t="shared" si="16"/>
         <v>669</v>
       </c>
-      <c r="N71" s="28"/>
+      <c r="N71" s="29"/>
       <c r="O71" s="5">
         <f t="shared" si="17"/>
         <v>769</v>
@@ -10370,7 +10370,7 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="23"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
@@ -10379,27 +10379,27 @@
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="10"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="10"/>
       <c r="I72">
         <f t="shared" si="14"/>
         <v>470</v>
       </c>
-      <c r="J72" s="10"/>
+      <c r="J72" s="11"/>
       <c r="K72">
         <f t="shared" si="15"/>
         <v>570</v>
       </c>
-      <c r="L72" s="10"/>
+      <c r="L72" s="11"/>
       <c r="M72">
         <f t="shared" si="16"/>
         <v>670</v>
       </c>
-      <c r="N72" s="28"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="5">
         <f t="shared" si="17"/>
         <v>770</v>
@@ -10419,7 +10419,7 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="22"/>
+      <c r="B73" s="23"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
@@ -10428,27 +10428,27 @@
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="10"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="10"/>
       <c r="I73">
         <f t="shared" si="14"/>
         <v>471</v>
       </c>
-      <c r="J73" s="10"/>
+      <c r="J73" s="11"/>
       <c r="K73">
         <f t="shared" si="15"/>
         <v>571</v>
       </c>
-      <c r="L73" s="10"/>
+      <c r="L73" s="11"/>
       <c r="M73">
         <f t="shared" si="16"/>
         <v>671</v>
       </c>
-      <c r="N73" s="28"/>
+      <c r="N73" s="29"/>
       <c r="O73" s="5">
         <f t="shared" si="17"/>
         <v>771</v>
@@ -10468,7 +10468,7 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="24"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
@@ -10477,27 +10477,27 @@
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="10"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
-      <c r="H74" s="9"/>
+      <c r="H74" s="10"/>
       <c r="I74">
         <f t="shared" si="14"/>
         <v>472</v>
       </c>
-      <c r="J74" s="10"/>
+      <c r="J74" s="11"/>
       <c r="K74">
         <f t="shared" si="15"/>
         <v>572</v>
       </c>
-      <c r="L74" s="10"/>
+      <c r="L74" s="11"/>
       <c r="M74">
         <f t="shared" si="16"/>
         <v>672</v>
       </c>
-      <c r="N74" s="28"/>
+      <c r="N74" s="29"/>
       <c r="O74" s="5">
         <f t="shared" si="17"/>
         <v>772</v>
@@ -10517,7 +10517,7 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C75">
@@ -10528,27 +10528,27 @@
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="10"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
-      <c r="H75" s="9"/>
+      <c r="H75" s="10"/>
       <c r="I75">
         <f t="shared" si="14"/>
         <v>473</v>
       </c>
-      <c r="J75" s="10"/>
+      <c r="J75" s="11"/>
       <c r="K75">
         <f t="shared" si="15"/>
         <v>573</v>
       </c>
-      <c r="L75" s="10"/>
+      <c r="L75" s="11"/>
       <c r="M75">
         <f t="shared" si="16"/>
         <v>673</v>
       </c>
-      <c r="N75" s="28"/>
+      <c r="N75" s="29"/>
       <c r="O75" s="5">
         <f t="shared" si="17"/>
         <v>773</v>
@@ -10568,7 +10568,7 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="22"/>
+      <c r="B76" s="23"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
@@ -10577,27 +10577,27 @@
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="9"/>
+      <c r="F76" s="10"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
-      <c r="H76" s="9"/>
+      <c r="H76" s="10"/>
       <c r="I76">
         <f t="shared" si="14"/>
         <v>474</v>
       </c>
-      <c r="J76" s="10"/>
+      <c r="J76" s="11"/>
       <c r="K76">
         <f t="shared" si="15"/>
         <v>574</v>
       </c>
-      <c r="L76" s="10"/>
+      <c r="L76" s="11"/>
       <c r="M76">
         <f t="shared" si="16"/>
         <v>674</v>
       </c>
-      <c r="N76" s="28"/>
+      <c r="N76" s="29"/>
       <c r="O76" s="5">
         <f t="shared" si="17"/>
         <v>774</v>
@@ -10617,7 +10617,7 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="22"/>
+      <c r="B77" s="23"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
@@ -10626,31 +10626,31 @@
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="9" t="s">
         <v>65</v>
       </c>
       <c r="I77">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
-      <c r="J77" s="10"/>
+      <c r="J77" s="11"/>
       <c r="K77">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
-      <c r="L77" s="10"/>
+      <c r="L77" s="11"/>
       <c r="M77">
         <f t="shared" si="16"/>
         <v>675</v>
       </c>
-      <c r="N77" s="28"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="5">
         <f t="shared" si="17"/>
         <v>775</v>
@@ -10670,7 +10670,7 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="23"/>
+      <c r="B78" s="24"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
@@ -10679,27 +10679,27 @@
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="9"/>
+      <c r="F78" s="10"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
-      <c r="H78" s="9"/>
+      <c r="H78" s="10"/>
       <c r="I78">
         <f t="shared" si="14"/>
         <v>476</v>
       </c>
-      <c r="J78" s="10"/>
+      <c r="J78" s="11"/>
       <c r="K78">
         <f t="shared" si="15"/>
         <v>576</v>
       </c>
-      <c r="L78" s="10"/>
+      <c r="L78" s="11"/>
       <c r="M78">
         <f t="shared" si="16"/>
         <v>676</v>
       </c>
-      <c r="N78" s="28"/>
+      <c r="N78" s="29"/>
       <c r="O78" s="5">
         <f t="shared" si="17"/>
         <v>776</v>
@@ -10719,7 +10719,7 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C79">
@@ -10730,27 +10730,27 @@
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="9"/>
+      <c r="F79" s="10"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
-      <c r="H79" s="9"/>
+      <c r="H79" s="10"/>
       <c r="I79">
         <f t="shared" si="14"/>
         <v>477</v>
       </c>
-      <c r="J79" s="10"/>
+      <c r="J79" s="11"/>
       <c r="K79">
         <f t="shared" si="15"/>
         <v>577</v>
       </c>
-      <c r="L79" s="10"/>
+      <c r="L79" s="11"/>
       <c r="M79">
         <f t="shared" si="16"/>
         <v>677</v>
       </c>
-      <c r="N79" s="28"/>
+      <c r="N79" s="29"/>
       <c r="O79" s="5">
         <f t="shared" si="17"/>
         <v>777</v>
@@ -10770,7 +10770,7 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="35"/>
+      <c r="B80" s="36"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
@@ -10779,27 +10779,27 @@
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="9"/>
+      <c r="F80" s="10"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
-      <c r="H80" s="9"/>
+      <c r="H80" s="10"/>
       <c r="I80">
         <f t="shared" si="14"/>
         <v>478</v>
       </c>
-      <c r="J80" s="10"/>
+      <c r="J80" s="11"/>
       <c r="K80">
         <f t="shared" si="15"/>
         <v>578</v>
       </c>
-      <c r="L80" s="10"/>
+      <c r="L80" s="11"/>
       <c r="M80">
         <f t="shared" si="16"/>
         <v>678</v>
       </c>
-      <c r="N80" s="28"/>
+      <c r="N80" s="29"/>
       <c r="O80" s="5">
         <f t="shared" si="17"/>
         <v>778</v>
@@ -10830,27 +10830,27 @@
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="9"/>
+      <c r="F81" s="10"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
-      <c r="H81" s="9"/>
+      <c r="H81" s="10"/>
       <c r="I81">
         <f t="shared" si="14"/>
         <v>479</v>
       </c>
-      <c r="J81" s="10"/>
+      <c r="J81" s="11"/>
       <c r="K81">
         <f t="shared" si="15"/>
         <v>579</v>
       </c>
-      <c r="L81" s="10"/>
+      <c r="L81" s="11"/>
       <c r="M81">
         <f t="shared" si="16"/>
         <v>679</v>
       </c>
-      <c r="N81" s="28"/>
+      <c r="N81" s="29"/>
       <c r="O81" s="5">
         <f t="shared" si="17"/>
         <v>779</v>
@@ -10881,27 +10881,27 @@
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="9"/>
+      <c r="F82" s="10"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="H82" s="9"/>
+      <c r="H82" s="10"/>
       <c r="I82">
         <f t="shared" si="14"/>
         <v>480</v>
       </c>
-      <c r="J82" s="10"/>
+      <c r="J82" s="11"/>
       <c r="K82">
         <f t="shared" si="15"/>
         <v>580</v>
       </c>
-      <c r="L82" s="10"/>
+      <c r="L82" s="11"/>
       <c r="M82">
         <f t="shared" si="16"/>
         <v>680</v>
       </c>
-      <c r="N82" s="28"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="5">
         <f t="shared" si="17"/>
         <v>780</v>
@@ -10932,27 +10932,27 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="9"/>
+      <c r="F83" s="10"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="10"/>
       <c r="I83">
         <f t="shared" si="14"/>
         <v>481</v>
       </c>
-      <c r="J83" s="10"/>
+      <c r="J83" s="11"/>
       <c r="K83">
         <f t="shared" si="15"/>
         <v>581</v>
       </c>
-      <c r="L83" s="10"/>
+      <c r="L83" s="11"/>
       <c r="M83">
         <f t="shared" si="16"/>
         <v>681</v>
       </c>
-      <c r="N83" s="28"/>
+      <c r="N83" s="29"/>
       <c r="O83" s="5">
         <f t="shared" si="17"/>
         <v>781</v>
@@ -10972,7 +10972,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C84">
@@ -10983,27 +10983,27 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="9"/>
+      <c r="F84" s="10"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
-      <c r="H84" s="9"/>
+      <c r="H84" s="10"/>
       <c r="I84">
         <f t="shared" si="14"/>
         <v>482</v>
       </c>
-      <c r="J84" s="10"/>
+      <c r="J84" s="11"/>
       <c r="K84">
         <f t="shared" si="15"/>
         <v>582</v>
       </c>
-      <c r="L84" s="10"/>
+      <c r="L84" s="11"/>
       <c r="M84">
         <f t="shared" si="16"/>
         <v>682</v>
       </c>
-      <c r="N84" s="28"/>
+      <c r="N84" s="29"/>
       <c r="O84" s="5">
         <f t="shared" si="17"/>
         <v>782</v>
@@ -11023,7 +11023,7 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="34"/>
       <c r="C85">
         <f t="shared" si="11"/>
         <v>183</v>
@@ -11032,27 +11032,27 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="9"/>
+      <c r="F85" s="10"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
-      <c r="H85" s="9"/>
+      <c r="H85" s="10"/>
       <c r="I85">
         <f t="shared" si="14"/>
         <v>483</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="11"/>
       <c r="K85">
         <f t="shared" si="15"/>
         <v>583</v>
       </c>
-      <c r="L85" s="10"/>
+      <c r="L85" s="11"/>
       <c r="M85">
         <f t="shared" si="16"/>
         <v>683</v>
       </c>
-      <c r="N85" s="28"/>
+      <c r="N85" s="29"/>
       <c r="O85" s="5">
         <f t="shared" si="17"/>
         <v>783</v>
@@ -11072,7 +11072,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="33"/>
+      <c r="B86" s="34"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -11081,27 +11081,27 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="9"/>
+      <c r="F86" s="10"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
-      <c r="H86" s="9"/>
+      <c r="H86" s="10"/>
       <c r="I86">
         <f t="shared" si="14"/>
         <v>484</v>
       </c>
-      <c r="J86" s="10"/>
+      <c r="J86" s="11"/>
       <c r="K86">
         <f t="shared" si="15"/>
         <v>584</v>
       </c>
-      <c r="L86" s="10"/>
+      <c r="L86" s="11"/>
       <c r="M86">
         <f t="shared" si="16"/>
         <v>684</v>
       </c>
-      <c r="N86" s="28"/>
+      <c r="N86" s="29"/>
       <c r="O86" s="5">
         <f t="shared" si="17"/>
         <v>784</v>
@@ -11121,7 +11121,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -11130,27 +11130,27 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
-      <c r="H87" s="9"/>
+      <c r="H87" s="10"/>
       <c r="I87">
         <f t="shared" si="14"/>
         <v>485</v>
       </c>
-      <c r="J87" s="10"/>
+      <c r="J87" s="11"/>
       <c r="K87">
         <f t="shared" si="15"/>
         <v>585</v>
       </c>
-      <c r="L87" s="10"/>
+      <c r="L87" s="11"/>
       <c r="M87">
         <f t="shared" si="16"/>
         <v>685</v>
       </c>
-      <c r="N87" s="28"/>
+      <c r="N87" s="29"/>
       <c r="O87" s="5">
         <f t="shared" si="17"/>
         <v>785</v>
@@ -11170,7 +11170,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C88">
@@ -11181,27 +11181,27 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="10"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
-      <c r="H88" s="9"/>
+      <c r="H88" s="10"/>
       <c r="I88">
         <f t="shared" si="14"/>
         <v>486</v>
       </c>
-      <c r="J88" s="10"/>
+      <c r="J88" s="11"/>
       <c r="K88">
         <f t="shared" si="15"/>
         <v>586</v>
       </c>
-      <c r="L88" s="10"/>
+      <c r="L88" s="11"/>
       <c r="M88">
         <f t="shared" si="16"/>
         <v>686</v>
       </c>
-      <c r="N88" s="28"/>
+      <c r="N88" s="29"/>
       <c r="O88" s="5">
         <f t="shared" si="17"/>
         <v>786</v>
@@ -11221,7 +11221,7 @@
         <f t="shared" si="10"/>
         <v>87</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="33"/>
       <c r="C89">
         <f t="shared" si="11"/>
         <v>187</v>
@@ -11230,27 +11230,27 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="9"/>
+      <c r="F89" s="10"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
-      <c r="H89" s="9"/>
+      <c r="H89" s="10"/>
       <c r="I89">
         <f t="shared" si="14"/>
         <v>487</v>
       </c>
-      <c r="J89" s="10"/>
+      <c r="J89" s="11"/>
       <c r="K89">
         <f t="shared" si="15"/>
         <v>587</v>
       </c>
-      <c r="L89" s="10"/>
+      <c r="L89" s="11"/>
       <c r="M89">
         <f t="shared" si="16"/>
         <v>687</v>
       </c>
-      <c r="N89" s="28"/>
+      <c r="N89" s="29"/>
       <c r="O89" s="5">
         <f t="shared" si="17"/>
         <v>787</v>
@@ -11270,7 +11270,7 @@
         <f t="shared" si="10"/>
         <v>88</v>
       </c>
-      <c r="B90" s="32"/>
+      <c r="B90" s="33"/>
       <c r="C90">
         <f t="shared" si="11"/>
         <v>188</v>
@@ -11279,27 +11279,27 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="9"/>
+      <c r="F90" s="10"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
-      <c r="H90" s="9"/>
+      <c r="H90" s="10"/>
       <c r="I90">
         <f t="shared" si="14"/>
         <v>488</v>
       </c>
-      <c r="J90" s="10"/>
+      <c r="J90" s="11"/>
       <c r="K90">
         <f t="shared" si="15"/>
         <v>588</v>
       </c>
-      <c r="L90" s="10"/>
+      <c r="L90" s="11"/>
       <c r="M90">
         <f t="shared" si="16"/>
         <v>688</v>
       </c>
-      <c r="N90" s="28"/>
+      <c r="N90" s="29"/>
       <c r="O90" s="5">
         <f t="shared" si="17"/>
         <v>788</v>
@@ -11319,7 +11319,7 @@
         <f t="shared" si="10"/>
         <v>89</v>
       </c>
-      <c r="B91" s="32"/>
+      <c r="B91" s="33"/>
       <c r="C91">
         <f t="shared" si="11"/>
         <v>189</v>
@@ -11328,27 +11328,27 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="9"/>
+      <c r="F91" s="10"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
-      <c r="H91" s="9"/>
+      <c r="H91" s="10"/>
       <c r="I91">
         <f t="shared" si="14"/>
         <v>489</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="11"/>
       <c r="K91">
         <f t="shared" si="15"/>
         <v>589</v>
       </c>
-      <c r="L91" s="10"/>
+      <c r="L91" s="11"/>
       <c r="M91">
         <f t="shared" si="16"/>
         <v>689</v>
       </c>
-      <c r="N91" s="28"/>
+      <c r="N91" s="29"/>
       <c r="O91" s="5">
         <f t="shared" si="17"/>
         <v>789</v>
@@ -11368,7 +11368,7 @@
         <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C92">
@@ -11379,27 +11379,27 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="9"/>
+      <c r="F92" s="10"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
-      <c r="H92" s="9"/>
+      <c r="H92" s="10"/>
       <c r="I92">
         <f t="shared" si="14"/>
         <v>490</v>
       </c>
-      <c r="J92" s="10"/>
+      <c r="J92" s="11"/>
       <c r="K92">
         <f t="shared" si="15"/>
         <v>590</v>
       </c>
-      <c r="L92" s="10"/>
+      <c r="L92" s="11"/>
       <c r="M92">
         <f t="shared" si="16"/>
         <v>690</v>
       </c>
-      <c r="N92" s="29"/>
+      <c r="N92" s="30"/>
       <c r="O92" s="5">
         <f t="shared" si="17"/>
         <v>790</v>
@@ -11419,7 +11419,7 @@
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="B93" s="32"/>
+      <c r="B93" s="33"/>
       <c r="C93">
         <f t="shared" si="11"/>
         <v>191</v>
@@ -11428,27 +11428,27 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="9"/>
+      <c r="F93" s="10"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
-      <c r="H93" s="9"/>
+      <c r="H93" s="10"/>
       <c r="I93">
         <f t="shared" si="14"/>
         <v>491</v>
       </c>
-      <c r="J93" s="10"/>
+      <c r="J93" s="11"/>
       <c r="K93">
         <f t="shared" si="15"/>
         <v>591</v>
       </c>
-      <c r="L93" s="10"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="7">
         <f t="shared" si="16"/>
         <v>691</v>
       </c>
-      <c r="N93" s="27"/>
+      <c r="N93" s="28"/>
       <c r="O93" s="5">
         <f t="shared" si="17"/>
         <v>791</v>
@@ -11468,7 +11468,7 @@
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="B94" s="32"/>
+      <c r="B94" s="33"/>
       <c r="C94">
         <f t="shared" si="11"/>
         <v>192</v>
@@ -11477,27 +11477,27 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="9"/>
+      <c r="F94" s="10"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
-      <c r="H94" s="9"/>
+      <c r="H94" s="10"/>
       <c r="I94">
         <f t="shared" si="14"/>
         <v>492</v>
       </c>
-      <c r="J94" s="10"/>
+      <c r="J94" s="11"/>
       <c r="K94">
         <f t="shared" si="15"/>
         <v>592</v>
       </c>
-      <c r="L94" s="10"/>
+      <c r="L94" s="11"/>
       <c r="M94" s="7">
         <f t="shared" si="16"/>
         <v>692</v>
       </c>
-      <c r="N94" s="30"/>
+      <c r="N94" s="31"/>
       <c r="O94" s="5">
         <f t="shared" si="17"/>
         <v>792</v>
@@ -11517,7 +11517,7 @@
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="B95" s="32"/>
+      <c r="B95" s="33"/>
       <c r="C95">
         <f t="shared" si="11"/>
         <v>193</v>
@@ -11526,27 +11526,27 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="9"/>
+      <c r="F95" s="10"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
-      <c r="H95" s="9"/>
+      <c r="H95" s="10"/>
       <c r="I95">
         <f t="shared" si="14"/>
         <v>493</v>
       </c>
-      <c r="J95" s="10"/>
+      <c r="J95" s="11"/>
       <c r="K95">
         <f t="shared" si="15"/>
         <v>593</v>
       </c>
-      <c r="L95" s="10"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="7">
         <f t="shared" si="16"/>
         <v>693</v>
       </c>
-      <c r="N95" s="30"/>
+      <c r="N95" s="31"/>
       <c r="O95" s="5">
         <f t="shared" si="17"/>
         <v>793</v>
@@ -11577,27 +11577,27 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="9"/>
+      <c r="F96" s="10"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="10"/>
       <c r="I96">
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
-      <c r="J96" s="10"/>
+      <c r="J96" s="11"/>
       <c r="K96">
         <f t="shared" si="15"/>
         <v>594</v>
       </c>
-      <c r="L96" s="10"/>
+      <c r="L96" s="11"/>
       <c r="M96" s="7">
         <f t="shared" si="16"/>
         <v>694</v>
       </c>
-      <c r="N96" s="30"/>
+      <c r="N96" s="31"/>
       <c r="O96" s="5">
         <f t="shared" si="17"/>
         <v>794</v>
@@ -11628,27 +11628,27 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="9"/>
+      <c r="F97" s="10"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
-      <c r="H97" s="9"/>
+      <c r="H97" s="10"/>
       <c r="I97">
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
-      <c r="J97" s="10"/>
+      <c r="J97" s="11"/>
       <c r="K97">
         <f t="shared" si="15"/>
         <v>595</v>
       </c>
-      <c r="L97" s="10"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="7">
         <f t="shared" si="16"/>
         <v>695</v>
       </c>
-      <c r="N97" s="30"/>
+      <c r="N97" s="31"/>
       <c r="O97" s="5">
         <f t="shared" si="17"/>
         <v>795</v>
@@ -11668,7 +11668,7 @@
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C98">
@@ -11679,27 +11679,27 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="9"/>
+      <c r="F98" s="10"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
-      <c r="H98" s="9"/>
+      <c r="H98" s="10"/>
       <c r="I98">
         <f t="shared" si="14"/>
         <v>496</v>
       </c>
-      <c r="J98" s="10"/>
+      <c r="J98" s="11"/>
       <c r="K98">
         <f t="shared" si="15"/>
         <v>596</v>
       </c>
-      <c r="L98" s="10"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="7">
         <f t="shared" si="16"/>
         <v>696</v>
       </c>
-      <c r="N98" s="30"/>
+      <c r="N98" s="31"/>
       <c r="O98" s="5">
         <f t="shared" si="17"/>
         <v>796</v>
@@ -11719,7 +11719,7 @@
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="B99" s="18"/>
+      <c r="B99" s="19"/>
       <c r="C99">
         <f t="shared" si="11"/>
         <v>197</v>
@@ -11728,27 +11728,27 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="9"/>
+      <c r="F99" s="10"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="10"/>
       <c r="I99">
         <f t="shared" si="14"/>
         <v>497</v>
       </c>
-      <c r="J99" s="10"/>
+      <c r="J99" s="11"/>
       <c r="K99">
         <f t="shared" si="15"/>
         <v>597</v>
       </c>
-      <c r="L99" s="10"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="7">
         <f t="shared" si="16"/>
         <v>697</v>
       </c>
-      <c r="N99" s="30"/>
+      <c r="N99" s="31"/>
       <c r="O99" s="5">
         <f t="shared" si="17"/>
         <v>797</v>
@@ -11768,7 +11768,7 @@
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="B100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100">
         <f t="shared" si="11"/>
         <v>198</v>
@@ -11777,27 +11777,27 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="9"/>
+      <c r="F100" s="10"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
-      <c r="H100" s="9"/>
+      <c r="H100" s="10"/>
       <c r="I100">
         <f t="shared" si="14"/>
         <v>498</v>
       </c>
-      <c r="J100" s="10"/>
+      <c r="J100" s="11"/>
       <c r="K100">
         <f t="shared" si="15"/>
         <v>598</v>
       </c>
-      <c r="L100" s="10"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="7">
         <f t="shared" si="16"/>
         <v>698</v>
       </c>
-      <c r="N100" s="30"/>
+      <c r="N100" s="31"/>
       <c r="O100" s="5">
         <f t="shared" si="17"/>
         <v>798</v>
@@ -11817,7 +11817,7 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="C101">
         <f t="shared" si="11"/>
         <v>199</v>
@@ -11826,27 +11826,27 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="9"/>
+      <c r="F101" s="10"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
-      <c r="H101" s="9"/>
+      <c r="H101" s="10"/>
       <c r="I101">
         <f t="shared" si="14"/>
         <v>499</v>
       </c>
-      <c r="J101" s="10"/>
+      <c r="J101" s="11"/>
       <c r="K101">
         <f t="shared" si="15"/>
         <v>599</v>
       </c>
-      <c r="L101" s="10"/>
+      <c r="L101" s="11"/>
       <c r="M101" s="7">
         <f t="shared" si="16"/>
         <v>699</v>
       </c>
-      <c r="N101" s="30"/>
+      <c r="N101" s="31"/>
       <c r="O101" s="5">
         <f t="shared" si="17"/>
         <v>799</v>
@@ -12050,6 +12050,12 @@
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="N18:N67"/>
     <mergeCell ref="P18:P33"/>
+    <mergeCell ref="J2:J26"/>
+    <mergeCell ref="L2:L51"/>
+    <mergeCell ref="N2:N17"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="P36:P46"/>
+    <mergeCell ref="N68:N92"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="F27:F51"/>
@@ -12057,11 +12063,11 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="F2:F26"/>
     <mergeCell ref="H2:H26"/>
-    <mergeCell ref="J2:J26"/>
-    <mergeCell ref="L2:L51"/>
-    <mergeCell ref="N2:N17"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="P36:P46"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="F77:F101"/>
+    <mergeCell ref="H77:H101"/>
     <mergeCell ref="B98:B101"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="P47:P57"/>
@@ -12078,12 +12084,6 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="L52:L101"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="N68:N92"/>
-    <mergeCell ref="F77:F101"/>
-    <mergeCell ref="H77:H101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -326,6 +326,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="D48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ON CHARGER
+bit 0 - motion enabled
+bit 1 - speed enabled
+ON BATTERY
+bit 4 - motion enabled
+bit 5 - speed enabled</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B50" authorId="0">
       <text>
         <r>
@@ -434,6 +463,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="D59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ON CHARGER
+bit 0 - motion enabled
+bit 1 - speed enabled
+ON BATTERY
+bit 4 - motion enabled
+bit 5 - speed enabled
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B70" authorId="0">
       <text>
         <r>
@@ -497,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="100">
   <si>
     <t>ACTIVE 1</t>
   </si>
@@ -766,13 +825,37 @@
     <t xml:space="preserve">    /**UNUSED**/</t>
   </si>
   <si>
-    <t>SMS Send Interval</t>
+    <t>3.38 1:30pm</t>
   </si>
   <si>
-    <t>UDP Send Interval</t>
+    <t>SMS Power Profile</t>
   </si>
   <si>
-    <t>3.38 1:30pm</t>
+    <t>UDP Power Profile</t>
+  </si>
+  <si>
+    <t>SMS Speed on Bat</t>
+  </si>
+  <si>
+    <t>SMS Speed on Plug</t>
+  </si>
+  <si>
+    <t>UDP Speed on Bat</t>
+  </si>
+  <si>
+    <t>UDP Speed on Plug</t>
+  </si>
+  <si>
+    <t>UDP Send Interval on Battery</t>
+  </si>
+  <si>
+    <t>UDP Send Interval Plugged In</t>
+  </si>
+  <si>
+    <t>SMS Send Interval on Battery</t>
+  </si>
+  <si>
+    <t>SMS Send Interval Plugged In</t>
   </si>
 </sst>
 </file>
@@ -911,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -992,6 +1075,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6711,14 +6813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="20" max="20" width="4.140625" customWidth="1"/>
     <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
@@ -8747,8 +8849,8 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>90</v>
+      <c r="D40" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
@@ -8799,7 +8901,7 @@
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="41"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -8849,7 +8951,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="23"/>
+      <c r="D42" s="41"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -8899,7 +9001,7 @@
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="24"/>
+      <c r="D43" s="42"/>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -8949,6 +9051,9 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
+      <c r="D44" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -8998,6 +9103,7 @@
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
+      <c r="D45" s="41"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -9049,6 +9155,7 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
+      <c r="D46" s="41"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -9100,6 +9207,7 @@
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
+      <c r="D47" s="42"/>
       <c r="E47">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -9153,6 +9261,9 @@
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E48">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -9204,6 +9315,9 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E49">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -9255,6 +9369,9 @@
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
+      <c r="D50" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -9304,6 +9421,9 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
+      <c r="D51" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -9355,6 +9475,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
+      <c r="D52" s="44"/>
       <c r="E52">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -9412,6 +9533,7 @@
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
+      <c r="D53" s="44"/>
       <c r="E53">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -9463,6 +9585,7 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
+      <c r="D54" s="45"/>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -9507,12 +9630,13 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>89</v>
-      </c>
+      <c r="B55" s="46"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
@@ -9558,11 +9682,12 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="46"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
+      <c r="D56" s="44"/>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -9607,11 +9732,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="46"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
+      <c r="D57" s="44"/>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -9656,11 +9782,12 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="46"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
+      <c r="D58" s="45"/>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -9712,6 +9839,9 @@
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -9763,6 +9893,9 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -9813,6 +9946,9 @@
       <c r="C61">
         <f t="shared" si="1"/>
         <v>159</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
@@ -12043,32 +12179,26 @@
       <c r="J161" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="P2:P17"/>
-    <mergeCell ref="B7:B45"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="N18:N67"/>
-    <mergeCell ref="P18:P33"/>
-    <mergeCell ref="J2:J26"/>
-    <mergeCell ref="L2:L51"/>
-    <mergeCell ref="N2:N17"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="P36:P46"/>
-    <mergeCell ref="N68:N92"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="F27:F51"/>
-    <mergeCell ref="H27:H51"/>
+  <mergeCells count="42">
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="N93:N101"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="F2:F26"/>
     <mergeCell ref="H2:H26"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="F77:F101"/>
-    <mergeCell ref="H77:H101"/>
-    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B7:B45"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="N18:N67"/>
+    <mergeCell ref="J2:J26"/>
+    <mergeCell ref="L2:L51"/>
+    <mergeCell ref="N2:N17"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="P47:P57"/>
     <mergeCell ref="D6:D9"/>
@@ -12076,17 +12206,25 @@
     <mergeCell ref="H52:H76"/>
     <mergeCell ref="J52:J101"/>
     <mergeCell ref="J27:J51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="P2:P17"/>
+    <mergeCell ref="P18:P33"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="P36:P46"/>
+    <mergeCell ref="N68:N92"/>
+    <mergeCell ref="F27:F51"/>
+    <mergeCell ref="H27:H51"/>
+    <mergeCell ref="L52:L101"/>
+    <mergeCell ref="F77:F101"/>
+    <mergeCell ref="H77:H101"/>
+    <mergeCell ref="B98:B101"/>
     <mergeCell ref="B88:B91"/>
     <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="N93:N101"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="L52:L101"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B84:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12103,7 +12241,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Geogram ONE EEPROM Map.xlsx
+++ b/Geogram ONE EEPROM Map.xlsx
@@ -326,6 +326,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="D48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ON CHARGER
+bit 0 - motion enabled
+bit 1 - speed enabled
+ON BATTERY
+bit 4 - motion enabled
+bit 5 - speed enabled</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B50" authorId="0">
       <text>
         <r>
@@ -434,6 +463,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="D59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ON CHARGER
+bit 0 - motion enabled
+bit 1 - speed enabled
+ON BATTERY
+bit 4 - motion enabled
+bit 5 - speed enabled
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B70" authorId="0">
       <text>
         <r>
@@ -497,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="100">
   <si>
     <t>ACTIVE 1</t>
   </si>
@@ -766,13 +825,37 @@
     <t xml:space="preserve">    /**UNUSED**/</t>
   </si>
   <si>
-    <t>SMS Send Interval</t>
+    <t>3.38 1:30pm</t>
   </si>
   <si>
-    <t>UDP Send Interval</t>
+    <t>SMS Power Profile</t>
   </si>
   <si>
-    <t>3.38 1:30pm</t>
+    <t>UDP Power Profile</t>
+  </si>
+  <si>
+    <t>SMS Speed on Bat</t>
+  </si>
+  <si>
+    <t>SMS Speed on Plug</t>
+  </si>
+  <si>
+    <t>UDP Speed on Bat</t>
+  </si>
+  <si>
+    <t>UDP Speed on Plug</t>
+  </si>
+  <si>
+    <t>UDP Send Interval on Battery</t>
+  </si>
+  <si>
+    <t>UDP Send Interval Plugged In</t>
+  </si>
+  <si>
+    <t>SMS Send Interval on Battery</t>
+  </si>
+  <si>
+    <t>SMS Send Interval Plugged In</t>
   </si>
 </sst>
 </file>
@@ -911,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -920,6 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -991,7 +1075,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,7 +1412,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C2">
@@ -1322,37 +1424,37 @@
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I2">
         <v>400</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>68</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>79</v>
       </c>
       <c r="O2" s="7">
         <v>700</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>82</v>
       </c>
       <c r="Q2">
@@ -1373,7 +1475,7 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
@@ -1385,32 +1487,32 @@
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3">
         <f>K2+1</f>
         <v>501</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3">
         <f>M2+1</f>
         <v>601</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="7">
         <f>O2+1</f>
         <v>701</v>
       </c>
-      <c r="P3" s="25"/>
+      <c r="P3" s="26"/>
       <c r="Q3">
         <f>Q2+1</f>
         <v>801</v>
@@ -1431,7 +1533,7 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
@@ -1443,32 +1545,32 @@
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="10"/>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="5">K3+1</f>
         <v>502</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="11"/>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+1</f>
         <v>602</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="7">
         <f t="shared" ref="O4:O67" si="7">O3+1</f>
         <v>702</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4">
         <f t="shared" ref="Q4:Q67" si="8">Q3+1</f>
         <v>802</v>
@@ -1489,7 +1591,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -1501,32 +1603,32 @@
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="10"/>
       <c r="K5">
         <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="11"/>
       <c r="M5">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="7">
         <f t="shared" si="7"/>
         <v>703</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
       <c r="Q5">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -1547,7 +1649,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -1559,32 +1661,32 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6">
         <f t="shared" si="6"/>
         <v>604</v>
       </c>
-      <c r="N6" s="25"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="7">
         <f t="shared" si="7"/>
         <v>704</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="26"/>
       <c r="Q6">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -1605,7 +1707,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C7">
@@ -1619,32 +1721,32 @@
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="10"/>
       <c r="K7">
         <f t="shared" si="5"/>
         <v>505</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="11"/>
       <c r="M7">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="7">
         <f t="shared" si="7"/>
         <v>705</v>
       </c>
-      <c r="P7" s="25"/>
+      <c r="P7" s="26"/>
       <c r="Q7">
         <f t="shared" si="8"/>
         <v>805</v>
@@ -1665,7 +1767,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -1677,32 +1779,32 @@
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
       <c r="K8">
         <f t="shared" si="5"/>
         <v>506</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="11"/>
       <c r="M8">
         <f t="shared" si="6"/>
         <v>606</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="7">
         <f t="shared" si="7"/>
         <v>706</v>
       </c>
-      <c r="P8" s="25"/>
+      <c r="P8" s="26"/>
       <c r="Q8">
         <f t="shared" si="8"/>
         <v>806</v>
@@ -1723,7 +1825,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -1735,32 +1837,32 @@
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9">
         <f t="shared" si="5"/>
         <v>507</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9">
         <f t="shared" si="6"/>
         <v>607</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
         <v>707</v>
       </c>
-      <c r="P9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9">
         <f t="shared" si="8"/>
         <v>807</v>
@@ -1775,7 +1877,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -1787,32 +1889,32 @@
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="10"/>
       <c r="K10">
         <f t="shared" si="5"/>
         <v>508</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10">
         <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="7">
         <f t="shared" si="7"/>
         <v>708</v>
       </c>
-      <c r="P10" s="25"/>
+      <c r="P10" s="26"/>
       <c r="Q10">
         <f t="shared" si="8"/>
         <v>808</v>
@@ -1827,7 +1929,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -1839,32 +1941,32 @@
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="10"/>
       <c r="K11">
         <f t="shared" si="5"/>
         <v>509</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="11"/>
       <c r="M11">
         <f t="shared" si="6"/>
         <v>609</v>
       </c>
-      <c r="N11" s="25"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="7">
         <f t="shared" si="7"/>
         <v>709</v>
       </c>
-      <c r="P11" s="25"/>
+      <c r="P11" s="26"/>
       <c r="Q11">
         <f t="shared" si="8"/>
         <v>809</v>
@@ -1879,7 +1981,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -1891,32 +1993,32 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="10"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="11"/>
       <c r="M12">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="7">
         <f t="shared" si="7"/>
         <v>710</v>
       </c>
-      <c r="P12" s="25"/>
+      <c r="P12" s="26"/>
       <c r="Q12">
         <f t="shared" si="8"/>
         <v>810</v>
@@ -1931,44 +2033,44 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="10"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="K13">
         <f t="shared" si="5"/>
         <v>511</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="11"/>
       <c r="M13">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="26"/>
       <c r="O13" s="7">
         <f t="shared" si="7"/>
         <v>711</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="26"/>
       <c r="Q13">
         <f t="shared" si="8"/>
         <v>811</v>
@@ -1983,42 +2085,42 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="10"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="10"/>
       <c r="K14">
         <f t="shared" si="5"/>
         <v>512</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="7">
         <f t="shared" si="7"/>
         <v>712</v>
       </c>
-      <c r="P14" s="25"/>
+      <c r="P14" s="26"/>
       <c r="Q14">
         <f t="shared" si="8"/>
         <v>812</v>
@@ -2033,42 +2135,42 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="10"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="11"/>
       <c r="M15">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="7">
         <f t="shared" si="7"/>
         <v>713</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="26"/>
       <c r="Q15">
         <f t="shared" si="8"/>
         <v>813</v>
@@ -2083,42 +2185,42 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="10"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="10"/>
       <c r="K16">
         <f t="shared" si="5"/>
         <v>514</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="11"/>
       <c r="M16">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="7">
         <f t="shared" si="7"/>
         <v>714</v>
       </c>
-      <c r="P16" s="25"/>
+      <c r="P16" s="26"/>
       <c r="Q16">
         <f t="shared" si="8"/>
         <v>814</v>
@@ -2133,44 +2235,44 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>60</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="10"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="10"/>
       <c r="K17">
         <f t="shared" si="5"/>
         <v>515</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="11"/>
       <c r="M17">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="N17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7">
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
-      <c r="P17" s="26"/>
+      <c r="P17" s="27"/>
       <c r="Q17">
         <f t="shared" si="8"/>
         <v>815</v>
@@ -2185,44 +2287,44 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="23"/>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="10"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
       <c r="K18">
         <f t="shared" si="5"/>
         <v>516</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="11"/>
       <c r="M18">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="25" t="s">
         <v>80</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="7"/>
         <v>716</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="25" t="s">
         <v>86</v>
       </c>
       <c r="Q18">
@@ -2239,42 +2341,42 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="10"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="K19">
         <f t="shared" si="5"/>
         <v>517</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="11"/>
       <c r="M19">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="5">
         <f t="shared" si="7"/>
         <v>717</v>
       </c>
-      <c r="P19" s="25"/>
+      <c r="P19" s="26"/>
       <c r="Q19">
         <f t="shared" si="8"/>
         <v>817</v>
@@ -2289,42 +2391,42 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="10"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="10"/>
       <c r="K20">
         <f t="shared" si="5"/>
         <v>518</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="11"/>
       <c r="M20">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="26"/>
       <c r="O20" s="5">
         <f t="shared" si="7"/>
         <v>718</v>
       </c>
-      <c r="P20" s="25"/>
+      <c r="P20" s="26"/>
       <c r="Q20">
         <f t="shared" si="8"/>
         <v>818</v>
@@ -2339,44 +2441,44 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>72</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="10"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
       <c r="K21">
         <f t="shared" si="5"/>
         <v>519</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="11"/>
       <c r="M21">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="26"/>
       <c r="O21" s="5">
         <f t="shared" si="7"/>
         <v>719</v>
       </c>
-      <c r="P21" s="25"/>
+      <c r="P21" s="26"/>
       <c r="Q21">
         <f t="shared" si="8"/>
         <v>819</v>
@@ -2391,42 +2493,42 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="36"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="10"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="10"/>
       <c r="K22">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="11"/>
       <c r="M22">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="5">
         <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="P22" s="25"/>
+      <c r="P22" s="26"/>
       <c r="Q22">
         <f t="shared" si="8"/>
         <v>820</v>
@@ -2441,7 +2543,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2453,32 +2555,32 @@
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="10"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="10"/>
       <c r="K23">
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="11"/>
       <c r="M23">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="5">
         <f t="shared" si="7"/>
         <v>721</v>
       </c>
-      <c r="P23" s="25"/>
+      <c r="P23" s="26"/>
       <c r="Q23">
         <f t="shared" si="8"/>
         <v>821</v>
@@ -2493,7 +2595,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2505,32 +2607,32 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="10"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="10"/>
       <c r="K24">
         <f t="shared" si="5"/>
         <v>522</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="11"/>
       <c r="M24">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="5">
         <f t="shared" si="7"/>
         <v>722</v>
       </c>
-      <c r="P24" s="25"/>
+      <c r="P24" s="26"/>
       <c r="Q24">
         <f t="shared" si="8"/>
         <v>822</v>
@@ -2545,7 +2647,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2557,32 +2659,32 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25">
         <f t="shared" si="5"/>
         <v>523</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="11"/>
       <c r="M25">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="N25" s="25"/>
+      <c r="N25" s="26"/>
       <c r="O25" s="5">
         <f t="shared" si="7"/>
         <v>723</v>
       </c>
-      <c r="P25" s="25"/>
+      <c r="P25" s="26"/>
       <c r="Q25">
         <f t="shared" si="8"/>
         <v>823</v>
@@ -2597,44 +2699,44 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="10"/>
       <c r="K26">
         <f t="shared" si="5"/>
         <v>524</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="11"/>
       <c r="M26">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="5">
         <f t="shared" si="7"/>
         <v>724</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="26"/>
       <c r="Q26">
         <f t="shared" si="8"/>
         <v>824</v>
@@ -2649,48 +2751,48 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
         <v>425</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>71</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="11"/>
       <c r="M27">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="N27" s="25"/>
+      <c r="N27" s="26"/>
       <c r="O27" s="5">
         <f t="shared" si="7"/>
         <v>725</v>
       </c>
-      <c r="P27" s="25"/>
+      <c r="P27" s="26"/>
       <c r="Q27">
         <f t="shared" si="8"/>
         <v>825</v>
@@ -2705,42 +2807,42 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="10"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="10"/>
       <c r="K28">
         <f t="shared" si="5"/>
         <v>526</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="11"/>
       <c r="M28">
         <f t="shared" si="6"/>
         <v>626</v>
       </c>
-      <c r="N28" s="25"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="5">
         <f t="shared" si="7"/>
         <v>726</v>
       </c>
-      <c r="P28" s="25"/>
+      <c r="P28" s="26"/>
       <c r="Q28">
         <f t="shared" si="8"/>
         <v>826</v>
@@ -2755,42 +2857,42 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="16"/>
       <c r="E29">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="10"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="10"/>
       <c r="K29">
         <f t="shared" si="5"/>
         <v>527</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="N29" s="25"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="5">
         <f t="shared" si="7"/>
         <v>727</v>
       </c>
-      <c r="P29" s="25"/>
+      <c r="P29" s="26"/>
       <c r="Q29">
         <f t="shared" si="8"/>
         <v>827</v>
@@ -2805,44 +2907,44 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="10"/>
       <c r="K30">
         <f t="shared" si="5"/>
         <v>528</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
-      <c r="N30" s="25"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="5">
         <f t="shared" si="7"/>
         <v>728</v>
       </c>
-      <c r="P30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30">
         <f t="shared" si="8"/>
         <v>828</v>
@@ -2857,42 +2959,42 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="E31">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="10"/>
       <c r="K31">
         <f t="shared" si="5"/>
         <v>529</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
-      <c r="N31" s="25"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="5">
         <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="P31" s="25"/>
+      <c r="P31" s="26"/>
       <c r="Q31">
         <f t="shared" si="8"/>
         <v>829</v>
@@ -2907,42 +3009,42 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="10"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="10"/>
       <c r="K32">
         <f t="shared" si="5"/>
         <v>530</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="11"/>
       <c r="M32">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="5">
         <f t="shared" si="7"/>
         <v>730</v>
       </c>
-      <c r="P32" s="25"/>
+      <c r="P32" s="26"/>
       <c r="Q32">
         <f t="shared" si="8"/>
         <v>830</v>
@@ -2957,42 +3059,42 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="10"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="10"/>
       <c r="K33">
         <f t="shared" si="5"/>
         <v>531</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="11"/>
       <c r="M33">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
-      <c r="N33" s="25"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="5">
         <f t="shared" si="7"/>
         <v>731</v>
       </c>
-      <c r="P33" s="36"/>
+      <c r="P33" s="37"/>
       <c r="Q33">
         <f t="shared" si="8"/>
         <v>831</v>
@@ -3007,44 +3109,44 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="10"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="10"/>
       <c r="K34">
         <f t="shared" si="5"/>
         <v>532</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="11"/>
       <c r="M34">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="N34" s="25"/>
+      <c r="N34" s="26"/>
       <c r="O34" s="5">
         <f t="shared" si="7"/>
         <v>732</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="38" t="s">
         <v>83</v>
       </c>
       <c r="Q34">
@@ -3061,42 +3163,42 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="33"/>
       <c r="E35">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="10"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="10"/>
       <c r="K35">
         <f t="shared" si="5"/>
         <v>533</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="11"/>
       <c r="M35">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
-      <c r="N35" s="25"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="5">
         <f t="shared" si="7"/>
         <v>733</v>
       </c>
-      <c r="P35" s="38"/>
+      <c r="P35" s="39"/>
       <c r="Q35">
         <f t="shared" si="8"/>
         <v>833</v>
@@ -3111,42 +3213,42 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="10"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="10"/>
       <c r="K36">
         <f t="shared" si="5"/>
         <v>534</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="11"/>
       <c r="M36">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
-      <c r="N36" s="25"/>
+      <c r="N36" s="26"/>
       <c r="O36" s="5">
         <f t="shared" si="7"/>
         <v>734</v>
       </c>
-      <c r="P36" s="24" t="s">
+      <c r="P36" s="25" t="s">
         <v>84</v>
       </c>
       <c r="Q36">
@@ -3163,42 +3265,42 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="33"/>
       <c r="E37">
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="10"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="10"/>
       <c r="K37">
         <f t="shared" si="5"/>
         <v>535</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="11"/>
       <c r="M37">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
-      <c r="N37" s="25"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="5">
         <f t="shared" si="7"/>
         <v>735</v>
       </c>
-      <c r="P37" s="25"/>
+      <c r="P37" s="26"/>
       <c r="Q37">
         <f t="shared" si="8"/>
         <v>835</v>
@@ -3213,7 +3315,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -3225,32 +3327,32 @@
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="10"/>
       <c r="K38">
         <f t="shared" si="5"/>
         <v>536</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="11"/>
       <c r="M38">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
-      <c r="N38" s="25"/>
+      <c r="N38" s="26"/>
       <c r="O38" s="5">
         <f t="shared" si="7"/>
         <v>736</v>
       </c>
-      <c r="P38" s="25"/>
+      <c r="P38" s="26"/>
       <c r="Q38">
         <f t="shared" si="8"/>
         <v>836</v>
@@ -3265,7 +3367,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -3277,32 +3379,32 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="10"/>
       <c r="K39">
         <f t="shared" si="5"/>
         <v>537</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="11"/>
       <c r="M39">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="N39" s="25"/>
+      <c r="N39" s="26"/>
       <c r="O39" s="5">
         <f t="shared" si="7"/>
         <v>737</v>
       </c>
-      <c r="P39" s="25"/>
+      <c r="P39" s="26"/>
       <c r="Q39">
         <f t="shared" si="8"/>
         <v>837</v>
@@ -3317,44 +3419,44 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="10"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="10"/>
       <c r="K40">
         <f t="shared" si="5"/>
         <v>538</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="11"/>
       <c r="M40">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="N40" s="25"/>
+      <c r="N40" s="26"/>
       <c r="O40" s="5">
         <f t="shared" si="7"/>
         <v>738</v>
       </c>
-      <c r="P40" s="25"/>
+      <c r="P40" s="26"/>
       <c r="Q40">
         <f t="shared" si="8"/>
         <v>838</v>
@@ -3369,42 +3471,42 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="19"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="10"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="10"/>
       <c r="K41">
         <f t="shared" si="5"/>
         <v>539</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="11"/>
       <c r="M41">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
-      <c r="N41" s="25"/>
+      <c r="N41" s="26"/>
       <c r="O41" s="5">
         <f t="shared" si="7"/>
         <v>739</v>
       </c>
-      <c r="P41" s="25"/>
+      <c r="P41" s="26"/>
       <c r="Q41">
         <f t="shared" si="8"/>
         <v>839</v>
@@ -3419,42 +3521,42 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="20"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="10"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="10"/>
       <c r="K42">
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="11"/>
       <c r="M42">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="N42" s="25"/>
+      <c r="N42" s="26"/>
       <c r="O42" s="5">
         <f t="shared" si="7"/>
         <v>740</v>
       </c>
-      <c r="P42" s="25"/>
+      <c r="P42" s="26"/>
       <c r="Q42">
         <f t="shared" si="8"/>
         <v>840</v>
@@ -3469,42 +3571,42 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="10"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
       </c>
-      <c r="J43" s="9"/>
+      <c r="J43" s="10"/>
       <c r="K43">
         <f t="shared" si="5"/>
         <v>541</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="11"/>
       <c r="M43">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
-      <c r="N43" s="25"/>
+      <c r="N43" s="26"/>
       <c r="O43" s="5">
         <f t="shared" si="7"/>
         <v>741</v>
       </c>
-      <c r="P43" s="25"/>
+      <c r="P43" s="26"/>
       <c r="Q43">
         <f t="shared" si="8"/>
         <v>841</v>
@@ -3519,44 +3621,44 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="10"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="10"/>
       <c r="K44">
         <f t="shared" si="5"/>
         <v>542</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="11"/>
       <c r="M44">
         <f t="shared" si="6"/>
         <v>642</v>
       </c>
-      <c r="N44" s="25"/>
+      <c r="N44" s="26"/>
       <c r="O44" s="5">
         <f t="shared" si="7"/>
         <v>742</v>
       </c>
-      <c r="P44" s="25"/>
+      <c r="P44" s="26"/>
       <c r="Q44">
         <f t="shared" si="8"/>
         <v>842</v>
@@ -3571,42 +3673,42 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="17"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="10"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
       </c>
-      <c r="J45" s="9"/>
+      <c r="J45" s="10"/>
       <c r="K45">
         <f t="shared" si="5"/>
         <v>543</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="L45" s="11"/>
       <c r="M45">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
-      <c r="N45" s="25"/>
+      <c r="N45" s="26"/>
       <c r="O45" s="5">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
-      <c r="P45" s="25"/>
+      <c r="P45" s="26"/>
       <c r="Q45">
         <f t="shared" si="8"/>
         <v>843</v>
@@ -3621,44 +3723,44 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="17"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="10"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="10"/>
       <c r="K46">
         <f t="shared" si="5"/>
         <v>544</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="L46" s="11"/>
       <c r="M46">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
-      <c r="N46" s="25"/>
+      <c r="N46" s="26"/>
       <c r="O46" s="5">
         <f t="shared" si="7"/>
         <v>744</v>
       </c>
-      <c r="P46" s="26"/>
+      <c r="P46" s="27"/>
       <c r="Q46">
         <f t="shared" si="8"/>
         <v>844</v>
@@ -3673,42 +3775,42 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="9"/>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="17"/>
       <c r="E47">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="10"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="10"/>
       <c r="K47">
         <f t="shared" si="5"/>
         <v>545</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="11"/>
       <c r="M47">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
-      <c r="N47" s="25"/>
+      <c r="N47" s="26"/>
       <c r="O47" s="5">
         <f t="shared" si="7"/>
         <v>745</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="P47" s="25" t="s">
         <v>85</v>
       </c>
       <c r="Q47">
@@ -3725,44 +3827,44 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="9"/>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="10"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="10"/>
       <c r="K48">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="L48" s="11"/>
       <c r="M48">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="26"/>
       <c r="O48" s="5">
         <f t="shared" si="7"/>
         <v>746</v>
       </c>
-      <c r="P48" s="25"/>
+      <c r="P48" s="26"/>
       <c r="Q48">
         <f t="shared" si="8"/>
         <v>846</v>
@@ -3777,42 +3879,42 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="9"/>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="17"/>
       <c r="E49">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="10"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="10"/>
       <c r="K49">
         <f t="shared" si="5"/>
         <v>547</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="11"/>
       <c r="M49">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="26"/>
       <c r="O49" s="5">
         <f t="shared" si="7"/>
         <v>747</v>
       </c>
-      <c r="P49" s="25"/>
+      <c r="P49" s="26"/>
       <c r="Q49">
         <f t="shared" si="8"/>
         <v>847</v>
@@ -3827,42 +3929,42 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="9"/>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="17"/>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="10"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="10"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
       </c>
-      <c r="J50" s="9"/>
+      <c r="J50" s="10"/>
       <c r="K50">
         <f t="shared" si="5"/>
         <v>548</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="11"/>
       <c r="M50">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
-      <c r="N50" s="25"/>
+      <c r="N50" s="26"/>
       <c r="O50" s="5">
         <f t="shared" si="7"/>
         <v>748</v>
       </c>
-      <c r="P50" s="25"/>
+      <c r="P50" s="26"/>
       <c r="Q50">
         <f t="shared" si="8"/>
         <v>848</v>
@@ -3877,42 +3979,42 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="9"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="17"/>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="10"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
       </c>
-      <c r="J51" s="9"/>
+      <c r="J51" s="10"/>
       <c r="K51">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="L51" s="11"/>
       <c r="M51">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="26"/>
       <c r="O51" s="5">
         <f t="shared" si="7"/>
         <v>749</v>
       </c>
-      <c r="P51" s="25"/>
+      <c r="P51" s="26"/>
       <c r="Q51">
         <f t="shared" si="8"/>
         <v>849</v>
@@ -3927,7 +4029,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="9"/>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -3939,40 +4041,40 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="9" t="s">
         <v>66</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="9" t="s">
         <v>69</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="26"/>
       <c r="O52" s="5">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="P52" s="25"/>
+      <c r="P52" s="26"/>
       <c r="Q52">
         <f t="shared" si="8"/>
         <v>850</v>
@@ -3987,7 +4089,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="9"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
@@ -3999,32 +4101,32 @@
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="10"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>451</v>
       </c>
-      <c r="J53" s="10"/>
+      <c r="J53" s="11"/>
       <c r="K53">
         <f t="shared" si="5"/>
         <v>551</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="L53" s="11"/>
       <c r="M53">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="O53" s="5">
         <f t="shared" si="7"/>
         <v>751</v>
       </c>
-      <c r="P53" s="25"/>
+      <c r="P53" s="26"/>
       <c r="Q53">
         <f t="shared" si="8"/>
         <v>851</v>
@@ -4039,44 +4141,44 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="9"/>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="10"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
-      <c r="J54" s="10"/>
+      <c r="J54" s="11"/>
       <c r="K54">
         <f t="shared" si="5"/>
         <v>552</v>
       </c>
-      <c r="L54" s="10"/>
+      <c r="L54" s="11"/>
       <c r="M54">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="5">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
-      <c r="P54" s="25"/>
+      <c r="P54" s="26"/>
       <c r="Q54">
         <f t="shared" si="8"/>
         <v>852</v>
@@ -4091,42 +4193,42 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="D55" s="33"/>
+      <c r="D55" s="34"/>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="10"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>453</v>
       </c>
-      <c r="J55" s="10"/>
+      <c r="J55" s="11"/>
       <c r="K55">
         <f t="shared" si="5"/>
         <v>553</v>
       </c>
-      <c r="L55" s="10"/>
+      <c r="L55" s="11"/>
       <c r="M55">
         <f t="shared" si="6"/>
         <v>653</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="26"/>
       <c r="O55" s="5">
         <f t="shared" si="7"/>
         <v>753</v>
       </c>
-      <c r="P55" s="25"/>
+      <c r="P55" s="26"/>
       <c r="Q55">
         <f t="shared" si="8"/>
         <v>853</v>
@@ -4141,42 +4243,42 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="9"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="D56" s="33"/>
+      <c r="D56" s="34"/>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="10"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
-      <c r="J56" s="10"/>
+      <c r="J56" s="11"/>
       <c r="K56">
         <f t="shared" si="5"/>
         <v>554</v>
       </c>
-      <c r="L56" s="10"/>
+      <c r="L56" s="11"/>
       <c r="M56">
         <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="N56" s="25"/>
+      <c r="N56" s="26"/>
       <c r="O56" s="5">
         <f t="shared" si="7"/>
         <v>754</v>
       </c>
-      <c r="P56" s="25"/>
+      <c r="P56" s="26"/>
       <c r="Q56">
         <f t="shared" si="8"/>
         <v>854</v>
@@ -4191,42 +4293,42 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="16"/>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="10"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>455</v>
       </c>
-      <c r="J57" s="10"/>
+      <c r="J57" s="11"/>
       <c r="K57">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
-      <c r="L57" s="10"/>
+      <c r="L57" s="11"/>
       <c r="M57">
         <f t="shared" si="6"/>
         <v>655</v>
       </c>
-      <c r="N57" s="25"/>
+      <c r="N57" s="26"/>
       <c r="O57" s="5">
         <f t="shared" si="7"/>
         <v>755</v>
       </c>
-      <c r="P57" s="26"/>
+      <c r="P57" s="27"/>
       <c r="Q57">
         <f t="shared" si="8"/>
         <v>855</v>
@@ -4241,39 +4343,39 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="9"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="10"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="10"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>456</v>
       </c>
-      <c r="J58" s="10"/>
+      <c r="J58" s="11"/>
       <c r="K58">
         <f t="shared" si="5"/>
         <v>556</v>
       </c>
-      <c r="L58" s="10"/>
+      <c r="L58" s="11"/>
       <c r="M58">
         <f t="shared" si="6"/>
         <v>656</v>
       </c>
-      <c r="N58" s="25"/>
+      <c r="N58" s="26"/>
       <c r="O58" s="5">
         <f t="shared" si="7"/>
         <v>756</v>
@@ -4293,37 +4395,37 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="9"/>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="20"/>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="10"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="10"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
-      <c r="J59" s="10"/>
+      <c r="J59" s="11"/>
       <c r="K59">
         <f t="shared" si="5"/>
         <v>557</v>
       </c>
-      <c r="L59" s="10"/>
+      <c r="L59" s="11"/>
       <c r="M59">
         <f t="shared" si="6"/>
         <v>657</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="26"/>
       <c r="O59" s="5">
         <f t="shared" si="7"/>
         <v>757</v>
@@ -4343,37 +4445,37 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="9"/>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="D60" s="19"/>
+      <c r="D60" s="20"/>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="10"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="10"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>458</v>
       </c>
-      <c r="J60" s="10"/>
+      <c r="J60" s="11"/>
       <c r="K60">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
-      <c r="L60" s="10"/>
+      <c r="L60" s="11"/>
       <c r="M60">
         <f t="shared" si="6"/>
         <v>658</v>
       </c>
-      <c r="N60" s="25"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="5">
         <f t="shared" si="7"/>
         <v>758</v>
@@ -4393,37 +4495,37 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="9"/>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="D61" s="20"/>
+      <c r="D61" s="21"/>
       <c r="E61">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="10"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="10"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
-      <c r="J61" s="10"/>
+      <c r="J61" s="11"/>
       <c r="K61">
         <f t="shared" si="5"/>
         <v>559</v>
       </c>
-      <c r="L61" s="10"/>
+      <c r="L61" s="11"/>
       <c r="M61">
         <f t="shared" si="6"/>
         <v>659</v>
       </c>
-      <c r="N61" s="25"/>
+      <c r="N61" s="26"/>
       <c r="O61" s="5">
         <f t="shared" si="7"/>
         <v>759</v>
@@ -4443,39 +4545,39 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="9"/>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="10"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="10"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>460</v>
       </c>
-      <c r="J62" s="10"/>
+      <c r="J62" s="11"/>
       <c r="K62">
         <f t="shared" si="5"/>
         <v>560</v>
       </c>
-      <c r="L62" s="10"/>
+      <c r="L62" s="11"/>
       <c r="M62">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="N62" s="25"/>
+      <c r="N62" s="26"/>
       <c r="O62" s="5">
         <f t="shared" si="7"/>
         <v>760</v>
@@ -4495,37 +4597,37 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="9"/>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="15"/>
       <c r="E63">
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="10"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="H63" s="9"/>
+      <c r="H63" s="10"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>461</v>
       </c>
-      <c r="J63" s="10"/>
+      <c r="J63" s="11"/>
       <c r="K63">
         <f t="shared" si="5"/>
         <v>561</v>
       </c>
-      <c r="L63" s="10"/>
+      <c r="L63" s="11"/>
       <c r="M63">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
-      <c r="N63" s="25"/>
+      <c r="N63" s="26"/>
       <c r="O63" s="5">
         <f t="shared" si="7"/>
         <v>761</v>
@@ -4545,37 +4647,37 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="9"/>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="15"/>
       <c r="E64">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="10"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="10"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>462</v>
       </c>
-      <c r="J64" s="10"/>
+      <c r="J64" s="11"/>
       <c r="K64">
         <f t="shared" si="5"/>
         <v>562</v>
       </c>
-      <c r="L64" s="10"/>
+      <c r="L64" s="11"/>
       <c r="M64">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="N64" s="25"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="5">
         <f t="shared" si="7"/>
         <v>762</v>
@@ -4595,37 +4697,37 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="8"/>
+      <c r="B65" s="9"/>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="16"/>
       <c r="E65">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="10"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="10"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>463</v>
       </c>
-      <c r="J65" s="10"/>
+      <c r="J65" s="11"/>
       <c r="K65">
         <f t="shared" si="5"/>
         <v>563</v>
       </c>
-      <c r="L65" s="10"/>
+      <c r="L65" s="11"/>
       <c r="M65">
         <f t="shared" si="6"/>
         <v>663</v>
       </c>
-      <c r="N65" s="25"/>
+      <c r="N65" s="26"/>
       <c r="O65" s="5">
         <f t="shared" si="7"/>
         <v>763</v>
@@ -4645,7 +4747,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="8"/>
+      <c r="B66" s="9"/>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>164</v>
@@ -4657,27 +4759,27 @@
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="10"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
-      <c r="H66" s="9"/>
+      <c r="H66" s="10"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>464</v>
       </c>
-      <c r="J66" s="10"/>
+      <c r="J66" s="11"/>
       <c r="K66">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="L66" s="10"/>
+      <c r="L66" s="11"/>
       <c r="M66">
         <f t="shared" si="6"/>
         <v>664</v>
       </c>
-      <c r="N66" s="25"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="5">
         <f t="shared" si="7"/>
         <v>764</v>
@@ -4697,7 +4799,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="9"/>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -4709,27 +4811,27 @@
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="10"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
-      <c r="H67" s="9"/>
+      <c r="H67" s="10"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
-      <c r="J67" s="10"/>
+      <c r="J67" s="11"/>
       <c r="K67">
         <f t="shared" si="5"/>
         <v>565</v>
       </c>
-      <c r="L67" s="10"/>
+      <c r="L67" s="11"/>
       <c r="M67">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
-      <c r="N67" s="26"/>
+      <c r="N67" s="27"/>
       <c r="O67" s="5">
         <f t="shared" si="7"/>
         <v>765</v>
@@ -4749,7 +4851,7 @@
         <f t="shared" ref="A68:A101" si="10">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="9"/>
       <c r="C68">
         <f t="shared" ref="C68:C101" si="11">C67+1</f>
         <v>166</v>
@@ -4761,27 +4863,27 @@
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="10"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
       </c>
-      <c r="H68" s="9"/>
+      <c r="H68" s="10"/>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="14">I67+1</f>
         <v>466</v>
       </c>
-      <c r="J68" s="10"/>
+      <c r="J68" s="11"/>
       <c r="K68">
         <f t="shared" ref="K68:K101" si="15">K67+1</f>
         <v>566</v>
       </c>
-      <c r="L68" s="10"/>
+      <c r="L68" s="11"/>
       <c r="M68">
         <f t="shared" ref="M68:M101" si="16">M67+1</f>
         <v>666</v>
       </c>
-      <c r="N68" s="27" t="s">
+      <c r="N68" s="28" t="s">
         <v>81</v>
       </c>
       <c r="O68" s="5">
@@ -4803,7 +4905,7 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="9"/>
       <c r="C69">
         <f t="shared" si="11"/>
         <v>167</v>
@@ -4815,27 +4917,27 @@
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="10"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
-      <c r="H69" s="9"/>
+      <c r="H69" s="10"/>
       <c r="I69">
         <f t="shared" si="14"/>
         <v>467</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="11"/>
       <c r="K69">
         <f t="shared" si="15"/>
         <v>567</v>
       </c>
-      <c r="L69" s="10"/>
+      <c r="L69" s="11"/>
       <c r="M69">
         <f t="shared" si="16"/>
         <v>667</v>
       </c>
-      <c r="N69" s="28"/>
+      <c r="N69" s="29"/>
       <c r="O69" s="5">
         <f t="shared" si="17"/>
         <v>767</v>
@@ -4855,7 +4957,7 @@
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="9"/>
       <c r="C70">
         <f t="shared" si="11"/>
         <v>168</v>
@@ -4867,27 +4969,27 @@
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="10"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
-      <c r="H70" s="9"/>
+      <c r="H70" s="10"/>
       <c r="I70">
         <f t="shared" si="14"/>
         <v>468</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="11"/>
       <c r="K70">
         <f t="shared" si="15"/>
         <v>568</v>
       </c>
-      <c r="L70" s="10"/>
+      <c r="L70" s="11"/>
       <c r="M70">
         <f t="shared" si="16"/>
         <v>668</v>
       </c>
-      <c r="N70" s="28"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="5">
         <f t="shared" si="17"/>
         <v>768</v>
@@ -4907,7 +5009,7 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="9"/>
       <c r="C71">
         <f t="shared" si="11"/>
         <v>169</v>
@@ -4919,27 +5021,27 @@
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="10"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="10"/>
       <c r="I71">
         <f t="shared" si="14"/>
         <v>469</v>
       </c>
-      <c r="J71" s="10"/>
+      <c r="J71" s="11"/>
       <c r="K71">
         <f t="shared" si="15"/>
         <v>569</v>
       </c>
-      <c r="L71" s="10"/>
+      <c r="L71" s="11"/>
       <c r="M71">
         <f t="shared" si="16"/>
         <v>669</v>
       </c>
-      <c r="N71" s="28"/>
+      <c r="N71" s="29"/>
       <c r="O71" s="5">
         <f t="shared" si="17"/>
         <v>769</v>
@@ -4959,7 +5061,7 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
@@ -4971,27 +5073,27 @@
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="10"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="10"/>
       <c r="I72">
         <f t="shared" si="14"/>
         <v>470</v>
       </c>
-      <c r="J72" s="10"/>
+      <c r="J72" s="11"/>
       <c r="K72">
         <f t="shared" si="15"/>
         <v>570</v>
       </c>
-      <c r="L72" s="10"/>
+      <c r="L72" s="11"/>
       <c r="M72">
         <f t="shared" si="16"/>
         <v>670</v>
       </c>
-      <c r="N72" s="28"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="5">
         <f t="shared" si="17"/>
         <v>770</v>
@@ -5011,7 +5113,7 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="8"/>
+      <c r="B73" s="9"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
@@ -5023,27 +5125,27 @@
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="10"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="10"/>
       <c r="I73">
         <f t="shared" si="14"/>
         <v>471</v>
       </c>
-      <c r="J73" s="10"/>
+      <c r="J73" s="11"/>
       <c r="K73">
         <f t="shared" si="15"/>
         <v>571</v>
       </c>
-      <c r="L73" s="10"/>
+      <c r="L73" s="11"/>
       <c r="M73">
         <f t="shared" si="16"/>
         <v>671</v>
       </c>
-      <c r="N73" s="28"/>
+      <c r="N73" s="29"/>
       <c r="O73" s="5">
         <f t="shared" si="17"/>
         <v>771</v>
@@ -5063,7 +5165,7 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="8"/>
+      <c r="B74" s="9"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
@@ -5075,27 +5177,27 @@
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="10"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
-      <c r="H74" s="9"/>
+      <c r="H74" s="10"/>
       <c r="I74">
         <f t="shared" si="14"/>
         <v>472</v>
       </c>
-      <c r="J74" s="10"/>
+      <c r="J74" s="11"/>
       <c r="K74">
         <f t="shared" si="15"/>
         <v>572</v>
       </c>
-      <c r="L74" s="10"/>
+      <c r="L74" s="11"/>
       <c r="M74">
         <f t="shared" si="16"/>
         <v>672</v>
       </c>
-      <c r="N74" s="28"/>
+      <c r="N74" s="29"/>
       <c r="O74" s="5">
         <f t="shared" si="17"/>
         <v>772</v>
@@ -5115,7 +5217,7 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="9"/>
       <c r="C75">
         <f t="shared" si="11"/>
         <v>173</v>
@@ -5127,27 +5229,27 @@
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="10"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
-      <c r="H75" s="9"/>
+      <c r="H75" s="10"/>
       <c r="I75">
         <f t="shared" si="14"/>
         <v>473</v>
       </c>
-      <c r="J75" s="10"/>
+      <c r="J75" s="11"/>
       <c r="K75">
         <f t="shared" si="15"/>
         <v>573</v>
       </c>
-      <c r="L75" s="10"/>
+      <c r="L75" s="11"/>
       <c r="M75">
         <f t="shared" si="16"/>
         <v>673</v>
       </c>
-      <c r="N75" s="28"/>
+      <c r="N75" s="29"/>
       <c r="O75" s="5">
         <f t="shared" si="17"/>
         <v>773</v>
@@ -5167,7 +5269,7 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="9"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
@@ -5179,27 +5281,27 @@
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="9"/>
+      <c r="F76" s="10"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
-      <c r="H76" s="9"/>
+      <c r="H76" s="10"/>
       <c r="I76">
         <f t="shared" si="14"/>
         <v>474</v>
       </c>
-      <c r="J76" s="10"/>
+      <c r="J76" s="11"/>
       <c r="K76">
         <f t="shared" si="15"/>
         <v>574</v>
       </c>
-      <c r="L76" s="10"/>
+      <c r="L76" s="11"/>
       <c r="M76">
         <f t="shared" si="16"/>
         <v>674</v>
       </c>
-      <c r="N76" s="28"/>
+      <c r="N76" s="29"/>
       <c r="O76" s="5">
         <f t="shared" si="17"/>
         <v>774</v>
@@ -5219,7 +5321,7 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="8"/>
+      <c r="B77" s="9"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
@@ -5231,31 +5333,31 @@
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="9" t="s">
         <v>65</v>
       </c>
       <c r="I77">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
-      <c r="J77" s="10"/>
+      <c r="J77" s="11"/>
       <c r="K77">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
-      <c r="L77" s="10"/>
+      <c r="L77" s="11"/>
       <c r="M77">
         <f t="shared" si="16"/>
         <v>675</v>
       </c>
-      <c r="N77" s="28"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="5">
         <f t="shared" si="17"/>
         <v>775</v>
@@ -5275,7 +5377,7 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="8"/>
+      <c r="B78" s="9"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
@@ -5287,27 +5389,27 @@
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="9"/>
+      <c r="F78" s="10"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
-      <c r="H78" s="9"/>
+      <c r="H78" s="10"/>
       <c r="I78">
         <f t="shared" si="14"/>
         <v>476</v>
       </c>
-      <c r="J78" s="10"/>
+      <c r="J78" s="11"/>
       <c r="K78">
         <f t="shared" si="15"/>
         <v>576</v>
       </c>
-      <c r="L78" s="10"/>
+      <c r="L78" s="11"/>
       <c r="M78">
         <f t="shared" si="16"/>
         <v>676</v>
       </c>
-      <c r="N78" s="28"/>
+      <c r="N78" s="29"/>
       <c r="O78" s="5">
         <f t="shared" si="17"/>
         <v>776</v>
@@ -5327,7 +5429,7 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="9"/>
       <c r="C79">
         <f t="shared" si="11"/>
         <v>177</v>
@@ -5339,27 +5441,27 @@
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="9"/>
+      <c r="F79" s="10"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
-      <c r="H79" s="9"/>
+      <c r="H79" s="10"/>
       <c r="I79">
         <f t="shared" si="14"/>
         <v>477</v>
       </c>
-      <c r="J79" s="10"/>
+      <c r="J79" s="11"/>
       <c r="K79">
         <f t="shared" si="15"/>
         <v>577</v>
       </c>
-      <c r="L79" s="10"/>
+      <c r="L79" s="11"/>
       <c r="M79">
         <f t="shared" si="16"/>
         <v>677</v>
       </c>
-      <c r="N79" s="28"/>
+      <c r="N79" s="29"/>
       <c r="O79" s="5">
         <f t="shared" si="17"/>
         <v>777</v>
@@ -5379,7 +5481,7 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="9"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
@@ -5391,27 +5493,27 @@
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="9"/>
+      <c r="F80" s="10"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
-      <c r="H80" s="9"/>
+      <c r="H80" s="10"/>
       <c r="I80">
         <f t="shared" si="14"/>
         <v>478</v>
       </c>
-      <c r="J80" s="10"/>
+      <c r="J80" s="11"/>
       <c r="K80">
         <f t="shared" si="15"/>
         <v>578</v>
       </c>
-      <c r="L80" s="10"/>
+      <c r="L80" s="11"/>
       <c r="M80">
         <f t="shared" si="16"/>
         <v>678</v>
       </c>
-      <c r="N80" s="28"/>
+      <c r="N80" s="29"/>
       <c r="O80" s="5">
         <f t="shared" si="17"/>
         <v>778</v>
@@ -5431,7 +5533,7 @@
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="9"/>
       <c r="C81">
         <f t="shared" si="11"/>
         <v>179</v>
@@ -5443,27 +5545,27 @@
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="9"/>
+      <c r="F81" s="10"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
-      <c r="H81" s="9"/>
+      <c r="H81" s="10"/>
       <c r="I81">
         <f t="shared" si="14"/>
         <v>479</v>
       </c>
-      <c r="J81" s="10"/>
+      <c r="J81" s="11"/>
       <c r="K81">
         <f t="shared" si="15"/>
         <v>579</v>
       </c>
-      <c r="L81" s="10"/>
+      <c r="L81" s="11"/>
       <c r="M81">
         <f t="shared" si="16"/>
         <v>679</v>
       </c>
-      <c r="N81" s="28"/>
+      <c r="N81" s="29"/>
       <c r="O81" s="5">
         <f t="shared" si="17"/>
         <v>779</v>
@@ -5483,7 +5585,7 @@
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="B82" s="8"/>
+      <c r="B82" s="9"/>
       <c r="C82">
         <f t="shared" si="11"/>
         <v>180</v>
@@ -5492,27 +5594,27 @@
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="9"/>
+      <c r="F82" s="10"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="H82" s="9"/>
+      <c r="H82" s="10"/>
       <c r="I82">
         <f t="shared" si="14"/>
         <v>480</v>
       </c>
-      <c r="J82" s="10"/>
+      <c r="J82" s="11"/>
       <c r="K82">
         <f t="shared" si="15"/>
         <v>580</v>
       </c>
-      <c r="L82" s="10"/>
+      <c r="L82" s="11"/>
       <c r="M82">
         <f t="shared" si="16"/>
         <v>680</v>
       </c>
-      <c r="N82" s="28"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="5">
         <f t="shared" si="17"/>
         <v>780</v>
@@ -5532,7 +5634,7 @@
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83">
         <f t="shared" si="11"/>
         <v>181</v>
@@ -5541,27 +5643,27 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="9"/>
+      <c r="F83" s="10"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="10"/>
       <c r="I83">
         <f t="shared" si="14"/>
         <v>481</v>
       </c>
-      <c r="J83" s="10"/>
+      <c r="J83" s="11"/>
       <c r="K83">
         <f t="shared" si="15"/>
         <v>581</v>
       </c>
-      <c r="L83" s="10"/>
+      <c r="L83" s="11"/>
       <c r="M83">
         <f t="shared" si="16"/>
         <v>681</v>
       </c>
-      <c r="N83" s="28"/>
+      <c r="N83" s="29"/>
       <c r="O83" s="5">
         <f t="shared" si="17"/>
         <v>781</v>
@@ -5581,7 +5683,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="8"/>
+      <c r="B84" s="9"/>
       <c r="C84">
         <f t="shared" si="11"/>
         <v>182</v>
@@ -5590,27 +5692,27 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="9"/>
+      <c r="F84" s="10"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
-      <c r="H84" s="9"/>
+      <c r="H84" s="10"/>
       <c r="I84">
         <f t="shared" si="14"/>
         <v>482</v>
       </c>
-      <c r="J84" s="10"/>
+      <c r="J84" s="11"/>
       <c r="K84">
         <f t="shared" si="15"/>
         <v>582</v>
       </c>
-      <c r="L84" s="10"/>
+      <c r="L84" s="11"/>
       <c r="M84">
         <f t="shared" si="16"/>
         <v>682</v>
       </c>
-      <c r="N84" s="28"/>
+      <c r="N84" s="29"/>
       <c r="O84" s="5">
         <f t="shared" si="17"/>
         <v>782</v>
@@ -5630,7 +5732,7 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C85">
@@ -5641,27 +5743,27 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="9"/>
+      <c r="F85" s="10"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
-      <c r="H85" s="9"/>
+      <c r="H85" s="10"/>
       <c r="I85">
         <f t="shared" si="14"/>
         <v>483</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="11"/>
       <c r="K85">
         <f t="shared" si="15"/>
         <v>583</v>
       </c>
-      <c r="L85" s="10"/>
+      <c r="L85" s="11"/>
       <c r="M85">
         <f t="shared" si="16"/>
         <v>683</v>
       </c>
-      <c r="N85" s="28"/>
+      <c r="N85" s="29"/>
       <c r="O85" s="5">
         <f t="shared" si="17"/>
         <v>783</v>
@@ -5681,7 +5783,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="14"/>
+      <c r="B86" s="15"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -5690,27 +5792,27 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="9"/>
+      <c r="F86" s="10"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
-      <c r="H86" s="9"/>
+      <c r="H86" s="10"/>
       <c r="I86">
         <f t="shared" si="14"/>
         <v>484</v>
       </c>
-      <c r="J86" s="10"/>
+      <c r="J86" s="11"/>
       <c r="K86">
         <f t="shared" si="15"/>
         <v>584</v>
       </c>
-      <c r="L86" s="10"/>
+      <c r="L86" s="11"/>
       <c r="M86">
         <f t="shared" si="16"/>
         <v>684</v>
       </c>
-      <c r="N86" s="28"/>
+      <c r="N86" s="29"/>
       <c r="O86" s="5">
         <f t="shared" si="17"/>
         <v>784</v>
@@ -5730,7 +5832,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="14"/>
+      <c r="B87" s="15"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -5739,27 +5841,27 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
-      <c r="H87" s="9"/>
+      <c r="H87" s="10"/>
       <c r="I87">
         <f t="shared" si="14"/>
         <v>485</v>
       </c>
-      <c r="J87" s="10"/>
+      <c r="J87" s="11"/>
       <c r="K87">
         <f t="shared" si="15"/>
         <v>585</v>
       </c>
-      <c r="L87" s="10"/>
+      <c r="L87" s="11"/>
       <c r="M87">
         <f t="shared" si="16"/>
         <v>685</v>
       </c>
-      <c r="N87" s="28"/>
+      <c r="N87" s="29"/>
       <c r="O87" s="5">
         <f t="shared" si="17"/>
         <v>785</v>
@@ -5779,7 +5881,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
       <c r="C88">
         <f t="shared" si="11"/>
         <v>186</v>
@@ -5788,27 +5890,27 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="10"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
-      <c r="H88" s="9"/>
+      <c r="H88" s="10"/>
       <c r="I88">
         <f t="shared" si="14"/>
         <v>486</v>
       </c>
-      <c r="J88" s="10"/>
+      <c r="J88" s="11"/>
       <c r="K88">
         <f t="shared" si="15"/>
         <v>586</v>
       </c>
-      <c r="L88" s="10"/>
+      <c r="L88" s="11"/>
       <c r="M88">
         <f t="shared" si="16"/>
         <v>686</v>
       </c>
-      <c r="N88" s="28"/>
+      <c r="N88" s="29"/>
       <c r="O88" s="5">
         <f t="shared" si="17"/>
         <v>786</v>
@@ -5839,27 +5941,27 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="9"/>
+      <c r="F89" s="10"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
-      <c r="H89" s="9"/>
+      <c r="H89" s="10"/>
       <c r="I89">
         <f t="shared" si="14"/>
         <v>487</v>
       </c>
-      <c r="J89" s="10"/>
+      <c r="J89" s="11"/>
       <c r="K89">
         <f t="shared" si="15"/>
         <v>587</v>
       </c>
-      <c r="L89" s="10"/>
+      <c r="L89" s="11"/>
       <c r="M89">
         <f t="shared" si="16"/>
         <v>687</v>
       </c>
-      <c r="N89" s="28"/>
+      <c r="N89" s="29"/>
       <c r="O89" s="5">
         <f t="shared" si="17"/>
         <v>787</v>
@@ -5890,27 +5992,27 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="9"/>
+      <c r="F90" s="10"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
-      <c r="H90" s="9"/>
+      <c r="H90" s="10"/>
       <c r="I90">
         <f t="shared" si="14"/>
         <v>488</v>
       </c>
-      <c r="J90" s="10"/>
+      <c r="J90" s="11"/>
       <c r="K90">
         <f t="shared" si="15"/>
         <v>588</v>
       </c>
-      <c r="L90" s="10"/>
+      <c r="L90" s="11"/>
       <c r="M90">
         <f t="shared" si="16"/>
         <v>688</v>
       </c>
-      <c r="N90" s="28"/>
+      <c r="N90" s="29"/>
       <c r="O90" s="5">
         <f t="shared" si="17"/>
         <v>788</v>
@@ -5941,27 +6043,27 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="9"/>
+      <c r="F91" s="10"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
-      <c r="H91" s="9"/>
+      <c r="H91" s="10"/>
       <c r="I91">
         <f t="shared" si="14"/>
         <v>489</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="11"/>
       <c r="K91">
         <f t="shared" si="15"/>
         <v>589</v>
       </c>
-      <c r="L91" s="10"/>
+      <c r="L91" s="11"/>
       <c r="M91">
         <f t="shared" si="16"/>
         <v>689</v>
       </c>
-      <c r="N91" s="28"/>
+      <c r="N91" s="29"/>
       <c r="O91" s="5">
         <f t="shared" si="17"/>
         <v>789</v>
@@ -5992,27 +6094,27 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="9"/>
+      <c r="F92" s="10"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
-      <c r="H92" s="9"/>
+      <c r="H92" s="10"/>
       <c r="I92">
         <f t="shared" si="14"/>
         <v>490</v>
       </c>
-      <c r="J92" s="10"/>
+      <c r="J92" s="11"/>
       <c r="K92">
         <f t="shared" si="15"/>
         <v>590</v>
       </c>
-      <c r="L92" s="10"/>
+      <c r="L92" s="11"/>
       <c r="M92">
         <f t="shared" si="16"/>
         <v>690</v>
       </c>
-      <c r="N92" s="29"/>
+      <c r="N92" s="30"/>
       <c r="O92" s="5">
         <f t="shared" si="17"/>
         <v>790</v>
@@ -6032,7 +6134,7 @@
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C93">
@@ -6043,27 +6145,27 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="9"/>
+      <c r="F93" s="10"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
-      <c r="H93" s="9"/>
+      <c r="H93" s="10"/>
       <c r="I93">
         <f t="shared" si="14"/>
         <v>491</v>
       </c>
-      <c r="J93" s="10"/>
+      <c r="J93" s="11"/>
       <c r="K93">
         <f t="shared" si="15"/>
         <v>591</v>
       </c>
-      <c r="L93" s="10"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="7">
         <f t="shared" si="16"/>
         <v>691</v>
       </c>
-      <c r="N93" s="27"/>
+      <c r="N93" s="28"/>
       <c r="O93" s="5">
         <f t="shared" si="17"/>
         <v>791</v>
@@ -6083,7 +6185,7 @@
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="B94" s="12"/>
+      <c r="B94" s="13"/>
       <c r="C94">
         <f t="shared" si="11"/>
         <v>192</v>
@@ -6092,27 +6194,27 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="9"/>
+      <c r="F94" s="10"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
-      <c r="H94" s="9"/>
+      <c r="H94" s="10"/>
       <c r="I94">
         <f t="shared" si="14"/>
         <v>492</v>
       </c>
-      <c r="J94" s="10"/>
+      <c r="J94" s="11"/>
       <c r="K94">
         <f t="shared" si="15"/>
         <v>592</v>
       </c>
-      <c r="L94" s="10"/>
+      <c r="L94" s="11"/>
       <c r="M94" s="7">
         <f t="shared" si="16"/>
         <v>692</v>
       </c>
-      <c r="N94" s="30"/>
+      <c r="N94" s="31"/>
       <c r="O94" s="5">
         <f t="shared" si="17"/>
         <v>792</v>
@@ -6132,7 +6234,7 @@
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C95">
@@ -6143,27 +6245,27 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="9"/>
+      <c r="F95" s="10"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
-      <c r="H95" s="9"/>
+      <c r="H95" s="10"/>
       <c r="I95">
         <f t="shared" si="14"/>
         <v>493</v>
       </c>
-      <c r="J95" s="10"/>
+      <c r="J95" s="11"/>
       <c r="K95">
         <f t="shared" si="15"/>
         <v>593</v>
       </c>
-      <c r="L95" s="10"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="7">
         <f t="shared" si="16"/>
         <v>693</v>
       </c>
-      <c r="N95" s="30"/>
+      <c r="N95" s="31"/>
       <c r="O95" s="5">
         <f t="shared" si="17"/>
         <v>793</v>
@@ -6183,7 +6285,7 @@
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="13"/>
       <c r="C96">
         <f t="shared" si="11"/>
         <v>194</v>
@@ -6192,27 +6294,27 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="9"/>
+      <c r="F96" s="10"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="10"/>
       <c r="I96">
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
-      <c r="J96" s="10"/>
+      <c r="J96" s="11"/>
       <c r="K96">
         <f t="shared" si="15"/>
         <v>594</v>
       </c>
-      <c r="L96" s="10"/>
+      <c r="L96" s="11"/>
       <c r="M96" s="7">
         <f t="shared" si="16"/>
         <v>694</v>
       </c>
-      <c r="N96" s="30"/>
+      <c r="N96" s="31"/>
       <c r="O96" s="5">
         <f t="shared" si="17"/>
         <v>794</v>
@@ -6243,27 +6345,27 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="9"/>
+      <c r="F97" s="10"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
-      <c r="H97" s="9"/>
+      <c r="H97" s="10"/>
       <c r="I97">
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
-      <c r="J97" s="10"/>
+      <c r="J97" s="11"/>
       <c r="K97">
         <f t="shared" si="15"/>
         <v>595</v>
       </c>
-      <c r="L97" s="10"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="7">
         <f t="shared" si="16"/>
         <v>695</v>
       </c>
-      <c r="N97" s="30"/>
+      <c r="N97" s="31"/>
       <c r="O97" s="5">
         <f t="shared" si="17"/>
         <v>795</v>
@@ -6283,7 +6385,7 @@
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C98">
@@ -6294,27 +6396,27 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="9"/>
+      <c r="F98" s="10"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
-      <c r="H98" s="9"/>
+      <c r="H98" s="10"/>
       <c r="I98">
         <f t="shared" si="14"/>
         <v>496</v>
       </c>
-      <c r="J98" s="10"/>
+      <c r="J98" s="11"/>
       <c r="K98">
         <f t="shared" si="15"/>
         <v>596</v>
       </c>
-      <c r="L98" s="10"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="7">
         <f t="shared" si="16"/>
         <v>696</v>
       </c>
-      <c r="N98" s="30"/>
+      <c r="N98" s="31"/>
       <c r="O98" s="5">
         <f t="shared" si="17"/>
         <v>796</v>
@@ -6334,7 +6436,7 @@
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="B99" s="22"/>
+      <c r="B99" s="23"/>
       <c r="C99">
         <f t="shared" si="11"/>
         <v>197</v>
@@ -6343,27 +6445,27 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="9"/>
+      <c r="F99" s="10"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="10"/>
       <c r="I99">
         <f t="shared" si="14"/>
         <v>497</v>
       </c>
-      <c r="J99" s="10"/>
+      <c r="J99" s="11"/>
       <c r="K99">
         <f t="shared" si="15"/>
         <v>597</v>
       </c>
-      <c r="L99" s="10"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="7">
         <f t="shared" si="16"/>
         <v>697</v>
       </c>
-      <c r="N99" s="30"/>
+      <c r="N99" s="31"/>
       <c r="O99" s="5">
         <f t="shared" si="17"/>
         <v>797</v>
@@ -6383,7 +6485,7 @@
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="B100" s="22"/>
+      <c r="B100" s="23"/>
       <c r="C100">
         <f t="shared" si="11"/>
         <v>198</v>
@@ -6392,27 +6494,27 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="9"/>
+      <c r="F100" s="10"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
-      <c r="H100" s="9"/>
+      <c r="H100" s="10"/>
       <c r="I100">
         <f t="shared" si="14"/>
         <v>498</v>
       </c>
-      <c r="J100" s="10"/>
+      <c r="J100" s="11"/>
       <c r="K100">
         <f t="shared" si="15"/>
         <v>598</v>
       </c>
-      <c r="L100" s="10"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="7">
         <f t="shared" si="16"/>
         <v>698</v>
       </c>
-      <c r="N100" s="30"/>
+      <c r="N100" s="31"/>
       <c r="O100" s="5">
         <f t="shared" si="17"/>
         <v>798</v>
@@ -6432,7 +6534,7 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="B101" s="23"/>
+      <c r="B101" s="24"/>
       <c r="C101">
         <f t="shared" si="11"/>
         <v>199</v>
@@ -6441,27 +6543,27 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="9"/>
+      <c r="F101" s="10"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
-      <c r="H101" s="9"/>
+      <c r="H101" s="10"/>
       <c r="I101">
         <f t="shared" si="14"/>
         <v>499</v>
       </c>
-      <c r="J101" s="10"/>
+      <c r="J101" s="11"/>
       <c r="K101">
         <f t="shared" si="15"/>
         <v>599</v>
       </c>
-      <c r="L101" s="10"/>
+      <c r="L101" s="11"/>
       <c r="M101" s="7">
         <f t="shared" si="16"/>
         <v>699</v>
       </c>
-      <c r="N101" s="30"/>
+      <c r="N101" s="31"/>
       <c r="O101" s="5">
         <f t="shared" si="17"/>
         <v>799</v>
@@ -6711,14 +6813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68:O92"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="20" max="20" width="4.140625" customWidth="1"/>
     <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
@@ -6733,49 +6835,49 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G2">
         <v>300</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
       <c r="I2">
         <v>400</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K2">
         <v>500</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>68</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>79</v>
       </c>
       <c r="O2" s="7">
         <v>700</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>82</v>
       </c>
       <c r="Q2">
@@ -6796,42 +6898,42 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3">
         <f>C2+1</f>
         <v>101</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3">
         <f>E2+1</f>
         <v>201</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3">
         <f>G2+1</f>
         <v>301</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3">
         <f>I2+1</f>
         <v>401</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="10"/>
       <c r="K3">
         <f>K2+1</f>
         <v>501</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3">
         <f>M2+1</f>
         <v>601</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="7">
         <f>O2+1</f>
         <v>701</v>
       </c>
-      <c r="P3" s="25"/>
+      <c r="P3" s="26"/>
       <c r="Q3">
         <f>Q2+1</f>
         <v>801</v>
@@ -6852,42 +6954,42 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">C3+1</f>
         <v>102</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="2">E3+1</f>
         <v>202</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="3">G3+1</f>
         <v>302</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="4">I3+1</f>
         <v>402</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="10"/>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="5">K3+1</f>
         <v>502</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="11"/>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">M3+1</f>
         <v>602</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="7">
         <f t="shared" ref="O4:O67" si="7">O3+1</f>
         <v>702</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4">
         <f t="shared" ref="Q4:Q67" si="8">Q3+1</f>
         <v>802</v>
@@ -6908,42 +7010,42 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5">
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5">
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>403</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="10"/>
       <c r="K5">
         <f t="shared" si="5"/>
         <v>503</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="11"/>
       <c r="M5">
         <f t="shared" si="6"/>
         <v>603</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="7">
         <f t="shared" si="7"/>
         <v>703</v>
       </c>
-      <c r="P5" s="25"/>
+      <c r="P5" s="26"/>
       <c r="Q5">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -6964,44 +7066,44 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>404</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6">
         <f t="shared" si="5"/>
         <v>504</v>
       </c>
-      <c r="L6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6">
         <f t="shared" si="6"/>
         <v>604</v>
       </c>
-      <c r="N6" s="25"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="7">
         <f t="shared" si="7"/>
         <v>704</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="26"/>
       <c r="Q6">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -7022,44 +7124,44 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>305</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>405</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="10"/>
       <c r="K7">
         <f t="shared" si="5"/>
         <v>505</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="11"/>
       <c r="M7">
         <f t="shared" si="6"/>
         <v>605</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="7">
         <f t="shared" si="7"/>
         <v>705</v>
       </c>
-      <c r="P7" s="25"/>
+      <c r="P7" s="26"/>
       <c r="Q7">
         <f t="shared" si="8"/>
         <v>805</v>
@@ -7080,42 +7182,42 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8">
         <f t="shared" si="4"/>
         <v>406</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10"/>
       <c r="K8">
         <f t="shared" si="5"/>
         <v>506</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="11"/>
       <c r="M8">
         <f t="shared" si="6"/>
         <v>606</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="7">
         <f t="shared" si="7"/>
         <v>706</v>
       </c>
-      <c r="P8" s="25"/>
+      <c r="P8" s="26"/>
       <c r="Q8">
         <f t="shared" si="8"/>
         <v>806</v>
@@ -7136,42 +7238,42 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="I9">
         <f t="shared" si="4"/>
         <v>407</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
       <c r="K9">
         <f t="shared" si="5"/>
         <v>507</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="11"/>
       <c r="M9">
         <f t="shared" si="6"/>
         <v>607</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="7">
         <f t="shared" si="7"/>
         <v>707</v>
       </c>
-      <c r="P9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9">
         <f t="shared" si="8"/>
         <v>807</v>
@@ -7186,7 +7288,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -7198,32 +7300,32 @@
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10">
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="10"/>
       <c r="K10">
         <f t="shared" si="5"/>
         <v>508</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10">
         <f t="shared" si="6"/>
         <v>608</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="7">
         <f t="shared" si="7"/>
         <v>708</v>
       </c>
-      <c r="P10" s="25"/>
+      <c r="P10" s="26"/>
       <c r="Q10">
         <f t="shared" si="8"/>
         <v>808</v>
@@ -7238,7 +7340,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -7250,32 +7352,32 @@
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11">
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="10"/>
       <c r="K11">
         <f t="shared" si="5"/>
         <v>509</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="11"/>
       <c r="M11">
         <f t="shared" si="6"/>
         <v>609</v>
       </c>
-      <c r="N11" s="25"/>
+      <c r="N11" s="26"/>
       <c r="O11" s="7">
         <f t="shared" si="7"/>
         <v>709</v>
       </c>
-      <c r="P11" s="25"/>
+      <c r="P11" s="26"/>
       <c r="Q11">
         <f t="shared" si="8"/>
         <v>809</v>
@@ -7290,44 +7392,44 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="10"/>
       <c r="I12">
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="11"/>
       <c r="M12">
         <f t="shared" si="6"/>
         <v>610</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="O12" s="7">
         <f t="shared" si="7"/>
         <v>710</v>
       </c>
-      <c r="P12" s="25"/>
+      <c r="P12" s="26"/>
       <c r="Q12">
         <f t="shared" si="8"/>
         <v>810</v>
@@ -7342,42 +7444,42 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="10"/>
       <c r="I13">
         <f t="shared" si="4"/>
         <v>411</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="K13">
         <f t="shared" si="5"/>
         <v>511</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="11"/>
       <c r="M13">
         <f t="shared" si="6"/>
         <v>611</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="26"/>
       <c r="O13" s="7">
         <f t="shared" si="7"/>
         <v>711</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="26"/>
       <c r="Q13">
         <f t="shared" si="8"/>
         <v>811</v>
@@ -7392,42 +7494,42 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14">
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="10"/>
       <c r="I14">
         <f t="shared" si="4"/>
         <v>412</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="10"/>
       <c r="K14">
         <f t="shared" si="5"/>
         <v>512</v>
       </c>
-      <c r="L14" s="10"/>
+      <c r="L14" s="11"/>
       <c r="M14">
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="7">
         <f t="shared" si="7"/>
         <v>712</v>
       </c>
-      <c r="P14" s="25"/>
+      <c r="P14" s="26"/>
       <c r="Q14">
         <f t="shared" si="8"/>
         <v>812</v>
@@ -7442,42 +7544,42 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="E15">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15">
         <f t="shared" si="3"/>
         <v>313</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="10"/>
       <c r="I15">
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15">
         <f t="shared" si="5"/>
         <v>513</v>
       </c>
-      <c r="L15" s="10"/>
+      <c r="L15" s="11"/>
       <c r="M15">
         <f t="shared" si="6"/>
         <v>613</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="7">
         <f t="shared" si="7"/>
         <v>713</v>
       </c>
-      <c r="P15" s="25"/>
+      <c r="P15" s="26"/>
       <c r="Q15">
         <f t="shared" si="8"/>
         <v>813</v>
@@ -7492,44 +7594,44 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16">
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="10"/>
       <c r="I16">
         <f t="shared" si="4"/>
         <v>414</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="10"/>
       <c r="K16">
         <f t="shared" si="5"/>
         <v>514</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="11"/>
       <c r="M16">
         <f t="shared" si="6"/>
         <v>614</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="7">
         <f t="shared" si="7"/>
         <v>714</v>
       </c>
-      <c r="P16" s="25"/>
+      <c r="P16" s="26"/>
       <c r="Q16">
         <f t="shared" si="8"/>
         <v>814</v>
@@ -7544,42 +7646,42 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
       <c r="E17">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17">
         <f t="shared" si="3"/>
         <v>315</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="10"/>
       <c r="I17">
         <f t="shared" si="4"/>
         <v>415</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="10"/>
       <c r="K17">
         <f t="shared" si="5"/>
         <v>515</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="11"/>
       <c r="M17">
         <f t="shared" si="6"/>
         <v>615</v>
       </c>
-      <c r="N17" s="26"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7">
         <f t="shared" si="7"/>
         <v>715</v>
       </c>
-      <c r="P17" s="26"/>
+      <c r="P17" s="27"/>
       <c r="Q17">
         <f t="shared" si="8"/>
         <v>815</v>
@@ -7594,44 +7696,44 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18">
         <f t="shared" si="3"/>
         <v>316</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="10"/>
       <c r="I18">
         <f t="shared" si="4"/>
         <v>416</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="10"/>
       <c r="K18">
         <f t="shared" si="5"/>
         <v>516</v>
       </c>
-      <c r="L18" s="10"/>
+      <c r="L18" s="11"/>
       <c r="M18">
         <f t="shared" si="6"/>
         <v>616</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="25" t="s">
         <v>80</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="7"/>
         <v>716</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="25" t="s">
         <v>86</v>
       </c>
       <c r="Q18">
@@ -7648,42 +7750,42 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="10"/>
       <c r="I19">
         <f t="shared" si="4"/>
         <v>417</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="K19">
         <f t="shared" si="5"/>
         <v>517</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="11"/>
       <c r="M19">
         <f t="shared" si="6"/>
         <v>617</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="5">
         <f t="shared" si="7"/>
         <v>717</v>
       </c>
-      <c r="P19" s="25"/>
+      <c r="P19" s="26"/>
       <c r="Q19">
         <f t="shared" si="8"/>
         <v>817</v>
@@ -7698,44 +7800,44 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20">
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="10"/>
       <c r="I20">
         <f t="shared" si="4"/>
         <v>418</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="10"/>
       <c r="K20">
         <f t="shared" si="5"/>
         <v>518</v>
       </c>
-      <c r="L20" s="10"/>
+      <c r="L20" s="11"/>
       <c r="M20">
         <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="26"/>
       <c r="O20" s="5">
         <f t="shared" si="7"/>
         <v>718</v>
       </c>
-      <c r="P20" s="25"/>
+      <c r="P20" s="26"/>
       <c r="Q20">
         <f t="shared" si="8"/>
         <v>818</v>
@@ -7750,42 +7852,42 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="E21">
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="10"/>
       <c r="I21">
         <f t="shared" si="4"/>
         <v>419</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="10"/>
       <c r="K21">
         <f t="shared" si="5"/>
         <v>519</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="11"/>
       <c r="M21">
         <f t="shared" si="6"/>
         <v>619</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="26"/>
       <c r="O21" s="5">
         <f t="shared" si="7"/>
         <v>719</v>
       </c>
-      <c r="P21" s="25"/>
+      <c r="P21" s="26"/>
       <c r="Q21">
         <f t="shared" si="8"/>
         <v>819</v>
@@ -7800,42 +7902,42 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="15"/>
       <c r="E22">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="10"/>
       <c r="I22">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="10"/>
       <c r="K22">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="11"/>
       <c r="M22">
         <f t="shared" si="6"/>
         <v>620</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="26"/>
       <c r="O22" s="5">
         <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="P22" s="25"/>
+      <c r="P22" s="26"/>
       <c r="Q22">
         <f t="shared" si="8"/>
         <v>820</v>
@@ -7850,42 +7952,42 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="16"/>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23">
         <f t="shared" si="3"/>
         <v>321</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="10"/>
       <c r="I23">
         <f t="shared" si="4"/>
         <v>421</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="10"/>
       <c r="K23">
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="11"/>
       <c r="M23">
         <f t="shared" si="6"/>
         <v>621</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="5">
         <f t="shared" si="7"/>
         <v>721</v>
       </c>
-      <c r="P23" s="25"/>
+      <c r="P23" s="26"/>
       <c r="Q23">
         <f t="shared" si="8"/>
         <v>821</v>
@@ -7900,7 +8002,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7912,32 +8014,32 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24">
         <f t="shared" si="3"/>
         <v>322</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="10"/>
       <c r="I24">
         <f t="shared" si="4"/>
         <v>422</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="10"/>
       <c r="K24">
         <f t="shared" si="5"/>
         <v>522</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="11"/>
       <c r="M24">
         <f t="shared" si="6"/>
         <v>622</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="26"/>
       <c r="O24" s="5">
         <f t="shared" si="7"/>
         <v>722</v>
       </c>
-      <c r="P24" s="25"/>
+      <c r="P24" s="26"/>
       <c r="Q24">
         <f t="shared" si="8"/>
         <v>822</v>
@@ -7952,7 +8054,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7964,32 +8066,32 @@
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25">
         <f t="shared" si="4"/>
         <v>423</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="10"/>
       <c r="K25">
         <f t="shared" si="5"/>
         <v>523</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="11"/>
       <c r="M25">
         <f t="shared" si="6"/>
         <v>623</v>
       </c>
-      <c r="N25" s="25"/>
+      <c r="N25" s="26"/>
       <c r="O25" s="5">
         <f t="shared" si="7"/>
         <v>723</v>
       </c>
-      <c r="P25" s="25"/>
+      <c r="P25" s="26"/>
       <c r="Q25">
         <f t="shared" si="8"/>
         <v>823</v>
@@ -8004,7 +8106,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -8016,32 +8118,32 @@
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26">
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26">
         <f t="shared" si="4"/>
         <v>424</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="10"/>
       <c r="K26">
         <f t="shared" si="5"/>
         <v>524</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="11"/>
       <c r="M26">
         <f t="shared" si="6"/>
         <v>624</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="5">
         <f t="shared" si="7"/>
         <v>724</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="26"/>
       <c r="Q26">
         <f t="shared" si="8"/>
         <v>824</v>
@@ -8056,7 +8158,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -8068,38 +8170,38 @@
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
         <v>325</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
         <v>425</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>71</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
         <v>525</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="11"/>
       <c r="M27">
         <f t="shared" si="6"/>
         <v>625</v>
       </c>
-      <c r="N27" s="25"/>
+      <c r="N27" s="26"/>
       <c r="O27" s="5">
         <f t="shared" si="7"/>
         <v>725</v>
       </c>
-      <c r="P27" s="25"/>
+      <c r="P27" s="26"/>
       <c r="Q27">
         <f t="shared" si="8"/>
         <v>825</v>
@@ -8114,7 +8216,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -8126,32 +8228,32 @@
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="10"/>
       <c r="I28">
         <f t="shared" si="4"/>
         <v>426</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="10"/>
       <c r="K28">
         <f t="shared" si="5"/>
         <v>526</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="11"/>
       <c r="M28">
         <f t="shared" si="6"/>
         <v>626</v>
       </c>
-      <c r="N28" s="25"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="5">
         <f t="shared" si="7"/>
         <v>726</v>
       </c>
-      <c r="P28" s="25"/>
+      <c r="P28" s="26"/>
       <c r="Q28">
         <f t="shared" si="8"/>
         <v>826</v>
@@ -8166,7 +8268,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -8178,32 +8280,32 @@
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29">
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="10"/>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>427</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="10"/>
       <c r="K29">
         <f t="shared" si="5"/>
         <v>527</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="11"/>
       <c r="M29">
         <f t="shared" si="6"/>
         <v>627</v>
       </c>
-      <c r="N29" s="25"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="5">
         <f t="shared" si="7"/>
         <v>727</v>
       </c>
-      <c r="P29" s="25"/>
+      <c r="P29" s="26"/>
       <c r="Q29">
         <f t="shared" si="8"/>
         <v>827</v>
@@ -8218,7 +8320,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -8230,32 +8332,32 @@
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="10"/>
       <c r="K30">
         <f t="shared" si="5"/>
         <v>528</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
       <c r="M30">
         <f t="shared" si="6"/>
         <v>628</v>
       </c>
-      <c r="N30" s="25"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="5">
         <f t="shared" si="7"/>
         <v>728</v>
       </c>
-      <c r="P30" s="25"/>
+      <c r="P30" s="26"/>
       <c r="Q30">
         <f t="shared" si="8"/>
         <v>828</v>
@@ -8270,7 +8372,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -8282,32 +8384,32 @@
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="10"/>
       <c r="K31">
         <f t="shared" si="5"/>
         <v>529</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
       <c r="M31">
         <f t="shared" si="6"/>
         <v>629</v>
       </c>
-      <c r="N31" s="25"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="5">
         <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="P31" s="25"/>
+      <c r="P31" s="26"/>
       <c r="Q31">
         <f t="shared" si="8"/>
         <v>829</v>
@@ -8322,7 +8424,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -8334,32 +8436,32 @@
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="10"/>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="10"/>
       <c r="K32">
         <f t="shared" si="5"/>
         <v>530</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="11"/>
       <c r="M32">
         <f t="shared" si="6"/>
         <v>630</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="5">
         <f t="shared" si="7"/>
         <v>730</v>
       </c>
-      <c r="P32" s="25"/>
+      <c r="P32" s="26"/>
       <c r="Q32">
         <f t="shared" si="8"/>
         <v>830</v>
@@ -8374,7 +8476,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -8386,32 +8488,32 @@
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33">
         <f t="shared" si="3"/>
         <v>331</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="10"/>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>431</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="10"/>
       <c r="K33">
         <f t="shared" si="5"/>
         <v>531</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="11"/>
       <c r="M33">
         <f t="shared" si="6"/>
         <v>631</v>
       </c>
-      <c r="N33" s="25"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="5">
         <f t="shared" si="7"/>
         <v>731</v>
       </c>
-      <c r="P33" s="36"/>
+      <c r="P33" s="37"/>
       <c r="Q33">
         <f t="shared" si="8"/>
         <v>831</v>
@@ -8426,7 +8528,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -8438,32 +8540,32 @@
         <f t="shared" si="2"/>
         <v>232</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="10"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>432</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="10"/>
       <c r="K34">
         <f t="shared" si="5"/>
         <v>532</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="11"/>
       <c r="M34">
         <f t="shared" si="6"/>
         <v>632</v>
       </c>
-      <c r="N34" s="25"/>
+      <c r="N34" s="26"/>
       <c r="O34" s="5">
         <f t="shared" si="7"/>
         <v>732</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="38" t="s">
         <v>83</v>
       </c>
       <c r="Q34">
@@ -8480,7 +8582,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -8492,32 +8594,32 @@
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
       <c r="G35">
         <f t="shared" si="3"/>
         <v>333</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="10"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>433</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="10"/>
       <c r="K35">
         <f t="shared" si="5"/>
         <v>533</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="11"/>
       <c r="M35">
         <f t="shared" si="6"/>
         <v>633</v>
       </c>
-      <c r="N35" s="25"/>
+      <c r="N35" s="26"/>
       <c r="O35" s="5">
         <f t="shared" si="7"/>
         <v>733</v>
       </c>
-      <c r="P35" s="38"/>
+      <c r="P35" s="39"/>
       <c r="Q35">
         <f t="shared" si="8"/>
         <v>833</v>
@@ -8532,7 +8634,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -8544,32 +8646,32 @@
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36">
         <f t="shared" si="3"/>
         <v>334</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="10"/>
       <c r="I36">
         <f t="shared" si="4"/>
         <v>434</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="10"/>
       <c r="K36">
         <f t="shared" si="5"/>
         <v>534</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="11"/>
       <c r="M36">
         <f t="shared" si="6"/>
         <v>634</v>
       </c>
-      <c r="N36" s="25"/>
+      <c r="N36" s="26"/>
       <c r="O36" s="5">
         <f t="shared" si="7"/>
         <v>734</v>
       </c>
-      <c r="P36" s="24" t="s">
+      <c r="P36" s="25" t="s">
         <v>84</v>
       </c>
       <c r="Q36">
@@ -8586,7 +8688,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>135</v>
@@ -8598,32 +8700,32 @@
         <f t="shared" si="2"/>
         <v>235</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37">
         <f t="shared" si="3"/>
         <v>335</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="10"/>
       <c r="I37">
         <f t="shared" si="4"/>
         <v>435</v>
       </c>
-      <c r="J37" s="9"/>
+      <c r="J37" s="10"/>
       <c r="K37">
         <f t="shared" si="5"/>
         <v>535</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="11"/>
       <c r="M37">
         <f t="shared" si="6"/>
         <v>635</v>
       </c>
-      <c r="N37" s="25"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="5">
         <f t="shared" si="7"/>
         <v>735</v>
       </c>
-      <c r="P37" s="25"/>
+      <c r="P37" s="26"/>
       <c r="Q37">
         <f t="shared" si="8"/>
         <v>835</v>
@@ -8638,7 +8740,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -8650,32 +8752,32 @@
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38">
         <f t="shared" si="4"/>
         <v>436</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="10"/>
       <c r="K38">
         <f t="shared" si="5"/>
         <v>536</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="11"/>
       <c r="M38">
         <f t="shared" si="6"/>
         <v>636</v>
       </c>
-      <c r="N38" s="25"/>
+      <c r="N38" s="26"/>
       <c r="O38" s="5">
         <f t="shared" si="7"/>
         <v>736</v>
       </c>
-      <c r="P38" s="25"/>
+      <c r="P38" s="26"/>
       <c r="Q38">
         <f t="shared" si="8"/>
         <v>836</v>
@@ -8690,7 +8792,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -8702,32 +8804,32 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39">
         <f t="shared" si="4"/>
         <v>437</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="J39" s="10"/>
       <c r="K39">
         <f t="shared" si="5"/>
         <v>537</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="11"/>
       <c r="M39">
         <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="N39" s="25"/>
+      <c r="N39" s="26"/>
       <c r="O39" s="5">
         <f t="shared" si="7"/>
         <v>737</v>
       </c>
-      <c r="P39" s="25"/>
+      <c r="P39" s="26"/>
       <c r="Q39">
         <f t="shared" si="8"/>
         <v>837</v>
@@ -8742,44 +8844,44 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>90</v>
+      <c r="D40" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40">
         <f t="shared" si="3"/>
         <v>338</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="10"/>
       <c r="I40">
         <f t="shared" si="4"/>
         <v>438</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="10"/>
       <c r="K40">
         <f t="shared" si="5"/>
         <v>538</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="11"/>
       <c r="M40">
         <f t="shared" si="6"/>
         <v>638</v>
       </c>
-      <c r="N40" s="25"/>
+      <c r="N40" s="26"/>
       <c r="O40" s="5">
         <f t="shared" si="7"/>
         <v>738</v>
       </c>
-      <c r="P40" s="25"/>
+      <c r="P40" s="26"/>
       <c r="Q40">
         <f t="shared" si="8"/>
         <v>838</v>
@@ -8794,42 +8896,42 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="41"/>
       <c r="E41">
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="10"/>
       <c r="I41">
         <f t="shared" si="4"/>
         <v>439</v>
       </c>
-      <c r="J41" s="9"/>
+      <c r="J41" s="10"/>
       <c r="K41">
         <f t="shared" si="5"/>
         <v>539</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="11"/>
       <c r="M41">
         <f t="shared" si="6"/>
         <v>639</v>
       </c>
-      <c r="N41" s="25"/>
+      <c r="N41" s="26"/>
       <c r="O41" s="5">
         <f t="shared" si="7"/>
         <v>739</v>
       </c>
-      <c r="P41" s="25"/>
+      <c r="P41" s="26"/>
       <c r="Q41">
         <f t="shared" si="8"/>
         <v>839</v>
@@ -8844,42 +8946,42 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="41"/>
       <c r="E42">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="10"/>
       <c r="I42">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="10"/>
       <c r="K42">
         <f t="shared" si="5"/>
         <v>540</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="11"/>
       <c r="M42">
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="N42" s="25"/>
+      <c r="N42" s="26"/>
       <c r="O42" s="5">
         <f t="shared" si="7"/>
         <v>740</v>
       </c>
-      <c r="P42" s="25"/>
+      <c r="P42" s="26"/>
       <c r="Q42">
         <f t="shared" si="8"/>
         <v>840</v>
@@ -8894,42 +8996,42 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D43" s="23"/>
+      <c r="D43" s="42"/>
       <c r="E43">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43">
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="H43" s="9"/>
+      <c r="H43" s="10"/>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>441</v>
       </c>
-      <c r="J43" s="9"/>
+      <c r="J43" s="10"/>
       <c r="K43">
         <f t="shared" si="5"/>
         <v>541</v>
       </c>
-      <c r="L43" s="10"/>
+      <c r="L43" s="11"/>
       <c r="M43">
         <f t="shared" si="6"/>
         <v>641</v>
       </c>
-      <c r="N43" s="25"/>
+      <c r="N43" s="26"/>
       <c r="O43" s="5">
         <f t="shared" si="7"/>
         <v>741</v>
       </c>
-      <c r="P43" s="25"/>
+      <c r="P43" s="26"/>
       <c r="Q43">
         <f t="shared" si="8"/>
         <v>841</v>
@@ -8944,41 +9046,44 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
+      <c r="D44" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="E44">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="10"/>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>442</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="10"/>
       <c r="K44">
         <f t="shared" si="5"/>
         <v>542</v>
       </c>
-      <c r="L44" s="10"/>
+      <c r="L44" s="11"/>
       <c r="M44">
         <f t="shared" si="6"/>
         <v>642</v>
       </c>
-      <c r="N44" s="25"/>
+      <c r="N44" s="26"/>
       <c r="O44" s="5">
         <f t="shared" si="7"/>
         <v>742</v>
       </c>
-      <c r="P44" s="25"/>
+      <c r="P44" s="26"/>
       <c r="Q44">
         <f t="shared" si="8"/>
         <v>842</v>
@@ -8993,41 +9098,42 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
+      <c r="D45" s="41"/>
       <c r="E45">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="10"/>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>443</v>
       </c>
-      <c r="J45" s="9"/>
+      <c r="J45" s="10"/>
       <c r="K45">
         <f t="shared" si="5"/>
         <v>543</v>
       </c>
-      <c r="L45" s="10"/>
+      <c r="L45" s="11"/>
       <c r="M45">
         <f t="shared" si="6"/>
         <v>643</v>
       </c>
-      <c r="N45" s="25"/>
+      <c r="N45" s="26"/>
       <c r="O45" s="5">
         <f t="shared" si="7"/>
         <v>743</v>
       </c>
-      <c r="P45" s="25"/>
+      <c r="P45" s="26"/>
       <c r="Q45">
         <f t="shared" si="8"/>
         <v>843</v>
@@ -9049,36 +9155,37 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
+      <c r="D46" s="41"/>
       <c r="E46">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="10"/>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>444</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="10"/>
       <c r="K46">
         <f t="shared" si="5"/>
         <v>544</v>
       </c>
-      <c r="L46" s="10"/>
+      <c r="L46" s="11"/>
       <c r="M46">
         <f t="shared" si="6"/>
         <v>644</v>
       </c>
-      <c r="N46" s="25"/>
+      <c r="N46" s="26"/>
       <c r="O46" s="5">
         <f t="shared" si="7"/>
         <v>744</v>
       </c>
-      <c r="P46" s="26"/>
+      <c r="P46" s="27"/>
       <c r="Q46">
         <f t="shared" si="8"/>
         <v>844</v>
@@ -9100,36 +9207,37 @@
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
+      <c r="D47" s="42"/>
       <c r="E47">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="G47">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="10"/>
       <c r="I47">
         <f t="shared" si="4"/>
         <v>445</v>
       </c>
-      <c r="J47" s="9"/>
+      <c r="J47" s="10"/>
       <c r="K47">
         <f t="shared" si="5"/>
         <v>545</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="11"/>
       <c r="M47">
         <f t="shared" si="6"/>
         <v>645</v>
       </c>
-      <c r="N47" s="25"/>
+      <c r="N47" s="26"/>
       <c r="O47" s="5">
         <f t="shared" si="7"/>
         <v>745</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="P47" s="25" t="s">
         <v>85</v>
       </c>
       <c r="Q47">
@@ -9141,7 +9249,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" ht="15" customHeight="1">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -9153,36 +9261,39 @@
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="E48">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48">
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="10"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>446</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="10"/>
       <c r="K48">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
-      <c r="L48" s="10"/>
+      <c r="L48" s="11"/>
       <c r="M48">
         <f t="shared" si="6"/>
         <v>646</v>
       </c>
-      <c r="N48" s="25"/>
+      <c r="N48" s="26"/>
       <c r="O48" s="5">
         <f t="shared" si="7"/>
         <v>746</v>
       </c>
-      <c r="P48" s="25"/>
+      <c r="P48" s="26"/>
       <c r="Q48">
         <f t="shared" si="8"/>
         <v>846</v>
@@ -9204,36 +9315,39 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E49">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="G49">
         <f t="shared" si="3"/>
         <v>347</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="10"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>447</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="10"/>
       <c r="K49">
         <f t="shared" si="5"/>
         <v>547</v>
       </c>
-      <c r="L49" s="10"/>
+      <c r="L49" s="11"/>
       <c r="M49">
         <f t="shared" si="6"/>
         <v>647</v>
       </c>
-      <c r="N49" s="25"/>
+      <c r="N49" s="26"/>
       <c r="O49" s="5">
         <f t="shared" si="7"/>
         <v>747</v>
       </c>
-      <c r="P49" s="25"/>
+      <c r="P49" s="26"/>
       <c r="Q49">
         <f t="shared" si="8"/>
         <v>847</v>
@@ -9248,43 +9362,46 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
+      <c r="D50" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E50">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="10"/>
       <c r="G50">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="10"/>
       <c r="I50">
         <f t="shared" si="4"/>
         <v>448</v>
       </c>
-      <c r="J50" s="9"/>
+      <c r="J50" s="10"/>
       <c r="K50">
         <f t="shared" si="5"/>
         <v>548</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="11"/>
       <c r="M50">
         <f t="shared" si="6"/>
         <v>648</v>
       </c>
-      <c r="N50" s="25"/>
+      <c r="N50" s="26"/>
       <c r="O50" s="5">
         <f t="shared" si="7"/>
         <v>748</v>
       </c>
-      <c r="P50" s="25"/>
+      <c r="P50" s="26"/>
       <c r="Q50">
         <f t="shared" si="8"/>
         <v>848</v>
@@ -9299,41 +9416,44 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
+      <c r="D51" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="E51">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="10"/>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>449</v>
       </c>
-      <c r="J51" s="9"/>
+      <c r="J51" s="10"/>
       <c r="K51">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-      <c r="L51" s="10"/>
+      <c r="L51" s="11"/>
       <c r="M51">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="N51" s="25"/>
+      <c r="N51" s="26"/>
       <c r="O51" s="5">
         <f t="shared" si="7"/>
         <v>749</v>
       </c>
-      <c r="P51" s="25"/>
+      <c r="P51" s="26"/>
       <c r="Q51">
         <f t="shared" si="8"/>
         <v>849</v>
@@ -9343,56 +9463,57 @@
         <v>949</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" ht="15" customHeight="1">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
+      <c r="D52" s="44"/>
       <c r="E52">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="9" t="s">
         <v>66</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
         <v>550</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="9" t="s">
         <v>69</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
         <v>650</v>
       </c>
-      <c r="N52" s="25"/>
+      <c r="N52" s="26"/>
       <c r="O52" s="5">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
-      <c r="P52" s="25"/>
+      <c r="P52" s="26"/>
       <c r="Q52">
         <f t="shared" si="8"/>
         <v>850</v>
@@ -9407,41 +9528,42 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="13"/>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
+      <c r="D53" s="44"/>
       <c r="E53">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="H53" s="9"/>
+      <c r="H53" s="10"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>451</v>
       </c>
-      <c r="J53" s="10"/>
+      <c r="J53" s="11"/>
       <c r="K53">
         <f t="shared" si="5"/>
         <v>551</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="L53" s="11"/>
       <c r="M53">
         <f t="shared" si="6"/>
         <v>651</v>
       </c>
-      <c r="N53" s="25"/>
+      <c r="N53" s="26"/>
       <c r="O53" s="5">
         <f t="shared" si="7"/>
         <v>751</v>
       </c>
-      <c r="P53" s="25"/>
+      <c r="P53" s="26"/>
       <c r="Q53">
         <f t="shared" si="8"/>
         <v>851</v>
@@ -9463,36 +9585,37 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
+      <c r="D54" s="45"/>
       <c r="E54">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54">
         <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="H54" s="9"/>
+      <c r="H54" s="10"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
-      <c r="J54" s="10"/>
+      <c r="J54" s="11"/>
       <c r="K54">
         <f t="shared" si="5"/>
         <v>552</v>
       </c>
-      <c r="L54" s="10"/>
+      <c r="L54" s="11"/>
       <c r="M54">
         <f t="shared" si="6"/>
         <v>652</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="5">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
-      <c r="P54" s="25"/>
+      <c r="P54" s="26"/>
       <c r="Q54">
         <f t="shared" si="8"/>
         <v>852</v>
@@ -9507,43 +9630,44 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="B55" s="46"/>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
+      <c r="D55" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="E55">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="H55" s="9"/>
+      <c r="H55" s="10"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>453</v>
       </c>
-      <c r="J55" s="10"/>
+      <c r="J55" s="11"/>
       <c r="K55">
         <f t="shared" si="5"/>
         <v>553</v>
       </c>
-      <c r="L55" s="10"/>
+      <c r="L55" s="11"/>
       <c r="M55">
         <f t="shared" si="6"/>
         <v>653</v>
       </c>
-      <c r="N55" s="25"/>
+      <c r="N55" s="26"/>
       <c r="O55" s="5">
         <f t="shared" si="7"/>
         <v>753</v>
       </c>
-      <c r="P55" s="25"/>
+      <c r="P55" s="26"/>
       <c r="Q55">
         <f t="shared" si="8"/>
         <v>853</v>
@@ -9558,41 +9682,42 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="46"/>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
+      <c r="D56" s="44"/>
       <c r="E56">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="10"/>
       <c r="G56">
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
-      <c r="H56" s="9"/>
+      <c r="H56" s="10"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>454</v>
       </c>
-      <c r="J56" s="10"/>
+      <c r="J56" s="11"/>
       <c r="K56">
         <f t="shared" si="5"/>
         <v>554</v>
       </c>
-      <c r="L56" s="10"/>
+      <c r="L56" s="11"/>
       <c r="M56">
         <f t="shared" si="6"/>
         <v>654</v>
       </c>
-      <c r="N56" s="25"/>
+      <c r="N56" s="26"/>
       <c r="O56" s="5">
         <f t="shared" si="7"/>
         <v>754</v>
       </c>
-      <c r="P56" s="25"/>
+      <c r="P56" s="26"/>
       <c r="Q56">
         <f t="shared" si="8"/>
         <v>854</v>
@@ -9607,41 +9732,42 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="46"/>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
+      <c r="D57" s="44"/>
       <c r="E57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="10"/>
       <c r="G57">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="H57" s="9"/>
+      <c r="H57" s="10"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>455</v>
       </c>
-      <c r="J57" s="10"/>
+      <c r="J57" s="11"/>
       <c r="K57">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
-      <c r="L57" s="10"/>
+      <c r="L57" s="11"/>
       <c r="M57">
         <f t="shared" si="6"/>
         <v>655</v>
       </c>
-      <c r="N57" s="25"/>
+      <c r="N57" s="26"/>
       <c r="O57" s="5">
         <f t="shared" si="7"/>
         <v>755</v>
       </c>
-      <c r="P57" s="26"/>
+      <c r="P57" s="27"/>
       <c r="Q57">
         <f t="shared" si="8"/>
         <v>855</v>
@@ -9656,36 +9782,37 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="46"/>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
+      <c r="D58" s="45"/>
       <c r="E58">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="10"/>
       <c r="G58">
         <f t="shared" si="3"/>
         <v>356</v>
       </c>
-      <c r="H58" s="9"/>
+      <c r="H58" s="10"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>456</v>
       </c>
-      <c r="J58" s="10"/>
+      <c r="J58" s="11"/>
       <c r="K58">
         <f t="shared" si="5"/>
         <v>556</v>
       </c>
-      <c r="L58" s="10"/>
+      <c r="L58" s="11"/>
       <c r="M58">
         <f t="shared" si="6"/>
         <v>656</v>
       </c>
-      <c r="N58" s="25"/>
+      <c r="N58" s="26"/>
       <c r="O58" s="5">
         <f t="shared" si="7"/>
         <v>756</v>
@@ -9712,31 +9839,34 @@
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E59">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="10"/>
       <c r="G59">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
-      <c r="H59" s="9"/>
+      <c r="H59" s="10"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>457</v>
       </c>
-      <c r="J59" s="10"/>
+      <c r="J59" s="11"/>
       <c r="K59">
         <f t="shared" si="5"/>
         <v>557</v>
       </c>
-      <c r="L59" s="10"/>
+      <c r="L59" s="11"/>
       <c r="M59">
         <f t="shared" si="6"/>
         <v>657</v>
       </c>
-      <c r="N59" s="25"/>
+      <c r="N59" s="26"/>
       <c r="O59" s="5">
         <f t="shared" si="7"/>
         <v>757</v>
@@ -9763,31 +9893,34 @@
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E60">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="10"/>
       <c r="G60">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
-      <c r="H60" s="9"/>
+      <c r="H60" s="10"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>458</v>
       </c>
-      <c r="J60" s="10"/>
+      <c r="J60" s="11"/>
       <c r="K60">
         <f t="shared" si="5"/>
         <v>558</v>
       </c>
-      <c r="L60" s="10"/>
+      <c r="L60" s="11"/>
       <c r="M60">
         <f t="shared" si="6"/>
         <v>658</v>
       </c>
-      <c r="N60" s="25"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="5">
         <f t="shared" si="7"/>
         <v>758</v>
@@ -9814,31 +9947,34 @@
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E61">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="10"/>
       <c r="G61">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="10"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
-      <c r="J61" s="10"/>
+      <c r="J61" s="11"/>
       <c r="K61">
         <f t="shared" si="5"/>
         <v>559</v>
       </c>
-      <c r="L61" s="10"/>
+      <c r="L61" s="11"/>
       <c r="M61">
         <f t="shared" si="6"/>
         <v>659</v>
       </c>
-      <c r="N61" s="25"/>
+      <c r="N61" s="26"/>
       <c r="O61" s="5">
         <f t="shared" si="7"/>
         <v>759</v>
@@ -9869,27 +10005,27 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="10"/>
       <c r="G62">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="H62" s="9"/>
+      <c r="H62" s="10"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>460</v>
       </c>
-      <c r="J62" s="10"/>
+      <c r="J62" s="11"/>
       <c r="K62">
         <f t="shared" si="5"/>
         <v>560</v>
       </c>
-      <c r="L62" s="10"/>
+      <c r="L62" s="11"/>
       <c r="M62">
         <f t="shared" si="6"/>
         <v>660</v>
       </c>
-      <c r="N62" s="25"/>
+      <c r="N62" s="26"/>
       <c r="O62" s="5">
         <f t="shared" si="7"/>
         <v>760</v>
@@ -9920,27 +10056,27 @@
         <f t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="10"/>
       <c r="G63">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="H63" s="9"/>
+      <c r="H63" s="10"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>461</v>
       </c>
-      <c r="J63" s="10"/>
+      <c r="J63" s="11"/>
       <c r="K63">
         <f t="shared" si="5"/>
         <v>561</v>
       </c>
-      <c r="L63" s="10"/>
+      <c r="L63" s="11"/>
       <c r="M63">
         <f t="shared" si="6"/>
         <v>661</v>
       </c>
-      <c r="N63" s="25"/>
+      <c r="N63" s="26"/>
       <c r="O63" s="5">
         <f t="shared" si="7"/>
         <v>761</v>
@@ -9971,27 +10107,27 @@
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="10"/>
       <c r="G64">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="10"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>462</v>
       </c>
-      <c r="J64" s="10"/>
+      <c r="J64" s="11"/>
       <c r="K64">
         <f t="shared" si="5"/>
         <v>562</v>
       </c>
-      <c r="L64" s="10"/>
+      <c r="L64" s="11"/>
       <c r="M64">
         <f t="shared" si="6"/>
         <v>662</v>
       </c>
-      <c r="N64" s="25"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="5">
         <f t="shared" si="7"/>
         <v>762</v>
@@ -10022,27 +10158,27 @@
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="10"/>
       <c r="G65">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
-      <c r="H65" s="9"/>
+      <c r="H65" s="10"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>463</v>
       </c>
-      <c r="J65" s="10"/>
+      <c r="J65" s="11"/>
       <c r="K65">
         <f t="shared" si="5"/>
         <v>563</v>
       </c>
-      <c r="L65" s="10"/>
+      <c r="L65" s="11"/>
       <c r="M65">
         <f t="shared" si="6"/>
         <v>663</v>
       </c>
-      <c r="N65" s="25"/>
+      <c r="N65" s="26"/>
       <c r="O65" s="5">
         <f t="shared" si="7"/>
         <v>763</v>
@@ -10073,27 +10209,27 @@
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="10"/>
       <c r="G66">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
-      <c r="H66" s="9"/>
+      <c r="H66" s="10"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>464</v>
       </c>
-      <c r="J66" s="10"/>
+      <c r="J66" s="11"/>
       <c r="K66">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="L66" s="10"/>
+      <c r="L66" s="11"/>
       <c r="M66">
         <f t="shared" si="6"/>
         <v>664</v>
       </c>
-      <c r="N66" s="25"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="5">
         <f t="shared" si="7"/>
         <v>764</v>
@@ -10124,27 +10260,27 @@
         <f t="shared" si="2"/>
         <v>265</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="10"/>
       <c r="G67">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
-      <c r="H67" s="9"/>
+      <c r="H67" s="10"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>465</v>
       </c>
-      <c r="J67" s="10"/>
+      <c r="J67" s="11"/>
       <c r="K67">
         <f t="shared" si="5"/>
         <v>565</v>
       </c>
-      <c r="L67" s="10"/>
+      <c r="L67" s="11"/>
       <c r="M67">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
-      <c r="N67" s="26"/>
+      <c r="N67" s="27"/>
       <c r="O67" s="5">
         <f t="shared" si="7"/>
         <v>765</v>
@@ -10175,27 +10311,27 @@
         <f t="shared" ref="E68:E101" si="12">E67+1</f>
         <v>266</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="10"/>
       <c r="G68">
         <f t="shared" ref="G68:G101" si="13">G67+1</f>
         <v>366</v>
       </c>
-      <c r="H68" s="9"/>
+      <c r="H68" s="10"/>
       <c r="I68">
         <f t="shared" ref="I68:I101" si="14">I67+1</f>
         <v>466</v>
       </c>
-      <c r="J68" s="10"/>
+      <c r="J68" s="11"/>
       <c r="K68">
         <f t="shared" ref="K68:K101" si="15">K67+1</f>
         <v>566</v>
       </c>
-      <c r="L68" s="10"/>
+      <c r="L68" s="11"/>
       <c r="M68">
         <f t="shared" ref="M68:M101" si="16">M67+1</f>
         <v>666</v>
       </c>
-      <c r="N68" s="27" t="s">
+      <c r="N68" s="28" t="s">
         <v>81</v>
       </c>
       <c r="O68" s="5">
@@ -10217,7 +10353,7 @@
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C69">
@@ -10228,27 +10364,27 @@
         <f t="shared" si="12"/>
         <v>267</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="10"/>
       <c r="G69">
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
-      <c r="H69" s="9"/>
+      <c r="H69" s="10"/>
       <c r="I69">
         <f t="shared" si="14"/>
         <v>467</v>
       </c>
-      <c r="J69" s="10"/>
+      <c r="J69" s="11"/>
       <c r="K69">
         <f t="shared" si="15"/>
         <v>567</v>
       </c>
-      <c r="L69" s="10"/>
+      <c r="L69" s="11"/>
       <c r="M69">
         <f t="shared" si="16"/>
         <v>667</v>
       </c>
-      <c r="N69" s="28"/>
+      <c r="N69" s="29"/>
       <c r="O69" s="5">
         <f t="shared" si="17"/>
         <v>767</v>
@@ -10279,27 +10415,27 @@
         <f t="shared" si="12"/>
         <v>268</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="10"/>
       <c r="G70">
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
-      <c r="H70" s="9"/>
+      <c r="H70" s="10"/>
       <c r="I70">
         <f t="shared" si="14"/>
         <v>468</v>
       </c>
-      <c r="J70" s="10"/>
+      <c r="J70" s="11"/>
       <c r="K70">
         <f t="shared" si="15"/>
         <v>568</v>
       </c>
-      <c r="L70" s="10"/>
+      <c r="L70" s="11"/>
       <c r="M70">
         <f t="shared" si="16"/>
         <v>668</v>
       </c>
-      <c r="N70" s="28"/>
+      <c r="N70" s="29"/>
       <c r="O70" s="5">
         <f t="shared" si="17"/>
         <v>768</v>
@@ -10319,7 +10455,7 @@
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C71">
@@ -10330,27 +10466,27 @@
         <f t="shared" si="12"/>
         <v>269</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="10"/>
       <c r="G71">
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
-      <c r="H71" s="9"/>
+      <c r="H71" s="10"/>
       <c r="I71">
         <f t="shared" si="14"/>
         <v>469</v>
       </c>
-      <c r="J71" s="10"/>
+      <c r="J71" s="11"/>
       <c r="K71">
         <f t="shared" si="15"/>
         <v>569</v>
       </c>
-      <c r="L71" s="10"/>
+      <c r="L71" s="11"/>
       <c r="M71">
         <f t="shared" si="16"/>
         <v>669</v>
       </c>
-      <c r="N71" s="28"/>
+      <c r="N71" s="29"/>
       <c r="O71" s="5">
         <f t="shared" si="17"/>
         <v>769</v>
@@ -10370,7 +10506,7 @@
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="23"/>
       <c r="C72">
         <f t="shared" si="11"/>
         <v>170</v>
@@ -10379,27 +10515,27 @@
         <f t="shared" si="12"/>
         <v>270</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="10"/>
       <c r="G72">
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
-      <c r="H72" s="9"/>
+      <c r="H72" s="10"/>
       <c r="I72">
         <f t="shared" si="14"/>
         <v>470</v>
       </c>
-      <c r="J72" s="10"/>
+      <c r="J72" s="11"/>
       <c r="K72">
         <f t="shared" si="15"/>
         <v>570</v>
       </c>
-      <c r="L72" s="10"/>
+      <c r="L72" s="11"/>
       <c r="M72">
         <f t="shared" si="16"/>
         <v>670</v>
       </c>
-      <c r="N72" s="28"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="5">
         <f t="shared" si="17"/>
         <v>770</v>
@@ -10419,7 +10555,7 @@
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="B73" s="22"/>
+      <c r="B73" s="23"/>
       <c r="C73">
         <f t="shared" si="11"/>
         <v>171</v>
@@ -10428,27 +10564,27 @@
         <f t="shared" si="12"/>
         <v>271</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="10"/>
       <c r="G73">
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="H73" s="9"/>
+      <c r="H73" s="10"/>
       <c r="I73">
         <f t="shared" si="14"/>
         <v>471</v>
       </c>
-      <c r="J73" s="10"/>
+      <c r="J73" s="11"/>
       <c r="K73">
         <f t="shared" si="15"/>
         <v>571</v>
       </c>
-      <c r="L73" s="10"/>
+      <c r="L73" s="11"/>
       <c r="M73">
         <f t="shared" si="16"/>
         <v>671</v>
       </c>
-      <c r="N73" s="28"/>
+      <c r="N73" s="29"/>
       <c r="O73" s="5">
         <f t="shared" si="17"/>
         <v>771</v>
@@ -10468,7 +10604,7 @@
         <f t="shared" si="10"/>
         <v>72</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="24"/>
       <c r="C74">
         <f t="shared" si="11"/>
         <v>172</v>
@@ -10477,27 +10613,27 @@
         <f t="shared" si="12"/>
         <v>272</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="10"/>
       <c r="G74">
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
-      <c r="H74" s="9"/>
+      <c r="H74" s="10"/>
       <c r="I74">
         <f t="shared" si="14"/>
         <v>472</v>
       </c>
-      <c r="J74" s="10"/>
+      <c r="J74" s="11"/>
       <c r="K74">
         <f t="shared" si="15"/>
         <v>572</v>
       </c>
-      <c r="L74" s="10"/>
+      <c r="L74" s="11"/>
       <c r="M74">
         <f t="shared" si="16"/>
         <v>672</v>
       </c>
-      <c r="N74" s="28"/>
+      <c r="N74" s="29"/>
       <c r="O74" s="5">
         <f t="shared" si="17"/>
         <v>772</v>
@@ -10517,7 +10653,7 @@
         <f t="shared" si="10"/>
         <v>73</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C75">
@@ -10528,27 +10664,27 @@
         <f t="shared" si="12"/>
         <v>273</v>
       </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="10"/>
       <c r="G75">
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
-      <c r="H75" s="9"/>
+      <c r="H75" s="10"/>
       <c r="I75">
         <f t="shared" si="14"/>
         <v>473</v>
       </c>
-      <c r="J75" s="10"/>
+      <c r="J75" s="11"/>
       <c r="K75">
         <f t="shared" si="15"/>
         <v>573</v>
       </c>
-      <c r="L75" s="10"/>
+      <c r="L75" s="11"/>
       <c r="M75">
         <f t="shared" si="16"/>
         <v>673</v>
       </c>
-      <c r="N75" s="28"/>
+      <c r="N75" s="29"/>
       <c r="O75" s="5">
         <f t="shared" si="17"/>
         <v>773</v>
@@ -10568,7 +10704,7 @@
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="B76" s="22"/>
+      <c r="B76" s="23"/>
       <c r="C76">
         <f t="shared" si="11"/>
         <v>174</v>
@@ -10577,27 +10713,27 @@
         <f t="shared" si="12"/>
         <v>274</v>
       </c>
-      <c r="F76" s="9"/>
+      <c r="F76" s="10"/>
       <c r="G76">
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
-      <c r="H76" s="9"/>
+      <c r="H76" s="10"/>
       <c r="I76">
         <f t="shared" si="14"/>
         <v>474</v>
       </c>
-      <c r="J76" s="10"/>
+      <c r="J76" s="11"/>
       <c r="K76">
         <f t="shared" si="15"/>
         <v>574</v>
       </c>
-      <c r="L76" s="10"/>
+      <c r="L76" s="11"/>
       <c r="M76">
         <f t="shared" si="16"/>
         <v>674</v>
       </c>
-      <c r="N76" s="28"/>
+      <c r="N76" s="29"/>
       <c r="O76" s="5">
         <f t="shared" si="17"/>
         <v>774</v>
@@ -10617,7 +10753,7 @@
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="B77" s="22"/>
+      <c r="B77" s="23"/>
       <c r="C77">
         <f t="shared" si="11"/>
         <v>175</v>
@@ -10626,31 +10762,31 @@
         <f t="shared" si="12"/>
         <v>275</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G77">
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="9" t="s">
         <v>65</v>
       </c>
       <c r="I77">
         <f t="shared" si="14"/>
         <v>475</v>
       </c>
-      <c r="J77" s="10"/>
+      <c r="J77" s="11"/>
       <c r="K77">
         <f t="shared" si="15"/>
         <v>575</v>
       </c>
-      <c r="L77" s="10"/>
+      <c r="L77" s="11"/>
       <c r="M77">
         <f t="shared" si="16"/>
         <v>675</v>
       </c>
-      <c r="N77" s="28"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="5">
         <f t="shared" si="17"/>
         <v>775</v>
@@ -10670,7 +10806,7 @@
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="B78" s="23"/>
+      <c r="B78" s="24"/>
       <c r="C78">
         <f t="shared" si="11"/>
         <v>176</v>
@@ -10679,27 +10815,27 @@
         <f t="shared" si="12"/>
         <v>276</v>
       </c>
-      <c r="F78" s="9"/>
+      <c r="F78" s="10"/>
       <c r="G78">
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
-      <c r="H78" s="9"/>
+      <c r="H78" s="10"/>
       <c r="I78">
         <f t="shared" si="14"/>
         <v>476</v>
       </c>
-      <c r="J78" s="10"/>
+      <c r="J78" s="11"/>
       <c r="K78">
         <f t="shared" si="15"/>
         <v>576</v>
       </c>
-      <c r="L78" s="10"/>
+      <c r="L78" s="11"/>
       <c r="M78">
         <f t="shared" si="16"/>
         <v>676</v>
       </c>
-      <c r="N78" s="28"/>
+      <c r="N78" s="29"/>
       <c r="O78" s="5">
         <f t="shared" si="17"/>
         <v>776</v>
@@ -10719,7 +10855,7 @@
         <f t="shared" si="10"/>
         <v>77</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C79">
@@ -10730,27 +10866,27 @@
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="F79" s="9"/>
+      <c r="F79" s="10"/>
       <c r="G79">
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
-      <c r="H79" s="9"/>
+      <c r="H79" s="10"/>
       <c r="I79">
         <f t="shared" si="14"/>
         <v>477</v>
       </c>
-      <c r="J79" s="10"/>
+      <c r="J79" s="11"/>
       <c r="K79">
         <f t="shared" si="15"/>
         <v>577</v>
       </c>
-      <c r="L79" s="10"/>
+      <c r="L79" s="11"/>
       <c r="M79">
         <f t="shared" si="16"/>
         <v>677</v>
       </c>
-      <c r="N79" s="28"/>
+      <c r="N79" s="29"/>
       <c r="O79" s="5">
         <f t="shared" si="17"/>
         <v>777</v>
@@ -10770,7 +10906,7 @@
         <f t="shared" si="10"/>
         <v>78</v>
       </c>
-      <c r="B80" s="35"/>
+      <c r="B80" s="36"/>
       <c r="C80">
         <f t="shared" si="11"/>
         <v>178</v>
@@ -10779,27 +10915,27 @@
         <f t="shared" si="12"/>
         <v>278</v>
       </c>
-      <c r="F80" s="9"/>
+      <c r="F80" s="10"/>
       <c r="G80">
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
-      <c r="H80" s="9"/>
+      <c r="H80" s="10"/>
       <c r="I80">
         <f t="shared" si="14"/>
         <v>478</v>
       </c>
-      <c r="J80" s="10"/>
+      <c r="J80" s="11"/>
       <c r="K80">
         <f t="shared" si="15"/>
         <v>578</v>
       </c>
-      <c r="L80" s="10"/>
+      <c r="L80" s="11"/>
       <c r="M80">
         <f t="shared" si="16"/>
         <v>678</v>
       </c>
-      <c r="N80" s="28"/>
+      <c r="N80" s="29"/>
       <c r="O80" s="5">
         <f t="shared" si="17"/>
         <v>778</v>
@@ -10830,27 +10966,27 @@
         <f t="shared" si="12"/>
         <v>279</v>
       </c>
-      <c r="F81" s="9"/>
+      <c r="F81" s="10"/>
       <c r="G81">
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
-      <c r="H81" s="9"/>
+      <c r="H81" s="10"/>
       <c r="I81">
         <f t="shared" si="14"/>
         <v>479</v>
       </c>
-      <c r="J81" s="10"/>
+      <c r="J81" s="11"/>
       <c r="K81">
         <f t="shared" si="15"/>
         <v>579</v>
       </c>
-      <c r="L81" s="10"/>
+      <c r="L81" s="11"/>
       <c r="M81">
         <f t="shared" si="16"/>
         <v>679</v>
       </c>
-      <c r="N81" s="28"/>
+      <c r="N81" s="29"/>
       <c r="O81" s="5">
         <f t="shared" si="17"/>
         <v>779</v>
@@ -10881,27 +11017,27 @@
         <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="F82" s="9"/>
+      <c r="F82" s="10"/>
       <c r="G82">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="H82" s="9"/>
+      <c r="H82" s="10"/>
       <c r="I82">
         <f t="shared" si="14"/>
         <v>480</v>
       </c>
-      <c r="J82" s="10"/>
+      <c r="J82" s="11"/>
       <c r="K82">
         <f t="shared" si="15"/>
         <v>580</v>
       </c>
-      <c r="L82" s="10"/>
+      <c r="L82" s="11"/>
       <c r="M82">
         <f t="shared" si="16"/>
         <v>680</v>
       </c>
-      <c r="N82" s="28"/>
+      <c r="N82" s="29"/>
       <c r="O82" s="5">
         <f t="shared" si="17"/>
         <v>780</v>
@@ -10932,27 +11068,27 @@
         <f t="shared" si="12"/>
         <v>281</v>
       </c>
-      <c r="F83" s="9"/>
+      <c r="F83" s="10"/>
       <c r="G83">
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="10"/>
       <c r="I83">
         <f t="shared" si="14"/>
         <v>481</v>
       </c>
-      <c r="J83" s="10"/>
+      <c r="J83" s="11"/>
       <c r="K83">
         <f t="shared" si="15"/>
         <v>581</v>
       </c>
-      <c r="L83" s="10"/>
+      <c r="L83" s="11"/>
       <c r="M83">
         <f t="shared" si="16"/>
         <v>681</v>
       </c>
-      <c r="N83" s="28"/>
+      <c r="N83" s="29"/>
       <c r="O83" s="5">
         <f t="shared" si="17"/>
         <v>781</v>
@@ -10972,7 +11108,7 @@
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C84">
@@ -10983,27 +11119,27 @@
         <f t="shared" si="12"/>
         <v>282</v>
       </c>
-      <c r="F84" s="9"/>
+      <c r="F84" s="10"/>
       <c r="G84">
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
-      <c r="H84" s="9"/>
+      <c r="H84" s="10"/>
       <c r="I84">
         <f t="shared" si="14"/>
         <v>482</v>
       </c>
-      <c r="J84" s="10"/>
+      <c r="J84" s="11"/>
       <c r="K84">
         <f t="shared" si="15"/>
         <v>582</v>
       </c>
-      <c r="L84" s="10"/>
+      <c r="L84" s="11"/>
       <c r="M84">
         <f t="shared" si="16"/>
         <v>682</v>
       </c>
-      <c r="N84" s="28"/>
+      <c r="N84" s="29"/>
       <c r="O84" s="5">
         <f t="shared" si="17"/>
         <v>782</v>
@@ -11023,7 +11159,7 @@
         <f t="shared" si="10"/>
         <v>83</v>
       </c>
-      <c r="B85" s="33"/>
+      <c r="B85" s="34"/>
       <c r="C85">
         <f t="shared" si="11"/>
         <v>183</v>
@@ -11032,27 +11168,27 @@
         <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="F85" s="9"/>
+      <c r="F85" s="10"/>
       <c r="G85">
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
-      <c r="H85" s="9"/>
+      <c r="H85" s="10"/>
       <c r="I85">
         <f t="shared" si="14"/>
         <v>483</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="11"/>
       <c r="K85">
         <f t="shared" si="15"/>
         <v>583</v>
       </c>
-      <c r="L85" s="10"/>
+      <c r="L85" s="11"/>
       <c r="M85">
         <f t="shared" si="16"/>
         <v>683</v>
       </c>
-      <c r="N85" s="28"/>
+      <c r="N85" s="29"/>
       <c r="O85" s="5">
         <f t="shared" si="17"/>
         <v>783</v>
@@ -11072,7 +11208,7 @@
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="B86" s="33"/>
+      <c r="B86" s="34"/>
       <c r="C86">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -11081,27 +11217,27 @@
         <f t="shared" si="12"/>
         <v>284</v>
       </c>
-      <c r="F86" s="9"/>
+      <c r="F86" s="10"/>
       <c r="G86">
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
-      <c r="H86" s="9"/>
+      <c r="H86" s="10"/>
       <c r="I86">
         <f t="shared" si="14"/>
         <v>484</v>
       </c>
-      <c r="J86" s="10"/>
+      <c r="J86" s="11"/>
       <c r="K86">
         <f t="shared" si="15"/>
         <v>584</v>
       </c>
-      <c r="L86" s="10"/>
+      <c r="L86" s="11"/>
       <c r="M86">
         <f t="shared" si="16"/>
         <v>684</v>
       </c>
-      <c r="N86" s="28"/>
+      <c r="N86" s="29"/>
       <c r="O86" s="5">
         <f t="shared" si="17"/>
         <v>784</v>
@@ -11121,7 +11257,7 @@
         <f t="shared" si="10"/>
         <v>85</v>
       </c>
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -11130,27 +11266,27 @@
         <f t="shared" si="12"/>
         <v>285</v>
       </c>
-      <c r="F87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87">
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
-      <c r="H87" s="9"/>
+      <c r="H87" s="10"/>
       <c r="I87">
         <f t="shared" si="14"/>
         <v>485</v>
       </c>
-      <c r="J87" s="10"/>
+      <c r="J87" s="11"/>
       <c r="K87">
         <f t="shared" si="15"/>
         <v>585</v>
       </c>
-      <c r="L87" s="10"/>
+      <c r="L87" s="11"/>
       <c r="M87">
         <f t="shared" si="16"/>
         <v>685</v>
       </c>
-      <c r="N87" s="28"/>
+      <c r="N87" s="29"/>
       <c r="O87" s="5">
         <f t="shared" si="17"/>
         <v>785</v>
@@ -11170,7 +11306,7 @@
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C88">
@@ -11181,27 +11317,27 @@
         <f t="shared" si="12"/>
         <v>286</v>
       </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="10"/>
       <c r="G88">
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
-      <c r="H88" s="9"/>
+      <c r="H88" s="10"/>
       <c r="I88">
         <f t="shared" si="14"/>
         <v>486</v>
       </c>
-      <c r="J88" s="10"/>
+      <c r="J88" s="11"/>
       <c r="K88">
         <f t="shared" si="15"/>
         <v>586</v>
       </c>
-      <c r="L88" s="10"/>
+      <c r="L88" s="11"/>
       <c r="M88">
         <f t="shared" si="16"/>
         <v>686</v>
       </c>
-      <c r="N88" s="28"/>
+      <c r="N88" s="29"/>
       <c r="O88" s="5">
         <f t="shared" si="17"/>
         <v>786</v>
@@ -11221,7 +11357,7 @@
         <f t="shared" si="10"/>
         <v>87</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="33"/>
       <c r="C89">
         <f t="shared" si="11"/>
         <v>187</v>
@@ -11230,27 +11366,27 @@
         <f t="shared" si="12"/>
         <v>287</v>
       </c>
-      <c r="F89" s="9"/>
+      <c r="F89" s="10"/>
       <c r="G89">
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
-      <c r="H89" s="9"/>
+      <c r="H89" s="10"/>
       <c r="I89">
         <f t="shared" si="14"/>
         <v>487</v>
       </c>
-      <c r="J89" s="10"/>
+      <c r="J89" s="11"/>
       <c r="K89">
         <f t="shared" si="15"/>
         <v>587</v>
       </c>
-      <c r="L89" s="10"/>
+      <c r="L89" s="11"/>
       <c r="M89">
         <f t="shared" si="16"/>
         <v>687</v>
       </c>
-      <c r="N89" s="28"/>
+      <c r="N89" s="29"/>
       <c r="O89" s="5">
         <f t="shared" si="17"/>
         <v>787</v>
@@ -11270,7 +11406,7 @@
         <f t="shared" si="10"/>
         <v>88</v>
       </c>
-      <c r="B90" s="32"/>
+      <c r="B90" s="33"/>
       <c r="C90">
         <f t="shared" si="11"/>
         <v>188</v>
@@ -11279,27 +11415,27 @@
         <f t="shared" si="12"/>
         <v>288</v>
       </c>
-      <c r="F90" s="9"/>
+      <c r="F90" s="10"/>
       <c r="G90">
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
-      <c r="H90" s="9"/>
+      <c r="H90" s="10"/>
       <c r="I90">
         <f t="shared" si="14"/>
         <v>488</v>
       </c>
-      <c r="J90" s="10"/>
+      <c r="J90" s="11"/>
       <c r="K90">
         <f t="shared" si="15"/>
         <v>588</v>
       </c>
-      <c r="L90" s="10"/>
+      <c r="L90" s="11"/>
       <c r="M90">
         <f t="shared" si="16"/>
         <v>688</v>
       </c>
-      <c r="N90" s="28"/>
+      <c r="N90" s="29"/>
       <c r="O90" s="5">
         <f t="shared" si="17"/>
         <v>788</v>
@@ -11319,7 +11455,7 @@
         <f t="shared" si="10"/>
         <v>89</v>
       </c>
-      <c r="B91" s="32"/>
+      <c r="B91" s="33"/>
       <c r="C91">
         <f t="shared" si="11"/>
         <v>189</v>
@@ -11328,27 +11464,27 @@
         <f t="shared" si="12"/>
         <v>289</v>
       </c>
-      <c r="F91" s="9"/>
+      <c r="F91" s="10"/>
       <c r="G91">
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
-      <c r="H91" s="9"/>
+      <c r="H91" s="10"/>
       <c r="I91">
         <f t="shared" si="14"/>
         <v>489</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="11"/>
       <c r="K91">
         <f t="shared" si="15"/>
         <v>589</v>
       </c>
-      <c r="L91" s="10"/>
+      <c r="L91" s="11"/>
       <c r="M91">
         <f t="shared" si="16"/>
         <v>689</v>
       </c>
-      <c r="N91" s="28"/>
+      <c r="N91" s="29"/>
       <c r="O91" s="5">
         <f t="shared" si="17"/>
         <v>789</v>
@@ -11368,7 +11504,7 @@
         <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C92">
@@ -11379,27 +11515,27 @@
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="F92" s="9"/>
+      <c r="F92" s="10"/>
       <c r="G92">
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
-      <c r="H92" s="9"/>
+      <c r="H92" s="10"/>
       <c r="I92">
         <f t="shared" si="14"/>
         <v>490</v>
       </c>
-      <c r="J92" s="10"/>
+      <c r="J92" s="11"/>
       <c r="K92">
         <f t="shared" si="15"/>
         <v>590</v>
       </c>
-      <c r="L92" s="10"/>
+      <c r="L92" s="11"/>
       <c r="M92">
         <f t="shared" si="16"/>
         <v>690</v>
       </c>
-      <c r="N92" s="29"/>
+      <c r="N92" s="30"/>
       <c r="O92" s="5">
         <f t="shared" si="17"/>
         <v>790</v>
@@ -11419,7 +11555,7 @@
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="B93" s="32"/>
+      <c r="B93" s="33"/>
       <c r="C93">
         <f t="shared" si="11"/>
         <v>191</v>
@@ -11428,27 +11564,27 @@
         <f t="shared" si="12"/>
         <v>291</v>
       </c>
-      <c r="F93" s="9"/>
+      <c r="F93" s="10"/>
       <c r="G93">
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
-      <c r="H93" s="9"/>
+      <c r="H93" s="10"/>
       <c r="I93">
         <f t="shared" si="14"/>
         <v>491</v>
       </c>
-      <c r="J93" s="10"/>
+      <c r="J93" s="11"/>
       <c r="K93">
         <f t="shared" si="15"/>
         <v>591</v>
       </c>
-      <c r="L93" s="10"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="7">
         <f t="shared" si="16"/>
         <v>691</v>
       </c>
-      <c r="N93" s="27"/>
+      <c r="N93" s="28"/>
       <c r="O93" s="5">
         <f t="shared" si="17"/>
         <v>791</v>
@@ -11468,7 +11604,7 @@
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="B94" s="32"/>
+      <c r="B94" s="33"/>
       <c r="C94">
         <f t="shared" si="11"/>
         <v>192</v>
@@ -11477,27 +11613,27 @@
         <f t="shared" si="12"/>
         <v>292</v>
       </c>
-      <c r="F94" s="9"/>
+      <c r="F94" s="10"/>
       <c r="G94">
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
-      <c r="H94" s="9"/>
+      <c r="H94" s="10"/>
       <c r="I94">
         <f t="shared" si="14"/>
         <v>492</v>
       </c>
-      <c r="J94" s="10"/>
+      <c r="J94" s="11"/>
       <c r="K94">
         <f t="shared" si="15"/>
         <v>592</v>
       </c>
-      <c r="L94" s="10"/>
+      <c r="L94" s="11"/>
       <c r="M94" s="7">
         <f t="shared" si="16"/>
         <v>692</v>
       </c>
-      <c r="N94" s="30"/>
+      <c r="N94" s="31"/>
       <c r="O94" s="5">
         <f t="shared" si="17"/>
         <v>792</v>
@@ -11517,7 +11653,7 @@
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="B95" s="32"/>
+      <c r="B95" s="33"/>
       <c r="C95">
         <f t="shared" si="11"/>
         <v>193</v>
@@ -11526,27 +11662,27 @@
         <f t="shared" si="12"/>
         <v>293</v>
       </c>
-      <c r="F95" s="9"/>
+      <c r="F95" s="10"/>
       <c r="G95">
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
-      <c r="H95" s="9"/>
+      <c r="H95" s="10"/>
       <c r="I95">
         <f t="shared" si="14"/>
         <v>493</v>
       </c>
-      <c r="J95" s="10"/>
+      <c r="J95" s="11"/>
       <c r="K95">
         <f t="shared" si="15"/>
         <v>593</v>
       </c>
-      <c r="L95" s="10"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="7">
         <f t="shared" si="16"/>
         <v>693</v>
       </c>
-      <c r="N95" s="30"/>
+      <c r="N95" s="31"/>
       <c r="O95" s="5">
         <f t="shared" si="17"/>
         <v>793</v>
@@ -11577,27 +11713,27 @@
         <f t="shared" si="12"/>
         <v>294</v>
       </c>
-      <c r="F96" s="9"/>
+      <c r="F96" s="10"/>
       <c r="G96">
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
-      <c r="H96" s="9"/>
+      <c r="H96" s="10"/>
       <c r="I96">
         <f t="shared" si="14"/>
         <v>494</v>
       </c>
-      <c r="J96" s="10"/>
+      <c r="J96" s="11"/>
       <c r="K96">
         <f t="shared" si="15"/>
         <v>594</v>
       </c>
-      <c r="L96" s="10"/>
+      <c r="L96" s="11"/>
       <c r="M96" s="7">
         <f t="shared" si="16"/>
         <v>694</v>
       </c>
-      <c r="N96" s="30"/>
+      <c r="N96" s="31"/>
       <c r="O96" s="5">
         <f t="shared" si="17"/>
         <v>794</v>
@@ -11628,27 +11764,27 @@
         <f t="shared" si="12"/>
         <v>295</v>
       </c>
-      <c r="F97" s="9"/>
+      <c r="F97" s="10"/>
       <c r="G97">
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
-      <c r="H97" s="9"/>
+      <c r="H97" s="10"/>
       <c r="I97">
         <f t="shared" si="14"/>
         <v>495</v>
       </c>
-      <c r="J97" s="10"/>
+      <c r="J97" s="11"/>
       <c r="K97">
         <f t="shared" si="15"/>
         <v>595</v>
       </c>
-      <c r="L97" s="10"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="7">
         <f t="shared" si="16"/>
         <v>695</v>
       </c>
-      <c r="N97" s="30"/>
+      <c r="N97" s="31"/>
       <c r="O97" s="5">
         <f t="shared" si="17"/>
         <v>795</v>
@@ -11668,7 +11804,7 @@
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C98">
@@ -11679,27 +11815,27 @@
         <f t="shared" si="12"/>
         <v>296</v>
       </c>
-      <c r="F98" s="9"/>
+      <c r="F98" s="10"/>
       <c r="G98">
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
-      <c r="H98" s="9"/>
+      <c r="H98" s="10"/>
       <c r="I98">
         <f t="shared" si="14"/>
         <v>496</v>
       </c>
-      <c r="J98" s="10"/>
+      <c r="J98" s="11"/>
       <c r="K98">
         <f t="shared" si="15"/>
         <v>596</v>
       </c>
-      <c r="L98" s="10"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="7">
         <f t="shared" si="16"/>
         <v>696</v>
       </c>
-      <c r="N98" s="30"/>
+      <c r="N98" s="31"/>
       <c r="O98" s="5">
         <f t="shared" si="17"/>
         <v>796</v>
@@ -11719,7 +11855,7 @@
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="B99" s="18"/>
+      <c r="B99" s="19"/>
       <c r="C99">
         <f t="shared" si="11"/>
         <v>197</v>
@@ -11728,27 +11864,27 @@
         <f t="shared" si="12"/>
         <v>297</v>
       </c>
-      <c r="F99" s="9"/>
+      <c r="F99" s="10"/>
       <c r="G99">
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="10"/>
       <c r="I99">
         <f t="shared" si="14"/>
         <v>497</v>
       </c>
-      <c r="J99" s="10"/>
+      <c r="J99" s="11"/>
       <c r="K99">
         <f t="shared" si="15"/>
         <v>597</v>
       </c>
-      <c r="L99" s="10"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="7">
         <f t="shared" si="16"/>
         <v>697</v>
       </c>
-      <c r="N99" s="30"/>
+      <c r="N99" s="31"/>
       <c r="O99" s="5">
         <f t="shared" si="17"/>
         <v>797</v>
@@ -11768,7 +11904,7 @@
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="B100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100">
         <f t="shared" si="11"/>
         <v>198</v>
@@ -11777,27 +11913,27 @@
         <f t="shared" si="12"/>
         <v>298</v>
       </c>
-      <c r="F100" s="9"/>
+      <c r="F100" s="10"/>
       <c r="G100">
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
-      <c r="H100" s="9"/>
+      <c r="H100" s="10"/>
       <c r="I100">
         <f t="shared" si="14"/>
         <v>498</v>
       </c>
-      <c r="J100" s="10"/>
+      <c r="J100" s="11"/>
       <c r="K100">
         <f t="shared" si="15"/>
         <v>598</v>
       </c>
-      <c r="L100" s="10"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="7">
         <f t="shared" si="16"/>
         <v>698</v>
       </c>
-      <c r="N100" s="30"/>
+      <c r="N100" s="31"/>
       <c r="O100" s="5">
         <f t="shared" si="17"/>
         <v>798</v>
@@ -11817,7 +11953,7 @@
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="C101">
         <f t="shared" si="11"/>
         <v>199</v>
@@ -11826,27 +11962,27 @@
         <f t="shared" si="12"/>
         <v>299</v>
       </c>
-      <c r="F101" s="9"/>
+      <c r="F101" s="10"/>
       <c r="G101">
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
-      <c r="H101" s="9"/>
+      <c r="H101" s="10"/>
       <c r="I101">
         <f t="shared" si="14"/>
         <v>499</v>
       </c>
-      <c r="J101" s="10"/>
+      <c r="J101" s="11"/>
       <c r="K101">
         <f t="shared" si="15"/>
         <v>599</v>
       </c>
-      <c r="L101" s="10"/>
+      <c r="L101" s="11"/>
       <c r="M101" s="7">
         <f t="shared" si="16"/>
         <v>699</v>
       </c>
-      <c r="N101" s="30"/>
+      <c r="N101" s="31"/>
       <c r="O101" s="5">
         <f t="shared" si="17"/>
         <v>799</v>
@@ -12043,26 +12179,26 @@
       <c r="J161" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="P2:P17"/>
+  <mergeCells count="42">
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="N93:N101"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="F2:F26"/>
+    <mergeCell ref="H2:H26"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
     <mergeCell ref="B7:B45"/>
     <mergeCell ref="B71:B74"/>
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="N18:N67"/>
-    <mergeCell ref="P18:P33"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="F27:F51"/>
-    <mergeCell ref="H27:H51"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="F2:F26"/>
-    <mergeCell ref="H2:H26"/>
     <mergeCell ref="J2:J26"/>
     <mergeCell ref="L2:L51"/>
     <mergeCell ref="N2:N17"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="P36:P46"/>
-    <mergeCell ref="B98:B101"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="P47:P57"/>
     <mergeCell ref="D6:D9"/>
@@ -12070,23 +12206,25 @@
     <mergeCell ref="H52:H76"/>
     <mergeCell ref="J52:J101"/>
     <mergeCell ref="J27:J51"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="P2:P17"/>
+    <mergeCell ref="P18:P33"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="P36:P46"/>
+    <mergeCell ref="N68:N92"/>
+    <mergeCell ref="F27:F51"/>
+    <mergeCell ref="H27:H51"/>
+    <mergeCell ref="L52:L101"/>
+    <mergeCell ref="F77:F101"/>
+    <mergeCell ref="H77:H101"/>
+    <mergeCell ref="B98:B101"/>
     <mergeCell ref="B88:B91"/>
     <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="N93:N101"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="L52:L101"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="N68:N92"/>
-    <mergeCell ref="F77:F101"/>
-    <mergeCell ref="H77:H101"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B84:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12103,7 +12241,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
